--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>52.96</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.6000000000000085</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>52.98</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.6000000000000085</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>53.00000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.7000000000000099</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L15" t="n">
         <v>53.03000000000002</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>42.85714285714228</v>
+      </c>
       <c r="L16" t="n">
         <v>53.08000000000002</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.11111111111129</v>
+      </c>
       <c r="L17" t="n">
         <v>53.09000000000002</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.200000000000003</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>11.11111111111129</v>
+      </c>
       <c r="L18" t="n">
         <v>53.09000000000002</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.500000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-16.66666666666686</v>
+      </c>
       <c r="L19" t="n">
         <v>53.07000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.600000000000009</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>53.06000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.70000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-7.692307692307776</v>
+      </c>
       <c r="L21" t="n">
         <v>53.05000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.900000000000013</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>39.13043478260856</v>
+      </c>
       <c r="L22" t="n">
         <v>53.16000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.800000000000011</v>
       </c>
       <c r="K23" t="n">
-        <v>62.49999999999986</v>
+        <v>66.66666666666656</v>
       </c>
       <c r="L23" t="n">
         <v>53.44000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>5.70000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>36.84210526315785</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L24" t="n">
         <v>53.63000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>5.70000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>36.84210526315785</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>53.81</v>
@@ -1564,7 +1586,7 @@
         <v>6.900000000000013</v>
       </c>
       <c r="K26" t="n">
-        <v>13.04347826086952</v>
+        <v>10.34482758620678</v>
       </c>
       <c r="L26" t="n">
         <v>53.85</v>
@@ -1613,7 +1635,7 @@
         <v>7.500000000000014</v>
       </c>
       <c r="K27" t="n">
-        <v>17.80821917808212</v>
+        <v>20.63492063492055</v>
       </c>
       <c r="L27" t="n">
         <v>53.96999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>7.600000000000016</v>
       </c>
       <c r="K28" t="n">
-        <v>16.21621621621613</v>
+        <v>24.5901639344262</v>
       </c>
       <c r="L28" t="n">
         <v>54.08999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>7.900000000000013</v>
       </c>
       <c r="K29" t="n">
-        <v>13.15789473684209</v>
+        <v>17.46031746031747</v>
       </c>
       <c r="L29" t="n">
         <v>54.20999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571428</v>
+        <v>20.63492063492069</v>
       </c>
       <c r="L30" t="n">
         <v>54.33</v>
@@ -1809,7 +1831,7 @@
         <v>8.300000000000011</v>
       </c>
       <c r="K31" t="n">
-        <v>18.98734177215189</v>
+        <v>7.407407407407383</v>
       </c>
       <c r="L31" t="n">
         <v>54.48999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>8.300000000000011</v>
       </c>
       <c r="K32" t="n">
-        <v>18.98734177215189</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L32" t="n">
         <v>54.52999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>8.300000000000011</v>
       </c>
       <c r="K33" t="n">
-        <v>16.88311688311684</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L33" t="n">
         <v>54.38</v>
@@ -1962,7 +1984,7 @@
         <v>8.400000000000013</v>
       </c>
       <c r="K34" t="n">
-        <v>15.38461538461532</v>
+        <v>-25.925925925926</v>
       </c>
       <c r="L34" t="n">
         <v>54.30999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>9.999999999999964</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L35" t="n">
         <v>54.20999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>9.20000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>1.20481927710845</v>
+        <v>-52.94117647058828</v>
       </c>
       <c r="L36" t="n">
         <v>54.17999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>25.71428571428565</v>
+        <v>40.00000000000011</v>
       </c>
       <c r="L37" t="n">
         <v>54.33</v>
@@ -2166,7 +2188,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>6.45161290322578</v>
+        <v>-1.754385964912307</v>
       </c>
       <c r="L38" t="n">
         <v>54.29</v>
@@ -2217,7 +2239,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>9.836065573770512</v>
+        <v>-1.754385964912307</v>
       </c>
       <c r="L39" t="n">
         <v>54.29</v>
@@ -2268,7 +2290,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>9.836065573770512</v>
+        <v>-5.454545454545403</v>
       </c>
       <c r="L40" t="n">
         <v>54.29</v>
@@ -2319,7 +2341,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>12.19512195121951</v>
+        <v>-1.754385964912307</v>
       </c>
       <c r="L41" t="n">
         <v>54.27999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>14.3</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-6.666666666666651</v>
       </c>
       <c r="L42" t="n">
         <v>54.23999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>14.3</v>
       </c>
       <c r="K43" t="n">
-        <v>-20</v>
+        <v>-5.084745762711824</v>
       </c>
       <c r="L43" t="n">
         <v>54.2</v>
@@ -2472,7 +2494,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-12.64367816091956</v>
+        <v>-1.754385964912307</v>
       </c>
       <c r="L44" t="n">
         <v>54.16</v>
@@ -2523,7 +2545,7 @@
         <v>14.8</v>
       </c>
       <c r="K45" t="n">
-        <v>-16.4835164835165</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>54.11</v>
@@ -2574,7 +2596,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-4.999999999999987</v>
+        <v>-75.75757575757582</v>
       </c>
       <c r="L46" t="n">
         <v>54.1</v>
@@ -2625,7 +2647,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-10.52631578947365</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L47" t="n">
         <v>53.87</v>
@@ -2676,7 +2698,7 @@
         <v>15.30000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.68831168831168</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L48" t="n">
         <v>53.82000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.333333333333371</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L49" t="n">
         <v>53.75</v>
@@ -2778,7 +2800,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-10.81081081081087</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L50" t="n">
         <v>53.66999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>-15.49295774647889</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L51" t="n">
         <v>53.56999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>15.80000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>-20</v>
+        <v>-73.33333333333309</v>
       </c>
       <c r="L52" t="n">
         <v>53.45999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.5</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L53" t="n">
         <v>53.39999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>16.80000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-16.66666666666665</v>
+        <v>-29.99999999999996</v>
       </c>
       <c r="L54" t="n">
         <v>53.29999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>17.10000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.523809523809483</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L55" t="n">
         <v>53.27</v>
@@ -3084,7 +3106,7 @@
         <v>17.20000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.500000000000036</v>
+        <v>-14.28571428571448</v>
       </c>
       <c r="L56" t="n">
         <v>53.25999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>17.40000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-48.27586206896549</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L57" t="n">
         <v>53.20999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>17.8</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.523809523809499</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L58" t="n">
         <v>53.21999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>17.8</v>
       </c>
       <c r="K59" t="n">
-        <v>-12.19512195121953</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L59" t="n">
         <v>53.23999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>17.8</v>
       </c>
       <c r="K60" t="n">
-        <v>-15.00000000000006</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L60" t="n">
         <v>53.26000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>17.8</v>
       </c>
       <c r="K61" t="n">
-        <v>-21.05263157894731</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="L61" t="n">
         <v>53.28000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>17.8</v>
       </c>
       <c r="K62" t="n">
-        <v>-14.28571428571428</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L62" t="n">
         <v>53.34000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>17.8</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571428</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L63" t="n">
         <v>53.35000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>18.2</v>
       </c>
       <c r="K64" t="n">
-        <v>-21.05263157894731</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L64" t="n">
         <v>53.37000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>18.2</v>
       </c>
       <c r="K65" t="n">
-        <v>-11.7647058823529</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L65" t="n">
         <v>53.36000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>18.2</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>53.34000000000002</v>
@@ -3645,7 +3667,7 @@
         <v>18.5</v>
       </c>
       <c r="K67" t="n">
-        <v>-5.882352941176569</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L67" t="n">
         <v>53.37000000000002</v>
@@ -3696,7 +3718,7 @@
         <v>18.7</v>
       </c>
       <c r="K68" t="n">
-        <v>-5.882352941176372</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>53.34000000000002</v>
@@ -3747,7 +3769,7 @@
         <v>18.7</v>
       </c>
       <c r="K69" t="n">
-        <v>-3.030303030302874</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>53.31000000000002</v>
@@ -3798,7 +3820,7 @@
         <v>18.79999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L70" t="n">
         <v>53.29000000000002</v>
@@ -3849,7 +3871,7 @@
         <v>18.89999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>2.857142857142915</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L71" t="n">
         <v>53.28000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>18.99999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>12.50000000000003</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L72" t="n">
         <v>53.26000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>19.09999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>53.25000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>3.703703703703782</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L74" t="n">
         <v>53.24000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>19.99999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>10.34482758620688</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L75" t="n">
         <v>53.28000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>19.99999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>7.142857142857288</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L76" t="n">
         <v>53.32000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>20.49999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>29.0322580645162</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L77" t="n">
         <v>53.38000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>21.42857142857155</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L78" t="n">
         <v>53.47000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>21.42857142857155</v>
+        <v>44.44444444444458</v>
       </c>
       <c r="L79" t="n">
         <v>53.56</v>
@@ -4308,7 +4330,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>21.42857142857155</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L80" t="n">
         <v>53.64000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>21.42857142857155</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L81" t="n">
         <v>53.71000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>21.42857142857155</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L82" t="n">
         <v>53.79000000000002</v>
@@ -4461,7 +4483,7 @@
         <v>20.7</v>
       </c>
       <c r="K83" t="n">
-        <v>17.24137931034488</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L83" t="n">
         <v>53.85000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>20.7</v>
       </c>
       <c r="K84" t="n">
-        <v>36.00000000000004</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L84" t="n">
         <v>53.95000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>21.09999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>44.82758620689658</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L85" t="n">
         <v>54.04000000000002</v>
@@ -4614,7 +4636,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>27.27272727272731</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>54.09000000000002</v>
@@ -4665,7 +4687,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>20.0000000000001</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L87" t="n">
         <v>54.09000000000002</v>
@@ -4716,7 +4738,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>28.5714285714285</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L88" t="n">
         <v>54.08000000000002</v>
@@ -4767,7 +4789,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>28.5714285714285</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L89" t="n">
         <v>54.07000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>25.925925925926</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L90" t="n">
         <v>54.06000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>23.07692307692312</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L91" t="n">
         <v>54.05000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>21.49999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>28.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>54.04000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>21.59999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>20</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L93" t="n">
         <v>54.03000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>21.59999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>42.85714285714276</v>
+        <v>-100</v>
       </c>
       <c r="L94" t="n">
         <v>54.02</v>
@@ -5073,7 +5095,7 @@
         <v>21.7</v>
       </c>
       <c r="K95" t="n">
-        <v>29.41176470588231</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>53.98</v>
@@ -5124,7 +5146,7 @@
         <v>21.7</v>
       </c>
       <c r="K96" t="n">
-        <v>29.41176470588231</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>53.98</v>
@@ -5226,7 +5248,7 @@
         <v>21.8</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>53.99000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>22</v>
       </c>
       <c r="K99" t="n">
-        <v>-14.28571428571443</v>
+        <v>-20</v>
       </c>
       <c r="L99" t="n">
         <v>53.98</v>
@@ -5328,7 +5350,7 @@
         <v>22.2</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L100" t="n">
         <v>53.99000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>22.2</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L101" t="n">
         <v>54.00000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>22.3</v>
       </c>
       <c r="K102" t="n">
-        <v>5.88235294117652</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L102" t="n">
         <v>54.02000000000002</v>
@@ -5481,7 +5503,7 @@
         <v>22.40000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>5.88235294117652</v>
+        <v>25</v>
       </c>
       <c r="L103" t="n">
         <v>54.04000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>22.40000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>5.88235294117652</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L104" t="n">
         <v>54.06000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>22.60000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-33.33333333333302</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L105" t="n">
         <v>54.05000000000003</v>
@@ -5634,7 +5656,7 @@
         <v>22.70000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L106" t="n">
         <v>54.03000000000002</v>
@@ -5685,7 +5707,7 @@
         <v>22.90000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L107" t="n">
         <v>54.03000000000002</v>
@@ -5736,7 +5758,7 @@
         <v>23.00000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L108" t="n">
         <v>54.03000000000002</v>
@@ -5787,7 +5809,7 @@
         <v>23.30000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.11111111111111</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L109" t="n">
         <v>54.02000000000002</v>
@@ -5838,7 +5860,7 @@
         <v>23.40000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-15.78947368421021</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L110" t="n">
         <v>53.98000000000002</v>
@@ -5889,7 +5911,7 @@
         <v>23.40000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-15.78947368421021</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L111" t="n">
         <v>53.94000000000002</v>
@@ -5940,7 +5962,7 @@
         <v>23.40000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-15.78947368421021</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L112" t="n">
         <v>53.89000000000002</v>
@@ -5991,7 +6013,7 @@
         <v>23.40000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>-11.11111111111076</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L113" t="n">
         <v>53.85000000000002</v>
@@ -6042,7 +6064,7 @@
         <v>23.50000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-15.78947368421021</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L114" t="n">
         <v>53.80000000000003</v>
@@ -6093,7 +6115,7 @@
         <v>23.70000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-10.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>53.79000000000002</v>
@@ -6144,7 +6166,7 @@
         <v>23.70000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-10.00000000000007</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L116" t="n">
         <v>53.79000000000002</v>
@@ -6195,7 +6217,7 @@
         <v>24.00000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>4.347826086956549</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>53.80000000000003</v>
@@ -6246,7 +6268,7 @@
         <v>24.50000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>18.5185185185184</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L118" t="n">
         <v>53.85000000000002</v>
@@ -6297,7 +6319,7 @@
         <v>24.60000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>30.76923076923075</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L119" t="n">
         <v>53.94000000000003</v>
@@ -6348,7 +6370,7 @@
         <v>24.70000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>27.99999999999975</v>
+        <v>84.61538461538436</v>
       </c>
       <c r="L120" t="n">
         <v>54.05000000000003</v>
@@ -6399,7 +6421,7 @@
         <v>24.8</v>
       </c>
       <c r="K121" t="n">
-        <v>23.07692307692312</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L121" t="n">
         <v>54.15000000000002</v>
@@ -6450,7 +6472,7 @@
         <v>25</v>
       </c>
       <c r="K122" t="n">
-        <v>25.92592592592581</v>
+        <v>75.00000000000033</v>
       </c>
       <c r="L122" t="n">
         <v>54.27000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>25.1</v>
       </c>
       <c r="K123" t="n">
-        <v>33.33333333333333</v>
+        <v>87.50000000000061</v>
       </c>
       <c r="L123" t="n">
         <v>54.40000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>25.6</v>
       </c>
       <c r="K124" t="n">
-        <v>12.49999999999997</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L124" t="n">
         <v>54.49000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>25.7</v>
       </c>
       <c r="K125" t="n">
-        <v>22.58064516129046</v>
+        <v>40.00000000000036</v>
       </c>
       <c r="L125" t="n">
         <v>54.57000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>25.7</v>
       </c>
       <c r="K126" t="n">
-        <v>26.66666666666687</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L126" t="n">
         <v>54.65000000000002</v>
@@ -6705,7 +6727,7 @@
         <v>25.7</v>
       </c>
       <c r="K127" t="n">
-        <v>21.42857142857155</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>54.70000000000002</v>
@@ -6756,7 +6778,7 @@
         <v>25.7</v>
       </c>
       <c r="K128" t="n">
-        <v>18.51851851851859</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L128" t="n">
         <v>54.70000000000002</v>
@@ -6807,7 +6829,7 @@
         <v>25.8</v>
       </c>
       <c r="K129" t="n">
-        <v>28.00000000000027</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L129" t="n">
         <v>54.68000000000002</v>
@@ -6858,7 +6880,7 @@
         <v>25.8</v>
       </c>
       <c r="K130" t="n">
-        <v>33.33333333333333</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L130" t="n">
         <v>54.65000000000002</v>
@@ -6909,7 +6931,7 @@
         <v>25.8</v>
       </c>
       <c r="K131" t="n">
-        <v>33.33333333333333</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L131" t="n">
         <v>54.63000000000002</v>
@@ -6960,7 +6982,7 @@
         <v>25.8</v>
       </c>
       <c r="K132" t="n">
-        <v>33.33333333333333</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L132" t="n">
         <v>54.59000000000002</v>
@@ -7011,7 +7033,7 @@
         <v>25.8</v>
       </c>
       <c r="K133" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>54.54000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>25.8</v>
       </c>
       <c r="K134" t="n">
-        <v>39.1304347826088</v>
+        <v>-100</v>
       </c>
       <c r="L134" t="n">
         <v>54.54000000000002</v>
@@ -7113,7 +7135,7 @@
         <v>25.8</v>
       </c>
       <c r="K135" t="n">
-        <v>33.33333333333356</v>
+        <v>-100</v>
       </c>
       <c r="L135" t="n">
         <v>54.53000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>25.90000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>36.36363636363662</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>54.53000000000002</v>
@@ -7215,7 +7237,7 @@
         <v>26.1</v>
       </c>
       <c r="K137" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L137" t="n">
         <v>54.55000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>26.5</v>
       </c>
       <c r="K138" t="n">
-        <v>-10.00000000000021</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L138" t="n">
         <v>54.53000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>26.5</v>
       </c>
       <c r="K139" t="n">
-        <v>-15.78947368421088</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L139" t="n">
         <v>54.52</v>
@@ -7368,7 +7390,7 @@
         <v>26.5</v>
       </c>
       <c r="K140" t="n">
-        <v>-22.22222222222226</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L140" t="n">
         <v>54.51000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>26.5</v>
       </c>
       <c r="K141" t="n">
-        <v>-17.64705882352971</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L141" t="n">
         <v>54.5</v>
@@ -7470,7 +7492,7 @@
         <v>26.9</v>
       </c>
       <c r="K142" t="n">
-        <v>-5.263157894736921</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L142" t="n">
         <v>54.52999999999999</v>
@@ -7521,7 +7543,7 @@
         <v>27</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.263157894736921</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>54.56999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>27</v>
       </c>
       <c r="K144" t="n">
-        <v>28.5714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>54.60999999999999</v>
@@ -7623,7 +7645,7 @@
         <v>27</v>
       </c>
       <c r="K145" t="n">
-        <v>23.07692307692291</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L145" t="n">
         <v>54.64999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>27</v>
       </c>
       <c r="K146" t="n">
-        <v>23.07692307692291</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L146" t="n">
         <v>54.67999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>27</v>
       </c>
       <c r="K147" t="n">
-        <v>23.07692307692291</v>
+        <v>100</v>
       </c>
       <c r="L147" t="n">
         <v>54.68999999999998</v>
@@ -7776,7 +7798,7 @@
         <v>27</v>
       </c>
       <c r="K148" t="n">
-        <v>23.07692307692291</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>54.73999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>27.5</v>
       </c>
       <c r="K149" t="n">
-        <v>52.94117647058828</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>54.83999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>27.9</v>
       </c>
       <c r="K150" t="n">
-        <v>23.80952380952387</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L150" t="n">
         <v>54.89999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>27.9</v>
       </c>
       <c r="K151" t="n">
-        <v>23.80952380952387</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L151" t="n">
         <v>54.95999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>28.49999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>18.51851851851859</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L154" t="n">
         <v>55.05999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>28.79999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>26.6666666666667</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L155" t="n">
         <v>55.09999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>28.79999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>24.13793103448274</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L156" t="n">
         <v>55.13999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>28.79999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>18.51851851851859</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L157" t="n">
         <v>55.17999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>29.09999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>23.07692307692324</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L158" t="n">
         <v>55.18999999999998</v>
@@ -8337,7 +8359,7 @@
         <v>29.59999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>35.48387096774213</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L159" t="n">
         <v>55.19999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>29.89999999999998</v>
       </c>
       <c r="K160" t="n">
-        <v>41.17647058823544</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L160" t="n">
         <v>55.27999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>30.19999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>29.72972972972991</v>
+        <v>10.00000000000021</v>
       </c>
       <c r="L161" t="n">
         <v>55.32999999999998</v>
@@ -8490,7 +8512,7 @@
         <v>30.19999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>21.21212121212141</v>
+        <v>10.00000000000021</v>
       </c>
       <c r="L162" t="n">
         <v>55.34999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>30.19999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>18.75000000000015</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L163" t="n">
         <v>55.36999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>30.19999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>18.75000000000015</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L164" t="n">
         <v>55.41999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>30.49999999999998</v>
       </c>
       <c r="K165" t="n">
-        <v>25.71428571428583</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L165" t="n">
         <v>55.46999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>30.69999999999998</v>
       </c>
       <c r="K166" t="n">
-        <v>29.72972972972991</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L166" t="n">
         <v>55.54</v>
@@ -8745,7 +8767,7 @@
         <v>30.69999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>29.72972972972991</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L167" t="n">
         <v>55.61</v>
@@ -8796,7 +8818,7 @@
         <v>30.99999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>35.00000000000016</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L168" t="n">
         <v>55.73999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>31.49999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>35.00000000000016</v>
+        <v>62.50000000000022</v>
       </c>
       <c r="L169" t="n">
         <v>55.86999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>31.49999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>50.0000000000002</v>
+        <v>100</v>
       </c>
       <c r="L170" t="n">
         <v>55.96999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>32.49999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>17.3913043478261</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L171" t="n">
         <v>55.99999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>32.69999999999997</v>
       </c>
       <c r="K172" t="n">
-        <v>6.666666666666793</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L172" t="n">
         <v>56.00999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>33.19999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>16.00000000000015</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L173" t="n">
         <v>56.06999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>33.19999999999997</v>
       </c>
       <c r="K174" t="n">
-        <v>23.40425531914906</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L174" t="n">
         <v>56.13</v>
@@ -9153,7 +9175,7 @@
         <v>33.89999999999997</v>
       </c>
       <c r="K175" t="n">
-        <v>29.41176470588247</v>
+        <v>25</v>
       </c>
       <c r="L175" t="n">
         <v>56.23</v>
@@ -9204,7 +9226,7 @@
         <v>34.59999999999997</v>
       </c>
       <c r="K176" t="n">
-        <v>13.79310344827599</v>
+        <v>2.564102564102611</v>
       </c>
       <c r="L176" t="n">
         <v>56.23999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>34.59999999999997</v>
       </c>
       <c r="K177" t="n">
-        <v>13.79310344827599</v>
+        <v>-5.555555555555457</v>
       </c>
       <c r="L177" t="n">
         <v>56.25</v>
@@ -9306,7 +9328,7 @@
         <v>34.69999999999997</v>
       </c>
       <c r="K178" t="n">
-        <v>17.85714285714292</v>
+        <v>-25</v>
       </c>
       <c r="L178" t="n">
         <v>56.22000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>34.79999999999997</v>
       </c>
       <c r="K179" t="n">
-        <v>11.53846153846161</v>
+        <v>-21.21212121212115</v>
       </c>
       <c r="L179" t="n">
         <v>56.15000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>35.09999999999997</v>
       </c>
       <c r="K181" t="n">
-        <v>6.122448979591789</v>
+        <v>8.333333333333162</v>
       </c>
       <c r="L181" t="n">
         <v>56.05000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>36.09999999999997</v>
       </c>
       <c r="K182" t="n">
-        <v>-11.86440677966108</v>
+        <v>-44.82758620689672</v>
       </c>
       <c r="L182" t="n">
         <v>55.97000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>36.39999999999998</v>
       </c>
       <c r="K183" t="n">
-        <v>-6.451612903225788</v>
+        <v>-31.24999999999997</v>
       </c>
       <c r="L183" t="n">
         <v>55.87</v>
@@ -9612,7 +9634,7 @@
         <v>36.49999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>-7.93650793650794</v>
+        <v>-69.2307692307689</v>
       </c>
       <c r="L184" t="n">
         <v>55.76000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>36.59999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>-14.75409836065571</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L185" t="n">
         <v>55.57000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>36.69999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>-16.66666666666666</v>
+        <v>-52.38095238095206</v>
       </c>
       <c r="L186" t="n">
         <v>55.46</v>
@@ -9765,7 +9787,7 @@
         <v>36.79999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>-18.03278688524592</v>
+        <v>-52.38095238095206</v>
       </c>
       <c r="L187" t="n">
         <v>55.34</v>
@@ -9816,7 +9838,7 @@
         <v>36.99999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>-26.66666666666657</v>
+        <v>-63.63636363636328</v>
       </c>
       <c r="L188" t="n">
         <v>55.21</v>
@@ -9867,7 +9889,7 @@
         <v>36.99999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>-38.18181818181808</v>
+        <v>-57.89473684210479</v>
       </c>
       <c r="L189" t="n">
         <v>55.07000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>37.09999999999997</v>
       </c>
       <c r="K190" t="n">
-        <v>-35.71428571428575</v>
+        <v>-50</v>
       </c>
       <c r="L190" t="n">
         <v>54.97000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>37.09999999999997</v>
       </c>
       <c r="K191" t="n">
-        <v>-21.73913043478263</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>54.87</v>
@@ -10020,7 +10042,7 @@
         <v>37.09999999999997</v>
       </c>
       <c r="K192" t="n">
-        <v>-18.18181818181829</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L192" t="n">
         <v>54.87</v>
@@ -10071,7 +10093,7 @@
         <v>38.39999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>57.89473684210537</v>
       </c>
       <c r="L193" t="n">
         <v>54.97000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>-18.75000000000003</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>54.96</v>
@@ -10173,7 +10195,7 @@
         <v>39.79999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>-28.81355932203376</v>
+        <v>3.225806451612947</v>
       </c>
       <c r="L195" t="n">
         <v>54.98</v>
@@ -10224,7 +10246,7 @@
         <v>39.79999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>-19.23076923076917</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L196" t="n">
         <v>54.99000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>40.09999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>-23.63636363636362</v>
+        <v>3.225806451612711</v>
       </c>
       <c r="L197" t="n">
         <v>54.98</v>
@@ -10326,7 +10348,7 @@
         <v>40.29999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>-24.9999999999999</v>
+        <v>-3.03030303030307</v>
       </c>
       <c r="L198" t="n">
         <v>54.97000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>40.29999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>-27.2727272727272</v>
+        <v>-6.249999999999847</v>
       </c>
       <c r="L199" t="n">
         <v>54.96</v>
@@ -10428,7 +10450,7 @@
         <v>40.29999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>-23.07692307692295</v>
+        <v>-6.249999999999847</v>
       </c>
       <c r="L200" t="n">
         <v>54.94000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>41.19999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>-4.918032786885193</v>
+        <v>17.07317073170735</v>
       </c>
       <c r="L201" t="n">
         <v>55.01000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>41.29999999999998</v>
       </c>
       <c r="K202" t="n">
-        <v>15.38461538461544</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L202" t="n">
         <v>55.09000000000002</v>
@@ -10581,7 +10603,7 @@
         <v>41.69999999999998</v>
       </c>
       <c r="K203" t="n">
-        <v>16.98113207547166</v>
+        <v>52.38095238095242</v>
       </c>
       <c r="L203" t="n">
         <v>55.08000000000002</v>
@@ -10632,7 +10654,7 @@
         <v>42.59999999999998</v>
       </c>
       <c r="K204" t="n">
-        <v>1.639344262295105</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>55.10000000000002</v>
@@ -10683,7 +10705,7 @@
         <v>43.09999999999998</v>
       </c>
       <c r="K205" t="n">
-        <v>10.76923076923081</v>
+        <v>15.15151515151517</v>
       </c>
       <c r="L205" t="n">
         <v>55.15000000000002</v>
@@ -10734,7 +10756,7 @@
         <v>43.59999999999998</v>
       </c>
       <c r="K206" t="n">
-        <v>1.449275362318861</v>
+        <v>8.57142857142871</v>
       </c>
       <c r="L206" t="n">
         <v>55.15000000000002</v>
@@ -10785,7 +10807,7 @@
         <v>44.09999999999998</v>
       </c>
       <c r="K207" t="n">
-        <v>9.589041095890453</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L207" t="n">
         <v>55.23000000000003</v>
@@ -10836,7 +10858,7 @@
         <v>44.59999999999998</v>
       </c>
       <c r="K208" t="n">
-        <v>5.263157894736822</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L208" t="n">
         <v>55.28000000000003</v>
@@ -10887,7 +10909,7 @@
         <v>44.59999999999998</v>
       </c>
       <c r="K209" t="n">
-        <v>5.263157894736822</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L209" t="n">
         <v>55.33000000000003</v>
@@ -10938,7 +10960,7 @@
         <v>44.59999999999998</v>
       </c>
       <c r="K210" t="n">
-        <v>4.000000000000052</v>
+        <v>-11.7647058823529</v>
       </c>
       <c r="L210" t="n">
         <v>55.38000000000003</v>
@@ -10989,7 +11011,7 @@
         <v>44.59999999999998</v>
       </c>
       <c r="K211" t="n">
-        <v>4.000000000000052</v>
+        <v>-15.15151515151517</v>
       </c>
       <c r="L211" t="n">
         <v>55.34000000000003</v>
@@ -11040,7 +11062,7 @@
         <v>45.09999999999998</v>
       </c>
       <c r="K212" t="n">
-        <v>10.00000000000004</v>
+        <v>-11.7647058823529</v>
       </c>
       <c r="L212" t="n">
         <v>55.34000000000003</v>
@@ -11091,7 +11113,7 @@
         <v>45.59999999999998</v>
       </c>
       <c r="K213" t="n">
-        <v>-13.88888888888888</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>55.25000000000004</v>
@@ -11142,7 +11164,7 @@
         <v>46.19999999999998</v>
       </c>
       <c r="K214" t="n">
-        <v>12.12121212121218</v>
+        <v>3.225806451612947</v>
       </c>
       <c r="L214" t="n">
         <v>55.31000000000004</v>
@@ -11193,7 +11215,7 @@
         <v>46.39999999999998</v>
       </c>
       <c r="K215" t="n">
-        <v>12.12121212121209</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L215" t="n">
         <v>55.34000000000003</v>
@@ -11244,7 +11266,7 @@
         <v>46.79999999999998</v>
       </c>
       <c r="K216" t="n">
-        <v>17.1428571428571</v>
+        <v>25.92592592592581</v>
       </c>
       <c r="L216" t="n">
         <v>55.46000000000002</v>
@@ -11295,7 +11317,7 @@
         <v>47.19999999999998</v>
       </c>
       <c r="K217" t="n">
-        <v>26.76056338028179</v>
+        <v>61.53846153846156</v>
       </c>
       <c r="L217" t="n">
         <v>55.57000000000003</v>
@@ -11346,7 +11368,7 @@
         <v>47.39999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>32.39436619718308</v>
+        <v>64.28571428571425</v>
       </c>
       <c r="L218" t="n">
         <v>55.75000000000002</v>
@@ -11397,7 +11419,7 @@
         <v>48.19999999999997</v>
       </c>
       <c r="K219" t="n">
-        <v>18.98734177215192</v>
+        <v>27.77777777777782</v>
       </c>
       <c r="L219" t="n">
         <v>55.85000000000002</v>
@@ -11448,7 +11470,7 @@
         <v>48.49999999999997</v>
       </c>
       <c r="K220" t="n">
-        <v>21.95121951219512</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>55.98000000000002</v>
@@ -11499,7 +11521,7 @@
         <v>49.09999999999997</v>
       </c>
       <c r="K221" t="n">
-        <v>3.797468354430348</v>
+        <v>4.999999999999902</v>
       </c>
       <c r="L221" t="n">
         <v>56.05000000000001</v>
@@ -11550,7 +11572,7 @@
         <v>49.89999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>11.62790697674419</v>
+        <v>34.88372093023258</v>
       </c>
       <c r="L222" t="n">
         <v>56.15000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>50.69999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-2.222222222222254</v>
+        <v>2.222222222222096</v>
       </c>
       <c r="L223" t="n">
         <v>56.22000000000001</v>
@@ -11652,7 +11674,7 @@
         <v>50.89999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>6.024096385542171</v>
+        <v>-6.666666666666604</v>
       </c>
       <c r="L224" t="n">
         <v>56.21</v>

--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S224"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2000000000000028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2000000000000028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +696,19 @@
         <v>52.90000000000019</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>53</v>
+      </c>
+      <c r="K9" t="n">
+        <v>53</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +735,23 @@
         <v>52.90333333333352</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>53</v>
+      </c>
+      <c r="K10" t="n">
+        <v>53</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +778,23 @@
         <v>52.90500000000019</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>52.96</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>53</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +821,19 @@
         <v>52.90666666666685</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4000000000000057</v>
+        <v>52.9</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>52.96</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +860,23 @@
         <v>52.91166666666685</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6000000000000085</v>
+        <v>53.1</v>
       </c>
       <c r="K13" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L13" t="n">
-        <v>52.98</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +903,23 @@
         <v>52.91500000000018</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6000000000000085</v>
+        <v>53.1</v>
       </c>
       <c r="K14" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>53.00000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +946,19 @@
         <v>52.92000000000017</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3000000000000043</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7000000000000099</v>
+        <v>53.2</v>
       </c>
       <c r="K15" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L15" t="n">
-        <v>53.03000000000002</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +985,23 @@
         <v>52.92833333333351</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9000000000000057</v>
+        <v>53.4</v>
       </c>
       <c r="K16" t="n">
-        <v>42.85714285714228</v>
-      </c>
-      <c r="L16" t="n">
-        <v>53.08000000000002</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1028,23 @@
         <v>52.93500000000017</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3000000000000043</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.100000000000001</v>
+        <v>53.3</v>
       </c>
       <c r="K17" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L17" t="n">
-        <v>53.09000000000002</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1071,23 @@
         <v>52.94000000000016</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.200000000000003</v>
+        <v>53.2</v>
       </c>
       <c r="K18" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L18" t="n">
-        <v>53.09000000000002</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1114,23 @@
         <v>52.94000000000016</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.500000000000007</v>
+        <v>53.1</v>
       </c>
       <c r="K19" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L19" t="n">
-        <v>53.07000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1157,23 @@
         <v>52.94000000000016</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.600000000000009</v>
+        <v>52.9</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>53.06000000000002</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1200,23 @@
         <v>52.9383333333335</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.70000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="K21" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L21" t="n">
-        <v>53.05000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>53.00500000000001</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1243,23 @@
         <v>52.95666666666683</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.900000000000013</v>
+        <v>53.1</v>
       </c>
       <c r="K22" t="n">
-        <v>39.13043478260856</v>
-      </c>
-      <c r="L22" t="n">
-        <v>53.16000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>53.06</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1286,23 @@
         <v>53.00666666666682</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.800000000000011</v>
+        <v>54</v>
       </c>
       <c r="K23" t="n">
-        <v>66.66666666666656</v>
-      </c>
-      <c r="L23" t="n">
-        <v>53.44000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>53.21</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1329,23 @@
         <v>53.04166666666683</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.70000000000001</v>
+        <v>55.9</v>
       </c>
       <c r="K24" t="n">
-        <v>35.99999999999994</v>
-      </c>
-      <c r="L24" t="n">
-        <v>53.63000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>53.315</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1375,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>53.81</v>
+        <v>53.2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>53.41999999999999</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1416,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J26" t="n">
-        <v>6.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>10.34482758620678</v>
-      </c>
-      <c r="L26" t="n">
-        <v>53.85</v>
+        <v>53.2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>53.46499999999999</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1457,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.500000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>20.63492063492055</v>
-      </c>
-      <c r="L27" t="n">
-        <v>53.96999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>53.52999999999999</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1498,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.600000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>24.5901639344262</v>
-      </c>
-      <c r="L28" t="n">
-        <v>54.08999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>53.59</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1539,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>17.46031746031747</v>
-      </c>
-      <c r="L29" t="n">
-        <v>54.20999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>53.64</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1580,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J30" t="n">
-        <v>8.000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>20.63492063492069</v>
-      </c>
-      <c r="L30" t="n">
-        <v>54.33</v>
+        <v>53.2</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>53.69499999999999</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1621,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>8.300000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>7.407407407407383</v>
-      </c>
-      <c r="L31" t="n">
-        <v>54.48999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>53.77</v>
-      </c>
-      <c r="N31" t="n">
-        <v>53.50000000000001</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1662,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>8.300000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L32" t="n">
-        <v>54.52999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>53.84499999999999</v>
-      </c>
-      <c r="N32" t="n">
-        <v>53.55</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1703,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.300000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>-23.07692307692312</v>
-      </c>
-      <c r="L33" t="n">
-        <v>54.38</v>
+        <v>53.2</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>53.91</v>
-      </c>
-      <c r="N33" t="n">
-        <v>53.60000000000001</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1744,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8.400000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>-25.925925925926</v>
-      </c>
-      <c r="L34" t="n">
-        <v>54.30999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>53.97000000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>53.64666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1785,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L35" t="n">
-        <v>54.20999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>54.01000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>53.68333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1826,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9.20000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>-52.94117647058828</v>
-      </c>
-      <c r="L36" t="n">
-        <v>54.17999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>54.015</v>
-      </c>
-      <c r="N36" t="n">
-        <v>53.70333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1867,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>40.00000000000011</v>
-      </c>
-      <c r="L37" t="n">
-        <v>54.33</v>
+        <v>53.2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>54.15</v>
-      </c>
-      <c r="N37" t="n">
-        <v>53.79666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1908,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>13.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>-1.754385964912307</v>
-      </c>
-      <c r="L38" t="n">
-        <v>54.29</v>
+        <v>53.2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>54.19000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>53.82333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1949,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>13.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>-1.754385964912307</v>
-      </c>
-      <c r="L39" t="n">
-        <v>54.29</v>
+        <v>53.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>54.25000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>53.85666666666668</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1990,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J40" t="n">
-        <v>13.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>-5.454545454545403</v>
-      </c>
-      <c r="L40" t="n">
-        <v>54.29</v>
+        <v>53.2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>54.31</v>
-      </c>
-      <c r="N40" t="n">
-        <v>53.89333333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2031,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="J41" t="n">
-        <v>14.00000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-1.754385964912307</v>
-      </c>
-      <c r="L41" t="n">
-        <v>54.27999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>54.38500000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>53.94</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2072,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J42" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>-6.666666666666651</v>
-      </c>
-      <c r="L42" t="n">
-        <v>54.23999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>54.38500000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>53.97666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2113,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J43" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>-5.084745762711824</v>
-      </c>
-      <c r="L43" t="n">
-        <v>54.2</v>
+        <v>53.2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>54.29</v>
-      </c>
-      <c r="N43" t="n">
-        <v>54.00666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2154,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>14.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>-1.754385964912307</v>
-      </c>
-      <c r="L44" t="n">
-        <v>54.16</v>
+        <v>53.2</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>54.235</v>
-      </c>
-      <c r="N44" t="n">
-        <v>54.03333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2195,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J45" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>54.11</v>
+        <v>53.2</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>54.16</v>
-      </c>
-      <c r="N45" t="n">
-        <v>54.04333333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2236,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>14.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>-75.75757575757582</v>
-      </c>
-      <c r="L46" t="n">
-        <v>54.1</v>
+        <v>53.2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>54.14000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>54.04333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2277,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15.10000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>-19.99999999999981</v>
-      </c>
-      <c r="L47" t="n">
-        <v>53.87</v>
+        <v>53.2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>54.05666666666666</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2318,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>15.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>-37.50000000000006</v>
-      </c>
-      <c r="L48" t="n">
-        <v>53.82000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>54.05500000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>54.06666666666668</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2359,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L49" t="n">
-        <v>53.75</v>
+        <v>53.2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>54.02</v>
-      </c>
-      <c r="N49" t="n">
-        <v>54.08333333333334</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2400,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>-71.42857142857115</v>
-      </c>
-      <c r="L50" t="n">
-        <v>53.66999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>53.98</v>
-      </c>
-      <c r="N50" t="n">
-        <v>54.09666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2441,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J51" t="n">
-        <v>15.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>-63.6363636363634</v>
-      </c>
-      <c r="L51" t="n">
-        <v>53.56999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>53.925</v>
-      </c>
-      <c r="N51" t="n">
-        <v>54.11333333333334</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,26 +2484,16 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>15.80000000000001</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>-73.33333333333309</v>
-      </c>
-      <c r="L52" t="n">
-        <v>53.45999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="N52" t="n">
-        <v>54.07666666666668</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2523,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>16.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>-26.31578947368413</v>
-      </c>
-      <c r="L53" t="n">
-        <v>53.39999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="N53" t="n">
-        <v>53.99333333333334</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,26 +2566,16 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>16.80000000000001</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>-29.99999999999996</v>
-      </c>
-      <c r="L54" t="n">
-        <v>53.29999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>53.73</v>
-      </c>
-      <c r="N54" t="n">
-        <v>53.92333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2605,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J55" t="n">
-        <v>17.10000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>-9.090909090908857</v>
-      </c>
-      <c r="L55" t="n">
-        <v>53.27</v>
+        <v>53.2</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>53.69000000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>53.86333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2646,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J56" t="n">
-        <v>17.20000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-14.28571428571448</v>
-      </c>
-      <c r="L56" t="n">
-        <v>53.25999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>53.68000000000001</v>
-      </c>
-      <c r="N56" t="n">
-        <v>53.84666666666668</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2687,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J57" t="n">
-        <v>17.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>-14.28571428571419</v>
-      </c>
-      <c r="L57" t="n">
-        <v>53.20999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>53.54</v>
-      </c>
-      <c r="N57" t="n">
-        <v>53.80333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2728,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J58" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>8.333333333333481</v>
-      </c>
-      <c r="L58" t="n">
-        <v>53.21999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>53.52</v>
-      </c>
-      <c r="N58" t="n">
-        <v>53.77666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2769,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J59" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>8.333333333333481</v>
-      </c>
-      <c r="L59" t="n">
-        <v>53.23999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>53.49499999999999</v>
-      </c>
-      <c r="N59" t="n">
-        <v>53.76000000000001</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2810,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J60" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>8.333333333333481</v>
-      </c>
-      <c r="L60" t="n">
-        <v>53.26000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>53.465</v>
-      </c>
-      <c r="N60" t="n">
-        <v>53.74000000000001</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2851,18 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J61" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>30.00000000000018</v>
-      </c>
-      <c r="L61" t="n">
-        <v>53.28000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>53.425</v>
-      </c>
-      <c r="N61" t="n">
-        <v>53.71000000000001</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2892,18 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J62" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>6.666666666666793</v>
-      </c>
-      <c r="L62" t="n">
-        <v>53.34000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="N62" t="n">
-        <v>53.68</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2933,18 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J63" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>60.00000000000056</v>
-      </c>
-      <c r="L63" t="n">
-        <v>53.35000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>53.375</v>
-      </c>
-      <c r="N63" t="n">
-        <v>53.65</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2974,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J64" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>-9.090909090909326</v>
-      </c>
-      <c r="L64" t="n">
-        <v>53.37000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>53.33499999999999</v>
-      </c>
-      <c r="N64" t="n">
-        <v>53.61</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +3015,18 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J65" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L65" t="n">
-        <v>53.36000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>53.31499999999998</v>
-      </c>
-      <c r="N65" t="n">
-        <v>53.58</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3056,18 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J66" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>53.34000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>53.29999999999998</v>
-      </c>
-      <c r="N66" t="n">
-        <v>53.56666666666666</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3097,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L67" t="n">
-        <v>53.37000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>53.28999999999998</v>
-      </c>
-      <c r="N67" t="n">
-        <v>53.48333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3138,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J68" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L68" t="n">
-        <v>53.34000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>53.27999999999999</v>
-      </c>
-      <c r="N68" t="n">
-        <v>53.45999999999999</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3179,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3000000000000043</v>
-      </c>
-      <c r="J69" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L69" t="n">
-        <v>53.31000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>53.27499999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>53.43333333333332</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3220,18 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J70" t="n">
-        <v>18.79999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>-20.00000000000057</v>
-      </c>
-      <c r="L70" t="n">
-        <v>53.29000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>53.27499999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>53.40666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3261,18 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>18.89999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>-9.090909090909326</v>
-      </c>
-      <c r="L71" t="n">
-        <v>53.28000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>53.27999999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>53.37666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3302,18 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J72" t="n">
-        <v>18.99999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>-16.66666666666706</v>
-      </c>
-      <c r="L72" t="n">
-        <v>53.26000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>53.29999999999999</v>
-      </c>
-      <c r="N72" t="n">
-        <v>53.35333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3343,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>19.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>53.25000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>53.29999999999999</v>
-      </c>
-      <c r="N73" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3384,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>-7.69230769230786</v>
-      </c>
-      <c r="L74" t="n">
-        <v>53.24000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>53.30499999999999</v>
-      </c>
-      <c r="N74" t="n">
-        <v>53.30333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3425,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J75" t="n">
-        <v>19.99999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>22.22222222222226</v>
-      </c>
-      <c r="L75" t="n">
-        <v>53.28000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>53.31999999999998</v>
-      </c>
-      <c r="N75" t="n">
-        <v>53.30333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3466,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="J76" t="n">
-        <v>19.99999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>6.666666666666793</v>
-      </c>
-      <c r="L76" t="n">
-        <v>53.32000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>53.32999999999998</v>
-      </c>
-      <c r="N76" t="n">
-        <v>53.30666666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3507,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J77" t="n">
-        <v>20.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>44.44444444444436</v>
-      </c>
-      <c r="L77" t="n">
-        <v>53.38000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>53.37499999999999</v>
-      </c>
-      <c r="N77" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3548,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J78" t="n">
-        <v>20.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>47.36842105263154</v>
-      </c>
-      <c r="L78" t="n">
-        <v>53.47000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>53.40499999999999</v>
-      </c>
-      <c r="N78" t="n">
-        <v>53.34333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3589,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J79" t="n">
-        <v>20.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>44.44444444444458</v>
-      </c>
-      <c r="L79" t="n">
-        <v>53.56</v>
+        <v>53.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>53.43499999999998</v>
-      </c>
-      <c r="N79" t="n">
-        <v>53.36999999999999</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3630,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J80" t="n">
-        <v>20.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>41.17647058823539</v>
-      </c>
-      <c r="L80" t="n">
-        <v>53.64000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>53.46499999999997</v>
-      </c>
-      <c r="N80" t="n">
-        <v>53.39666666666665</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3671,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J81" t="n">
-        <v>20.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L81" t="n">
-        <v>53.71000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>53.49499999999997</v>
-      </c>
-      <c r="N81" t="n">
-        <v>53.42333333333332</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3712,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J82" t="n">
-        <v>20.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>46.66666666666686</v>
-      </c>
-      <c r="L82" t="n">
-        <v>53.79000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>53.52499999999996</v>
-      </c>
-      <c r="N82" t="n">
-        <v>53.46333333333332</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3753,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J83" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>83.33333333333314</v>
-      </c>
-      <c r="L83" t="n">
-        <v>53.85000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>53.54999999999997</v>
-      </c>
-      <c r="N83" t="n">
-        <v>53.48333333333331</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3794,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J84" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L84" t="n">
-        <v>53.95000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>53.59499999999997</v>
-      </c>
-      <c r="N84" t="n">
-        <v>53.51999999999997</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3835,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>21.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>81.81818181818159</v>
-      </c>
-      <c r="L85" t="n">
-        <v>54.04000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>53.65999999999998</v>
-      </c>
-      <c r="N85" t="n">
-        <v>53.55999999999997</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3876,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J86" t="n">
-        <v>21.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>54.09000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>53.70499999999998</v>
-      </c>
-      <c r="N86" t="n">
-        <v>53.58333333333331</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3917,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J87" t="n">
-        <v>21.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L87" t="n">
-        <v>54.09000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>53.73499999999998</v>
-      </c>
-      <c r="N87" t="n">
-        <v>53.61333333333332</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3958,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J88" t="n">
-        <v>21.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L88" t="n">
-        <v>54.08000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>53.77499999999998</v>
-      </c>
-      <c r="N88" t="n">
-        <v>53.62999999999998</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3999,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J89" t="n">
-        <v>21.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L89" t="n">
-        <v>54.07000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>53.81499999999998</v>
-      </c>
-      <c r="N89" t="n">
-        <v>53.64666666666665</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +4040,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J90" t="n">
-        <v>21.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L90" t="n">
-        <v>54.06000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>53.84999999999998</v>
-      </c>
-      <c r="N90" t="n">
-        <v>53.66333333333331</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4081,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J91" t="n">
-        <v>21.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L91" t="n">
-        <v>54.05000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>53.87999999999997</v>
-      </c>
-      <c r="N91" t="n">
-        <v>53.67999999999998</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4122,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J92" t="n">
-        <v>21.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>54.04000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>53.91499999999998</v>
-      </c>
-      <c r="N92" t="n">
-        <v>53.69666666666664</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4163,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>21.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L93" t="n">
-        <v>54.03000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>53.93999999999998</v>
-      </c>
-      <c r="N93" t="n">
-        <v>53.70999999999999</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4204,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>21.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>54.02</v>
+        <v>53.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>53.98499999999998</v>
-      </c>
-      <c r="N94" t="n">
-        <v>53.73666666666666</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4245,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J95" t="n">
-        <v>21.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>53.98</v>
+        <v>53.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>54.00999999999998</v>
-      </c>
-      <c r="N95" t="n">
-        <v>53.76666666666666</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4286,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J96" t="n">
-        <v>21.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>53.98</v>
+        <v>53.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>54.03499999999998</v>
-      </c>
-      <c r="N96" t="n">
-        <v>53.79666666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4327,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J97" t="n">
-        <v>21.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>53.98</v>
+        <v>53.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>54.03499999999998</v>
-      </c>
-      <c r="N97" t="n">
-        <v>53.81666666666666</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4368,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J98" t="n">
-        <v>21.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>53.99000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>54.03499999999998</v>
-      </c>
-      <c r="N98" t="n">
-        <v>53.84666666666666</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4409,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L99" t="n">
-        <v>53.98</v>
+        <v>53.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>54.02499999999999</v>
-      </c>
-      <c r="N99" t="n">
-        <v>53.86999999999999</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4450,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J100" t="n">
-        <v>22.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L100" t="n">
-        <v>53.99000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>54.02499999999999</v>
-      </c>
-      <c r="N100" t="n">
-        <v>53.89666666666665</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4491,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J101" t="n">
-        <v>22.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L101" t="n">
-        <v>54.00000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>54.02499999999999</v>
-      </c>
-      <c r="N101" t="n">
-        <v>53.91999999999998</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4532,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.300000000000004</v>
-      </c>
-      <c r="J102" t="n">
-        <v>22.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L102" t="n">
-        <v>54.02000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>54.02999999999999</v>
-      </c>
-      <c r="N102" t="n">
-        <v>53.94999999999998</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4573,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J103" t="n">
-        <v>22.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>25</v>
-      </c>
-      <c r="L103" t="n">
-        <v>54.04000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>54.03499999999999</v>
-      </c>
-      <c r="N103" t="n">
-        <v>53.97333333333331</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4614,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J104" t="n">
-        <v>22.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L104" t="n">
-        <v>54.06000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>54.03999999999998</v>
-      </c>
-      <c r="N104" t="n">
-        <v>54.00999999999998</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4655,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>22.60000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L105" t="n">
-        <v>54.05000000000003</v>
+        <v>53.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>54.01499999999999</v>
-      </c>
-      <c r="N105" t="n">
-        <v>54.02333333333331</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4696,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J106" t="n">
-        <v>22.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L106" t="n">
-        <v>54.03000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>54.00499999999998</v>
-      </c>
-      <c r="N106" t="n">
-        <v>54.03333333333331</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4737,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J107" t="n">
-        <v>22.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L107" t="n">
-        <v>54.03000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>54.00499999999998</v>
-      </c>
-      <c r="N107" t="n">
-        <v>54.03333333333331</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4778,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J108" t="n">
-        <v>23.00000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>20</v>
-      </c>
-      <c r="L108" t="n">
-        <v>54.03000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>54.00999999999998</v>
-      </c>
-      <c r="N108" t="n">
-        <v>54.03333333333331</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4819,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J109" t="n">
-        <v>23.30000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L109" t="n">
-        <v>54.02000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>53.99999999999998</v>
-      </c>
-      <c r="N109" t="n">
-        <v>54.02333333333331</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4860,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8000000000000043</v>
-      </c>
-      <c r="J110" t="n">
-        <v>23.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L110" t="n">
-        <v>53.98000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>53.98499999999998</v>
-      </c>
-      <c r="N110" t="n">
-        <v>54.00999999999998</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4901,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.8000000000000043</v>
-      </c>
-      <c r="J111" t="n">
-        <v>23.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>-45.45454545454511</v>
-      </c>
-      <c r="L111" t="n">
-        <v>53.94000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>53.96999999999998</v>
-      </c>
-      <c r="N111" t="n">
-        <v>53.99666666666666</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4942,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.8000000000000043</v>
-      </c>
-      <c r="J112" t="n">
-        <v>23.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>-39.99999999999957</v>
-      </c>
-      <c r="L112" t="n">
-        <v>53.89000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>53.95499999999998</v>
-      </c>
-      <c r="N112" t="n">
-        <v>53.98333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4983,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.8000000000000043</v>
-      </c>
-      <c r="J113" t="n">
-        <v>23.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>-39.99999999999957</v>
-      </c>
-      <c r="L113" t="n">
-        <v>53.85000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>53.94499999999998</v>
-      </c>
-      <c r="N113" t="n">
-        <v>53.97333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +5024,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J114" t="n">
-        <v>23.50000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>-33.33333333333281</v>
-      </c>
-      <c r="L114" t="n">
-        <v>53.80000000000003</v>
+        <v>53.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>53.92999999999997</v>
-      </c>
-      <c r="N114" t="n">
-        <v>53.95999999999999</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +5065,18 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J115" t="n">
-        <v>23.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>53.79000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>53.91999999999997</v>
-      </c>
-      <c r="N115" t="n">
-        <v>53.93999999999998</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +5106,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.8999999999999986</v>
-      </c>
-      <c r="J116" t="n">
-        <v>23.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L116" t="n">
-        <v>53.79000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>53.90999999999997</v>
-      </c>
-      <c r="N116" t="n">
-        <v>53.93333333333332</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +5147,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J117" t="n">
-        <v>24.00000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>53.80000000000003</v>
+        <v>53.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>53.91499999999996</v>
-      </c>
-      <c r="N117" t="n">
-        <v>53.93666666666665</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +5188,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J118" t="n">
-        <v>24.50000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>66.66666666666727</v>
-      </c>
-      <c r="L118" t="n">
-        <v>53.85000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>53.93999999999996</v>
-      </c>
-      <c r="N118" t="n">
-        <v>53.95666666666664</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +5229,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1.800000000000004</v>
-      </c>
-      <c r="J119" t="n">
-        <v>24.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>83.33333333333314</v>
-      </c>
-      <c r="L119" t="n">
-        <v>53.94000000000003</v>
+        <v>53.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>53.97999999999996</v>
-      </c>
-      <c r="N119" t="n">
-        <v>53.97999999999998</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5270,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J120" t="n">
-        <v>24.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>84.61538461538436</v>
-      </c>
-      <c r="L120" t="n">
-        <v>54.05000000000003</v>
+        <v>53.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>54.01499999999997</v>
-      </c>
-      <c r="N120" t="n">
-        <v>54.00666666666665</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5311,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1.800000000000004</v>
-      </c>
-      <c r="J121" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>71.42857142857186</v>
-      </c>
-      <c r="L121" t="n">
-        <v>54.15000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>54.04499999999997</v>
-      </c>
-      <c r="N121" t="n">
-        <v>54.02999999999998</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5352,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>75.00000000000033</v>
-      </c>
-      <c r="L122" t="n">
-        <v>54.27000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>54.07999999999997</v>
-      </c>
-      <c r="N122" t="n">
-        <v>54.05999999999998</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5393,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J123" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>87.50000000000061</v>
-      </c>
-      <c r="L123" t="n">
-        <v>54.40000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>54.12499999999998</v>
-      </c>
-      <c r="N123" t="n">
-        <v>54.09666666666665</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5434,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J124" t="n">
-        <v>25.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>36.84210526315821</v>
-      </c>
-      <c r="L124" t="n">
-        <v>54.49000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>54.14499999999998</v>
-      </c>
-      <c r="N124" t="n">
-        <v>54.11666666666665</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5475,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J125" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>40.00000000000036</v>
-      </c>
-      <c r="L125" t="n">
-        <v>54.57000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>54.17999999999997</v>
-      </c>
-      <c r="N125" t="n">
-        <v>54.13666666666664</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5516,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J126" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>29.41176470588255</v>
-      </c>
-      <c r="L126" t="n">
-        <v>54.65000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>54.21999999999997</v>
-      </c>
-      <c r="N126" t="n">
-        <v>54.15666666666664</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5557,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J127" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>54.70000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>54.24999999999996</v>
-      </c>
-      <c r="N127" t="n">
-        <v>54.17666666666663</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5598,18 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J128" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>-9.090909090909326</v>
-      </c>
-      <c r="L128" t="n">
-        <v>54.70000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>54.27499999999996</v>
-      </c>
-      <c r="N128" t="n">
-        <v>54.1933333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5639,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J129" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>-27.27272727272715</v>
-      </c>
-      <c r="L129" t="n">
-        <v>54.68000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>54.30999999999997</v>
-      </c>
-      <c r="N129" t="n">
-        <v>54.2133333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5680,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J130" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L130" t="n">
-        <v>54.65000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>54.34999999999997</v>
-      </c>
-      <c r="N130" t="n">
-        <v>54.22666666666664</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5721,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J131" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>-49.99999999999956</v>
-      </c>
-      <c r="L131" t="n">
-        <v>54.63000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>54.38999999999997</v>
-      </c>
-      <c r="N131" t="n">
-        <v>54.23999999999997</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5762,18 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J132" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>-71.42857142857115</v>
-      </c>
-      <c r="L132" t="n">
-        <v>54.59000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>54.42999999999996</v>
-      </c>
-      <c r="N132" t="n">
-        <v>54.24999999999997</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5803,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J133" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>54.54000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>54.46999999999996</v>
-      </c>
-      <c r="N133" t="n">
-        <v>54.26333333333331</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5844,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J134" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L134" t="n">
-        <v>54.54000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>54.51499999999997</v>
-      </c>
-      <c r="N134" t="n">
-        <v>54.27666666666664</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5885,18 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J135" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L135" t="n">
-        <v>54.53000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>54.54999999999997</v>
-      </c>
-      <c r="N135" t="n">
-        <v>54.29666666666664</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5926,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J136" t="n">
-        <v>25.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>54.53000000000002</v>
+        <v>53.2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>54.58999999999996</v>
-      </c>
-      <c r="N136" t="n">
-        <v>54.3233333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5967,18 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J137" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>49.99999999999911</v>
-      </c>
-      <c r="L137" t="n">
-        <v>54.55000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>54.62499999999996</v>
-      </c>
-      <c r="N137" t="n">
-        <v>54.34999999999997</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +6008,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J138" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L138" t="n">
-        <v>54.53000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>54.61499999999997</v>
-      </c>
-      <c r="N138" t="n">
-        <v>54.35999999999998</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +6049,18 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J139" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L139" t="n">
-        <v>54.52</v>
+        <v>53.2</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>54.59999999999998</v>
-      </c>
-      <c r="N139" t="n">
-        <v>54.37999999999998</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +6090,18 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J140" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L140" t="n">
-        <v>54.51000000000001</v>
+        <v>53.2</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>54.57999999999998</v>
-      </c>
-      <c r="N140" t="n">
-        <v>54.40333333333331</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +6131,18 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J141" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L141" t="n">
-        <v>54.5</v>
+        <v>53.2</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>54.56499999999998</v>
-      </c>
-      <c r="N141" t="n">
-        <v>54.42666666666665</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +6172,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J142" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>27.27272727272715</v>
-      </c>
-      <c r="L142" t="n">
-        <v>54.52999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>54.55999999999998</v>
-      </c>
-      <c r="N142" t="n">
-        <v>54.46333333333332</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +6213,18 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L143" t="n">
-        <v>54.56999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>54.55499999999999</v>
-      </c>
-      <c r="N143" t="n">
-        <v>54.50333333333332</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +6254,18 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
-      </c>
-      <c r="J144" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L144" t="n">
-        <v>54.60999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>54.57499999999999</v>
-      </c>
-      <c r="N144" t="n">
-        <v>54.54666666666665</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +6295,18 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
-      </c>
-      <c r="J145" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>27.27272727272715</v>
-      </c>
-      <c r="L145" t="n">
-        <v>54.64999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>54.59</v>
-      </c>
-      <c r="N145" t="n">
-        <v>54.58333333333333</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +6336,18 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
-      </c>
-      <c r="J146" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L146" t="n">
-        <v>54.67999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>54.605</v>
-      </c>
-      <c r="N146" t="n">
-        <v>54.62</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +6377,18 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>100</v>
-      </c>
-      <c r="L147" t="n">
-        <v>54.68999999999998</v>
+        <v>53.2</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>54.62000000000002</v>
-      </c>
-      <c r="N147" t="n">
-        <v>54.64666666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +6418,18 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>100</v>
-      </c>
-      <c r="L148" t="n">
-        <v>54.73999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>54.63500000000003</v>
-      </c>
-      <c r="N148" t="n">
-        <v>54.65666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +6459,18 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J149" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>100</v>
-      </c>
-      <c r="L149" t="n">
-        <v>54.83999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>54.68000000000003</v>
-      </c>
-      <c r="N149" t="n">
-        <v>54.68000000000001</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +6500,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J150" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="L150" t="n">
-        <v>54.89999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>54.70500000000003</v>
-      </c>
-      <c r="N150" t="n">
-        <v>54.68666666666668</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +6541,18 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J151" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L151" t="n">
-        <v>54.95999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>54.73000000000003</v>
-      </c>
-      <c r="N151" t="n">
-        <v>54.69666666666668</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6582,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J152" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L152" t="n">
-        <v>55.00999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>54.77000000000002</v>
-      </c>
-      <c r="N152" t="n">
-        <v>54.71000000000001</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6623,18 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J153" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L153" t="n">
-        <v>55.04999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>54.81000000000002</v>
-      </c>
-      <c r="N153" t="n">
-        <v>54.72000000000001</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6664,18 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J154" t="n">
-        <v>28.49999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>6.666666666666793</v>
-      </c>
-      <c r="L154" t="n">
-        <v>55.05999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>54.83500000000002</v>
-      </c>
-      <c r="N154" t="n">
-        <v>54.73666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6705,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J155" t="n">
-        <v>28.79999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>22.22222222222226</v>
-      </c>
-      <c r="L155" t="n">
-        <v>55.09999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>54.87500000000002</v>
-      </c>
-      <c r="N155" t="n">
-        <v>54.76000000000001</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6746,18 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J156" t="n">
-        <v>28.79999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>22.22222222222226</v>
-      </c>
-      <c r="L156" t="n">
-        <v>55.13999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>54.91000000000003</v>
-      </c>
-      <c r="N156" t="n">
-        <v>54.78333333333334</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6787,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="J157" t="n">
-        <v>28.79999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>22.22222222222226</v>
-      </c>
-      <c r="L157" t="n">
-        <v>55.17999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>54.93500000000002</v>
-      </c>
-      <c r="N157" t="n">
-        <v>54.80666666666668</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6828,18 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J158" t="n">
-        <v>29.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>-25.00000000000011</v>
-      </c>
-      <c r="L158" t="n">
-        <v>55.18999999999998</v>
+        <v>53.2</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>54.96500000000002</v>
-      </c>
-      <c r="N158" t="n">
-        <v>54.82000000000001</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,28 +6869,18 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="J159" t="n">
-        <v>29.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>29.41176470588255</v>
-      </c>
-      <c r="L159" t="n">
-        <v>55.19999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>55.02000000000002</v>
-      </c>
-      <c r="N159" t="n">
-        <v>54.85333333333335</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6910,18 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="J160" t="n">
-        <v>29.89999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>40.00000000000014</v>
-      </c>
-      <c r="L160" t="n">
-        <v>55.27999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>55.09000000000001</v>
-      </c>
-      <c r="N160" t="n">
-        <v>54.89666666666668</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6951,18 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="J161" t="n">
-        <v>30.19999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>10.00000000000021</v>
-      </c>
-      <c r="L161" t="n">
-        <v>55.32999999999998</v>
+        <v>53.2</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>55.145</v>
-      </c>
-      <c r="N161" t="n">
-        <v>54.93000000000001</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6992,18 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="J162" t="n">
-        <v>30.19999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>10.00000000000021</v>
-      </c>
-      <c r="L162" t="n">
-        <v>55.34999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>55.18000000000001</v>
-      </c>
-      <c r="N162" t="n">
-        <v>54.96333333333335</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +7033,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="J163" t="n">
-        <v>30.19999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>29.41176470588255</v>
-      </c>
-      <c r="L163" t="n">
-        <v>55.36999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="N163" t="n">
-        <v>54.99666666666668</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +7074,18 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="J164" t="n">
-        <v>30.19999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>14.28571428571458</v>
-      </c>
-      <c r="L164" t="n">
-        <v>55.41999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>55.23999999999999</v>
-      </c>
-      <c r="N164" t="n">
-        <v>55.03000000000001</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +7115,18 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="J165" t="n">
-        <v>30.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>29.41176470588255</v>
-      </c>
-      <c r="L165" t="n">
-        <v>55.46999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>55.28499999999999</v>
-      </c>
-      <c r="N165" t="n">
-        <v>55.07333333333334</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +7156,18 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>3.100000000000001</v>
-      </c>
-      <c r="J166" t="n">
-        <v>30.69999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>36.84210526315821</v>
-      </c>
-      <c r="L166" t="n">
-        <v>55.54</v>
+        <v>53.2</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>55.33999999999999</v>
-      </c>
-      <c r="N166" t="n">
-        <v>55.12000000000001</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +7197,18 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>3.100000000000001</v>
-      </c>
-      <c r="J167" t="n">
-        <v>30.69999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>62.50000000000022</v>
-      </c>
-      <c r="L167" t="n">
-        <v>55.61</v>
+        <v>53.2</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>55.39499999999998</v>
-      </c>
-      <c r="N167" t="n">
-        <v>55.16000000000001</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,29 +7238,19 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>3.399999999999999</v>
-      </c>
-      <c r="J168" t="n">
-        <v>30.99999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>57.14285714285728</v>
-      </c>
-      <c r="L168" t="n">
-        <v>55.73999999999999</v>
+        <v>53.2</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>55.46499999999997</v>
-      </c>
-      <c r="N168" t="n">
-        <v>55.22333333333334</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
+        <v>1.053270676691729</v>
       </c>
     </row>
     <row r="169">
@@ -8863,28 +7279,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="J169" t="n">
-        <v>31.49999999999998</v>
-      </c>
-      <c r="K169" t="n">
-        <v>62.50000000000022</v>
-      </c>
-      <c r="L169" t="n">
-        <v>55.86999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>55.53499999999997</v>
-      </c>
-      <c r="N169" t="n">
-        <v>55.30333333333333</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +7314,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="J170" t="n">
-        <v>31.49999999999998</v>
-      </c>
-      <c r="K170" t="n">
-        <v>100</v>
-      </c>
-      <c r="L170" t="n">
-        <v>55.96999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>55.62499999999996</v>
-      </c>
-      <c r="N170" t="n">
-        <v>55.38333333333333</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,28 +7349,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="J171" t="n">
-        <v>32.49999999999998</v>
-      </c>
-      <c r="K171" t="n">
-        <v>13.04347826086946</v>
-      </c>
-      <c r="L171" t="n">
-        <v>55.99999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>55.66499999999996</v>
-      </c>
-      <c r="N171" t="n">
-        <v>55.42999999999999</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,28 +7384,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J172" t="n">
-        <v>32.69999999999997</v>
-      </c>
-      <c r="K172" t="n">
-        <v>4.000000000000068</v>
-      </c>
-      <c r="L172" t="n">
-        <v>56.00999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>55.67999999999996</v>
-      </c>
-      <c r="N172" t="n">
-        <v>55.45666666666666</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9067,28 +7419,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J173" t="n">
-        <v>33.19999999999997</v>
-      </c>
-      <c r="K173" t="n">
-        <v>20.0000000000001</v>
-      </c>
-      <c r="L173" t="n">
-        <v>56.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>55.71999999999996</v>
-      </c>
-      <c r="N173" t="n">
-        <v>55.49666666666666</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9118,28 +7454,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J174" t="n">
-        <v>33.19999999999997</v>
-      </c>
-      <c r="K174" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L174" t="n">
-        <v>56.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>55.77499999999996</v>
-      </c>
-      <c r="N174" t="n">
-        <v>55.53666666666665</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9169,28 +7489,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="J175" t="n">
-        <v>33.89999999999997</v>
-      </c>
-      <c r="K175" t="n">
-        <v>25</v>
-      </c>
-      <c r="L175" t="n">
-        <v>56.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>55.84999999999995</v>
-      </c>
-      <c r="N175" t="n">
-        <v>55.59999999999998</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9220,28 +7524,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J176" t="n">
-        <v>34.59999999999997</v>
-      </c>
-      <c r="K176" t="n">
-        <v>2.564102564102611</v>
-      </c>
-      <c r="L176" t="n">
-        <v>56.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>55.88999999999995</v>
-      </c>
-      <c r="N176" t="n">
-        <v>55.63999999999997</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,28 +7559,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J177" t="n">
-        <v>34.59999999999997</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-5.555555555555457</v>
-      </c>
-      <c r="L177" t="n">
-        <v>56.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>55.92999999999995</v>
-      </c>
-      <c r="N177" t="n">
-        <v>55.67999999999996</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,28 +7594,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>3.100000000000001</v>
-      </c>
-      <c r="J178" t="n">
-        <v>34.69999999999997</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L178" t="n">
-        <v>56.22000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>55.97999999999995</v>
-      </c>
-      <c r="N178" t="n">
-        <v>55.71666666666663</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,28 +7629,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J179" t="n">
-        <v>34.79999999999997</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-21.21212121212115</v>
-      </c>
-      <c r="L179" t="n">
-        <v>56.15000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>56.00999999999995</v>
-      </c>
-      <c r="N179" t="n">
-        <v>55.73999999999996</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,28 +7664,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="J180" t="n">
-        <v>35.09999999999997</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>56.05000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>56.00999999999995</v>
-      </c>
-      <c r="N180" t="n">
-        <v>55.76666666666662</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9475,28 +7699,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="J181" t="n">
-        <v>35.09999999999997</v>
-      </c>
-      <c r="K181" t="n">
-        <v>8.333333333333162</v>
-      </c>
-      <c r="L181" t="n">
-        <v>56.05000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>56.02499999999994</v>
-      </c>
-      <c r="N181" t="n">
-        <v>55.79333333333329</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9526,28 +7734,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J182" t="n">
-        <v>36.09999999999997</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-44.82758620689672</v>
-      </c>
-      <c r="L182" t="n">
-        <v>55.97000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>55.98999999999994</v>
-      </c>
-      <c r="N182" t="n">
-        <v>55.77666666666662</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9577,28 +7769,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J183" t="n">
-        <v>36.39999999999998</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-31.24999999999997</v>
-      </c>
-      <c r="L183" t="n">
-        <v>55.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>55.96999999999993</v>
-      </c>
-      <c r="N183" t="n">
-        <v>55.76999999999995</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,28 +7804,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J184" t="n">
-        <v>36.49999999999998</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-69.2307692307689</v>
-      </c>
-      <c r="L184" t="n">
-        <v>55.76000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>55.94499999999994</v>
-      </c>
-      <c r="N184" t="n">
-        <v>55.76999999999995</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9679,28 +7839,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>2</v>
-      </c>
-      <c r="J185" t="n">
-        <v>36.59999999999998</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-59.99999999999972</v>
-      </c>
-      <c r="L185" t="n">
-        <v>55.57000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>55.89999999999994</v>
-      </c>
-      <c r="N185" t="n">
-        <v>55.75666666666663</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,28 +7874,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="J186" t="n">
-        <v>36.69999999999998</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-52.38095238095206</v>
-      </c>
-      <c r="L186" t="n">
-        <v>55.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>55.84999999999994</v>
-      </c>
-      <c r="N186" t="n">
-        <v>55.74666666666663</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9781,28 +7909,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
-      </c>
-      <c r="J187" t="n">
-        <v>36.79999999999998</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-52.38095238095206</v>
-      </c>
-      <c r="L187" t="n">
-        <v>55.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>55.79499999999994</v>
-      </c>
-      <c r="N187" t="n">
-        <v>55.7333333333333</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9832,28 +7944,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1.800000000000004</v>
-      </c>
-      <c r="J188" t="n">
-        <v>36.99999999999998</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-63.63636363636328</v>
-      </c>
-      <c r="L188" t="n">
-        <v>55.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>55.71499999999995</v>
-      </c>
-      <c r="N188" t="n">
-        <v>55.72333333333329</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,28 +7979,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1.800000000000004</v>
-      </c>
-      <c r="J189" t="n">
-        <v>36.99999999999998</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-57.89473684210479</v>
-      </c>
-      <c r="L189" t="n">
-        <v>55.07000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>55.60999999999996</v>
-      </c>
-      <c r="N189" t="n">
-        <v>55.69666666666663</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9934,28 +8014,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J190" t="n">
-        <v>37.09999999999997</v>
-      </c>
-      <c r="K190" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L190" t="n">
-        <v>54.97000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>55.50999999999996</v>
-      </c>
-      <c r="N190" t="n">
-        <v>55.6633333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9985,28 +8049,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J191" t="n">
-        <v>37.09999999999997</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0</v>
-      </c>
-      <c r="L191" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>55.45999999999996</v>
-      </c>
-      <c r="N191" t="n">
-        <v>55.63999999999997</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10036,28 +8084,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J192" t="n">
-        <v>37.09999999999997</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-42.85714285714373</v>
-      </c>
-      <c r="L192" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>55.41999999999996</v>
-      </c>
-      <c r="N192" t="n">
-        <v>55.61666666666663</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10087,28 +8119,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J193" t="n">
-        <v>38.39999999999998</v>
-      </c>
-      <c r="K193" t="n">
-        <v>57.89473684210537</v>
-      </c>
-      <c r="L193" t="n">
-        <v>54.97000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>55.41999999999996</v>
-      </c>
-      <c r="N193" t="n">
-        <v>55.63666666666663</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10138,28 +8154,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
-      </c>
-      <c r="J194" t="n">
-        <v>39.59999999999998</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>54.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>55.35999999999997</v>
-      </c>
-      <c r="N194" t="n">
-        <v>55.61666666666663</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10189,28 +8189,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J195" t="n">
-        <v>39.79999999999998</v>
-      </c>
-      <c r="K195" t="n">
-        <v>3.225806451612947</v>
-      </c>
-      <c r="L195" t="n">
-        <v>54.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>55.27499999999996</v>
-      </c>
-      <c r="N195" t="n">
-        <v>55.59333333333329</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10240,28 +8224,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J196" t="n">
-        <v>39.79999999999998</v>
-      </c>
-      <c r="K196" t="n">
-        <v>6.666666666666761</v>
-      </c>
-      <c r="L196" t="n">
-        <v>54.99000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>55.22499999999997</v>
-      </c>
-      <c r="N196" t="n">
-        <v>55.56333333333329</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10291,28 +8259,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J197" t="n">
-        <v>40.09999999999999</v>
-      </c>
-      <c r="K197" t="n">
-        <v>3.225806451612711</v>
-      </c>
-      <c r="L197" t="n">
-        <v>54.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>55.15999999999997</v>
-      </c>
-      <c r="N197" t="n">
-        <v>55.52333333333329</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10342,28 +8294,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J198" t="n">
-        <v>40.29999999999998</v>
-      </c>
-      <c r="K198" t="n">
-        <v>-3.03030303030307</v>
-      </c>
-      <c r="L198" t="n">
-        <v>54.97000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>55.08999999999996</v>
-      </c>
-      <c r="N198" t="n">
-        <v>55.46666666666662</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,28 +8329,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J199" t="n">
-        <v>40.29999999999998</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-6.249999999999847</v>
-      </c>
-      <c r="L199" t="n">
-        <v>54.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>55.01499999999997</v>
-      </c>
-      <c r="N199" t="n">
-        <v>55.39333333333329</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10444,28 +8364,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J200" t="n">
-        <v>40.29999999999998</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-6.249999999999847</v>
-      </c>
-      <c r="L200" t="n">
-        <v>54.94000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>54.95499999999996</v>
-      </c>
-      <c r="N200" t="n">
-        <v>55.31999999999995</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10495,28 +8399,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="J201" t="n">
-        <v>41.19999999999998</v>
-      </c>
-      <c r="K201" t="n">
-        <v>17.07317073170735</v>
-      </c>
-      <c r="L201" t="n">
-        <v>55.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>54.93999999999996</v>
-      </c>
-      <c r="N201" t="n">
-        <v>55.30999999999995</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10546,28 +8434,12 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J202" t="n">
-        <v>41.29999999999998</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-17.24137931034479</v>
-      </c>
-      <c r="L202" t="n">
-        <v>55.09000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>54.97999999999996</v>
-      </c>
-      <c r="N202" t="n">
-        <v>55.30999999999995</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10597,1099 +8469,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>3.100000000000001</v>
-      </c>
-      <c r="J203" t="n">
-        <v>41.69999999999998</v>
-      </c>
-      <c r="K203" t="n">
-        <v>52.38095238095242</v>
-      </c>
-      <c r="L203" t="n">
-        <v>55.08000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
-        <v>55.02499999999996</v>
-      </c>
-      <c r="N203" t="n">
-        <v>55.30666666666662</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C204" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E204" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F204" t="n">
-        <v>6898.3812</v>
-      </c>
-      <c r="G204" t="n">
-        <v>55.40500000000014</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J204" t="n">
-        <v>42.59999999999998</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0</v>
-      </c>
-      <c r="L204" t="n">
-        <v>55.10000000000002</v>
-      </c>
-      <c r="M204" t="n">
-        <v>55.02999999999996</v>
-      </c>
-      <c r="N204" t="n">
-        <v>55.27333333333329</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C205" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D205" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E205" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1</v>
-      </c>
-      <c r="G205" t="n">
-        <v>55.41666666666681</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J205" t="n">
-        <v>43.09999999999998</v>
-      </c>
-      <c r="K205" t="n">
-        <v>15.15151515151517</v>
-      </c>
-      <c r="L205" t="n">
-        <v>55.15000000000002</v>
-      </c>
-      <c r="M205" t="n">
-        <v>55.06499999999996</v>
-      </c>
-      <c r="N205" t="n">
-        <v>55.23333333333328</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C206" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E206" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1999</v>
-      </c>
-      <c r="G206" t="n">
-        <v>55.42000000000014</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J206" t="n">
-        <v>43.59999999999998</v>
-      </c>
-      <c r="K206" t="n">
-        <v>8.57142857142871</v>
-      </c>
-      <c r="L206" t="n">
-        <v>55.15000000000002</v>
-      </c>
-      <c r="M206" t="n">
-        <v>55.06999999999995</v>
-      </c>
-      <c r="N206" t="n">
-        <v>55.19999999999995</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C207" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D207" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E207" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1</v>
-      </c>
-      <c r="G207" t="n">
-        <v>55.4316666666668</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J207" t="n">
-        <v>44.09999999999998</v>
-      </c>
-      <c r="K207" t="n">
-        <v>26.31578947368423</v>
-      </c>
-      <c r="L207" t="n">
-        <v>55.23000000000003</v>
-      </c>
-      <c r="M207" t="n">
-        <v>55.10499999999994</v>
-      </c>
-      <c r="N207" t="n">
-        <v>55.18333333333329</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C208" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D208" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E208" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1420.1989</v>
-      </c>
-      <c r="G208" t="n">
-        <v>55.43500000000013</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J208" t="n">
-        <v>44.59999999999998</v>
-      </c>
-      <c r="K208" t="n">
-        <v>11.62790697674419</v>
-      </c>
-      <c r="L208" t="n">
-        <v>55.28000000000003</v>
-      </c>
-      <c r="M208" t="n">
-        <v>55.12499999999993</v>
-      </c>
-      <c r="N208" t="n">
-        <v>55.15333333333329</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C209" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D209" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E209" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F209" t="n">
-        <v>838.9999</v>
-      </c>
-      <c r="G209" t="n">
-        <v>55.43000000000013</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J209" t="n">
-        <v>44.59999999999998</v>
-      </c>
-      <c r="K209" t="n">
-        <v>11.62790697674419</v>
-      </c>
-      <c r="L209" t="n">
-        <v>55.33000000000003</v>
-      </c>
-      <c r="M209" t="n">
-        <v>55.14499999999992</v>
-      </c>
-      <c r="N209" t="n">
-        <v>55.11999999999995</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C210" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D210" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E210" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>788</v>
-      </c>
-      <c r="G210" t="n">
-        <v>55.43166666666679</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J210" t="n">
-        <v>44.59999999999998</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-11.7647058823529</v>
-      </c>
-      <c r="L210" t="n">
-        <v>55.38000000000003</v>
-      </c>
-      <c r="M210" t="n">
-        <v>55.15999999999993</v>
-      </c>
-      <c r="N210" t="n">
-        <v>55.09666666666661</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C211" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D211" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E211" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F211" t="n">
-        <v>80</v>
-      </c>
-      <c r="G211" t="n">
-        <v>55.43333333333346</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J211" t="n">
-        <v>44.59999999999998</v>
-      </c>
-      <c r="K211" t="n">
-        <v>-15.15151515151517</v>
-      </c>
-      <c r="L211" t="n">
-        <v>55.34000000000003</v>
-      </c>
-      <c r="M211" t="n">
-        <v>55.17499999999992</v>
-      </c>
-      <c r="N211" t="n">
-        <v>55.07333333333328</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1</v>
-      </c>
-      <c r="G212" t="n">
-        <v>55.43833333333345</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J212" t="n">
-        <v>45.09999999999998</v>
-      </c>
-      <c r="K212" t="n">
-        <v>-11.7647058823529</v>
-      </c>
-      <c r="L212" t="n">
-        <v>55.34000000000003</v>
-      </c>
-      <c r="M212" t="n">
-        <v>55.21499999999992</v>
-      </c>
-      <c r="N212" t="n">
-        <v>55.09999999999994</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C213" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D213" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E213" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F213" t="n">
-        <v>60305.8642</v>
-      </c>
-      <c r="G213" t="n">
-        <v>55.43500000000011</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J213" t="n">
-        <v>45.59999999999998</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0</v>
-      </c>
-      <c r="L213" t="n">
-        <v>55.25000000000004</v>
-      </c>
-      <c r="M213" t="n">
-        <v>55.16499999999992</v>
-      </c>
-      <c r="N213" t="n">
-        <v>55.09999999999994</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C214" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="D214" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="E214" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F214" t="n">
-        <v>7043.1603</v>
-      </c>
-      <c r="G214" t="n">
-        <v>55.44666666666678</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>2.800000000000004</v>
-      </c>
-      <c r="J214" t="n">
-        <v>46.19999999999998</v>
-      </c>
-      <c r="K214" t="n">
-        <v>3.225806451612947</v>
-      </c>
-      <c r="L214" t="n">
-        <v>55.31000000000004</v>
-      </c>
-      <c r="M214" t="n">
-        <v>55.20499999999991</v>
-      </c>
-      <c r="N214" t="n">
-        <v>55.12333333333329</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="C215" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D215" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E215" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2916</v>
-      </c>
-      <c r="G215" t="n">
-        <v>55.45666666666678</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3</v>
-      </c>
-      <c r="J215" t="n">
-        <v>46.39999999999998</v>
-      </c>
-      <c r="K215" t="n">
-        <v>28.5714285714285</v>
-      </c>
-      <c r="L215" t="n">
-        <v>55.34000000000003</v>
-      </c>
-      <c r="M215" t="n">
-        <v>55.24499999999993</v>
-      </c>
-      <c r="N215" t="n">
-        <v>55.15666666666662</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C216" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="D216" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="E216" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F216" t="n">
-        <v>15400</v>
-      </c>
-      <c r="G216" t="n">
-        <v>55.47333333333344</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3.399999999999999</v>
-      </c>
-      <c r="J216" t="n">
-        <v>46.79999999999998</v>
-      </c>
-      <c r="K216" t="n">
-        <v>25.92592592592581</v>
-      </c>
-      <c r="L216" t="n">
-        <v>55.46000000000002</v>
-      </c>
-      <c r="M216" t="n">
-        <v>55.30499999999993</v>
-      </c>
-      <c r="N216" t="n">
-        <v>55.19999999999995</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="C217" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="D217" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="E217" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="F217" t="n">
-        <v>62990.8509</v>
-      </c>
-      <c r="G217" t="n">
-        <v>55.49666666666677</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3.800000000000004</v>
-      </c>
-      <c r="J217" t="n">
-        <v>47.19999999999998</v>
-      </c>
-      <c r="K217" t="n">
-        <v>61.53846153846156</v>
-      </c>
-      <c r="L217" t="n">
-        <v>55.57000000000003</v>
-      </c>
-      <c r="M217" t="n">
-        <v>55.39999999999993</v>
-      </c>
-      <c r="N217" t="n">
-        <v>55.25999999999995</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C218" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="D218" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E218" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="F218" t="n">
-        <v>44736.5506</v>
-      </c>
-      <c r="G218" t="n">
-        <v>55.52833333333344</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4</v>
-      </c>
-      <c r="J218" t="n">
-        <v>47.39999999999998</v>
-      </c>
-      <c r="K218" t="n">
-        <v>64.28571428571425</v>
-      </c>
-      <c r="L218" t="n">
-        <v>55.75000000000002</v>
-      </c>
-      <c r="M218" t="n">
-        <v>55.51499999999994</v>
-      </c>
-      <c r="N218" t="n">
-        <v>55.33333333333328</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C219" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E219" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>54237.0773</v>
-      </c>
-      <c r="G219" t="n">
-        <v>55.53833333333343</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J219" t="n">
-        <v>48.19999999999997</v>
-      </c>
-      <c r="K219" t="n">
-        <v>27.77777777777782</v>
-      </c>
-      <c r="L219" t="n">
-        <v>55.85000000000002</v>
-      </c>
-      <c r="M219" t="n">
-        <v>55.58999999999994</v>
-      </c>
-      <c r="N219" t="n">
-        <v>55.37999999999995</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="C220" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="D220" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="E220" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1590</v>
-      </c>
-      <c r="G220" t="n">
-        <v>55.54833333333343</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J220" t="n">
-        <v>48.49999999999997</v>
-      </c>
-      <c r="K220" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L220" t="n">
-        <v>55.98000000000002</v>
-      </c>
-      <c r="M220" t="n">
-        <v>55.67999999999995</v>
-      </c>
-      <c r="N220" t="n">
-        <v>55.43333333333328</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C221" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D221" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E221" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="F221" t="n">
-        <v>10254.7067</v>
-      </c>
-      <c r="G221" t="n">
-        <v>55.55333333333343</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="J221" t="n">
-        <v>49.09999999999997</v>
-      </c>
-      <c r="K221" t="n">
-        <v>4.999999999999902</v>
-      </c>
-      <c r="L221" t="n">
-        <v>56.05000000000001</v>
-      </c>
-      <c r="M221" t="n">
-        <v>55.69499999999995</v>
-      </c>
-      <c r="N221" t="n">
-        <v>55.46666666666661</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="C222" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="D222" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="E222" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1</v>
-      </c>
-      <c r="G222" t="n">
-        <v>55.57166666666676</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J222" t="n">
-        <v>49.89999999999998</v>
-      </c>
-      <c r="K222" t="n">
-        <v>34.88372093023258</v>
-      </c>
-      <c r="L222" t="n">
-        <v>56.15000000000001</v>
-      </c>
-      <c r="M222" t="n">
-        <v>55.74499999999995</v>
-      </c>
-      <c r="N222" t="n">
-        <v>55.52666666666661</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D223" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E223" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="F223" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G223" t="n">
-        <v>55.57666666666677</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>2.899999999999999</v>
-      </c>
-      <c r="J223" t="n">
-        <v>50.69999999999998</v>
-      </c>
-      <c r="K223" t="n">
-        <v>2.222222222222096</v>
-      </c>
-      <c r="L223" t="n">
-        <v>56.22000000000001</v>
-      </c>
-      <c r="M223" t="n">
-        <v>55.73499999999994</v>
-      </c>
-      <c r="N223" t="n">
-        <v>55.51666666666662</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C224" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D224" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E224" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F224" t="n">
-        <v>3690.358</v>
-      </c>
-      <c r="G224" t="n">
-        <v>55.57833333333344</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J224" t="n">
-        <v>50.89999999999998</v>
-      </c>
-      <c r="K224" t="n">
-        <v>-6.666666666666604</v>
-      </c>
-      <c r="L224" t="n">
-        <v>56.21</v>
-      </c>
-      <c r="M224" t="n">
-        <v>55.75999999999995</v>
-      </c>
-      <c r="N224" t="n">
-        <v>55.53999999999994</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -696,17 +696,13 @@
         <v>52.90000000000019</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>53</v>
-      </c>
-      <c r="K9" t="n">
-        <v>53</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -735,22 +731,14 @@
         <v>52.90333333333352</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>53</v>
-      </c>
-      <c r="K10" t="n">
-        <v>53</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -778,22 +766,14 @@
         <v>52.90500000000019</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>53</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -821,17 +801,13 @@
         <v>52.90666666666685</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>52.9</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -860,22 +836,14 @@
         <v>52.91166666666685</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -903,22 +871,14 @@
         <v>52.91500000000018</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -946,17 +906,13 @@
         <v>52.92000000000017</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>53.2</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -985,22 +941,14 @@
         <v>52.92833333333351</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +976,14 @@
         <v>52.93500000000017</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1071,22 +1011,14 @@
         <v>52.94000000000016</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1114,22 +1046,14 @@
         <v>52.94000000000016</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1157,22 +1081,14 @@
         <v>52.94000000000016</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1200,22 +1116,14 @@
         <v>52.9383333333335</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1243,22 +1151,14 @@
         <v>52.95666666666683</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1286,22 +1186,14 @@
         <v>53.00666666666682</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>54</v>
-      </c>
-      <c r="K23" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1329,22 +1221,14 @@
         <v>53.04166666666683</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K24" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1378,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1416,17 +1294,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1460,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1501,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1542,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1583,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1624,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1706,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1747,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1788,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1829,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1870,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1911,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1952,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1993,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2034,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2075,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2116,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2239,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2280,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2321,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2403,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2444,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2485,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2526,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2567,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2608,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2649,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2690,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2731,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2772,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2813,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2854,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2895,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2936,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2977,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3018,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3100,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3141,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3258,20 +2866,18 @@
         <v>53.65833333333346</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>53.3</v>
+      </c>
       <c r="K71" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>53.3</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3299,18 +2905,20 @@
         <v>53.66500000000013</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>53.4</v>
+      </c>
       <c r="K72" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -3340,14 +2948,16 @@
         <v>53.67000000000014</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>53.3</v>
+      </c>
       <c r="K73" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3381,14 +2991,16 @@
         <v>53.66833333333347</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>53.4</v>
+      </c>
       <c r="K74" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3429,7 +3041,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3470,7 +3082,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3511,7 +3123,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3552,7 +3164,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3593,7 +3205,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3634,7 +3246,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3675,7 +3287,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3716,7 +3328,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3757,7 +3369,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3798,7 +3410,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3839,7 +3451,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3880,7 +3492,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3921,7 +3533,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3962,7 +3574,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4003,7 +3615,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4044,7 +3656,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4085,7 +3697,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4126,7 +3738,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4167,7 +3779,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4208,7 +3820,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4249,7 +3861,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4290,7 +3902,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4331,7 +3943,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4372,7 +3984,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4413,7 +4025,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4454,7 +4066,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4495,7 +4107,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4536,7 +4148,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4577,7 +4189,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4618,7 +4230,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4659,7 +4271,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4700,7 +4312,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4741,7 +4353,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4782,7 +4394,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4823,7 +4435,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4864,7 +4476,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4905,7 +4517,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4946,7 +4558,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4987,7 +4599,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5028,7 +4640,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5069,7 +4681,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5110,7 +4722,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5151,7 +4763,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5192,7 +4804,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5233,7 +4845,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5274,7 +4886,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5315,7 +4927,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5356,7 +4968,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5397,7 +5009,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5438,7 +5050,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5479,7 +5091,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5520,7 +5132,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5561,7 +5173,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5602,7 +5214,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5643,7 +5255,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5684,7 +5296,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5725,7 +5337,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5766,7 +5378,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5807,7 +5419,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5848,7 +5460,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5889,7 +5501,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5930,7 +5542,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5971,7 +5583,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6012,7 +5624,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6053,7 +5665,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6094,7 +5706,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6135,7 +5747,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6176,7 +5788,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6217,7 +5829,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6258,7 +5870,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6299,7 +5911,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6340,7 +5952,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6381,7 +5993,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6422,7 +6034,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6463,7 +6075,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6504,7 +6116,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6545,7 +6157,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6586,7 +6198,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6627,7 +6239,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6668,7 +6280,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6709,7 +6321,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6750,7 +6362,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6791,7 +6403,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6832,7 +6444,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6873,7 +6485,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6914,7 +6526,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6955,7 +6567,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6996,7 +6608,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7037,7 +6649,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7078,7 +6690,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7119,7 +6731,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7160,7 +6772,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7201,7 +6813,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7238,19 +6850,19 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>1.053270676691729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -7279,11 +6891,17 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +6932,17 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7349,11 +6973,17 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7017,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +7058,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7099,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7140,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +7181,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7222,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7263,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7304,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7345,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +7386,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +7427,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +7468,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +7509,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +7550,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +7591,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +7632,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +7673,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7982,8 +7714,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +7755,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8052,8 +7796,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +7878,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +7919,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +7960,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +8001,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +8042,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8297,8 +8083,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8332,8 +8124,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8367,8 +8165,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8402,8 +8206,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8437,8 +8247,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8472,8 +8288,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>52.9</v>
       </c>
       <c r="F2" t="n">
-        <v>11839950.7562</v>
+        <v>11830000</v>
       </c>
       <c r="G2" t="n">
-        <v>52.87666666666686</v>
+        <v>52.8750000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>52.9</v>
       </c>
       <c r="F3" t="n">
-        <v>11900000</v>
+        <v>11839950.7562</v>
       </c>
       <c r="G3" t="n">
-        <v>52.87833333333353</v>
+        <v>52.87666666666686</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>52.9</v>
       </c>
       <c r="F4" t="n">
-        <v>690049.2438000001</v>
+        <v>11900000</v>
       </c>
       <c r="G4" t="n">
-        <v>52.88166666666687</v>
+        <v>52.87833333333353</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>52.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1800.1723</v>
+        <v>690049.2438000001</v>
       </c>
       <c r="G5" t="n">
-        <v>52.8850000000002</v>
+        <v>52.88166666666687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>52.9</v>
       </c>
       <c r="F6" t="n">
-        <v>6434.1541</v>
+        <v>1800.1723</v>
       </c>
       <c r="G6" t="n">
-        <v>52.88666666666687</v>
+        <v>52.8850000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C7" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D7" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E7" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F7" t="n">
-        <v>356.6157</v>
+        <v>6434.1541</v>
       </c>
       <c r="G7" t="n">
-        <v>52.89166666666686</v>
+        <v>52.88666666666687</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>53.1</v>
       </c>
       <c r="F8" t="n">
-        <v>99.7834</v>
+        <v>356.6157</v>
       </c>
       <c r="G8" t="n">
-        <v>52.89666666666686</v>
+        <v>52.89166666666686</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>99.7834</v>
       </c>
       <c r="G9" t="n">
-        <v>52.90000000000019</v>
+        <v>52.89666666666686</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>53</v>
       </c>
       <c r="F10" t="n">
-        <v>1671.4283</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
-        <v>52.90333333333352</v>
+        <v>52.90000000000019</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
-        <v>8913.102800000001</v>
+        <v>1671.4283</v>
       </c>
       <c r="G11" t="n">
-        <v>52.90500000000019</v>
+        <v>52.90333333333352</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>52.9</v>
       </c>
       <c r="F12" t="n">
-        <v>948.1935999999999</v>
+        <v>8913.102800000001</v>
       </c>
       <c r="G12" t="n">
-        <v>52.90666666666685</v>
+        <v>52.90500000000019</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C13" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E13" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F13" t="n">
-        <v>3147.1621</v>
+        <v>948.1935999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>52.91166666666685</v>
+        <v>52.90666666666685</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>53.1</v>
       </c>
       <c r="F14" t="n">
-        <v>8663.5987</v>
+        <v>3147.1621</v>
       </c>
       <c r="G14" t="n">
-        <v>52.91500000000018</v>
+        <v>52.91166666666685</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C15" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D15" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E15" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F15" t="n">
-        <v>800.2966</v>
+        <v>8663.5987</v>
       </c>
       <c r="G15" t="n">
-        <v>52.92000000000017</v>
+        <v>52.91500000000018</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="C16" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="D16" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="E16" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="F16" t="n">
-        <v>1790.083</v>
+        <v>800.2966</v>
       </c>
       <c r="G16" t="n">
-        <v>52.92833333333351</v>
+        <v>52.92000000000017</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="C17" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="D17" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="E17" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="F17" t="n">
-        <v>5471.2615</v>
+        <v>1790.083</v>
       </c>
       <c r="G17" t="n">
-        <v>52.93500000000017</v>
+        <v>52.92833333333351</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="C18" t="n">
         <v>53.2</v>
       </c>
-      <c r="C18" t="n">
-        <v>53.1</v>
-      </c>
       <c r="D18" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E18" t="n">
         <v>53.2</v>
       </c>
-      <c r="E18" t="n">
-        <v>53.1</v>
-      </c>
       <c r="F18" t="n">
-        <v>4793.3311</v>
+        <v>5471.2615</v>
       </c>
       <c r="G18" t="n">
-        <v>52.94000000000016</v>
+        <v>52.93500000000017</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C19" t="n">
         <v>53.1</v>
       </c>
-      <c r="C19" t="n">
-        <v>52.8</v>
-      </c>
       <c r="D19" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E19" t="n">
         <v>53.1</v>
       </c>
-      <c r="E19" t="n">
-        <v>52.8</v>
-      </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>4793.3311</v>
       </c>
       <c r="G19" t="n">
         <v>52.94000000000016</v>
@@ -1063,19 +1063,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="C20" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D20" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="E20" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F20" t="n">
-        <v>950.019</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
         <v>52.94000000000016</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C21" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D21" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E21" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F21" t="n">
-        <v>6789.9967</v>
+        <v>950.019</v>
       </c>
       <c r="G21" t="n">
-        <v>52.9383333333335</v>
+        <v>52.94000000000016</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="C22" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="E22" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="F22" t="n">
-        <v>6589.675</v>
+        <v>6789.9967</v>
       </c>
       <c r="G22" t="n">
-        <v>52.95666666666683</v>
+        <v>52.9383333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C23" t="n">
         <v>54</v>
       </c>
-      <c r="C23" t="n">
-        <v>55.9</v>
-      </c>
       <c r="D23" t="n">
-        <v>55.9</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="F23" t="n">
-        <v>358709.7223</v>
+        <v>6589.675</v>
       </c>
       <c r="G23" t="n">
-        <v>53.00666666666682</v>
+        <v>52.95666666666683</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>54</v>
+      </c>
+      <c r="C24" t="n">
         <v>55.9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>55</v>
       </c>
       <c r="D24" t="n">
         <v>55.9</v>
       </c>
       <c r="E24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" t="n">
-        <v>51853.3354</v>
+        <v>358709.7223</v>
       </c>
       <c r="G24" t="n">
-        <v>53.04166666666683</v>
+        <v>53.00666666666682</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>54.4</v>
+        <v>55.9</v>
       </c>
       <c r="C25" t="n">
         <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="E25" t="n">
-        <v>54.2</v>
+        <v>55</v>
       </c>
       <c r="F25" t="n">
-        <v>151092.6133</v>
+        <v>51853.3354</v>
       </c>
       <c r="G25" t="n">
-        <v>53.07666666666682</v>
+        <v>53.04166666666683</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>53.9</v>
+        <v>54.4</v>
       </c>
       <c r="C26" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>53.9</v>
+        <v>55.1</v>
       </c>
       <c r="E26" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="F26" t="n">
-        <v>14307.0996</v>
+        <v>151092.6133</v>
       </c>
       <c r="G26" t="n">
-        <v>53.09166666666682</v>
+        <v>53.07666666666682</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,28 +1308,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>54.3</v>
+        <v>53.9</v>
       </c>
       <c r="C27" t="n">
-        <v>54.4</v>
+        <v>53.8</v>
       </c>
       <c r="D27" t="n">
-        <v>54.5</v>
+        <v>53.9</v>
       </c>
       <c r="E27" t="n">
-        <v>54.3</v>
+        <v>53.8</v>
       </c>
       <c r="F27" t="n">
-        <v>13468.5163</v>
+        <v>14307.0996</v>
       </c>
       <c r="G27" t="n">
-        <v>53.11666666666682</v>
+        <v>53.09166666666682</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C28" t="n">
         <v>54.4</v>
       </c>
-      <c r="C28" t="n">
-        <v>54.3</v>
-      </c>
       <c r="D28" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="E28" t="n">
         <v>54.3</v>
       </c>
       <c r="F28" t="n">
-        <v>12542.4231</v>
+        <v>13468.5163</v>
       </c>
       <c r="G28" t="n">
-        <v>53.14000000000016</v>
+        <v>53.11666666666682</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="C29" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="D29" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="E29" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F29" t="n">
-        <v>7667.5887</v>
+        <v>12542.4231</v>
       </c>
       <c r="G29" t="n">
-        <v>53.15833333333349</v>
+        <v>53.14000000000016</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="C30" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="E30" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F30" t="n">
-        <v>157.2365</v>
+        <v>7667.5887</v>
       </c>
       <c r="G30" t="n">
-        <v>53.17833333333349</v>
+        <v>53.15833333333349</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="C31" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="D31" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="E31" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="F31" t="n">
-        <v>1080</v>
+        <v>157.2365</v>
       </c>
       <c r="G31" t="n">
-        <v>53.20333333333349</v>
+        <v>53.17833333333349</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>54.4</v>
       </c>
       <c r="F32" t="n">
-        <v>6717.8662</v>
+        <v>1080</v>
       </c>
       <c r="G32" t="n">
-        <v>53.22833333333349</v>
+        <v>53.20333333333349</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>54.4</v>
       </c>
       <c r="F33" t="n">
-        <v>10602.9113</v>
+        <v>6717.8662</v>
       </c>
       <c r="G33" t="n">
-        <v>53.25000000000016</v>
+        <v>53.22833333333349</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="C34" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="D34" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="E34" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="F34" t="n">
-        <v>1101.0613</v>
+        <v>10602.9113</v>
       </c>
       <c r="G34" t="n">
-        <v>53.2733333333335</v>
+        <v>53.25000000000016</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="C35" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="D35" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="E35" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F35" t="n">
-        <v>704.0218</v>
+        <v>1101.0613</v>
       </c>
       <c r="G35" t="n">
-        <v>53.29166666666683</v>
+        <v>53.2733333333335</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="C36" t="n">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="D36" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="E36" t="n">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="F36" t="n">
-        <v>21854.634</v>
+        <v>704.0218</v>
       </c>
       <c r="G36" t="n">
-        <v>53.30166666666683</v>
+        <v>53.29166666666683</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>53.8</v>
+        <v>54.4</v>
       </c>
       <c r="C37" t="n">
-        <v>55.9</v>
+        <v>53.5</v>
       </c>
       <c r="D37" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="E37" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="F37" t="n">
-        <v>59869.0021</v>
+        <v>21854.634</v>
       </c>
       <c r="G37" t="n">
-        <v>53.35166666666682</v>
+        <v>53.30166666666683</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="C38" t="n">
-        <v>53.9</v>
+        <v>55.9</v>
       </c>
       <c r="D38" t="n">
-        <v>53.9</v>
+        <v>55.9</v>
       </c>
       <c r="E38" t="n">
-        <v>53.9</v>
+        <v>53.7</v>
       </c>
       <c r="F38" t="n">
-        <v>617.999</v>
+        <v>59869.0021</v>
       </c>
       <c r="G38" t="n">
-        <v>53.36833333333349</v>
+        <v>53.35166666666682</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,28 +1728,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C39" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="D39" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E39" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="F39" t="n">
-        <v>512.8742</v>
+        <v>617.999</v>
       </c>
       <c r="G39" t="n">
-        <v>53.38666666666682</v>
+        <v>53.36833333333349</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="C40" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D40" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E40" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F40" t="n">
-        <v>7834.466</v>
+        <v>512.8742</v>
       </c>
       <c r="G40" t="n">
-        <v>53.40666666666682</v>
+        <v>53.38666666666682</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="C41" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="D41" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="E41" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="F41" t="n">
-        <v>2452.3895</v>
+        <v>7834.466</v>
       </c>
       <c r="G41" t="n">
-        <v>53.43000000000016</v>
+        <v>53.40666666666682</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="C42" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="D42" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="E42" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="F42" t="n">
-        <v>809</v>
+        <v>2452.3895</v>
       </c>
       <c r="G42" t="n">
-        <v>53.44833333333349</v>
+        <v>53.43000000000016</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>54</v>
       </c>
       <c r="F43" t="n">
-        <v>6227.4536</v>
+        <v>809</v>
       </c>
       <c r="G43" t="n">
-        <v>53.46666666666682</v>
+        <v>53.44833333333349</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C44" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D44" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E44" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F44" t="n">
-        <v>199.1409</v>
+        <v>6227.4536</v>
       </c>
       <c r="G44" t="n">
-        <v>53.48333333333348</v>
+        <v>53.46666666666682</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="C45" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="D45" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="E45" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="F45" t="n">
-        <v>1100</v>
+        <v>199.1409</v>
       </c>
       <c r="G45" t="n">
-        <v>53.49333333333348</v>
+        <v>53.48333333333348</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="C46" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="D46" t="n">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="E46" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="F46" t="n">
-        <v>3860</v>
+        <v>1100</v>
       </c>
       <c r="G46" t="n">
-        <v>53.50166666666681</v>
+        <v>53.49333333333348</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="C47" t="n">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="D47" t="n">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="E47" t="n">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="F47" t="n">
-        <v>93290.5223</v>
+        <v>3860</v>
       </c>
       <c r="G47" t="n">
-        <v>53.51333333333348</v>
+        <v>53.50166666666681</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="C48" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="D48" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="E48" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="F48" t="n">
-        <v>816.6179</v>
+        <v>93290.5223</v>
       </c>
       <c r="G48" t="n">
-        <v>53.52166666666681</v>
+        <v>53.51333333333348</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>53.4</v>
       </c>
       <c r="C49" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="D49" t="n">
         <v>53.4</v>
       </c>
       <c r="E49" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="F49" t="n">
-        <v>21197.363</v>
+        <v>816.6179</v>
       </c>
       <c r="G49" t="n">
-        <v>53.52833333333349</v>
+        <v>53.52166666666681</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="C50" t="n">
         <v>53.3</v>
       </c>
       <c r="D50" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="E50" t="n">
         <v>53.3</v>
       </c>
       <c r="F50" t="n">
-        <v>8185.262</v>
+        <v>21197.363</v>
       </c>
       <c r="G50" t="n">
-        <v>53.53500000000015</v>
+        <v>53.52833333333349</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>53.3</v>
       </c>
       <c r="F51" t="n">
-        <v>626.3861000000001</v>
+        <v>8185.262</v>
       </c>
       <c r="G51" t="n">
-        <v>53.54166666666682</v>
+        <v>53.53500000000015</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,31 +2183,35 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C52" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="D52" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="E52" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="F52" t="n">
-        <v>88526.05349999999</v>
+        <v>626.3861000000001</v>
       </c>
       <c r="G52" t="n">
         <v>53.54166666666682</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>53.3</v>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
@@ -2218,32 +2222,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="C53" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="D53" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="E53" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="F53" t="n">
-        <v>25</v>
+        <v>88526.05349999999</v>
       </c>
       <c r="G53" t="n">
-        <v>53.55000000000015</v>
+        <v>53.54166666666682</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,19 +2265,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="C54" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="D54" t="n">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
       <c r="E54" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="F54" t="n">
-        <v>4601.6797</v>
+        <v>25</v>
       </c>
       <c r="G54" t="n">
         <v>53.55000000000015</v>
@@ -2277,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C55" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="D55" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E55" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>4601.6797</v>
       </c>
       <c r="G55" t="n">
-        <v>53.55500000000015</v>
+        <v>53.55000000000015</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2330,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2347,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="C56" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D56" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E56" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="F56" t="n">
-        <v>894.4652</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>53.56166666666682</v>
+        <v>53.55500000000015</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2371,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2388,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C57" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="D57" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E57" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="F57" t="n">
-        <v>3035</v>
+        <v>894.4652</v>
       </c>
       <c r="G57" t="n">
-        <v>53.56500000000015</v>
+        <v>53.56166666666682</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2412,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2429,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="C58" t="n">
-        <v>53.5</v>
+        <v>53.1</v>
       </c>
       <c r="D58" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="E58" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>3035</v>
       </c>
       <c r="G58" t="n">
-        <v>53.57500000000014</v>
+        <v>53.56500000000015</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2453,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,7 +2470,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="C59" t="n">
         <v>53.5</v>
@@ -2437,13 +2479,13 @@
         <v>53.5</v>
       </c>
       <c r="E59" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>53.58500000000014</v>
+        <v>53.57500000000014</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,20 +2523,28 @@
         <v>53.5</v>
       </c>
       <c r="F60" t="n">
-        <v>122.3121</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>53.59500000000014</v>
+        <v>53.58500000000014</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2566,10 @@
         <v>53.5</v>
       </c>
       <c r="F61" t="n">
-        <v>177.3326</v>
+        <v>122.3121</v>
       </c>
       <c r="G61" t="n">
-        <v>53.60500000000014</v>
+        <v>53.59500000000014</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2607,10 @@
         <v>53.5</v>
       </c>
       <c r="F62" t="n">
-        <v>19.7869</v>
+        <v>177.3326</v>
       </c>
       <c r="G62" t="n">
-        <v>53.61500000000014</v>
+        <v>53.60500000000014</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2619,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2648,10 @@
         <v>53.5</v>
       </c>
       <c r="F63" t="n">
-        <v>386.9418</v>
+        <v>19.7869</v>
       </c>
       <c r="G63" t="n">
-        <v>53.62500000000014</v>
+        <v>53.61500000000014</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2660,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2677,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="C64" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="D64" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="E64" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>386.9418</v>
       </c>
       <c r="G64" t="n">
-        <v>53.62833333333347</v>
+        <v>53.62500000000014</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2701,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2730,10 @@
         <v>53.1</v>
       </c>
       <c r="F65" t="n">
-        <v>60.7985</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>53.6316666666668</v>
+        <v>53.62833333333347</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2742,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2771,10 @@
         <v>53.1</v>
       </c>
       <c r="F66" t="n">
-        <v>1164.1468</v>
+        <v>60.7985</v>
       </c>
       <c r="G66" t="n">
-        <v>53.63500000000013</v>
+        <v>53.6316666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2783,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2800,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C67" t="n">
-        <v>53.4</v>
+        <v>53.1</v>
       </c>
       <c r="D67" t="n">
-        <v>53.4</v>
+        <v>53.1</v>
       </c>
       <c r="E67" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>1164.1468</v>
       </c>
       <c r="G67" t="n">
-        <v>53.64000000000013</v>
+        <v>53.63500000000013</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2824,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2841,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="C68" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="E68" t="n">
         <v>53.2</v>
       </c>
-      <c r="D68" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E68" t="n">
-        <v>53.1</v>
-      </c>
       <c r="F68" t="n">
-        <v>2041.3363</v>
+        <v>30</v>
       </c>
       <c r="G68" t="n">
-        <v>53.64166666666679</v>
+        <v>53.64000000000013</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2865,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,7 +2882,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C69" t="n">
         <v>53.2</v>
@@ -2787,13 +2891,13 @@
         <v>53.2</v>
       </c>
       <c r="E69" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F69" t="n">
-        <v>883.11</v>
+        <v>2041.3363</v>
       </c>
       <c r="G69" t="n">
-        <v>53.64500000000012</v>
+        <v>53.64166666666679</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2906,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2923,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="C70" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D70" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E70" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>883.11</v>
       </c>
       <c r="G70" t="n">
-        <v>53.65000000000013</v>
+        <v>53.64500000000012</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2947,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,36 +2964,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="C71" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="D71" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E71" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F71" t="n">
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>53.65833333333346</v>
+        <v>53.65000000000013</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>53.3</v>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2890,35 +3008,33 @@
         <v>53.4</v>
       </c>
       <c r="C72" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="D72" t="n">
         <v>53.4</v>
       </c>
       <c r="E72" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="F72" t="n">
-        <v>6287.3782</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>53.66500000000013</v>
+        <v>53.65833333333346</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>53.4</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>53.3</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M72" t="n">
@@ -2933,29 +3049,27 @@
         <v>53.4</v>
       </c>
       <c r="C73" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="D73" t="n">
         <v>53.4</v>
       </c>
-      <c r="D73" t="n">
-        <v>53.5</v>
-      </c>
       <c r="E73" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F73" t="n">
-        <v>366.8321</v>
+        <v>6287.3782</v>
       </c>
       <c r="G73" t="n">
-        <v>53.67000000000014</v>
+        <v>53.66500000000013</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>53.3</v>
       </c>
@@ -2973,32 +3087,30 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="C74" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="D74" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="E74" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="F74" t="n">
-        <v>27600</v>
+        <v>366.8321</v>
       </c>
       <c r="G74" t="n">
-        <v>53.66833333333347</v>
+        <v>53.67000000000014</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>53.4</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>53.3</v>
       </c>
@@ -3016,22 +3128,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C75" t="n">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="D75" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="E75" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="F75" t="n">
-        <v>1039.0551</v>
+        <v>27600</v>
       </c>
       <c r="G75" t="n">
-        <v>53.67333333333347</v>
+        <v>53.66833333333347</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3057,7 +3169,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="C76" t="n">
         <v>53.5</v>
@@ -3066,13 +3178,13 @@
         <v>53.5</v>
       </c>
       <c r="E76" t="n">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="F76" t="n">
-        <v>1266.2289</v>
+        <v>1039.0551</v>
       </c>
       <c r="G76" t="n">
-        <v>53.67500000000014</v>
+        <v>53.67333333333347</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3098,22 +3210,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="C77" t="n">
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="D77" t="n">
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="E77" t="n">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="F77" t="n">
-        <v>79837.4519</v>
+        <v>1266.2289</v>
       </c>
       <c r="G77" t="n">
-        <v>53.68833333333347</v>
+        <v>53.67500000000014</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3139,30 +3251,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>54.1</v>
+        <v>53.6</v>
       </c>
       <c r="C78" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D78" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E78" t="n">
-        <v>54.1</v>
+        <v>53.6</v>
       </c>
       <c r="F78" t="n">
-        <v>13107.3789</v>
+        <v>79837.4519</v>
       </c>
       <c r="G78" t="n">
-        <v>53.70500000000014</v>
+        <v>53.68833333333347</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>53.5</v>
+      </c>
       <c r="K78" t="n">
         <v>53.3</v>
       </c>
@@ -3192,10 +3306,10 @@
         <v>54.1</v>
       </c>
       <c r="F79" t="n">
-        <v>4597</v>
+        <v>13107.3789</v>
       </c>
       <c r="G79" t="n">
-        <v>53.7266666666668</v>
+        <v>53.70500000000014</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3221,22 +3335,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="C80" t="n">
         <v>54.1</v>
       </c>
       <c r="D80" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="E80" t="n">
         <v>54.1</v>
       </c>
       <c r="F80" t="n">
-        <v>985.2085</v>
+        <v>4597</v>
       </c>
       <c r="G80" t="n">
-        <v>53.7466666666668</v>
+        <v>53.7266666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3262,22 +3376,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C81" t="n">
         <v>54.1</v>
       </c>
       <c r="D81" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="E81" t="n">
         <v>54.1</v>
       </c>
       <c r="F81" t="n">
-        <v>1216.5857</v>
+        <v>985.2085</v>
       </c>
       <c r="G81" t="n">
-        <v>53.76833333333346</v>
+        <v>53.7466666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3312,13 +3426,13 @@
         <v>54.1</v>
       </c>
       <c r="E82" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F82" t="n">
-        <v>32258.5733</v>
+        <v>1216.5857</v>
       </c>
       <c r="G82" t="n">
-        <v>53.77000000000012</v>
+        <v>53.76833333333346</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3344,22 +3458,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C83" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D83" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E83" t="n">
         <v>54</v>
       </c>
       <c r="F83" t="n">
-        <v>155.614</v>
+        <v>32258.5733</v>
       </c>
       <c r="G83" t="n">
-        <v>53.73833333333346</v>
+        <v>53.77000000000012</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3397,10 +3511,10 @@
         <v>54</v>
       </c>
       <c r="F84" t="n">
-        <v>1364.9259</v>
+        <v>155.614</v>
       </c>
       <c r="G84" t="n">
-        <v>53.72166666666679</v>
+        <v>53.73833333333346</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3540,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="C85" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="D85" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="E85" t="n">
-        <v>54.4</v>
+        <v>54</v>
       </c>
       <c r="F85" t="n">
-        <v>25.5241</v>
+        <v>1364.9259</v>
       </c>
       <c r="G85" t="n">
-        <v>53.71166666666679</v>
+        <v>53.72166666666679</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3467,22 +3581,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="C86" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="D86" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="E86" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="F86" t="n">
-        <v>581.8891</v>
+        <v>25.5241</v>
       </c>
       <c r="G86" t="n">
-        <v>53.71500000000012</v>
+        <v>53.71166666666679</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3520,10 +3634,10 @@
         <v>54</v>
       </c>
       <c r="F87" t="n">
-        <v>11363.4874</v>
+        <v>581.8891</v>
       </c>
       <c r="G87" t="n">
-        <v>53.70833333333346</v>
+        <v>53.71500000000012</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3561,10 +3675,10 @@
         <v>54</v>
       </c>
       <c r="F88" t="n">
-        <v>22951.3344</v>
+        <v>11363.4874</v>
       </c>
       <c r="G88" t="n">
-        <v>53.70333333333345</v>
+        <v>53.70833333333346</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3590,19 +3704,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="C89" t="n">
         <v>54</v>
       </c>
       <c r="D89" t="n">
-        <v>54.5</v>
+        <v>54</v>
       </c>
       <c r="E89" t="n">
         <v>54</v>
       </c>
       <c r="F89" t="n">
-        <v>19837.9335</v>
+        <v>22951.3344</v>
       </c>
       <c r="G89" t="n">
         <v>53.70333333333345</v>
@@ -3631,22 +3745,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>54</v>
+        <v>54.3</v>
       </c>
       <c r="C90" t="n">
         <v>54</v>
       </c>
       <c r="D90" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="E90" t="n">
         <v>54</v>
       </c>
       <c r="F90" t="n">
-        <v>509.3832</v>
+        <v>19837.9335</v>
       </c>
       <c r="G90" t="n">
-        <v>53.70166666666679</v>
+        <v>53.70333333333345</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3684,10 +3798,10 @@
         <v>54</v>
       </c>
       <c r="F91" t="n">
-        <v>949.7446</v>
+        <v>509.3832</v>
       </c>
       <c r="G91" t="n">
-        <v>53.69500000000012</v>
+        <v>53.70166666666679</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3713,22 +3827,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="C92" t="n">
         <v>54</v>
       </c>
       <c r="D92" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E92" t="n">
         <v>54</v>
       </c>
       <c r="F92" t="n">
-        <v>4190.2432</v>
+        <v>949.7446</v>
       </c>
       <c r="G92" t="n">
-        <v>53.68833333333345</v>
+        <v>53.69500000000012</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3754,22 +3868,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="C93" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D93" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="E93" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F93" t="n">
-        <v>16441.3651</v>
+        <v>4190.2432</v>
       </c>
       <c r="G93" t="n">
-        <v>53.68000000000011</v>
+        <v>53.68833333333345</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3807,10 +3921,10 @@
         <v>53.9</v>
       </c>
       <c r="F94" t="n">
-        <v>293.5102</v>
+        <v>16441.3651</v>
       </c>
       <c r="G94" t="n">
-        <v>53.67333333333345</v>
+        <v>53.68000000000011</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3836,19 +3950,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="D95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="F95" t="n">
-        <v>5419.1616</v>
+        <v>293.5102</v>
       </c>
       <c r="G95" t="n">
         <v>53.67333333333345</v>
@@ -3889,10 +4003,10 @@
         <v>54</v>
       </c>
       <c r="F96" t="n">
-        <v>985.4357</v>
+        <v>5419.1616</v>
       </c>
       <c r="G96" t="n">
-        <v>53.68166666666678</v>
+        <v>53.67333333333345</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3930,10 +4044,10 @@
         <v>54</v>
       </c>
       <c r="F97" t="n">
-        <v>2141.388</v>
+        <v>985.4357</v>
       </c>
       <c r="G97" t="n">
-        <v>53.65000000000011</v>
+        <v>53.68166666666678</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3959,22 +4073,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D98" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E98" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F98" t="n">
-        <v>14600.0146</v>
+        <v>2141.388</v>
       </c>
       <c r="G98" t="n">
-        <v>53.65333333333344</v>
+        <v>53.65000000000011</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4000,22 +4114,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C99" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="D99" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E99" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="F99" t="n">
-        <v>31607.8466</v>
+        <v>14600.0146</v>
       </c>
       <c r="G99" t="n">
-        <v>53.65166666666678</v>
+        <v>53.65333333333344</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4041,19 +4155,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>54</v>
+      </c>
+      <c r="C100" t="n">
         <v>53.9</v>
       </c>
-      <c r="C100" t="n">
-        <v>54.1</v>
-      </c>
       <c r="D100" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E100" t="n">
         <v>53.9</v>
       </c>
       <c r="F100" t="n">
-        <v>50965.04063807</v>
+        <v>31607.8466</v>
       </c>
       <c r="G100" t="n">
         <v>53.65166666666678</v>
@@ -4082,7 +4196,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="C101" t="n">
         <v>54.1</v>
@@ -4091,13 +4205,13 @@
         <v>54.1</v>
       </c>
       <c r="E101" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="F101" t="n">
-        <v>37636.58136193</v>
+        <v>50965.04063807</v>
       </c>
       <c r="G101" t="n">
-        <v>53.64833333333344</v>
+        <v>53.65166666666678</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4123,22 +4237,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="C102" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="D102" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="E102" t="n">
-        <v>54.2</v>
+        <v>54.1</v>
       </c>
       <c r="F102" t="n">
-        <v>36233.5793</v>
+        <v>37636.58136193</v>
       </c>
       <c r="G102" t="n">
-        <v>53.65166666666677</v>
+        <v>53.64833333333344</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4164,22 +4278,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="C103" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="D103" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="E103" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="F103" t="n">
-        <v>14539.6903</v>
+        <v>36233.5793</v>
       </c>
       <c r="G103" t="n">
-        <v>53.65333333333344</v>
+        <v>53.65166666666677</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4217,10 +4331,10 @@
         <v>54.1</v>
       </c>
       <c r="F104" t="n">
-        <v>4720.1212</v>
+        <v>14539.6903</v>
       </c>
       <c r="G104" t="n">
-        <v>53.65666666666677</v>
+        <v>53.65333333333344</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4246,22 +4360,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="C105" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="D105" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="E105" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="F105" t="n">
-        <v>355.0319</v>
+        <v>4720.1212</v>
       </c>
       <c r="G105" t="n">
-        <v>53.66333333333343</v>
+        <v>53.65666666666677</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4290,19 +4404,19 @@
         <v>53.9</v>
       </c>
       <c r="C106" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="D106" t="n">
         <v>53.9</v>
       </c>
       <c r="E106" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="F106" t="n">
-        <v>7369.0591</v>
+        <v>355.0319</v>
       </c>
       <c r="G106" t="n">
-        <v>53.6700000000001</v>
+        <v>53.66333333333343</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4328,22 +4442,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C107" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="D107" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E107" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="F107" t="n">
-        <v>473.3759</v>
+        <v>7369.0591</v>
       </c>
       <c r="G107" t="n">
-        <v>53.67666666666677</v>
+        <v>53.6700000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4372,19 +4486,19 @@
         <v>54</v>
       </c>
       <c r="C108" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D108" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E108" t="n">
         <v>54</v>
       </c>
       <c r="F108" t="n">
-        <v>22409.8089</v>
+        <v>473.3759</v>
       </c>
       <c r="G108" t="n">
-        <v>53.68833333333343</v>
+        <v>53.67666666666677</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4410,22 +4524,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="C109" t="n">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="D109" t="n">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="E109" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="F109" t="n">
-        <v>62674.9887</v>
+        <v>22409.8089</v>
       </c>
       <c r="G109" t="n">
-        <v>53.69666666666676</v>
+        <v>53.68833333333343</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4451,22 +4565,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>53.6</v>
+        <v>53.8</v>
       </c>
       <c r="C110" t="n">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="D110" t="n">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="E110" t="n">
-        <v>53.6</v>
+        <v>53.8</v>
       </c>
       <c r="F110" t="n">
-        <v>15780.4857</v>
+        <v>62674.9887</v>
       </c>
       <c r="G110" t="n">
-        <v>53.70333333333343</v>
+        <v>53.69666666666676</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4492,7 +4606,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="C111" t="n">
         <v>53.7</v>
@@ -4501,13 +4615,13 @@
         <v>53.7</v>
       </c>
       <c r="E111" t="n">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="F111" t="n">
-        <v>6851.6009</v>
+        <v>15780.4857</v>
       </c>
       <c r="G111" t="n">
-        <v>53.71000000000009</v>
+        <v>53.70333333333343</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4545,10 +4659,10 @@
         <v>53.7</v>
       </c>
       <c r="F112" t="n">
-        <v>988</v>
+        <v>6851.6009</v>
       </c>
       <c r="G112" t="n">
-        <v>53.72333333333342</v>
+        <v>53.71000000000009</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4586,10 +4700,10 @@
         <v>53.7</v>
       </c>
       <c r="F113" t="n">
-        <v>2621.9865</v>
+        <v>988</v>
       </c>
       <c r="G113" t="n">
-        <v>53.72833333333342</v>
+        <v>53.72333333333342</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4615,22 +4729,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="C114" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="D114" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="E114" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="F114" t="n">
-        <v>7707.869</v>
+        <v>2621.9865</v>
       </c>
       <c r="G114" t="n">
-        <v>53.74000000000008</v>
+        <v>53.72833333333342</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4656,22 +4770,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="C115" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="D115" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="E115" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="F115" t="n">
-        <v>7392.6482</v>
+        <v>7707.869</v>
       </c>
       <c r="G115" t="n">
-        <v>53.75000000000009</v>
+        <v>53.74000000000008</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4709,10 +4823,10 @@
         <v>53.8</v>
       </c>
       <c r="F116" t="n">
-        <v>762.3363000000001</v>
+        <v>7392.6482</v>
       </c>
       <c r="G116" t="n">
-        <v>53.75833333333342</v>
+        <v>53.75000000000009</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4738,22 +4852,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="C117" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="D117" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="E117" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="F117" t="n">
-        <v>5123.0981</v>
+        <v>762.3363000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>53.77500000000008</v>
+        <v>53.75833333333342</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4779,22 +4893,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="C118" t="n">
-        <v>54.6</v>
+        <v>54.1</v>
       </c>
       <c r="D118" t="n">
-        <v>54.6</v>
+        <v>54.1</v>
       </c>
       <c r="E118" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="F118" t="n">
-        <v>53062.0819</v>
+        <v>5123.0981</v>
       </c>
       <c r="G118" t="n">
-        <v>53.79333333333341</v>
+        <v>53.77500000000008</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4820,22 +4934,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C119" t="n">
         <v>54.6</v>
       </c>
-      <c r="C119" t="n">
-        <v>54.7</v>
-      </c>
       <c r="D119" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="E119" t="n">
-        <v>54.6</v>
+        <v>54.4</v>
       </c>
       <c r="F119" t="n">
-        <v>30877.163</v>
+        <v>53062.0819</v>
       </c>
       <c r="G119" t="n">
-        <v>53.81333333333341</v>
+        <v>53.79333333333341</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4861,22 +4975,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="C120" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="D120" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="E120" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="F120" t="n">
-        <v>4555.8746</v>
+        <v>30877.163</v>
       </c>
       <c r="G120" t="n">
-        <v>53.83500000000008</v>
+        <v>53.81333333333341</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4902,22 +5016,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="C121" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="D121" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="E121" t="n">
-        <v>54.7</v>
+        <v>54.8</v>
       </c>
       <c r="F121" t="n">
-        <v>10493.0276</v>
+        <v>4555.8746</v>
       </c>
       <c r="G121" t="n">
-        <v>53.85500000000008</v>
+        <v>53.83500000000008</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4943,22 +5057,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C122" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="D122" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="E122" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="F122" t="n">
-        <v>100317.1562</v>
+        <v>10493.0276</v>
       </c>
       <c r="G122" t="n">
-        <v>53.87833333333342</v>
+        <v>53.85500000000008</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4984,22 +5098,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="C123" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="D123" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="E123" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="F123" t="n">
-        <v>15099.75</v>
+        <v>100317.1562</v>
       </c>
       <c r="G123" t="n">
-        <v>53.90333333333341</v>
+        <v>53.87833333333342</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5025,22 +5139,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="C124" t="n">
-        <v>54.5</v>
+        <v>55</v>
       </c>
       <c r="D124" t="n">
         <v>55</v>
       </c>
       <c r="E124" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="F124" t="n">
-        <v>21243.2558</v>
+        <v>15099.75</v>
       </c>
       <c r="G124" t="n">
-        <v>53.92666666666675</v>
+        <v>53.90333333333341</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5066,22 +5180,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>54.6</v>
+        <v>54.9</v>
       </c>
       <c r="C125" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="D125" t="n">
-        <v>54.6</v>
+        <v>55</v>
       </c>
       <c r="E125" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="F125" t="n">
-        <v>4646</v>
+        <v>21243.2558</v>
       </c>
       <c r="G125" t="n">
-        <v>53.95166666666675</v>
+        <v>53.92666666666675</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5119,10 +5233,10 @@
         <v>54.6</v>
       </c>
       <c r="F126" t="n">
-        <v>3579.9999</v>
+        <v>4646</v>
       </c>
       <c r="G126" t="n">
-        <v>53.97666666666675</v>
+        <v>53.95166666666675</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5160,10 +5274,10 @@
         <v>54.6</v>
       </c>
       <c r="F127" t="n">
-        <v>299</v>
+        <v>3579.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>53.99666666666675</v>
+        <v>53.97666666666675</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5201,10 +5315,10 @@
         <v>54.6</v>
       </c>
       <c r="F128" t="n">
-        <v>599</v>
+        <v>299</v>
       </c>
       <c r="G128" t="n">
-        <v>54.02000000000008</v>
+        <v>53.99666666666675</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5233,19 +5347,19 @@
         <v>54.6</v>
       </c>
       <c r="C129" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="D129" t="n">
         <v>54.6</v>
       </c>
       <c r="E129" t="n">
-        <v>54.4</v>
+        <v>54.6</v>
       </c>
       <c r="F129" t="n">
-        <v>6253.7554</v>
+        <v>599</v>
       </c>
       <c r="G129" t="n">
-        <v>54.04166666666675</v>
+        <v>54.02000000000008</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5280,13 +5394,13 @@
         <v>54.6</v>
       </c>
       <c r="E130" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="F130" t="n">
-        <v>20775.0349</v>
+        <v>6253.7554</v>
       </c>
       <c r="G130" t="n">
-        <v>54.06166666666675</v>
+        <v>54.04166666666675</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5312,22 +5426,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="C131" t="n">
         <v>54.5</v>
       </c>
       <c r="D131" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="E131" t="n">
         <v>54.5</v>
       </c>
       <c r="F131" t="n">
-        <v>10466.795</v>
+        <v>20775.0349</v>
       </c>
       <c r="G131" t="n">
-        <v>54.08000000000008</v>
+        <v>54.06166666666675</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5365,10 +5479,10 @@
         <v>54.5</v>
       </c>
       <c r="F132" t="n">
-        <v>588</v>
+        <v>10466.795</v>
       </c>
       <c r="G132" t="n">
-        <v>54.10000000000007</v>
+        <v>54.08000000000008</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5406,10 +5520,10 @@
         <v>54.5</v>
       </c>
       <c r="F133" t="n">
-        <v>2057.0641</v>
+        <v>588</v>
       </c>
       <c r="G133" t="n">
-        <v>54.11833333333341</v>
+        <v>54.10000000000007</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5447,10 +5561,10 @@
         <v>54.5</v>
       </c>
       <c r="F134" t="n">
-        <v>17282.9999</v>
+        <v>2057.0641</v>
       </c>
       <c r="G134" t="n">
-        <v>54.14333333333341</v>
+        <v>54.11833333333341</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5488,10 +5602,10 @@
         <v>54.5</v>
       </c>
       <c r="F135" t="n">
-        <v>12972.8316</v>
+        <v>17282.9999</v>
       </c>
       <c r="G135" t="n">
-        <v>54.16000000000007</v>
+        <v>54.14333333333341</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5520,19 +5634,19 @@
         <v>54.5</v>
       </c>
       <c r="C136" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="D136" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="E136" t="n">
         <v>54.5</v>
       </c>
       <c r="F136" t="n">
-        <v>4929.16</v>
+        <v>12972.8316</v>
       </c>
       <c r="G136" t="n">
-        <v>54.17833333333341</v>
+        <v>54.16000000000007</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5558,22 +5672,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="C137" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="D137" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="E137" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="F137" t="n">
-        <v>7985.739</v>
+        <v>4929.16</v>
       </c>
       <c r="G137" t="n">
-        <v>54.19166666666674</v>
+        <v>54.17833333333341</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5599,22 +5713,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C138" t="n">
         <v>54.8</v>
-      </c>
-      <c r="C138" t="n">
-        <v>54.4</v>
       </c>
       <c r="D138" t="n">
         <v>54.8</v>
       </c>
       <c r="E138" t="n">
-        <v>54.4</v>
+        <v>54.7</v>
       </c>
       <c r="F138" t="n">
-        <v>7876.4416</v>
+        <v>7985.739</v>
       </c>
       <c r="G138" t="n">
-        <v>54.19666666666674</v>
+        <v>54.19166666666674</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5640,22 +5754,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="C139" t="n">
         <v>54.4</v>
       </c>
       <c r="D139" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="E139" t="n">
         <v>54.4</v>
       </c>
       <c r="F139" t="n">
-        <v>8800</v>
+        <v>7876.4416</v>
       </c>
       <c r="G139" t="n">
-        <v>54.20166666666675</v>
+        <v>54.19666666666674</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5693,10 +5807,10 @@
         <v>54.4</v>
       </c>
       <c r="F140" t="n">
-        <v>4506.7466</v>
+        <v>8800</v>
       </c>
       <c r="G140" t="n">
-        <v>54.20666666666675</v>
+        <v>54.20166666666675</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5734,10 +5848,10 @@
         <v>54.4</v>
       </c>
       <c r="F141" t="n">
-        <v>201.8348</v>
+        <v>4506.7466</v>
       </c>
       <c r="G141" t="n">
-        <v>54.21166666666675</v>
+        <v>54.20666666666675</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5766,19 +5880,19 @@
         <v>54.4</v>
       </c>
       <c r="C142" t="n">
-        <v>54.8</v>
+        <v>54.4</v>
       </c>
       <c r="D142" t="n">
-        <v>54.8</v>
+        <v>54.4</v>
       </c>
       <c r="E142" t="n">
         <v>54.4</v>
       </c>
       <c r="F142" t="n">
-        <v>1689.7032</v>
+        <v>201.8348</v>
       </c>
       <c r="G142" t="n">
-        <v>54.22333333333343</v>
+        <v>54.21166666666675</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5804,22 +5918,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C143" t="n">
         <v>54.8</v>
       </c>
-      <c r="C143" t="n">
-        <v>54.9</v>
-      </c>
       <c r="D143" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="E143" t="n">
-        <v>54.8</v>
+        <v>54.4</v>
       </c>
       <c r="F143" t="n">
-        <v>8295.824699999999</v>
+        <v>1689.7032</v>
       </c>
       <c r="G143" t="n">
-        <v>54.23833333333343</v>
+        <v>54.22333333333343</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5845,7 +5959,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C144" t="n">
         <v>54.9</v>
@@ -5854,13 +5968,13 @@
         <v>54.9</v>
       </c>
       <c r="E144" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F144" t="n">
-        <v>2000</v>
+        <v>8295.824699999999</v>
       </c>
       <c r="G144" t="n">
-        <v>54.25333333333343</v>
+        <v>54.23833333333343</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5898,10 +6012,10 @@
         <v>54.9</v>
       </c>
       <c r="F145" t="n">
-        <v>12360.283</v>
+        <v>2000</v>
       </c>
       <c r="G145" t="n">
-        <v>54.26166666666676</v>
+        <v>54.25333333333343</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5927,22 +6041,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="C146" t="n">
         <v>54.9</v>
       </c>
       <c r="D146" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="E146" t="n">
         <v>54.9</v>
       </c>
       <c r="F146" t="n">
-        <v>39081.968</v>
+        <v>12360.283</v>
       </c>
       <c r="G146" t="n">
-        <v>54.27666666666676</v>
+        <v>54.26166666666676</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5968,22 +6082,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="C147" t="n">
         <v>54.9</v>
       </c>
       <c r="D147" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="E147" t="n">
         <v>54.9</v>
       </c>
       <c r="F147" t="n">
-        <v>11038.4615</v>
+        <v>39081.968</v>
       </c>
       <c r="G147" t="n">
-        <v>54.29166666666676</v>
+        <v>54.27666666666676</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6009,22 +6123,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="C148" t="n">
         <v>54.9</v>
       </c>
       <c r="D148" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="E148" t="n">
         <v>54.9</v>
       </c>
       <c r="F148" t="n">
-        <v>32991</v>
+        <v>11038.4615</v>
       </c>
       <c r="G148" t="n">
-        <v>54.30666666666676</v>
+        <v>54.29166666666676</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6050,22 +6164,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="C149" t="n">
-        <v>55.4</v>
+        <v>54.9</v>
       </c>
       <c r="D149" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="E149" t="n">
-        <v>55.4</v>
+        <v>54.9</v>
       </c>
       <c r="F149" t="n">
-        <v>1570.722</v>
+        <v>32991</v>
       </c>
       <c r="G149" t="n">
-        <v>54.3300000000001</v>
+        <v>54.30666666666676</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6091,22 +6205,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="C150" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="D150" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="E150" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="F150" t="n">
-        <v>316.1696</v>
+        <v>1570.722</v>
       </c>
       <c r="G150" t="n">
-        <v>54.34666666666677</v>
+        <v>54.3300000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6144,10 +6258,10 @@
         <v>55</v>
       </c>
       <c r="F151" t="n">
-        <v>515.7806</v>
+        <v>316.1696</v>
       </c>
       <c r="G151" t="n">
-        <v>54.36333333333344</v>
+        <v>54.34666666666677</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6173,22 +6287,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="C152" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="D152" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="E152" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="F152" t="n">
-        <v>1420.1989</v>
+        <v>515.7806</v>
       </c>
       <c r="G152" t="n">
-        <v>54.3850000000001</v>
+        <v>54.36333333333344</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6226,10 +6340,10 @@
         <v>55.3</v>
       </c>
       <c r="F153" t="n">
-        <v>539.5158</v>
+        <v>1420.1989</v>
       </c>
       <c r="G153" t="n">
-        <v>54.40833333333344</v>
+        <v>54.3850000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6255,22 +6369,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C154" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="D154" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E154" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="F154" t="n">
-        <v>11060.2363</v>
+        <v>539.5158</v>
       </c>
       <c r="G154" t="n">
-        <v>54.42666666666677</v>
+        <v>54.40833333333344</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6296,22 +6410,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="C155" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="D155" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="E155" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="F155" t="n">
-        <v>999.9999</v>
+        <v>11060.2363</v>
       </c>
       <c r="G155" t="n">
-        <v>54.44833333333344</v>
+        <v>54.42666666666677</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6349,10 +6463,10 @@
         <v>55.3</v>
       </c>
       <c r="F156" t="n">
-        <v>732</v>
+        <v>999.9999</v>
       </c>
       <c r="G156" t="n">
-        <v>54.47000000000011</v>
+        <v>54.44833333333344</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6390,10 +6504,10 @@
         <v>55.3</v>
       </c>
       <c r="F157" t="n">
-        <v>1054</v>
+        <v>732</v>
       </c>
       <c r="G157" t="n">
-        <v>54.49166666666678</v>
+        <v>54.47000000000011</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6419,22 +6533,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="C158" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="D158" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="E158" t="n">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="F158" t="n">
-        <v>24.3651</v>
+        <v>1054</v>
       </c>
       <c r="G158" t="n">
-        <v>54.50666666666678</v>
+        <v>54.49166666666678</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6460,22 +6574,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="C159" t="n">
-        <v>55.5</v>
+        <v>55</v>
       </c>
       <c r="D159" t="n">
-        <v>55.5</v>
+        <v>55</v>
       </c>
       <c r="E159" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="F159" t="n">
-        <v>17426.50137729</v>
+        <v>24.3651</v>
       </c>
       <c r="G159" t="n">
-        <v>54.53333333333345</v>
+        <v>54.50666666666678</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6501,22 +6615,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C160" t="n">
         <v>55.5</v>
       </c>
-      <c r="C160" t="n">
-        <v>55.8</v>
-      </c>
       <c r="D160" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="E160" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="F160" t="n">
-        <v>5741.80966751</v>
+        <v>17426.50137729</v>
       </c>
       <c r="G160" t="n">
-        <v>54.56166666666679</v>
+        <v>54.53333333333345</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6545,19 +6659,19 @@
         <v>55.5</v>
       </c>
       <c r="C161" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="D161" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="E161" t="n">
         <v>55.5</v>
       </c>
       <c r="F161" t="n">
-        <v>4006.3603</v>
+        <v>5741.80966751</v>
       </c>
       <c r="G161" t="n">
-        <v>54.58500000000012</v>
+        <v>54.56166666666679</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6595,10 +6709,10 @@
         <v>55.5</v>
       </c>
       <c r="F162" t="n">
-        <v>7.729e-05</v>
+        <v>4006.3603</v>
       </c>
       <c r="G162" t="n">
-        <v>54.60666666666679</v>
+        <v>54.58500000000012</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6636,10 +6750,10 @@
         <v>55.5</v>
       </c>
       <c r="F163" t="n">
-        <v>30251.7251</v>
+        <v>7.729e-05</v>
       </c>
       <c r="G163" t="n">
-        <v>54.63000000000012</v>
+        <v>54.60666666666679</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6677,10 +6791,10 @@
         <v>55.5</v>
       </c>
       <c r="F164" t="n">
-        <v>3738.1259</v>
+        <v>30251.7251</v>
       </c>
       <c r="G164" t="n">
-        <v>54.65333333333346</v>
+        <v>54.63000000000012</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6706,22 +6820,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="C165" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="D165" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="E165" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="F165" t="n">
-        <v>38685.9677</v>
+        <v>3738.1259</v>
       </c>
       <c r="G165" t="n">
-        <v>54.68500000000013</v>
+        <v>54.65333333333346</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6750,19 +6864,19 @@
         <v>55.8</v>
       </c>
       <c r="C166" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="D166" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="E166" t="n">
         <v>55.8</v>
       </c>
       <c r="F166" t="n">
-        <v>85727.2420552</v>
+        <v>38685.9677</v>
       </c>
       <c r="G166" t="n">
-        <v>54.72166666666679</v>
+        <v>54.68500000000013</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6788,7 +6902,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C167" t="n">
         <v>56</v>
@@ -6800,10 +6914,10 @@
         <v>55.8</v>
       </c>
       <c r="F167" t="n">
-        <v>22534.3392</v>
+        <v>85727.2420552</v>
       </c>
       <c r="G167" t="n">
-        <v>54.75500000000012</v>
+        <v>54.72166666666679</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6829,22 +6943,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C168" t="n">
         <v>56</v>
       </c>
-      <c r="C168" t="n">
-        <v>56.3</v>
-      </c>
       <c r="D168" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="E168" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="F168" t="n">
-        <v>64599.5989</v>
+        <v>22534.3392</v>
       </c>
       <c r="G168" t="n">
-        <v>54.79166666666679</v>
+        <v>54.75500000000012</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6870,22 +6984,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>56</v>
+      </c>
+      <c r="C169" t="n">
         <v>56.3</v>
       </c>
-      <c r="C169" t="n">
-        <v>56.8</v>
-      </c>
       <c r="D169" t="n">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="E169" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="F169" t="n">
-        <v>25459.0457</v>
+        <v>64599.5989</v>
       </c>
       <c r="G169" t="n">
-        <v>54.8416666666668</v>
+        <v>54.79166666666679</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6911,7 +7025,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="C170" t="n">
         <v>56.8</v>
@@ -6920,13 +7034,13 @@
         <v>56.8</v>
       </c>
       <c r="E170" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
       <c r="F170" t="n">
-        <v>19345.1935</v>
+        <v>25459.0457</v>
       </c>
       <c r="G170" t="n">
-        <v>54.89333333333347</v>
+        <v>54.8416666666668</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6952,22 +7066,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>56.1</v>
+        <v>56.8</v>
       </c>
       <c r="C171" t="n">
-        <v>55.8</v>
+        <v>56.8</v>
       </c>
       <c r="D171" t="n">
         <v>56.8</v>
       </c>
       <c r="E171" t="n">
-        <v>55.6</v>
+        <v>56.8</v>
       </c>
       <c r="F171" t="n">
-        <v>71960.4039</v>
+        <v>19345.1935</v>
       </c>
       <c r="G171" t="n">
-        <v>54.92833333333348</v>
+        <v>54.89333333333347</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6993,22 +7107,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C172" t="n">
         <v>55.8</v>
       </c>
-      <c r="C172" t="n">
-        <v>55.6</v>
-      </c>
       <c r="D172" t="n">
-        <v>55.8</v>
+        <v>56.8</v>
       </c>
       <c r="E172" t="n">
         <v>55.6</v>
       </c>
       <c r="F172" t="n">
-        <v>13375</v>
+        <v>71960.4039</v>
       </c>
       <c r="G172" t="n">
-        <v>54.96000000000014</v>
+        <v>54.92833333333348</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7034,22 +7148,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C173" t="n">
-        <v>56.1</v>
+        <v>55.6</v>
       </c>
       <c r="D173" t="n">
-        <v>56.1</v>
+        <v>55.8</v>
       </c>
       <c r="E173" t="n">
         <v>55.6</v>
       </c>
       <c r="F173" t="n">
-        <v>12120.2954</v>
+        <v>13375</v>
       </c>
       <c r="G173" t="n">
-        <v>55.00000000000014</v>
+        <v>54.96000000000014</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7075,7 +7189,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C174" t="n">
         <v>56.1</v>
@@ -7084,13 +7198,13 @@
         <v>56.1</v>
       </c>
       <c r="E174" t="n">
-        <v>56.1</v>
+        <v>55.6</v>
       </c>
       <c r="F174" t="n">
-        <v>5926.1348</v>
+        <v>12120.2954</v>
       </c>
       <c r="G174" t="n">
-        <v>55.04166666666681</v>
+        <v>55.00000000000014</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7116,22 +7230,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>56.7</v>
+        <v>56.1</v>
       </c>
       <c r="C175" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
       <c r="D175" t="n">
-        <v>56.8</v>
+        <v>56.1</v>
       </c>
       <c r="E175" t="n">
-        <v>56.7</v>
+        <v>56.1</v>
       </c>
       <c r="F175" t="n">
-        <v>5907.7288</v>
+        <v>5926.1348</v>
       </c>
       <c r="G175" t="n">
-        <v>55.09166666666681</v>
+        <v>55.04166666666681</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7157,22 +7271,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>56.1</v>
+        <v>56.7</v>
       </c>
       <c r="C176" t="n">
-        <v>56.1</v>
+        <v>56.8</v>
       </c>
       <c r="D176" t="n">
-        <v>56.1</v>
+        <v>56.8</v>
       </c>
       <c r="E176" t="n">
-        <v>56.1</v>
+        <v>56.7</v>
       </c>
       <c r="F176" t="n">
-        <v>246</v>
+        <v>5907.7288</v>
       </c>
       <c r="G176" t="n">
-        <v>55.13000000000014</v>
+        <v>55.09166666666681</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7210,10 +7324,10 @@
         <v>56.1</v>
       </c>
       <c r="F177" t="n">
-        <v>5304.187</v>
+        <v>246</v>
       </c>
       <c r="G177" t="n">
-        <v>55.16333333333348</v>
+        <v>55.13000000000014</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7242,19 +7356,19 @@
         <v>56.1</v>
       </c>
       <c r="C178" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="D178" t="n">
         <v>56.1</v>
       </c>
       <c r="E178" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F178" t="n">
-        <v>6175.452</v>
+        <v>5304.187</v>
       </c>
       <c r="G178" t="n">
-        <v>55.18666666666681</v>
+        <v>55.16333333333348</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7283,19 +7397,19 @@
         <v>56.1</v>
       </c>
       <c r="C179" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="D179" t="n">
         <v>56.1</v>
       </c>
       <c r="E179" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="F179" t="n">
-        <v>1489.1452</v>
+        <v>6175.452</v>
       </c>
       <c r="G179" t="n">
-        <v>55.21000000000014</v>
+        <v>55.18666666666681</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7321,22 +7435,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="C180" t="n">
-        <v>55.8</v>
+        <v>56.1</v>
       </c>
       <c r="D180" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="E180" t="n">
-        <v>55.8</v>
+        <v>56.1</v>
       </c>
       <c r="F180" t="n">
-        <v>5892.9594</v>
+        <v>1489.1452</v>
       </c>
       <c r="G180" t="n">
-        <v>55.22666666666681</v>
+        <v>55.21000000000014</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7368,16 +7482,16 @@
         <v>55.8</v>
       </c>
       <c r="D181" t="n">
-        <v>56.6</v>
+        <v>56</v>
       </c>
       <c r="E181" t="n">
         <v>55.8</v>
       </c>
       <c r="F181" t="n">
-        <v>34620.0857</v>
+        <v>5892.9594</v>
       </c>
       <c r="G181" t="n">
-        <v>55.24500000000015</v>
+        <v>55.22666666666681</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7403,22 +7517,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="C182" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="D182" t="n">
-        <v>55.6</v>
+        <v>56.6</v>
       </c>
       <c r="E182" t="n">
-        <v>54.8</v>
+        <v>55.8</v>
       </c>
       <c r="F182" t="n">
-        <v>18623</v>
+        <v>34620.0857</v>
       </c>
       <c r="G182" t="n">
-        <v>55.24333333333348</v>
+        <v>55.24500000000015</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7444,22 +7558,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="C183" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="D183" t="n">
-        <v>55.1</v>
+        <v>55.6</v>
       </c>
       <c r="E183" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="F183" t="n">
-        <v>617.6202</v>
+        <v>18623</v>
       </c>
       <c r="G183" t="n">
-        <v>55.24500000000015</v>
+        <v>55.24333333333348</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7485,22 +7599,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="E184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F184" t="n">
-        <v>8235.332399999999</v>
+        <v>617.6202</v>
       </c>
       <c r="G184" t="n">
-        <v>55.25333333333348</v>
+        <v>55.24500000000015</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7526,22 +7640,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="C185" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="D185" t="n">
         <v>55</v>
       </c>
       <c r="E185" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="F185" t="n">
-        <v>12657.6053</v>
+        <v>8235.332399999999</v>
       </c>
       <c r="G185" t="n">
-        <v>55.25833333333348</v>
+        <v>55.25333333333348</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7567,22 +7681,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="C186" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="D186" t="n">
         <v>55</v>
       </c>
       <c r="E186" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="F186" t="n">
-        <v>1102.4449</v>
+        <v>12657.6053</v>
       </c>
       <c r="G186" t="n">
-        <v>55.26500000000015</v>
+        <v>55.25833333333348</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7608,22 +7722,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="C187" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="D187" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="E187" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="F187" t="n">
-        <v>8300</v>
+        <v>1102.4449</v>
       </c>
       <c r="G187" t="n">
-        <v>55.27000000000016</v>
+        <v>55.26500000000015</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7652,19 +7766,19 @@
         <v>54.9</v>
       </c>
       <c r="C188" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="D188" t="n">
         <v>54.9</v>
       </c>
       <c r="E188" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="F188" t="n">
-        <v>591.6552</v>
+        <v>8300</v>
       </c>
       <c r="G188" t="n">
-        <v>55.27166666666682</v>
+        <v>55.27000000000016</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7690,22 +7804,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="C189" t="n">
         <v>54.7</v>
       </c>
       <c r="D189" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="E189" t="n">
         <v>54.7</v>
       </c>
       <c r="F189" t="n">
-        <v>20317.3903</v>
+        <v>591.6552</v>
       </c>
       <c r="G189" t="n">
-        <v>55.27500000000015</v>
+        <v>55.27166666666682</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7731,22 +7845,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C190" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="D190" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="E190" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="F190" t="n">
-        <v>1971</v>
+        <v>20317.3903</v>
       </c>
       <c r="G190" t="n">
-        <v>55.28000000000016</v>
+        <v>55.27500000000015</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7784,10 +7898,10 @@
         <v>54.8</v>
       </c>
       <c r="F191" t="n">
-        <v>29990.7676</v>
+        <v>1971</v>
       </c>
       <c r="G191" t="n">
-        <v>55.28500000000016</v>
+        <v>55.28000000000016</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7825,10 +7939,10 @@
         <v>54.8</v>
       </c>
       <c r="F192" t="n">
-        <v>16461.7224</v>
+        <v>29990.7676</v>
       </c>
       <c r="G192" t="n">
-        <v>55.29000000000016</v>
+        <v>55.28500000000016</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7857,19 +7971,19 @@
         <v>54.8</v>
       </c>
       <c r="C193" t="n">
-        <v>56.1</v>
+        <v>54.8</v>
       </c>
       <c r="D193" t="n">
-        <v>56.1</v>
+        <v>54.8</v>
       </c>
       <c r="E193" t="n">
         <v>54.8</v>
       </c>
       <c r="F193" t="n">
-        <v>10984.635</v>
+        <v>16461.7224</v>
       </c>
       <c r="G193" t="n">
-        <v>55.31666666666683</v>
+        <v>55.29000000000016</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7895,22 +8009,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="C194" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="D194" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="E194" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F194" t="n">
-        <v>12471.6507</v>
+        <v>10984.635</v>
       </c>
       <c r="G194" t="n">
-        <v>55.32333333333349</v>
+        <v>55.31666666666683</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7936,22 +8050,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C195" t="n">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="D195" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="E195" t="n">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="F195" t="n">
-        <v>3614.395</v>
+        <v>12471.6507</v>
       </c>
       <c r="G195" t="n">
-        <v>55.33333333333349</v>
+        <v>55.32333333333349</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7989,10 +8103,10 @@
         <v>55.1</v>
       </c>
       <c r="F196" t="n">
-        <v>9195.046899999999</v>
+        <v>3614.395</v>
       </c>
       <c r="G196" t="n">
-        <v>55.34166666666682</v>
+        <v>55.33333333333349</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8021,16 +8135,16 @@
         <v>55.1</v>
       </c>
       <c r="C197" t="n">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="D197" t="n">
         <v>55.1</v>
       </c>
       <c r="E197" t="n">
-        <v>54.8</v>
+        <v>55.1</v>
       </c>
       <c r="F197" t="n">
-        <v>17965.8528</v>
+        <v>9195.046899999999</v>
       </c>
       <c r="G197" t="n">
         <v>55.34166666666682</v>
@@ -8059,22 +8173,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="C198" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="D198" t="n">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="E198" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="F198" t="n">
-        <v>2768.6902</v>
+        <v>17965.8528</v>
       </c>
       <c r="G198" t="n">
-        <v>55.34500000000016</v>
+        <v>55.34166666666682</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8112,10 +8226,10 @@
         <v>54.6</v>
       </c>
       <c r="F199" t="n">
-        <v>11800</v>
+        <v>2768.6902</v>
       </c>
       <c r="G199" t="n">
-        <v>55.34833333333349</v>
+        <v>55.34500000000016</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8147,16 +8261,16 @@
         <v>54.6</v>
       </c>
       <c r="D200" t="n">
-        <v>55.8</v>
+        <v>54.6</v>
       </c>
       <c r="E200" t="n">
         <v>54.6</v>
       </c>
       <c r="F200" t="n">
-        <v>6709.5992</v>
+        <v>11800</v>
       </c>
       <c r="G200" t="n">
-        <v>55.35166666666682</v>
+        <v>55.34833333333349</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8182,22 +8296,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="C201" t="n">
-        <v>55.5</v>
+        <v>54.6</v>
       </c>
       <c r="D201" t="n">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="E201" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="F201" t="n">
-        <v>2881.8974009</v>
+        <v>6709.5992</v>
       </c>
       <c r="G201" t="n">
-        <v>55.37000000000015</v>
+        <v>55.35166666666682</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8223,22 +8337,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="C202" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="D202" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="E202" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="F202" t="n">
-        <v>8992.805700000001</v>
+        <v>2881.8974009</v>
       </c>
       <c r="G202" t="n">
-        <v>55.38333333333347</v>
+        <v>55.37000000000015</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8264,22 +8378,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="C203" t="n">
-        <v>56</v>
+        <v>55.6</v>
       </c>
       <c r="D203" t="n">
-        <v>56</v>
+        <v>55.6</v>
       </c>
       <c r="E203" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F203" t="n">
-        <v>3595.77582285</v>
+        <v>8992.805700000001</v>
       </c>
       <c r="G203" t="n">
-        <v>55.40166666666681</v>
+        <v>55.38333333333347</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8297,6 +8411,47 @@
         </is>
       </c>
       <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C204" t="n">
+        <v>56</v>
+      </c>
+      <c r="D204" t="n">
+        <v>56</v>
+      </c>
+      <c r="E204" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3595.77582285</v>
+      </c>
+      <c r="G204" t="n">
+        <v>55.40166666666681</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>11830000</v>
       </c>
       <c r="G2" t="n">
+        <v>52.89999999999997</v>
+      </c>
+      <c r="H2" t="n">
         <v>52.8750000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>11839950.7562</v>
       </c>
       <c r="G3" t="n">
+        <v>52.89999999999997</v>
+      </c>
+      <c r="H3" t="n">
         <v>52.87666666666686</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>11900000</v>
       </c>
       <c r="G4" t="n">
+        <v>52.89999999999997</v>
+      </c>
+      <c r="H4" t="n">
         <v>52.87833333333353</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>690049.2438000001</v>
       </c>
       <c r="G5" t="n">
+        <v>52.89999999999997</v>
+      </c>
+      <c r="H5" t="n">
         <v>52.88166666666687</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1800.1723</v>
       </c>
       <c r="G6" t="n">
+        <v>52.89999999999997</v>
+      </c>
+      <c r="H6" t="n">
         <v>52.8850000000002</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>6434.1541</v>
       </c>
       <c r="G7" t="n">
+        <v>52.89999999999997</v>
+      </c>
+      <c r="H7" t="n">
         <v>52.88666666666687</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>356.6157</v>
       </c>
       <c r="G8" t="n">
+        <v>52.91333333333331</v>
+      </c>
+      <c r="H8" t="n">
         <v>52.89166666666686</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>99.7834</v>
       </c>
       <c r="G9" t="n">
+        <v>52.92666666666664</v>
+      </c>
+      <c r="H9" t="n">
         <v>52.89666666666686</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>60</v>
       </c>
       <c r="G10" t="n">
+        <v>52.93333333333331</v>
+      </c>
+      <c r="H10" t="n">
         <v>52.90000000000019</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1671.4283</v>
       </c>
       <c r="G11" t="n">
+        <v>52.93999999999998</v>
+      </c>
+      <c r="H11" t="n">
         <v>52.90333333333352</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>8913.102800000001</v>
       </c>
       <c r="G12" t="n">
+        <v>52.93999999999998</v>
+      </c>
+      <c r="H12" t="n">
         <v>52.90500000000019</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>948.1935999999999</v>
       </c>
       <c r="G13" t="n">
+        <v>52.93999999999998</v>
+      </c>
+      <c r="H13" t="n">
         <v>52.90666666666685</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>3147.1621</v>
       </c>
       <c r="G14" t="n">
+        <v>52.95333333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>52.91166666666685</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>8663.5987</v>
       </c>
       <c r="G15" t="n">
+        <v>52.96666666666665</v>
+      </c>
+      <c r="H15" t="n">
         <v>52.91500000000018</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>800.2966</v>
       </c>
       <c r="G16" t="n">
+        <v>52.98666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>52.92000000000017</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1790.083</v>
       </c>
       <c r="G17" t="n">
+        <v>53.01999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>52.92833333333351</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5471.2615</v>
       </c>
       <c r="G18" t="n">
+        <v>53.03999999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>52.93500000000017</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>4793.3311</v>
       </c>
       <c r="G19" t="n">
+        <v>53.05333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>52.94000000000016</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>20</v>
       </c>
       <c r="G20" t="n">
+        <v>53.04666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>52.94000000000016</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>950.019</v>
       </c>
       <c r="G21" t="n">
+        <v>53.04666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>52.94000000000016</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>6789.9967</v>
       </c>
       <c r="G22" t="n">
+        <v>53.03999999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>52.9383333333335</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>6589.675</v>
       </c>
       <c r="G23" t="n">
+        <v>53.09999999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>52.95666666666683</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>358709.7223</v>
       </c>
       <c r="G24" t="n">
+        <v>53.28666666666665</v>
+      </c>
+      <c r="H24" t="n">
         <v>53.00666666666682</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>51853.3354</v>
       </c>
       <c r="G25" t="n">
+        <v>53.41999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>53.04166666666683</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>151092.6133</v>
       </c>
       <c r="G26" t="n">
+        <v>53.55333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>53.07666666666682</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>14307.0996</v>
       </c>
       <c r="G27" t="n">
+        <v>53.61333333333332</v>
+      </c>
+      <c r="H27" t="n">
         <v>53.09166666666682</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>13468.5163</v>
       </c>
       <c r="G28" t="n">
+        <v>53.71333333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>53.11666666666682</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>12542.4231</v>
       </c>
       <c r="G29" t="n">
+        <v>53.79333333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>53.14000000000016</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>7667.5887</v>
       </c>
       <c r="G30" t="n">
+        <v>53.85333333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>53.15833333333349</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>157.2365</v>
       </c>
       <c r="G31" t="n">
+        <v>53.91333333333331</v>
+      </c>
+      <c r="H31" t="n">
         <v>53.17833333333349</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1080</v>
       </c>
       <c r="G32" t="n">
+        <v>53.97999999999998</v>
+      </c>
+      <c r="H32" t="n">
         <v>53.20333333333349</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>6717.8662</v>
       </c>
       <c r="G33" t="n">
+        <v>54.05999999999997</v>
+      </c>
+      <c r="H33" t="n">
         <v>53.22833333333349</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>10602.9113</v>
       </c>
       <c r="G34" t="n">
+        <v>54.14666666666664</v>
+      </c>
+      <c r="H34" t="n">
         <v>53.25000000000016</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1101.0613</v>
       </c>
       <c r="G35" t="n">
+        <v>54.24666666666664</v>
+      </c>
+      <c r="H35" t="n">
         <v>53.2733333333335</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>704.0218</v>
       </c>
       <c r="G36" t="n">
+        <v>54.31999999999997</v>
+      </c>
+      <c r="H36" t="n">
         <v>53.29166666666683</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>21854.634</v>
       </c>
       <c r="G37" t="n">
+        <v>54.36666666666665</v>
+      </c>
+      <c r="H37" t="n">
         <v>53.30166666666683</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>59869.0021</v>
       </c>
       <c r="G38" t="n">
+        <v>54.49333333333331</v>
+      </c>
+      <c r="H38" t="n">
         <v>53.35166666666682</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>617.999</v>
       </c>
       <c r="G39" t="n">
+        <v>54.35999999999998</v>
+      </c>
+      <c r="H39" t="n">
         <v>53.36833333333349</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>512.8742</v>
       </c>
       <c r="G40" t="n">
+        <v>54.29333333333331</v>
+      </c>
+      <c r="H40" t="n">
         <v>53.38666666666682</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>7834.466</v>
       </c>
       <c r="G41" t="n">
+        <v>54.23333333333331</v>
+      </c>
+      <c r="H41" t="n">
         <v>53.40666666666682</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>2452.3895</v>
       </c>
       <c r="G42" t="n">
+        <v>54.26666666666664</v>
+      </c>
+      <c r="H42" t="n">
         <v>53.43000000000016</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>809</v>
       </c>
       <c r="G43" t="n">
+        <v>54.23999999999998</v>
+      </c>
+      <c r="H43" t="n">
         <v>53.44833333333349</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>6227.4536</v>
       </c>
       <c r="G44" t="n">
+        <v>54.21999999999998</v>
+      </c>
+      <c r="H44" t="n">
         <v>53.46666666666682</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>199.1409</v>
       </c>
       <c r="G45" t="n">
+        <v>54.21333333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>53.48333333333348</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1100</v>
       </c>
       <c r="G46" t="n">
+        <v>54.17333333333331</v>
+      </c>
+      <c r="H46" t="n">
         <v>53.49333333333348</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>3860</v>
       </c>
       <c r="G47" t="n">
+        <v>54.10666666666665</v>
+      </c>
+      <c r="H47" t="n">
         <v>53.50166666666681</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>93290.5223</v>
       </c>
       <c r="G48" t="n">
+        <v>54.05333333333331</v>
+      </c>
+      <c r="H48" t="n">
         <v>53.51333333333348</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>816.6179</v>
       </c>
       <c r="G49" t="n">
+        <v>53.98666666666665</v>
+      </c>
+      <c r="H49" t="n">
         <v>53.52166666666681</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>21197.363</v>
       </c>
       <c r="G50" t="n">
+        <v>53.91999999999998</v>
+      </c>
+      <c r="H50" t="n">
         <v>53.52833333333349</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>8185.262</v>
       </c>
       <c r="G51" t="n">
+        <v>53.87333333333331</v>
+      </c>
+      <c r="H51" t="n">
         <v>53.53500000000015</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,22 +2353,21 @@
         <v>626.3861000000001</v>
       </c>
       <c r="G52" t="n">
+        <v>53.85999999999998</v>
+      </c>
+      <c r="H52" t="n">
         <v>53.54166666666682</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="K52" t="n">
-        <v>53.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2237,26 +2391,21 @@
         <v>88526.05349999999</v>
       </c>
       <c r="G53" t="n">
+        <v>53.65999999999998</v>
+      </c>
+      <c r="H53" t="n">
         <v>53.54166666666682</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,24 +2429,21 @@
         <v>25</v>
       </c>
       <c r="G54" t="n">
+        <v>53.62666666666664</v>
+      </c>
+      <c r="H54" t="n">
         <v>53.55000000000015</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,24 +2467,21 @@
         <v>4601.6797</v>
       </c>
       <c r="G55" t="n">
+        <v>53.55333333333331</v>
+      </c>
+      <c r="H55" t="n">
         <v>53.55000000000015</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2362,24 +2505,21 @@
         <v>30</v>
       </c>
       <c r="G56" t="n">
+        <v>53.49333333333331</v>
+      </c>
+      <c r="H56" t="n">
         <v>53.55500000000015</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2403,24 +2543,21 @@
         <v>894.4652</v>
       </c>
       <c r="G57" t="n">
+        <v>53.42666666666664</v>
+      </c>
+      <c r="H57" t="n">
         <v>53.56166666666682</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,24 +2581,21 @@
         <v>3035</v>
       </c>
       <c r="G58" t="n">
+        <v>53.36666666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>53.56500000000015</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,24 +2619,25 @@
         <v>11</v>
       </c>
       <c r="G59" t="n">
+        <v>53.33333333333331</v>
+      </c>
+      <c r="H59" t="n">
         <v>53.57500000000014</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,26 +2661,29 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
+        <v>53.30666666666664</v>
+      </c>
+      <c r="H60" t="n">
         <v>53.58500000000014</v>
       </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
         <v>53.5</v>
       </c>
-      <c r="K60" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,24 +2707,29 @@
         <v>122.3121</v>
       </c>
       <c r="G61" t="n">
+        <v>53.30666666666664</v>
+      </c>
+      <c r="H61" t="n">
         <v>53.59500000000014</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2610,24 +2753,21 @@
         <v>177.3326</v>
       </c>
       <c r="G62" t="n">
+        <v>53.31333333333331</v>
+      </c>
+      <c r="H62" t="n">
         <v>53.60500000000014</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2651,24 +2791,25 @@
         <v>19.7869</v>
       </c>
       <c r="G63" t="n">
+        <v>53.30666666666664</v>
+      </c>
+      <c r="H63" t="n">
         <v>53.61500000000014</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,24 +2833,27 @@
         <v>386.9418</v>
       </c>
       <c r="G64" t="n">
+        <v>53.31333333333331</v>
+      </c>
+      <c r="H64" t="n">
         <v>53.62500000000014</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,24 +2877,27 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
+        <v>53.29999999999998</v>
+      </c>
+      <c r="H65" t="n">
         <v>53.62833333333347</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,24 +2921,21 @@
         <v>60.7985</v>
       </c>
       <c r="G66" t="n">
+        <v>53.28666666666665</v>
+      </c>
+      <c r="H66" t="n">
         <v>53.6316666666668</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2815,24 +2959,25 @@
         <v>1164.1468</v>
       </c>
       <c r="G67" t="n">
+        <v>53.27333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>53.63500000000013</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,24 +3001,29 @@
         <v>30</v>
       </c>
       <c r="G68" t="n">
+        <v>53.30666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>53.64000000000013</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,24 +3047,29 @@
         <v>2041.3363</v>
       </c>
       <c r="G69" t="n">
+        <v>53.29333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>53.64166666666679</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,24 +3093,27 @@
         <v>883.11</v>
       </c>
       <c r="G70" t="n">
+        <v>53.31333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>53.64500000000012</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2979,24 +3137,29 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="H71" t="n">
         <v>53.65000000000013</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,24 +3183,27 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
+        <v>53.32666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>53.65833333333346</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3061,24 +3227,27 @@
         <v>6287.3782</v>
       </c>
       <c r="G73" t="n">
+        <v>53.34</v>
+      </c>
+      <c r="H73" t="n">
         <v>53.66500000000013</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,24 +3271,27 @@
         <v>366.8321</v>
       </c>
       <c r="G74" t="n">
+        <v>53.33333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>53.67000000000014</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,24 +3315,27 @@
         <v>27600</v>
       </c>
       <c r="G75" t="n">
+        <v>53.29999999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>53.66833333333347</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,24 +3359,27 @@
         <v>1039.0551</v>
       </c>
       <c r="G76" t="n">
+        <v>53.29999999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>53.67333333333347</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3225,24 +3403,27 @@
         <v>1266.2289</v>
       </c>
       <c r="G77" t="n">
+        <v>53.29999999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>53.67500000000014</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,26 +3447,27 @@
         <v>79837.4519</v>
       </c>
       <c r="G78" t="n">
+        <v>53.33333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>53.68833333333347</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="K78" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,24 +3491,27 @@
         <v>13107.3789</v>
       </c>
       <c r="G79" t="n">
+        <v>53.37333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>53.70500000000014</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,24 +3535,27 @@
         <v>4597</v>
       </c>
       <c r="G80" t="n">
+        <v>53.43999999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>53.7266666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,24 +3579,27 @@
         <v>985.2085</v>
       </c>
       <c r="G81" t="n">
+        <v>53.50666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>53.7466666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,24 +3623,27 @@
         <v>1216.5857</v>
       </c>
       <c r="G82" t="n">
+        <v>53.57333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>53.76833333333346</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,24 +3667,27 @@
         <v>32258.5733</v>
       </c>
       <c r="G83" t="n">
+        <v>53.62</v>
+      </c>
+      <c r="H83" t="n">
         <v>53.77000000000012</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,24 +3711,27 @@
         <v>155.614</v>
       </c>
       <c r="G84" t="n">
+        <v>53.67333333333332</v>
+      </c>
+      <c r="H84" t="n">
         <v>53.73833333333346</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,24 +3755,27 @@
         <v>1364.9259</v>
       </c>
       <c r="G85" t="n">
+        <v>53.72666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>53.72166666666679</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,24 +3799,27 @@
         <v>25.5241</v>
       </c>
       <c r="G86" t="n">
+        <v>53.79999999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>53.71166666666679</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,24 +3843,27 @@
         <v>581.8891</v>
       </c>
       <c r="G87" t="n">
+        <v>53.84</v>
+      </c>
+      <c r="H87" t="n">
         <v>53.71500000000012</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,24 +3887,27 @@
         <v>11363.4874</v>
       </c>
       <c r="G88" t="n">
+        <v>53.88666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>53.70833333333346</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,24 +3931,27 @@
         <v>22951.3344</v>
       </c>
       <c r="G89" t="n">
+        <v>53.92666666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>53.70333333333345</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,24 +3975,27 @@
         <v>19837.9335</v>
       </c>
       <c r="G90" t="n">
+        <v>53.99333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>53.70333333333345</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,24 +4019,27 @@
         <v>509.3832</v>
       </c>
       <c r="G91" t="n">
+        <v>54.02666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>53.70166666666679</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,24 +4063,27 @@
         <v>949.7446</v>
       </c>
       <c r="G92" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="H92" t="n">
         <v>53.69500000000012</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,24 +4107,27 @@
         <v>4190.2432</v>
       </c>
       <c r="G93" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="H93" t="n">
         <v>53.68833333333345</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,24 +4151,27 @@
         <v>16441.3651</v>
       </c>
       <c r="G94" t="n">
+        <v>54.04666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>53.68000000000011</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,24 +4195,27 @@
         <v>293.5102</v>
       </c>
       <c r="G95" t="n">
+        <v>54.03333333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>53.67333333333345</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,24 +4239,27 @@
         <v>5419.1616</v>
       </c>
       <c r="G96" t="n">
+        <v>54.02666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>53.67333333333345</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4047,24 +4283,27 @@
         <v>985.4357</v>
       </c>
       <c r="G97" t="n">
+        <v>54.01999999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>53.68166666666678</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,24 +4327,27 @@
         <v>2141.388</v>
       </c>
       <c r="G98" t="n">
+        <v>54.01333333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>53.65000000000011</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4129,24 +4371,27 @@
         <v>14600.0146</v>
       </c>
       <c r="G99" t="n">
+        <v>54.01999999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>53.65333333333344</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,24 +4415,27 @@
         <v>31607.8466</v>
       </c>
       <c r="G100" t="n">
+        <v>54.01333333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>53.65166666666678</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,24 +4459,27 @@
         <v>50965.04063807</v>
       </c>
       <c r="G101" t="n">
+        <v>53.99333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>53.65166666666678</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,24 +4503,27 @@
         <v>37636.58136193</v>
       </c>
       <c r="G102" t="n">
+        <v>53.99999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>53.64833333333344</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4293,24 +4547,27 @@
         <v>36233.5793</v>
       </c>
       <c r="G103" t="n">
+        <v>54.01333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>53.65166666666677</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,24 +4591,27 @@
         <v>14539.6903</v>
       </c>
       <c r="G104" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="H104" t="n">
         <v>53.65333333333344</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,24 +4635,27 @@
         <v>4720.1212</v>
       </c>
       <c r="G105" t="n">
+        <v>54.02666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>53.65666666666677</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,24 +4679,27 @@
         <v>355.0319</v>
       </c>
       <c r="G106" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="H106" t="n">
         <v>53.66333333333343</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,24 +4723,27 @@
         <v>7369.0591</v>
       </c>
       <c r="G107" t="n">
+        <v>54.00666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>53.6700000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,24 +4767,27 @@
         <v>473.3759</v>
       </c>
       <c r="G108" t="n">
+        <v>54.00666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>53.67666666666677</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,24 +4811,27 @@
         <v>22409.8089</v>
       </c>
       <c r="G109" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="H109" t="n">
         <v>53.68833333333343</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,24 +4855,27 @@
         <v>62674.9887</v>
       </c>
       <c r="G110" t="n">
+        <v>54.01333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>53.69666666666676</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4621,24 +4899,27 @@
         <v>15780.4857</v>
       </c>
       <c r="G111" t="n">
+        <v>53.99333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>53.70333333333343</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,24 +4943,27 @@
         <v>6851.6009</v>
       </c>
       <c r="G112" t="n">
+        <v>53.97333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>53.71000000000009</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,24 +4987,27 @@
         <v>988</v>
       </c>
       <c r="G113" t="n">
+        <v>53.95333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>53.72333333333342</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,24 +5031,29 @@
         <v>2621.9865</v>
       </c>
       <c r="G114" t="n">
+        <v>53.92666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>53.72833333333342</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="L114" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,24 +5077,27 @@
         <v>7707.869</v>
       </c>
       <c r="G115" t="n">
+        <v>53.90666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>53.74000000000008</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,24 +5121,27 @@
         <v>7392.6482</v>
       </c>
       <c r="G116" t="n">
+        <v>53.88666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>53.75000000000009</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,24 +5165,27 @@
         <v>762.3363000000001</v>
       </c>
       <c r="G117" t="n">
+        <v>53.86666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>53.75833333333342</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,24 +5209,27 @@
         <v>5123.0981</v>
       </c>
       <c r="G118" t="n">
+        <v>53.86</v>
+      </c>
+      <c r="H118" t="n">
         <v>53.77500000000008</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4949,24 +5253,27 @@
         <v>53062.0819</v>
       </c>
       <c r="G119" t="n">
+        <v>53.89333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>53.79333333333341</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,24 +5297,27 @@
         <v>30877.163</v>
       </c>
       <c r="G120" t="n">
+        <v>53.93333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>53.81333333333341</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5031,24 +5341,27 @@
         <v>4555.8746</v>
       </c>
       <c r="G121" t="n">
+        <v>53.99333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>53.83500000000008</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,24 +5385,27 @@
         <v>10493.0276</v>
       </c>
       <c r="G122" t="n">
+        <v>54.05333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>53.85500000000008</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5113,24 +5429,27 @@
         <v>100317.1562</v>
       </c>
       <c r="G123" t="n">
+        <v>54.11333333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>53.87833333333342</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,24 +5473,27 @@
         <v>15099.75</v>
       </c>
       <c r="G124" t="n">
+        <v>54.17333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>53.90333333333341</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5195,24 +5517,27 @@
         <v>21243.2558</v>
       </c>
       <c r="G125" t="n">
+        <v>54.22000000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>53.92666666666675</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,24 +5561,27 @@
         <v>4646</v>
       </c>
       <c r="G126" t="n">
+        <v>54.28</v>
+      </c>
+      <c r="H126" t="n">
         <v>53.95166666666675</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,24 +5605,27 @@
         <v>3579.9999</v>
       </c>
       <c r="G127" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="H127" t="n">
         <v>53.97666666666675</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,24 +5649,27 @@
         <v>299</v>
       </c>
       <c r="G128" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="H128" t="n">
         <v>53.99666666666675</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5359,24 +5693,27 @@
         <v>599</v>
       </c>
       <c r="G129" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="H129" t="n">
         <v>54.02000000000008</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,24 +5737,27 @@
         <v>6253.7554</v>
       </c>
       <c r="G130" t="n">
+        <v>54.52</v>
+      </c>
+      <c r="H130" t="n">
         <v>54.04166666666675</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5441,24 +5781,27 @@
         <v>20775.0349</v>
       </c>
       <c r="G131" t="n">
+        <v>54.56666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>54.06166666666675</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,24 +5825,27 @@
         <v>10466.795</v>
       </c>
       <c r="G132" t="n">
+        <v>54.61333333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>54.08000000000008</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,24 +5869,27 @@
         <v>588</v>
       </c>
       <c r="G133" t="n">
+        <v>54.64</v>
+      </c>
+      <c r="H133" t="n">
         <v>54.10000000000007</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5564,24 +5913,27 @@
         <v>2057.0641</v>
       </c>
       <c r="G134" t="n">
+        <v>54.63333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>54.11833333333341</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5605,24 +5957,27 @@
         <v>17282.9999</v>
       </c>
       <c r="G135" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="H135" t="n">
         <v>54.14333333333341</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,24 +6001,27 @@
         <v>12972.8316</v>
       </c>
       <c r="G136" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="H136" t="n">
         <v>54.16000000000007</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5687,24 +6045,27 @@
         <v>4929.16</v>
       </c>
       <c r="G137" t="n">
+        <v>54.59333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>54.17833333333341</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5728,24 +6089,27 @@
         <v>7985.739</v>
       </c>
       <c r="G138" t="n">
+        <v>54.58666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>54.19166666666674</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,24 +6133,27 @@
         <v>7876.4416</v>
       </c>
       <c r="G139" t="n">
+        <v>54.54666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>54.19666666666674</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,24 +6177,27 @@
         <v>8800</v>
       </c>
       <c r="G140" t="n">
+        <v>54.53999999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>54.20166666666675</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,24 +6221,27 @@
         <v>4506.7466</v>
       </c>
       <c r="G141" t="n">
+        <v>54.52666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>54.20666666666675</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,24 +6265,27 @@
         <v>201.8348</v>
       </c>
       <c r="G142" t="n">
+        <v>54.51333333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>54.21166666666675</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5933,24 +6309,27 @@
         <v>1689.7032</v>
       </c>
       <c r="G143" t="n">
+        <v>54.52666666666665</v>
+      </c>
+      <c r="H143" t="n">
         <v>54.22333333333343</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5974,24 +6353,27 @@
         <v>8295.824699999999</v>
       </c>
       <c r="G144" t="n">
+        <v>54.54666666666665</v>
+      </c>
+      <c r="H144" t="n">
         <v>54.23833333333343</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6015,24 +6397,27 @@
         <v>2000</v>
       </c>
       <c r="G145" t="n">
+        <v>54.57333333333331</v>
+      </c>
+      <c r="H145" t="n">
         <v>54.25333333333343</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6056,24 +6441,27 @@
         <v>12360.283</v>
       </c>
       <c r="G146" t="n">
+        <v>54.59999999999998</v>
+      </c>
+      <c r="H146" t="n">
         <v>54.26166666666676</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6097,24 +6485,27 @@
         <v>39081.968</v>
       </c>
       <c r="G147" t="n">
+        <v>54.62666666666664</v>
+      </c>
+      <c r="H147" t="n">
         <v>54.27666666666676</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,24 +6529,27 @@
         <v>11038.4615</v>
       </c>
       <c r="G148" t="n">
+        <v>54.65333333333331</v>
+      </c>
+      <c r="H148" t="n">
         <v>54.29166666666676</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6179,24 +6573,27 @@
         <v>32991</v>
       </c>
       <c r="G149" t="n">
+        <v>54.67999999999997</v>
+      </c>
+      <c r="H149" t="n">
         <v>54.30666666666676</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,24 +6617,27 @@
         <v>1570.722</v>
       </c>
       <c r="G150" t="n">
+        <v>54.73999999999997</v>
+      </c>
+      <c r="H150" t="n">
         <v>54.3300000000001</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6261,24 +6661,27 @@
         <v>316.1696</v>
       </c>
       <c r="G151" t="n">
+        <v>54.77333333333331</v>
+      </c>
+      <c r="H151" t="n">
         <v>54.34666666666677</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6302,24 +6705,27 @@
         <v>515.7806</v>
       </c>
       <c r="G152" t="n">
+        <v>54.79999999999997</v>
+      </c>
+      <c r="H152" t="n">
         <v>54.36333333333344</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6343,24 +6749,27 @@
         <v>1420.1989</v>
       </c>
       <c r="G153" t="n">
+        <v>54.8333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>54.3850000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,24 +6793,27 @@
         <v>539.5158</v>
       </c>
       <c r="G154" t="n">
+        <v>54.8933333333333</v>
+      </c>
+      <c r="H154" t="n">
         <v>54.40833333333344</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6425,24 +6837,27 @@
         <v>11060.2363</v>
       </c>
       <c r="G155" t="n">
+        <v>54.9333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>54.42666666666677</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,24 +6881,27 @@
         <v>999.9999</v>
       </c>
       <c r="G156" t="n">
+        <v>54.9933333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>54.44833333333344</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6507,24 +6925,27 @@
         <v>732</v>
       </c>
       <c r="G157" t="n">
+        <v>55.0533333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>54.47000000000011</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,24 +6969,27 @@
         <v>1054</v>
       </c>
       <c r="G158" t="n">
+        <v>55.08666666666663</v>
+      </c>
+      <c r="H158" t="n">
         <v>54.49166666666678</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,24 +7013,27 @@
         <v>24.3651</v>
       </c>
       <c r="G159" t="n">
+        <v>55.0933333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>54.50666666666678</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6630,24 +7057,27 @@
         <v>17426.50137729</v>
       </c>
       <c r="G160" t="n">
+        <v>55.1333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>54.53333333333345</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6671,24 +7101,27 @@
         <v>5741.80966751</v>
       </c>
       <c r="G161" t="n">
+        <v>55.1933333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>54.56166666666679</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6712,24 +7145,27 @@
         <v>4006.3603</v>
       </c>
       <c r="G162" t="n">
+        <v>55.23333333333331</v>
+      </c>
+      <c r="H162" t="n">
         <v>54.58500000000012</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6753,24 +7189,27 @@
         <v>7.729e-05</v>
       </c>
       <c r="G163" t="n">
+        <v>55.27333333333331</v>
+      </c>
+      <c r="H163" t="n">
         <v>54.60666666666679</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,24 +7233,27 @@
         <v>30251.7251</v>
       </c>
       <c r="G164" t="n">
+        <v>55.3133333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>54.63000000000012</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6835,24 +7277,27 @@
         <v>3738.1259</v>
       </c>
       <c r="G165" t="n">
+        <v>55.31999999999997</v>
+      </c>
+      <c r="H165" t="n">
         <v>54.65333333333346</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6876,24 +7321,27 @@
         <v>38685.9677</v>
       </c>
       <c r="G166" t="n">
+        <v>55.37333333333331</v>
+      </c>
+      <c r="H166" t="n">
         <v>54.68500000000013</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6917,24 +7365,27 @@
         <v>85727.2420552</v>
       </c>
       <c r="G167" t="n">
+        <v>55.43999999999997</v>
+      </c>
+      <c r="H167" t="n">
         <v>54.72166666666679</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,24 +7409,27 @@
         <v>22534.3392</v>
       </c>
       <c r="G168" t="n">
+        <v>55.48666666666664</v>
+      </c>
+      <c r="H168" t="n">
         <v>54.75500000000012</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6999,24 +7453,27 @@
         <v>64599.5989</v>
       </c>
       <c r="G169" t="n">
+        <v>55.55333333333331</v>
+      </c>
+      <c r="H169" t="n">
         <v>54.79166666666679</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7040,24 +7497,27 @@
         <v>25459.0457</v>
       </c>
       <c r="G170" t="n">
+        <v>55.6733333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>54.8416666666668</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,25 +7541,28 @@
         <v>19345.1935</v>
       </c>
       <c r="G171" t="n">
+        <v>55.77333333333331</v>
+      </c>
+      <c r="H171" t="n">
         <v>54.89333333333347</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1.064679849340866</v>
       </c>
     </row>
     <row r="172">
@@ -7122,24 +7585,21 @@
         <v>71960.4039</v>
       </c>
       <c r="G172" t="n">
+        <v>55.80666666666664</v>
+      </c>
+      <c r="H172" t="n">
         <v>54.92833333333348</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7163,24 +7623,21 @@
         <v>13375</v>
       </c>
       <c r="G173" t="n">
+        <v>55.82666666666664</v>
+      </c>
+      <c r="H173" t="n">
         <v>54.96000000000014</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7204,24 +7661,21 @@
         <v>12120.2954</v>
       </c>
       <c r="G174" t="n">
+        <v>55.89999999999998</v>
+      </c>
+      <c r="H174" t="n">
         <v>55.00000000000014</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7245,24 +7699,21 @@
         <v>5926.1348</v>
       </c>
       <c r="G175" t="n">
+        <v>55.93999999999998</v>
+      </c>
+      <c r="H175" t="n">
         <v>55.04166666666681</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7286,24 +7737,21 @@
         <v>5907.7288</v>
       </c>
       <c r="G176" t="n">
+        <v>56.00666666666665</v>
+      </c>
+      <c r="H176" t="n">
         <v>55.09166666666681</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7327,24 +7775,21 @@
         <v>246</v>
       </c>
       <c r="G177" t="n">
+        <v>56.04666666666665</v>
+      </c>
+      <c r="H177" t="n">
         <v>55.13000000000014</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7368,24 +7813,21 @@
         <v>5304.187</v>
       </c>
       <c r="G178" t="n">
+        <v>56.08666666666665</v>
+      </c>
+      <c r="H178" t="n">
         <v>55.16333333333348</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7409,24 +7851,21 @@
         <v>6175.452</v>
       </c>
       <c r="G179" t="n">
+        <v>56.11999999999998</v>
+      </c>
+      <c r="H179" t="n">
         <v>55.18666666666681</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7450,24 +7889,21 @@
         <v>1489.1452</v>
       </c>
       <c r="G180" t="n">
+        <v>56.15999999999998</v>
+      </c>
+      <c r="H180" t="n">
         <v>55.21000000000014</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7491,24 +7927,21 @@
         <v>5892.9594</v>
       </c>
       <c r="G181" t="n">
+        <v>56.15999999999998</v>
+      </c>
+      <c r="H181" t="n">
         <v>55.22666666666681</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7532,24 +7965,21 @@
         <v>34620.0857</v>
       </c>
       <c r="G182" t="n">
+        <v>56.14666666666665</v>
+      </c>
+      <c r="H182" t="n">
         <v>55.24500000000015</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,24 +8003,21 @@
         <v>18623</v>
       </c>
       <c r="G183" t="n">
+        <v>56.06666666666664</v>
+      </c>
+      <c r="H183" t="n">
         <v>55.24333333333348</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7614,24 +8041,21 @@
         <v>617.6202</v>
       </c>
       <c r="G184" t="n">
+        <v>55.98666666666665</v>
+      </c>
+      <c r="H184" t="n">
         <v>55.24500000000015</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7655,24 +8079,21 @@
         <v>8235.332399999999</v>
       </c>
       <c r="G185" t="n">
+        <v>55.86666666666665</v>
+      </c>
+      <c r="H185" t="n">
         <v>55.25333333333348</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7696,24 +8117,21 @@
         <v>12657.6053</v>
       </c>
       <c r="G186" t="n">
+        <v>55.73999999999999</v>
+      </c>
+      <c r="H186" t="n">
         <v>55.25833333333348</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7737,24 +8155,21 @@
         <v>1102.4449</v>
       </c>
       <c r="G187" t="n">
+        <v>55.68666666666665</v>
+      </c>
+      <c r="H187" t="n">
         <v>55.26500000000015</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7778,24 +8193,21 @@
         <v>8300</v>
       </c>
       <c r="G188" t="n">
+        <v>55.63999999999999</v>
+      </c>
+      <c r="H188" t="n">
         <v>55.27000000000016</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7819,24 +8231,21 @@
         <v>591.6552</v>
       </c>
       <c r="G189" t="n">
+        <v>55.54666666666665</v>
+      </c>
+      <c r="H189" t="n">
         <v>55.27166666666682</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7860,24 +8269,21 @@
         <v>20317.3903</v>
       </c>
       <c r="G190" t="n">
+        <v>55.45333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>55.27500000000015</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7901,24 +8307,21 @@
         <v>1971</v>
       </c>
       <c r="G191" t="n">
+        <v>55.31999999999999</v>
+      </c>
+      <c r="H191" t="n">
         <v>55.28000000000016</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7942,24 +8345,21 @@
         <v>29990.7676</v>
       </c>
       <c r="G192" t="n">
+        <v>55.23333333333332</v>
+      </c>
+      <c r="H192" t="n">
         <v>55.28500000000016</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7983,24 +8383,21 @@
         <v>16461.7224</v>
       </c>
       <c r="G193" t="n">
+        <v>55.14666666666665</v>
+      </c>
+      <c r="H193" t="n">
         <v>55.29000000000016</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,24 +8421,21 @@
         <v>10984.635</v>
       </c>
       <c r="G194" t="n">
+        <v>55.15333333333331</v>
+      </c>
+      <c r="H194" t="n">
         <v>55.31666666666683</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8065,24 +8459,21 @@
         <v>12471.6507</v>
       </c>
       <c r="G195" t="n">
+        <v>55.07333333333331</v>
+      </c>
+      <c r="H195" t="n">
         <v>55.32333333333349</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8106,24 +8497,21 @@
         <v>3614.395</v>
       </c>
       <c r="G196" t="n">
+        <v>55.02666666666665</v>
+      </c>
+      <c r="H196" t="n">
         <v>55.33333333333349</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8147,24 +8535,21 @@
         <v>9195.046899999999</v>
       </c>
       <c r="G197" t="n">
+        <v>54.97999999999999</v>
+      </c>
+      <c r="H197" t="n">
         <v>55.34166666666682</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8188,24 +8573,21 @@
         <v>17965.8528</v>
       </c>
       <c r="G198" t="n">
+        <v>54.97999999999999</v>
+      </c>
+      <c r="H198" t="n">
         <v>55.34166666666682</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8229,24 +8611,21 @@
         <v>2768.6902</v>
       </c>
       <c r="G199" t="n">
+        <v>54.94666666666665</v>
+      </c>
+      <c r="H199" t="n">
         <v>55.34500000000016</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8270,24 +8649,21 @@
         <v>11800</v>
       </c>
       <c r="G200" t="n">
+        <v>54.91999999999999</v>
+      </c>
+      <c r="H200" t="n">
         <v>55.34833333333349</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8311,24 +8687,21 @@
         <v>6709.5992</v>
       </c>
       <c r="G201" t="n">
+        <v>54.89999999999999</v>
+      </c>
+      <c r="H201" t="n">
         <v>55.35166666666682</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8352,24 +8725,21 @@
         <v>2881.8974009</v>
       </c>
       <c r="G202" t="n">
+        <v>54.93333333333332</v>
+      </c>
+      <c r="H202" t="n">
         <v>55.37000000000015</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,24 +8763,21 @@
         <v>8992.805700000001</v>
       </c>
       <c r="G203" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="H203" t="n">
         <v>55.38333333333347</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8434,24 +8801,401 @@
         <v>3595.77582285</v>
       </c>
       <c r="G204" t="n">
+        <v>55.06666666666666</v>
+      </c>
+      <c r="H204" t="n">
         <v>55.40166666666681</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>6898.3812</v>
+      </c>
+      <c r="G205" t="n">
+        <v>55.09333333333333</v>
+      </c>
+      <c r="H205" t="n">
+        <v>55.40500000000014</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>55.14666666666666</v>
+      </c>
+      <c r="H206" t="n">
+        <v>55.41666666666681</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G207" t="n">
+        <v>55.16666666666666</v>
+      </c>
+      <c r="H207" t="n">
+        <v>55.42000000000014</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C208" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E208" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" t="n">
+        <v>55.22000000000001</v>
+      </c>
+      <c r="H208" t="n">
+        <v>55.4316666666668</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E209" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1420.1989</v>
+      </c>
+      <c r="G209" t="n">
+        <v>55.15333333333334</v>
+      </c>
+      <c r="H209" t="n">
+        <v>55.43500000000013</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>838.9999</v>
+      </c>
+      <c r="G210" t="n">
+        <v>55.16666666666667</v>
+      </c>
+      <c r="H210" t="n">
+        <v>55.43000000000013</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E211" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>788</v>
+      </c>
+      <c r="G211" t="n">
+        <v>55.16666666666667</v>
+      </c>
+      <c r="H211" t="n">
+        <v>55.43166666666679</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>80</v>
+      </c>
+      <c r="G212" t="n">
+        <v>55.16666666666667</v>
+      </c>
+      <c r="H212" t="n">
+        <v>55.43333333333346</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C213" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E213" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="n">
+        <v>55.22000000000001</v>
+      </c>
+      <c r="H213" t="n">
+        <v>55.43833333333345</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C214" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E214" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>60305.8642</v>
+      </c>
+      <c r="G214" t="n">
+        <v>55.25333333333334</v>
+      </c>
+      <c r="H214" t="n">
+        <v>55.43500000000011</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="D2" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="E2" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="F2" t="n">
-        <v>4995000</v>
+        <v>8663.5987</v>
       </c>
       <c r="G2" t="n">
-        <v>10777326.5939</v>
+        <v>9736879.1916</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>52.7</v>
+        <v>53.2</v>
       </c>
       <c r="C3" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D3" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="E3" t="n">
-        <v>52.7</v>
+        <v>53.2</v>
       </c>
       <c r="F3" t="n">
-        <v>21.9227</v>
+        <v>800.2966</v>
       </c>
       <c r="G3" t="n">
-        <v>10777348.5166</v>
+        <v>9737679.4882</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="C4" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="D4" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="E4" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="F4" t="n">
-        <v>1035000</v>
+        <v>1790.083</v>
       </c>
       <c r="G4" t="n">
-        <v>9742348.5166</v>
+        <v>9739469.5712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="C5" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="D5" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="E5" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="F5" t="n">
-        <v>7650000</v>
+        <v>5471.2615</v>
       </c>
       <c r="G5" t="n">
-        <v>9742348.5166</v>
+        <v>9733998.309700001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="C6" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="D6" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="E6" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="F6" t="n">
-        <v>7650000</v>
+        <v>4793.3311</v>
       </c>
       <c r="G6" t="n">
-        <v>9742348.5166</v>
+        <v>9729204.978600001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D7" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="E7" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F7" t="n">
-        <v>7875000</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>9742348.5166</v>
+        <v>9729184.978600001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -655,10 +666,10 @@
         <v>52.9</v>
       </c>
       <c r="F8" t="n">
-        <v>7785000</v>
+        <v>950.019</v>
       </c>
       <c r="G8" t="n">
-        <v>9742348.5166</v>
+        <v>9730134.9976</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C9" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D9" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="E9" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F9" t="n">
-        <v>7785000</v>
+        <v>6789.9967</v>
       </c>
       <c r="G9" t="n">
-        <v>9742348.5166</v>
+        <v>9723345.0009</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="C10" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="F10" t="n">
-        <v>7785000</v>
+        <v>6589.675</v>
       </c>
       <c r="G10" t="n">
-        <v>9742348.5166</v>
+        <v>9729934.675900001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
-        <v>52.9</v>
+        <v>55.9</v>
       </c>
       <c r="D11" t="n">
-        <v>52.9</v>
+        <v>55.9</v>
       </c>
       <c r="E11" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="F11" t="n">
-        <v>6975000</v>
+        <v>358709.7223</v>
       </c>
       <c r="G11" t="n">
-        <v>9742348.5166</v>
+        <v>10088644.3982</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>52.9</v>
+        <v>55.9</v>
       </c>
       <c r="C12" t="n">
-        <v>52.9</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
-        <v>52.9</v>
+        <v>55.9</v>
       </c>
       <c r="E12" t="n">
-        <v>52.9</v>
+        <v>55</v>
       </c>
       <c r="F12" t="n">
-        <v>3850000</v>
+        <v>51853.3354</v>
       </c>
       <c r="G12" t="n">
-        <v>9742348.5166</v>
+        <v>10036791.0628</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="C13" t="n">
-        <v>52.9</v>
+        <v>55</v>
       </c>
       <c r="D13" t="n">
-        <v>52.9</v>
+        <v>55.1</v>
       </c>
       <c r="E13" t="n">
-        <v>52.9</v>
+        <v>54.2</v>
       </c>
       <c r="F13" t="n">
-        <v>8400000</v>
+        <v>151092.6133</v>
       </c>
       <c r="G13" t="n">
-        <v>9742348.5166</v>
+        <v>10036791.0628</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="C14" t="n">
-        <v>52.9</v>
+        <v>53.8</v>
       </c>
       <c r="D14" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="E14" t="n">
-        <v>52.9</v>
+        <v>53.8</v>
       </c>
       <c r="F14" t="n">
-        <v>8500000</v>
+        <v>14307.0996</v>
       </c>
       <c r="G14" t="n">
-        <v>9742348.5166</v>
+        <v>10022483.9632</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="C15" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="D15" t="n">
-        <v>52.9</v>
+        <v>54.5</v>
       </c>
       <c r="E15" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="F15" t="n">
-        <v>8450000</v>
+        <v>13468.5163</v>
       </c>
       <c r="G15" t="n">
-        <v>9742348.5166</v>
+        <v>10035952.4795</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="C16" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="D16" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="E16" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="F16" t="n">
-        <v>8300000</v>
+        <v>12542.4231</v>
       </c>
       <c r="G16" t="n">
-        <v>9742348.5166</v>
+        <v>10023410.0564</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>52.9</v>
+        <v>54.2</v>
       </c>
       <c r="C17" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="D17" t="n">
-        <v>52.9</v>
+        <v>54.2</v>
       </c>
       <c r="E17" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="F17" t="n">
-        <v>8350000</v>
+        <v>7667.5887</v>
       </c>
       <c r="G17" t="n">
-        <v>9742348.5166</v>
+        <v>10015742.4677</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>52.9</v>
+        <v>54.1</v>
       </c>
       <c r="C18" t="n">
-        <v>52.9</v>
+        <v>54.1</v>
       </c>
       <c r="D18" t="n">
-        <v>52.9</v>
+        <v>54.1</v>
       </c>
       <c r="E18" t="n">
-        <v>52.9</v>
+        <v>54.1</v>
       </c>
       <c r="F18" t="n">
-        <v>2950000</v>
+        <v>157.2365</v>
       </c>
       <c r="G18" t="n">
-        <v>9742348.5166</v>
+        <v>10015899.7042</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="C19" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="D19" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="E19" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="F19" t="n">
-        <v>6880000</v>
+        <v>1080</v>
       </c>
       <c r="G19" t="n">
-        <v>9742348.5166</v>
+        <v>10016979.7042</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="C20" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="D20" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="E20" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="F20" t="n">
-        <v>13840719</v>
+        <v>6717.8662</v>
       </c>
       <c r="G20" t="n">
-        <v>9742348.5166</v>
+        <v>10016979.7042</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="C21" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="D21" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="E21" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="F21" t="n">
-        <v>13919281</v>
+        <v>10602.9113</v>
       </c>
       <c r="G21" t="n">
-        <v>9742348.5166</v>
+        <v>10016979.7042</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="C22" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="D22" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="E22" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="F22" t="n">
-        <v>13760000</v>
+        <v>1101.0613</v>
       </c>
       <c r="G22" t="n">
-        <v>9742348.5166</v>
+        <v>10015878.6429</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="D23" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="F23" t="n">
-        <v>13760719</v>
+        <v>704.0218</v>
       </c>
       <c r="G23" t="n">
-        <v>9742348.5166</v>
+        <v>10015174.6211</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.9</v>
+        <v>54.4</v>
       </c>
       <c r="C24" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="D24" t="n">
-        <v>52.9</v>
+        <v>55.2</v>
       </c>
       <c r="E24" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="F24" t="n">
-        <v>13839281</v>
+        <v>21854.634</v>
       </c>
       <c r="G24" t="n">
-        <v>9742348.5166</v>
+        <v>9993319.987100001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.9</v>
+        <v>53.8</v>
       </c>
       <c r="C25" t="n">
-        <v>52.9</v>
+        <v>55.9</v>
       </c>
       <c r="D25" t="n">
-        <v>52.9</v>
+        <v>55.9</v>
       </c>
       <c r="E25" t="n">
-        <v>52.9</v>
+        <v>53.7</v>
       </c>
       <c r="F25" t="n">
-        <v>13600000</v>
+        <v>59869.0021</v>
       </c>
       <c r="G25" t="n">
-        <v>9742348.5166</v>
+        <v>10053188.9892</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="C26" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="D26" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="E26" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="F26" t="n">
-        <v>13441389.7561</v>
+        <v>617.999</v>
       </c>
       <c r="G26" t="n">
-        <v>9742348.5166</v>
+        <v>10052570.9902</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="C27" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="F27" t="n">
-        <v>13280000</v>
+        <v>512.8742</v>
       </c>
       <c r="G27" t="n">
-        <v>9742348.5166</v>
+        <v>10053083.8644</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.9</v>
+        <v>54.1</v>
       </c>
       <c r="C28" t="n">
-        <v>52.9</v>
+        <v>54.1</v>
       </c>
       <c r="D28" t="n">
-        <v>53.1</v>
+        <v>54.1</v>
       </c>
       <c r="E28" t="n">
-        <v>52.9</v>
+        <v>54.1</v>
       </c>
       <c r="F28" t="n">
-        <v>13601129.4161</v>
+        <v>7834.466</v>
       </c>
       <c r="G28" t="n">
-        <v>9742348.5166</v>
+        <v>10060918.3304</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="C29" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="D29" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="E29" t="n">
-        <v>52.9</v>
+        <v>54.3</v>
       </c>
       <c r="F29" t="n">
-        <v>13841389.7561</v>
+        <v>2452.3895</v>
       </c>
       <c r="G29" t="n">
-        <v>9742348.5166</v>
+        <v>10063370.7199</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="C30" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="E30" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="F30" t="n">
-        <v>3410049.2438</v>
+        <v>809</v>
       </c>
       <c r="G30" t="n">
-        <v>9742348.5166</v>
+        <v>10062561.7199</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="C31" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="D31" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="E31" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="F31" t="n">
-        <v>11830000</v>
+        <v>6227.4536</v>
       </c>
       <c r="G31" t="n">
-        <v>9742348.5166</v>
+        <v>10062561.7199</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="C32" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="D32" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="E32" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="F32" t="n">
-        <v>11839950.7562</v>
+        <v>199.1409</v>
       </c>
       <c r="G32" t="n">
-        <v>9742348.5166</v>
+        <v>10062362.579</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="C33" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="D33" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="E33" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="F33" t="n">
-        <v>11900000</v>
+        <v>1100</v>
       </c>
       <c r="G33" t="n">
-        <v>9742348.5166</v>
+        <v>10061262.579</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="C34" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="D34" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="E34" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="F34" t="n">
-        <v>690049.2438000001</v>
+        <v>3860</v>
       </c>
       <c r="G34" t="n">
-        <v>9742348.5166</v>
+        <v>10057402.579</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>52.9</v>
+        <v>53.6</v>
       </c>
       <c r="C35" t="n">
-        <v>52.9</v>
+        <v>53.6</v>
       </c>
       <c r="D35" t="n">
-        <v>52.9</v>
+        <v>53.6</v>
       </c>
       <c r="E35" t="n">
-        <v>52.9</v>
+        <v>53.6</v>
       </c>
       <c r="F35" t="n">
-        <v>1800.1723</v>
+        <v>93290.5223</v>
       </c>
       <c r="G35" t="n">
-        <v>9742348.5166</v>
+        <v>10150693.1013</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="C36" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="D36" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="E36" t="n">
-        <v>52.9</v>
+        <v>53.4</v>
       </c>
       <c r="F36" t="n">
-        <v>6434.1541</v>
+        <v>816.6179</v>
       </c>
       <c r="G36" t="n">
-        <v>9742348.5166</v>
+        <v>10149876.4834</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
       <c r="C37" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="D37" t="n">
-        <v>53.1</v>
+        <v>53.4</v>
       </c>
       <c r="E37" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="F37" t="n">
-        <v>356.6157</v>
+        <v>21197.363</v>
       </c>
       <c r="G37" t="n">
-        <v>9742705.132300001</v>
+        <v>10128679.1204</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="C38" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="D38" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="E38" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="F38" t="n">
-        <v>99.7834</v>
+        <v>8185.262</v>
       </c>
       <c r="G38" t="n">
-        <v>9742705.132300001</v>
+        <v>10128679.1204</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="C39" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="D39" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="E39" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="F39" t="n">
-        <v>60</v>
+        <v>626.3861000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>9742645.132300001</v>
+        <v>10128679.1204</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,76 +1799,91 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="C40" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D40" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="E40" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F40" t="n">
-        <v>1671.4283</v>
+        <v>88526.05349999999</v>
       </c>
       <c r="G40" t="n">
-        <v>9742645.132300001</v>
+        <v>10040153.0669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>53.3</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>25</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10040178.0669</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>52.9</v>
       </c>
-      <c r="C41" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D41" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="E41" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F41" t="n">
-        <v>8913.102800000001</v>
-      </c>
-      <c r="G41" t="n">
-        <v>9733732.0295</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1839,99 +1896,120 @@
         <v>52.9</v>
       </c>
       <c r="D42" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="E42" t="n">
         <v>52.9</v>
       </c>
       <c r="F42" t="n">
-        <v>948.1935999999999</v>
+        <v>4601.6797</v>
       </c>
       <c r="G42" t="n">
-        <v>9733732.0295</v>
+        <v>10035576.3872</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>53.4</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D43" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="E43" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F43" t="n">
-        <v>3147.1621</v>
+        <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>9736879.1916</v>
+        <v>10035606.3872</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>52.9</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="C44" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="D44" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="E44" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="F44" t="n">
-        <v>8663.5987</v>
+        <v>894.4652</v>
       </c>
       <c r="G44" t="n">
-        <v>9736879.1916</v>
+        <v>10036500.8524</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>53.2</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1941,54 +2019,61 @@
         <v>53.2</v>
       </c>
       <c r="C45" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D45" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="E45" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F45" t="n">
-        <v>800.2966</v>
+        <v>3035</v>
       </c>
       <c r="G45" t="n">
-        <v>9737679.4882</v>
+        <v>10033465.8524</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>53.3</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="C46" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="D46" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="E46" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F46" t="n">
-        <v>1790.083</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>9739469.5712</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,32 +2083,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="C47" t="n">
-        <v>53.2</v>
+        <v>53.5</v>
       </c>
       <c r="D47" t="n">
-        <v>53.3</v>
+        <v>53.5</v>
       </c>
       <c r="E47" t="n">
-        <v>53.2</v>
+        <v>53.5</v>
       </c>
       <c r="F47" t="n">
-        <v>5471.2615</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>9733998.309700001</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,32 +2123,37 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>53.2</v>
+        <v>53.5</v>
       </c>
       <c r="C48" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="D48" t="n">
-        <v>53.2</v>
+        <v>53.5</v>
       </c>
       <c r="E48" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="F48" t="n">
-        <v>4793.3311</v>
+        <v>122.3121</v>
       </c>
       <c r="G48" t="n">
-        <v>9729204.978600001</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,32 +2163,37 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="C49" t="n">
-        <v>52.8</v>
+        <v>53.5</v>
       </c>
       <c r="D49" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="E49" t="n">
-        <v>52.8</v>
+        <v>53.5</v>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>177.3326</v>
       </c>
       <c r="G49" t="n">
-        <v>9729184.978600001</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,32 +2203,37 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="C50" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="D50" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="E50" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="F50" t="n">
-        <v>950.019</v>
+        <v>19.7869</v>
       </c>
       <c r="G50" t="n">
-        <v>9730134.9976</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,32 +2243,37 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>52.8</v>
+        <v>53.5</v>
       </c>
       <c r="C51" t="n">
-        <v>52.8</v>
+        <v>53.5</v>
       </c>
       <c r="D51" t="n">
-        <v>52.8</v>
+        <v>53.5</v>
       </c>
       <c r="E51" t="n">
-        <v>52.8</v>
+        <v>53.5</v>
       </c>
       <c r="F51" t="n">
-        <v>6789.9967</v>
+        <v>386.9418</v>
       </c>
       <c r="G51" t="n">
-        <v>9723345.0009</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,10 +2283,15 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2186,19 +2301,19 @@
         <v>53.1</v>
       </c>
       <c r="C52" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="D52" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="E52" t="n">
         <v>53.1</v>
       </c>
       <c r="F52" t="n">
-        <v>6589.675</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>9729934.675900001</v>
+        <v>10033466.8524</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,32 +2323,37 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C53" t="n">
-        <v>55.9</v>
+        <v>53.1</v>
       </c>
       <c r="D53" t="n">
-        <v>55.9</v>
+        <v>53.1</v>
       </c>
       <c r="E53" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="F53" t="n">
-        <v>358709.7223</v>
+        <v>60.7985</v>
       </c>
       <c r="G53" t="n">
-        <v>10088644.3982</v>
+        <v>10033466.8524</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,32 +2363,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>55.9</v>
+        <v>53.1</v>
       </c>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>53.1</v>
       </c>
       <c r="D54" t="n">
-        <v>55.9</v>
+        <v>53.1</v>
       </c>
       <c r="E54" t="n">
-        <v>55</v>
+        <v>53.1</v>
       </c>
       <c r="F54" t="n">
-        <v>51853.3354</v>
+        <v>1164.1468</v>
       </c>
       <c r="G54" t="n">
-        <v>10036791.0628</v>
+        <v>10033466.8524</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2403,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="C55" t="n">
-        <v>55</v>
+        <v>53.4</v>
       </c>
       <c r="D55" t="n">
-        <v>55.1</v>
+        <v>53.4</v>
       </c>
       <c r="E55" t="n">
-        <v>54.2</v>
+        <v>53.2</v>
       </c>
       <c r="F55" t="n">
-        <v>151092.6133</v>
+        <v>30</v>
       </c>
       <c r="G55" t="n">
-        <v>10036791.0628</v>
+        <v>10033496.8524</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,32 +2443,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53.9</v>
+        <v>53.1</v>
       </c>
       <c r="C56" t="n">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="D56" t="n">
-        <v>53.9</v>
+        <v>53.2</v>
       </c>
       <c r="E56" t="n">
-        <v>53.8</v>
+        <v>53.1</v>
       </c>
       <c r="F56" t="n">
-        <v>14307.0996</v>
+        <v>2041.3363</v>
       </c>
       <c r="G56" t="n">
-        <v>10022483.9632</v>
+        <v>10031455.5161</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,32 +2483,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>54.3</v>
+        <v>53.2</v>
       </c>
       <c r="C57" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="D57" t="n">
-        <v>54.5</v>
+        <v>53.2</v>
       </c>
       <c r="E57" t="n">
-        <v>54.3</v>
+        <v>53.2</v>
       </c>
       <c r="F57" t="n">
-        <v>13468.5163</v>
+        <v>883.11</v>
       </c>
       <c r="G57" t="n">
-        <v>10035952.4795</v>
+        <v>10031455.5161</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,32 +2523,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="C58" t="n">
-        <v>54.3</v>
+        <v>53.3</v>
       </c>
       <c r="D58" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="E58" t="n">
-        <v>54.3</v>
+        <v>53.3</v>
       </c>
       <c r="F58" t="n">
-        <v>12542.4231</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>10023410.0564</v>
+        <v>10031465.5161</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,32 +2563,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>54.2</v>
+        <v>53.4</v>
       </c>
       <c r="C59" t="n">
-        <v>54</v>
+        <v>53.4</v>
       </c>
       <c r="D59" t="n">
-        <v>54.2</v>
+        <v>53.4</v>
       </c>
       <c r="E59" t="n">
-        <v>54</v>
+        <v>53.4</v>
       </c>
       <c r="F59" t="n">
-        <v>7667.5887</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>10015742.4677</v>
+        <v>10031475.5161</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,32 +2603,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>54.1</v>
+        <v>53.4</v>
       </c>
       <c r="C60" t="n">
-        <v>54.1</v>
+        <v>53.3</v>
       </c>
       <c r="D60" t="n">
-        <v>54.1</v>
+        <v>53.4</v>
       </c>
       <c r="E60" t="n">
-        <v>54.1</v>
+        <v>53.3</v>
       </c>
       <c r="F60" t="n">
-        <v>157.2365</v>
+        <v>6287.3782</v>
       </c>
       <c r="G60" t="n">
-        <v>10015899.7042</v>
+        <v>10025188.1379</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,32 +2643,37 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>54.4</v>
+        <v>53.4</v>
       </c>
       <c r="C61" t="n">
-        <v>54.4</v>
+        <v>53.4</v>
       </c>
       <c r="D61" t="n">
-        <v>54.4</v>
+        <v>53.5</v>
       </c>
       <c r="E61" t="n">
-        <v>54.4</v>
+        <v>53.4</v>
       </c>
       <c r="F61" t="n">
-        <v>1080</v>
+        <v>366.8321</v>
       </c>
       <c r="G61" t="n">
-        <v>10016979.7042</v>
+        <v>10025554.97</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,32 +2683,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="C62" t="n">
-        <v>54.4</v>
+        <v>53</v>
       </c>
       <c r="D62" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="E62" t="n">
-        <v>54.4</v>
+        <v>53</v>
       </c>
       <c r="F62" t="n">
-        <v>6717.8662</v>
+        <v>27600</v>
       </c>
       <c r="G62" t="n">
-        <v>10016979.7042</v>
+        <v>9997954.969999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,32 +2723,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="C63" t="n">
-        <v>54.4</v>
+        <v>53.5</v>
       </c>
       <c r="D63" t="n">
-        <v>54.4</v>
+        <v>53.5</v>
       </c>
       <c r="E63" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="F63" t="n">
-        <v>10602.9113</v>
+        <v>1039.0551</v>
       </c>
       <c r="G63" t="n">
-        <v>10016979.7042</v>
+        <v>9998994.025099996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,32 +2763,37 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>54.3</v>
+        <v>53.5</v>
       </c>
       <c r="C64" t="n">
-        <v>54.3</v>
+        <v>53.5</v>
       </c>
       <c r="D64" t="n">
-        <v>54.3</v>
+        <v>53.5</v>
       </c>
       <c r="E64" t="n">
-        <v>54.3</v>
+        <v>53.5</v>
       </c>
       <c r="F64" t="n">
-        <v>1101.0613</v>
+        <v>1266.2289</v>
       </c>
       <c r="G64" t="n">
-        <v>10015878.6429</v>
+        <v>9998994.025099996</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,17 +2803,22 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>54</v>
+        <v>53.6</v>
       </c>
       <c r="C65" t="n">
         <v>54</v>
@@ -2647,13 +2827,13 @@
         <v>54</v>
       </c>
       <c r="E65" t="n">
-        <v>54</v>
+        <v>53.6</v>
       </c>
       <c r="F65" t="n">
-        <v>704.0218</v>
+        <v>79837.4519</v>
       </c>
       <c r="G65" t="n">
-        <v>10015174.6211</v>
+        <v>10078831.477</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,32 +2843,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="C66" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="D66" t="n">
-        <v>55.2</v>
+        <v>54.1</v>
       </c>
       <c r="E66" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="F66" t="n">
-        <v>21854.634</v>
+        <v>13107.3789</v>
       </c>
       <c r="G66" t="n">
-        <v>9993319.987100001</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,32 +2883,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="C67" t="n">
-        <v>55.9</v>
+        <v>54.1</v>
       </c>
       <c r="D67" t="n">
-        <v>55.9</v>
+        <v>54.1</v>
       </c>
       <c r="E67" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="F67" t="n">
-        <v>59869.0021</v>
+        <v>4597</v>
       </c>
       <c r="G67" t="n">
-        <v>10053188.9892</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,32 +2923,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>53.9</v>
+        <v>54.4</v>
       </c>
       <c r="C68" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="D68" t="n">
-        <v>53.9</v>
+        <v>54.4</v>
       </c>
       <c r="E68" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="F68" t="n">
-        <v>617.999</v>
+        <v>985.2085</v>
       </c>
       <c r="G68" t="n">
-        <v>10052570.9902</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,32 +2963,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C69" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D69" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E69" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F69" t="n">
-        <v>512.8742</v>
+        <v>1216.5857</v>
       </c>
       <c r="G69" t="n">
-        <v>10053083.8644</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,10 +3003,15 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2822,13 +3027,13 @@
         <v>54.1</v>
       </c>
       <c r="E70" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F70" t="n">
-        <v>7834.466</v>
+        <v>32258.5733</v>
       </c>
       <c r="G70" t="n">
-        <v>10060918.3304</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,32 +3043,37 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="C71" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="D71" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="E71" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="F71" t="n">
-        <v>2452.3895</v>
+        <v>155.614</v>
       </c>
       <c r="G71" t="n">
-        <v>10063370.7199</v>
+        <v>10091783.2419</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,10 +3083,15 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2895,10 +3110,10 @@
         <v>54</v>
       </c>
       <c r="F72" t="n">
-        <v>809</v>
+        <v>1364.9259</v>
       </c>
       <c r="G72" t="n">
-        <v>10062561.7199</v>
+        <v>10091783.2419</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,32 +3123,37 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="C73" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="D73" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="E73" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="F73" t="n">
-        <v>6227.4536</v>
+        <v>25.5241</v>
       </c>
       <c r="G73" t="n">
-        <v>10062561.7199</v>
+        <v>10091808.766</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,32 +3163,37 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C74" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D74" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E74" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F74" t="n">
-        <v>199.1409</v>
+        <v>581.8891</v>
       </c>
       <c r="G74" t="n">
-        <v>10062362.579</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,32 +3203,37 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="C75" t="n">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="D75" t="n">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="E75" t="n">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="F75" t="n">
-        <v>1100</v>
+        <v>11363.4874</v>
       </c>
       <c r="G75" t="n">
-        <v>10061262.579</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,32 +3243,37 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C76" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="D76" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E76" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="F76" t="n">
-        <v>3860</v>
+        <v>22951.3344</v>
       </c>
       <c r="G76" t="n">
-        <v>10057402.579</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,32 +3283,37 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>53.6</v>
+        <v>54.3</v>
       </c>
       <c r="C77" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="D77" t="n">
-        <v>53.6</v>
+        <v>54.5</v>
       </c>
       <c r="E77" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="F77" t="n">
-        <v>93290.5223</v>
+        <v>19837.9335</v>
       </c>
       <c r="G77" t="n">
-        <v>10150693.1013</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,32 +3323,37 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="C78" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="D78" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="E78" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="F78" t="n">
-        <v>816.6179</v>
+        <v>509.3832</v>
       </c>
       <c r="G78" t="n">
-        <v>10149876.4834</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,32 +3363,37 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="C79" t="n">
-        <v>53.3</v>
+        <v>54</v>
       </c>
       <c r="D79" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="E79" t="n">
-        <v>53.3</v>
+        <v>54</v>
       </c>
       <c r="F79" t="n">
-        <v>21197.363</v>
+        <v>949.7446</v>
       </c>
       <c r="G79" t="n">
-        <v>10128679.1204</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,32 +3403,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="C80" t="n">
-        <v>53.3</v>
+        <v>54</v>
       </c>
       <c r="D80" t="n">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="E80" t="n">
-        <v>53.3</v>
+        <v>54</v>
       </c>
       <c r="F80" t="n">
-        <v>8185.262</v>
+        <v>4190.2432</v>
       </c>
       <c r="G80" t="n">
-        <v>10128679.1204</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,32 +3443,37 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>53.3</v>
+        <v>53.9</v>
       </c>
       <c r="C81" t="n">
-        <v>53.3</v>
+        <v>53.9</v>
       </c>
       <c r="D81" t="n">
-        <v>53.3</v>
+        <v>53.9</v>
       </c>
       <c r="E81" t="n">
-        <v>53.3</v>
+        <v>53.9</v>
       </c>
       <c r="F81" t="n">
-        <v>626.3861000000001</v>
+        <v>16441.3651</v>
       </c>
       <c r="G81" t="n">
-        <v>10128679.1204</v>
+        <v>10074785.5118</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,32 +3483,37 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>53.2</v>
+        <v>53.9</v>
       </c>
       <c r="C82" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="D82" t="n">
-        <v>53.2</v>
+        <v>53.9</v>
       </c>
       <c r="E82" t="n">
-        <v>52.9</v>
+        <v>53.9</v>
       </c>
       <c r="F82" t="n">
-        <v>88526.05349999999</v>
+        <v>293.5102</v>
       </c>
       <c r="G82" t="n">
-        <v>10040153.0669</v>
+        <v>10074785.5118</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,32 +3523,37 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="C83" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="D83" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="E83" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="F83" t="n">
-        <v>25</v>
+        <v>5419.1616</v>
       </c>
       <c r="G83" t="n">
-        <v>10040178.0669</v>
+        <v>10080204.6734</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,73 +3563,77 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="C84" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="D84" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="E84" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="F84" t="n">
-        <v>4601.6797</v>
+        <v>985.4357</v>
       </c>
       <c r="G84" t="n">
-        <v>10035576.3872</v>
+        <v>10080204.6734</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>53.4</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85" t="n">
-        <v>53.2</v>
+        <v>54</v>
       </c>
       <c r="D85" t="n">
-        <v>53.2</v>
+        <v>54</v>
       </c>
       <c r="E85" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F85" t="n">
-        <v>30</v>
+        <v>2141.388</v>
       </c>
       <c r="G85" t="n">
-        <v>10035606.3872</v>
+        <v>10080204.6734</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3377,38 +3651,37 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="C86" t="n">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="D86" t="n">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="E86" t="n">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="F86" t="n">
-        <v>894.4652</v>
+        <v>14600.0146</v>
       </c>
       <c r="G86" t="n">
-        <v>10036500.8524</v>
+        <v>10094804.688</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>53.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3418,28 +3691,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>53.2</v>
+        <v>54</v>
       </c>
       <c r="C87" t="n">
-        <v>53.1</v>
+        <v>53.9</v>
       </c>
       <c r="D87" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="E87" t="n">
-        <v>53.1</v>
+        <v>53.9</v>
       </c>
       <c r="F87" t="n">
-        <v>3035</v>
+        <v>31607.8466</v>
       </c>
       <c r="G87" t="n">
-        <v>10033465.8524</v>
+        <v>10063196.8414</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3457,28 +3731,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>53.3</v>
+        <v>53.9</v>
       </c>
       <c r="C88" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="D88" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="E88" t="n">
-        <v>53.3</v>
+        <v>53.9</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>50965.04063807</v>
       </c>
       <c r="G88" t="n">
-        <v>10033476.8524</v>
+        <v>10114161.88203807</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,28 +3771,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="C89" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="D89" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="E89" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>37636.58136193</v>
       </c>
       <c r="G89" t="n">
-        <v>10033476.8524</v>
+        <v>10114161.88203807</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3535,28 +3811,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>53.5</v>
+        <v>54.2</v>
       </c>
       <c r="C90" t="n">
-        <v>53.5</v>
+        <v>54.2</v>
       </c>
       <c r="D90" t="n">
-        <v>53.5</v>
+        <v>54.2</v>
       </c>
       <c r="E90" t="n">
-        <v>53.5</v>
+        <v>54.2</v>
       </c>
       <c r="F90" t="n">
-        <v>122.3121</v>
+        <v>36233.5793</v>
       </c>
       <c r="G90" t="n">
-        <v>10033476.8524</v>
+        <v>10150395.46133807</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3574,28 +3851,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="C91" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="D91" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="E91" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="F91" t="n">
-        <v>177.3326</v>
+        <v>14539.6903</v>
       </c>
       <c r="G91" t="n">
-        <v>10033476.8524</v>
+        <v>10135855.77103806</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3613,28 +3891,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="C92" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="D92" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="E92" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="F92" t="n">
-        <v>19.7869</v>
+        <v>4720.1212</v>
       </c>
       <c r="G92" t="n">
-        <v>10033476.8524</v>
+        <v>10135855.77103806</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3652,28 +3931,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="C93" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="D93" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="E93" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="F93" t="n">
-        <v>386.9418</v>
+        <v>355.0319</v>
       </c>
       <c r="G93" t="n">
-        <v>10033476.8524</v>
+        <v>10135500.73913806</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3691,28 +3971,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>53.1</v>
+        <v>53.9</v>
       </c>
       <c r="C94" t="n">
-        <v>53.1</v>
+        <v>53.8</v>
       </c>
       <c r="D94" t="n">
-        <v>53.1</v>
+        <v>53.9</v>
       </c>
       <c r="E94" t="n">
-        <v>53.1</v>
+        <v>53.8</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>7369.0591</v>
       </c>
       <c r="G94" t="n">
-        <v>10033466.8524</v>
+        <v>10128131.68003806</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3730,28 +4011,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C95" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="D95" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="E95" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="F95" t="n">
-        <v>60.7985</v>
+        <v>473.3759</v>
       </c>
       <c r="G95" t="n">
-        <v>10033466.8524</v>
+        <v>10128605.05593807</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3769,28 +4051,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="C96" t="n">
-        <v>53.1</v>
+        <v>54.1</v>
       </c>
       <c r="D96" t="n">
-        <v>53.1</v>
+        <v>54.1</v>
       </c>
       <c r="E96" t="n">
-        <v>53.1</v>
+        <v>54</v>
       </c>
       <c r="F96" t="n">
-        <v>1164.1468</v>
+        <v>22409.8089</v>
       </c>
       <c r="G96" t="n">
-        <v>10033466.8524</v>
+        <v>10151014.86483807</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3808,28 +4091,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>53.2</v>
+        <v>53.8</v>
       </c>
       <c r="C97" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="D97" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="E97" t="n">
-        <v>53.2</v>
+        <v>53.8</v>
       </c>
       <c r="F97" t="n">
-        <v>30</v>
+        <v>62674.9887</v>
       </c>
       <c r="G97" t="n">
-        <v>10033496.8524</v>
+        <v>10088339.87613807</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3847,28 +4131,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="C98" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="D98" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="E98" t="n">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="F98" t="n">
-        <v>2041.3363</v>
+        <v>15780.4857</v>
       </c>
       <c r="G98" t="n">
-        <v>10031455.5161</v>
+        <v>10072559.39043806</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3886,28 +4171,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="C99" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="D99" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="E99" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="F99" t="n">
-        <v>883.11</v>
+        <v>6851.6009</v>
       </c>
       <c r="G99" t="n">
-        <v>10031455.5161</v>
+        <v>10072559.39043806</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3925,28 +4211,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
       <c r="C100" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
       <c r="D100" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
       <c r="E100" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>988</v>
       </c>
       <c r="G100" t="n">
-        <v>10031465.5161</v>
+        <v>10072559.39043806</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3964,28 +4251,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="C101" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="D101" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="E101" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>2621.9865</v>
       </c>
       <c r="G101" t="n">
-        <v>10031475.5161</v>
+        <v>10072559.39043806</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4003,28 +4291,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="C102" t="n">
-        <v>53.3</v>
+        <v>53.6</v>
       </c>
       <c r="D102" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="E102" t="n">
-        <v>53.3</v>
+        <v>53.6</v>
       </c>
       <c r="F102" t="n">
-        <v>6287.3782</v>
+        <v>7707.869</v>
       </c>
       <c r="G102" t="n">
-        <v>10025188.1379</v>
+        <v>10064851.52143806</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4042,28 +4331,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="C103" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="D103" t="n">
-        <v>53.5</v>
+        <v>53.8</v>
       </c>
       <c r="E103" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="F103" t="n">
-        <v>366.8321</v>
+        <v>7392.6482</v>
       </c>
       <c r="G103" t="n">
-        <v>10025554.97</v>
+        <v>10072244.16963806</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4081,28 +4371,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>53.3</v>
+        <v>53.8</v>
       </c>
       <c r="C104" t="n">
-        <v>53</v>
+        <v>53.8</v>
       </c>
       <c r="D104" t="n">
-        <v>53.3</v>
+        <v>53.8</v>
       </c>
       <c r="E104" t="n">
-        <v>53</v>
+        <v>53.8</v>
       </c>
       <c r="F104" t="n">
-        <v>27600</v>
+        <v>762.3363000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>9997954.969999997</v>
+        <v>10072244.16963806</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4120,28 +4411,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>53.2</v>
+        <v>54.1</v>
       </c>
       <c r="C105" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="D105" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="E105" t="n">
-        <v>53.2</v>
+        <v>54.1</v>
       </c>
       <c r="F105" t="n">
-        <v>1039.0551</v>
+        <v>5123.0981</v>
       </c>
       <c r="G105" t="n">
-        <v>9998994.025099996</v>
+        <v>10077367.26773806</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4159,28 +4451,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>53.5</v>
+        <v>54.4</v>
       </c>
       <c r="C106" t="n">
-        <v>53.5</v>
+        <v>54.6</v>
       </c>
       <c r="D106" t="n">
-        <v>53.5</v>
+        <v>54.6</v>
       </c>
       <c r="E106" t="n">
-        <v>53.5</v>
+        <v>54.4</v>
       </c>
       <c r="F106" t="n">
-        <v>1266.2289</v>
+        <v>53062.0819</v>
       </c>
       <c r="G106" t="n">
-        <v>9998994.025099996</v>
+        <v>10130429.34963806</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4198,28 +4491,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>53.6</v>
+        <v>54.6</v>
       </c>
       <c r="C107" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="D107" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="E107" t="n">
-        <v>53.6</v>
+        <v>54.6</v>
       </c>
       <c r="F107" t="n">
-        <v>79837.4519</v>
+        <v>30877.163</v>
       </c>
       <c r="G107" t="n">
-        <v>10078831.477</v>
+        <v>10161306.51263806</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4237,28 +4531,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="C108" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="D108" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="E108" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="F108" t="n">
-        <v>13107.3789</v>
+        <v>4555.8746</v>
       </c>
       <c r="G108" t="n">
-        <v>10091938.8559</v>
+        <v>10165862.38723806</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4276,28 +4571,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>54.1</v>
+        <v>54.7</v>
       </c>
       <c r="C109" t="n">
-        <v>54.1</v>
+        <v>54.7</v>
       </c>
       <c r="D109" t="n">
-        <v>54.1</v>
+        <v>54.7</v>
       </c>
       <c r="E109" t="n">
-        <v>54.1</v>
+        <v>54.7</v>
       </c>
       <c r="F109" t="n">
-        <v>4597</v>
+        <v>10493.0276</v>
       </c>
       <c r="G109" t="n">
-        <v>10091938.8559</v>
+        <v>10155369.35963807</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4315,28 +4611,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="C110" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="D110" t="n">
-        <v>54.4</v>
+        <v>54.9</v>
       </c>
       <c r="E110" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="F110" t="n">
-        <v>985.2085</v>
+        <v>100317.1562</v>
       </c>
       <c r="G110" t="n">
-        <v>10091938.8559</v>
+        <v>10255686.51583806</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4354,28 +4651,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C111" t="n">
-        <v>54.1</v>
+        <v>55</v>
       </c>
       <c r="D111" t="n">
-        <v>54.1</v>
+        <v>55</v>
       </c>
       <c r="E111" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="F111" t="n">
-        <v>1216.5857</v>
+        <v>15099.75</v>
       </c>
       <c r="G111" t="n">
-        <v>10091938.8559</v>
+        <v>10270786.26583806</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4393,28 +4691,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="C112" t="n">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
       <c r="D112" t="n">
-        <v>54.1</v>
+        <v>55</v>
       </c>
       <c r="E112" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F112" t="n">
-        <v>32258.5733</v>
+        <v>21243.2558</v>
       </c>
       <c r="G112" t="n">
-        <v>10091938.8559</v>
+        <v>10249543.01003806</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4432,28 +4731,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C113" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="D113" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="E113" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="F113" t="n">
-        <v>155.614</v>
+        <v>4646</v>
       </c>
       <c r="G113" t="n">
-        <v>10091783.2419</v>
+        <v>10254189.01003806</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4471,28 +4771,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C114" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="D114" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="E114" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="F114" t="n">
-        <v>1364.9259</v>
+        <v>3579.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>10091783.2419</v>
+        <v>10254189.01003806</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4510,28 +4811,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>54.4</v>
+        <v>54.6</v>
       </c>
       <c r="C115" t="n">
-        <v>54.4</v>
+        <v>54.6</v>
       </c>
       <c r="D115" t="n">
-        <v>54.4</v>
+        <v>54.6</v>
       </c>
       <c r="E115" t="n">
-        <v>54.4</v>
+        <v>54.6</v>
       </c>
       <c r="F115" t="n">
-        <v>25.5241</v>
+        <v>299</v>
       </c>
       <c r="G115" t="n">
-        <v>10091808.766</v>
+        <v>10254189.01003806</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4549,28 +4851,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C116" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="D116" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="E116" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="F116" t="n">
-        <v>581.8891</v>
+        <v>599</v>
       </c>
       <c r="G116" t="n">
-        <v>10091226.8769</v>
+        <v>10254189.01003806</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4588,28 +4891,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C117" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="D117" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="E117" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="F117" t="n">
-        <v>11363.4874</v>
+        <v>6253.7554</v>
       </c>
       <c r="G117" t="n">
-        <v>10091226.8769</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4627,28 +4931,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="C118" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="D118" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="E118" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F118" t="n">
-        <v>22951.3344</v>
+        <v>20775.0349</v>
       </c>
       <c r="G118" t="n">
-        <v>10091226.8769</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4666,28 +4971,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>54.3</v>
+        <v>54.5</v>
       </c>
       <c r="C119" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="D119" t="n">
         <v>54.5</v>
       </c>
       <c r="E119" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F119" t="n">
-        <v>19837.9335</v>
+        <v>10466.795</v>
       </c>
       <c r="G119" t="n">
-        <v>10091226.8769</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4705,28 +5011,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="C120" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="D120" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="E120" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F120" t="n">
-        <v>509.3832</v>
+        <v>588</v>
       </c>
       <c r="G120" t="n">
-        <v>10091226.8769</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4744,28 +5051,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="C121" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="D121" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="E121" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F121" t="n">
-        <v>949.7446</v>
+        <v>2057.0641</v>
       </c>
       <c r="G121" t="n">
-        <v>10091226.8769</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4783,28 +5091,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
       <c r="C122" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="D122" t="n">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
       <c r="E122" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="F122" t="n">
-        <v>4190.2432</v>
+        <v>17282.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>10091226.8769</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4822,28 +5131,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>53.9</v>
+        <v>54.5</v>
       </c>
       <c r="C123" t="n">
-        <v>53.9</v>
+        <v>54.5</v>
       </c>
       <c r="D123" t="n">
-        <v>53.9</v>
+        <v>54.5</v>
       </c>
       <c r="E123" t="n">
-        <v>53.9</v>
+        <v>54.5</v>
       </c>
       <c r="F123" t="n">
-        <v>16441.3651</v>
+        <v>12972.8316</v>
       </c>
       <c r="G123" t="n">
-        <v>10074785.5118</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4861,28 +5171,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>53.9</v>
+        <v>54.5</v>
       </c>
       <c r="C124" t="n">
-        <v>53.9</v>
+        <v>54.6</v>
       </c>
       <c r="D124" t="n">
-        <v>53.9</v>
+        <v>54.6</v>
       </c>
       <c r="E124" t="n">
-        <v>53.9</v>
+        <v>54.5</v>
       </c>
       <c r="F124" t="n">
-        <v>293.5102</v>
+        <v>4929.16</v>
       </c>
       <c r="G124" t="n">
-        <v>10074785.5118</v>
+        <v>10252864.41463806</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4900,28 +5211,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="C125" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="D125" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="E125" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="F125" t="n">
-        <v>5419.1616</v>
+        <v>7985.739</v>
       </c>
       <c r="G125" t="n">
-        <v>10080204.6734</v>
+        <v>10260850.15363806</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4939,28 +5251,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="C126" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="D126" t="n">
-        <v>54</v>
+        <v>54.8</v>
       </c>
       <c r="E126" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="F126" t="n">
-        <v>985.4357</v>
+        <v>7876.4416</v>
       </c>
       <c r="G126" t="n">
-        <v>10080204.6734</v>
+        <v>10252973.71203806</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4978,28 +5291,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="C127" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="D127" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="E127" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="F127" t="n">
-        <v>2141.388</v>
+        <v>8800</v>
       </c>
       <c r="G127" t="n">
-        <v>10080204.6734</v>
+        <v>10252973.71203806</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5017,28 +5331,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C128" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="D128" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="E128" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="F128" t="n">
-        <v>14600.0146</v>
+        <v>4506.7466</v>
       </c>
       <c r="G128" t="n">
-        <v>10094804.688</v>
+        <v>10252973.71203806</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5056,28 +5371,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="C129" t="n">
-        <v>53.9</v>
+        <v>54.4</v>
       </c>
       <c r="D129" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="E129" t="n">
-        <v>53.9</v>
+        <v>54.4</v>
       </c>
       <c r="F129" t="n">
-        <v>31607.8466</v>
+        <v>201.8348</v>
       </c>
       <c r="G129" t="n">
-        <v>10063196.8414</v>
+        <v>10252973.71203806</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5095,28 +5411,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>53.9</v>
+        <v>54.4</v>
       </c>
       <c r="C130" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="D130" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="E130" t="n">
-        <v>53.9</v>
+        <v>54.4</v>
       </c>
       <c r="F130" t="n">
-        <v>50965.04063807</v>
+        <v>1689.7032</v>
       </c>
       <c r="G130" t="n">
-        <v>10114161.88203807</v>
+        <v>10254663.41523806</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5134,28 +5451,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="C131" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="D131" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="E131" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="F131" t="n">
-        <v>37636.58136193</v>
+        <v>8295.824699999999</v>
       </c>
       <c r="G131" t="n">
-        <v>10114161.88203807</v>
+        <v>10262959.23993806</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5173,28 +5491,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>54.2</v>
+        <v>54.9</v>
       </c>
       <c r="C132" t="n">
-        <v>54.2</v>
+        <v>54.9</v>
       </c>
       <c r="D132" t="n">
-        <v>54.2</v>
+        <v>54.9</v>
       </c>
       <c r="E132" t="n">
-        <v>54.2</v>
+        <v>54.9</v>
       </c>
       <c r="F132" t="n">
-        <v>36233.5793</v>
+        <v>2000</v>
       </c>
       <c r="G132" t="n">
-        <v>10150395.46133807</v>
+        <v>10262959.23993806</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5212,28 +5531,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="C133" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="D133" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="E133" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="F133" t="n">
-        <v>14539.6903</v>
+        <v>12360.283</v>
       </c>
       <c r="G133" t="n">
-        <v>10135855.77103806</v>
+        <v>10262959.23993806</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5251,28 +5571,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>54.1</v>
+        <v>55.3</v>
       </c>
       <c r="C134" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="D134" t="n">
-        <v>54.1</v>
+        <v>55.3</v>
       </c>
       <c r="E134" t="n">
-        <v>54.1</v>
+        <v>54.9</v>
       </c>
       <c r="F134" t="n">
-        <v>4720.1212</v>
+        <v>39081.968</v>
       </c>
       <c r="G134" t="n">
-        <v>10135855.77103806</v>
+        <v>10262959.23993806</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5290,28 +5611,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>53.9</v>
+        <v>54.9</v>
       </c>
       <c r="C135" t="n">
-        <v>53.9</v>
+        <v>54.9</v>
       </c>
       <c r="D135" t="n">
-        <v>53.9</v>
+        <v>54.9</v>
       </c>
       <c r="E135" t="n">
-        <v>53.9</v>
+        <v>54.9</v>
       </c>
       <c r="F135" t="n">
-        <v>355.0319</v>
+        <v>11038.4615</v>
       </c>
       <c r="G135" t="n">
-        <v>10135500.73913806</v>
+        <v>10262959.23993806</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5329,28 +5651,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>53.9</v>
+        <v>55.3</v>
       </c>
       <c r="C136" t="n">
-        <v>53.8</v>
+        <v>54.9</v>
       </c>
       <c r="D136" t="n">
-        <v>53.9</v>
+        <v>55.3</v>
       </c>
       <c r="E136" t="n">
-        <v>53.8</v>
+        <v>54.9</v>
       </c>
       <c r="F136" t="n">
-        <v>7369.0591</v>
+        <v>32991</v>
       </c>
       <c r="G136" t="n">
-        <v>10128131.68003806</v>
+        <v>10262959.23993806</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5368,28 +5691,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>54</v>
+        <v>55.4</v>
       </c>
       <c r="C137" t="n">
-        <v>54</v>
+        <v>55.4</v>
       </c>
       <c r="D137" t="n">
-        <v>54</v>
+        <v>55.4</v>
       </c>
       <c r="E137" t="n">
-        <v>54</v>
+        <v>55.4</v>
       </c>
       <c r="F137" t="n">
-        <v>473.3759</v>
+        <v>1570.722</v>
       </c>
       <c r="G137" t="n">
-        <v>10128605.05593807</v>
+        <v>10264529.96193806</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5407,28 +5731,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C138" t="n">
-        <v>54.1</v>
+        <v>55</v>
       </c>
       <c r="D138" t="n">
-        <v>54.1</v>
+        <v>55</v>
       </c>
       <c r="E138" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F138" t="n">
-        <v>22409.8089</v>
+        <v>316.1696</v>
       </c>
       <c r="G138" t="n">
-        <v>10151014.86483807</v>
+        <v>10264213.79233806</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5446,28 +5771,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="C139" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="D139" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="E139" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="F139" t="n">
-        <v>62674.9887</v>
+        <v>515.7806</v>
       </c>
       <c r="G139" t="n">
-        <v>10088339.87613807</v>
+        <v>10264213.79233806</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5485,28 +5811,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>53.6</v>
+        <v>55.3</v>
       </c>
       <c r="C140" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="D140" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="E140" t="n">
-        <v>53.6</v>
+        <v>55.3</v>
       </c>
       <c r="F140" t="n">
-        <v>15780.4857</v>
+        <v>1420.1989</v>
       </c>
       <c r="G140" t="n">
-        <v>10072559.39043806</v>
+        <v>10265633.99123806</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5524,28 +5851,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="C141" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="D141" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="E141" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="F141" t="n">
-        <v>6851.6009</v>
+        <v>539.5158</v>
       </c>
       <c r="G141" t="n">
-        <v>10072559.39043806</v>
+        <v>10265633.99123806</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5563,28 +5891,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>53.7</v>
+        <v>55.2</v>
       </c>
       <c r="C142" t="n">
-        <v>53.7</v>
+        <v>55</v>
       </c>
       <c r="D142" t="n">
-        <v>53.7</v>
+        <v>55.2</v>
       </c>
       <c r="E142" t="n">
-        <v>53.7</v>
+        <v>55</v>
       </c>
       <c r="F142" t="n">
-        <v>988</v>
+        <v>11060.2363</v>
       </c>
       <c r="G142" t="n">
-        <v>10072559.39043806</v>
+        <v>10254573.75493806</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5602,28 +5931,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="C143" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="D143" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="E143" t="n">
-        <v>53.7</v>
+        <v>55.3</v>
       </c>
       <c r="F143" t="n">
-        <v>2621.9865</v>
+        <v>999.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>10072559.39043806</v>
+        <v>10255573.75483806</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5641,28 +5971,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>53.6</v>
+        <v>55.3</v>
       </c>
       <c r="C144" t="n">
-        <v>53.6</v>
+        <v>55.3</v>
       </c>
       <c r="D144" t="n">
-        <v>53.6</v>
+        <v>55.3</v>
       </c>
       <c r="E144" t="n">
-        <v>53.6</v>
+        <v>55.3</v>
       </c>
       <c r="F144" t="n">
-        <v>7707.869</v>
+        <v>732</v>
       </c>
       <c r="G144" t="n">
-        <v>10064851.52143806</v>
+        <v>10255573.75483806</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5680,28 +6011,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>53.8</v>
+        <v>55.3</v>
       </c>
       <c r="C145" t="n">
-        <v>53.8</v>
+        <v>55.3</v>
       </c>
       <c r="D145" t="n">
-        <v>53.8</v>
+        <v>55.3</v>
       </c>
       <c r="E145" t="n">
-        <v>53.8</v>
+        <v>55.3</v>
       </c>
       <c r="F145" t="n">
-        <v>7392.6482</v>
+        <v>1054</v>
       </c>
       <c r="G145" t="n">
-        <v>10072244.16963806</v>
+        <v>10255573.75483806</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5719,28 +6051,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="C146" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="D146" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="E146" t="n">
-        <v>53.8</v>
+        <v>55</v>
       </c>
       <c r="F146" t="n">
-        <v>762.3363000000001</v>
+        <v>24.3651</v>
       </c>
       <c r="G146" t="n">
-        <v>10072244.16963806</v>
+        <v>10255549.38973806</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5758,28 +6091,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>54.1</v>
+        <v>55.2</v>
       </c>
       <c r="C147" t="n">
-        <v>54.1</v>
+        <v>55.5</v>
       </c>
       <c r="D147" t="n">
-        <v>54.1</v>
+        <v>55.5</v>
       </c>
       <c r="E147" t="n">
-        <v>54.1</v>
+        <v>55.2</v>
       </c>
       <c r="F147" t="n">
-        <v>5123.0981</v>
+        <v>17426.50137729</v>
       </c>
       <c r="G147" t="n">
-        <v>10077367.26773806</v>
+        <v>10272975.89111535</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5797,28 +6131,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>54.4</v>
+        <v>55.5</v>
       </c>
       <c r="C148" t="n">
-        <v>54.6</v>
+        <v>55.8</v>
       </c>
       <c r="D148" t="n">
-        <v>54.6</v>
+        <v>55.8</v>
       </c>
       <c r="E148" t="n">
-        <v>54.4</v>
+        <v>55.5</v>
       </c>
       <c r="F148" t="n">
-        <v>53062.0819</v>
+        <v>5741.80966751</v>
       </c>
       <c r="G148" t="n">
-        <v>10130429.34963806</v>
+        <v>10278717.70078286</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5836,28 +6171,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="C149" t="n">
-        <v>54.7</v>
+        <v>55.5</v>
       </c>
       <c r="D149" t="n">
-        <v>54.7</v>
+        <v>55.5</v>
       </c>
       <c r="E149" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="F149" t="n">
-        <v>30877.163</v>
+        <v>4006.3603</v>
       </c>
       <c r="G149" t="n">
-        <v>10161306.51263806</v>
+        <v>10274711.34048286</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5875,28 +6211,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="C150" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="D150" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="E150" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="F150" t="n">
-        <v>4555.8746</v>
+        <v>7.729e-05</v>
       </c>
       <c r="G150" t="n">
-        <v>10165862.38723806</v>
+        <v>10274711.34048286</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5914,28 +6251,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>54.7</v>
+        <v>55.5</v>
       </c>
       <c r="C151" t="n">
-        <v>54.7</v>
+        <v>55.5</v>
       </c>
       <c r="D151" t="n">
-        <v>54.7</v>
+        <v>55.5</v>
       </c>
       <c r="E151" t="n">
-        <v>54.7</v>
+        <v>55.5</v>
       </c>
       <c r="F151" t="n">
-        <v>10493.0276</v>
+        <v>30251.7251</v>
       </c>
       <c r="G151" t="n">
-        <v>10155369.35963807</v>
+        <v>10274711.34048286</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5953,28 +6291,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="C152" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="D152" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="E152" t="n">
-        <v>54.8</v>
+        <v>55.5</v>
       </c>
       <c r="F152" t="n">
-        <v>100317.1562</v>
+        <v>3738.1259</v>
       </c>
       <c r="G152" t="n">
-        <v>10255686.51583806</v>
+        <v>10274711.34048286</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5992,28 +6331,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="C153" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="D153" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="E153" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="F153" t="n">
-        <v>15099.75</v>
+        <v>38685.9677</v>
       </c>
       <c r="G153" t="n">
-        <v>10270786.26583806</v>
+        <v>10313397.30818286</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6031,28 +6371,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>54.9</v>
+        <v>55.8</v>
       </c>
       <c r="C154" t="n">
-        <v>54.5</v>
+        <v>56</v>
       </c>
       <c r="D154" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E154" t="n">
-        <v>54.5</v>
+        <v>55.8</v>
       </c>
       <c r="F154" t="n">
-        <v>21243.2558</v>
+        <v>85727.2420552</v>
       </c>
       <c r="G154" t="n">
-        <v>10249543.01003806</v>
+        <v>10399124.55023806</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6070,28 +6411,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>54.6</v>
+        <v>55.9</v>
       </c>
       <c r="C155" t="n">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="D155" t="n">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="E155" t="n">
-        <v>54.6</v>
+        <v>55.8</v>
       </c>
       <c r="F155" t="n">
-        <v>4646</v>
+        <v>22534.3392</v>
       </c>
       <c r="G155" t="n">
-        <v>10254189.01003806</v>
+        <v>10399124.55023806</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6109,28 +6451,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="C156" t="n">
-        <v>54.6</v>
+        <v>56.3</v>
       </c>
       <c r="D156" t="n">
-        <v>54.6</v>
+        <v>56.3</v>
       </c>
       <c r="E156" t="n">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="F156" t="n">
-        <v>3579.9999</v>
+        <v>64599.5989</v>
       </c>
       <c r="G156" t="n">
-        <v>10254189.01003806</v>
+        <v>10463724.14913806</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6148,28 +6491,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>54.6</v>
+        <v>56.3</v>
       </c>
       <c r="C157" t="n">
-        <v>54.6</v>
+        <v>56.8</v>
       </c>
       <c r="D157" t="n">
-        <v>54.6</v>
+        <v>56.8</v>
       </c>
       <c r="E157" t="n">
-        <v>54.6</v>
+        <v>56.1</v>
       </c>
       <c r="F157" t="n">
-        <v>299</v>
+        <v>25459.0457</v>
       </c>
       <c r="G157" t="n">
-        <v>10254189.01003806</v>
+        <v>10489183.19483806</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6187,669 +6531,621 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>54.6</v>
+        <v>56.8</v>
       </c>
       <c r="C158" t="n">
-        <v>54.6</v>
+        <v>56.8</v>
       </c>
       <c r="D158" t="n">
-        <v>54.6</v>
+        <v>56.8</v>
       </c>
       <c r="E158" t="n">
-        <v>54.6</v>
+        <v>56.8</v>
       </c>
       <c r="F158" t="n">
-        <v>599</v>
+        <v>19345.1935</v>
       </c>
       <c r="G158" t="n">
-        <v>10254189.01003806</v>
+        <v>10489183.19483806</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>54.6</v>
+        <v>56.1</v>
       </c>
       <c r="C159" t="n">
-        <v>54.5</v>
+        <v>55.8</v>
       </c>
       <c r="D159" t="n">
-        <v>54.6</v>
+        <v>56.8</v>
       </c>
       <c r="E159" t="n">
-        <v>54.4</v>
+        <v>55.6</v>
       </c>
       <c r="F159" t="n">
-        <v>6253.7554</v>
+        <v>71960.4039</v>
       </c>
       <c r="G159" t="n">
-        <v>10247935.25463806</v>
+        <v>10417222.79093806</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>54.6</v>
+        <v>55.8</v>
       </c>
       <c r="C160" t="n">
-        <v>54.5</v>
+        <v>55.6</v>
       </c>
       <c r="D160" t="n">
-        <v>54.6</v>
+        <v>55.8</v>
       </c>
       <c r="E160" t="n">
-        <v>54.5</v>
+        <v>55.6</v>
       </c>
       <c r="F160" t="n">
-        <v>20775.0349</v>
+        <v>13375</v>
       </c>
       <c r="G160" t="n">
-        <v>10247935.25463806</v>
+        <v>10403847.79093806</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>54.5</v>
+        <v>55.9</v>
       </c>
       <c r="C161" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="D161" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="E161" t="n">
-        <v>54.5</v>
+        <v>55.6</v>
       </c>
       <c r="F161" t="n">
-        <v>10466.795</v>
+        <v>12120.2954</v>
       </c>
       <c r="G161" t="n">
-        <v>10247935.25463806</v>
+        <v>10415968.08633806</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="C162" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="D162" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="E162" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="F162" t="n">
-        <v>588</v>
+        <v>5926.1348</v>
       </c>
       <c r="G162" t="n">
-        <v>10247935.25463806</v>
+        <v>10415968.08633806</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>54.5</v>
+        <v>56.7</v>
       </c>
       <c r="C163" t="n">
-        <v>54.5</v>
+        <v>56.8</v>
       </c>
       <c r="D163" t="n">
-        <v>54.5</v>
+        <v>56.8</v>
       </c>
       <c r="E163" t="n">
-        <v>54.5</v>
+        <v>56.7</v>
       </c>
       <c r="F163" t="n">
-        <v>2057.0641</v>
+        <v>5907.7288</v>
       </c>
       <c r="G163" t="n">
-        <v>10247935.25463806</v>
+        <v>10421875.81513806</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="C164" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="D164" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="E164" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="F164" t="n">
-        <v>17282.9999</v>
+        <v>246</v>
       </c>
       <c r="G164" t="n">
-        <v>10247935.25463806</v>
+        <v>10421629.81513806</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="C165" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="D165" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="E165" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="F165" t="n">
-        <v>12972.8316</v>
+        <v>5304.187</v>
       </c>
       <c r="G165" t="n">
-        <v>10247935.25463806</v>
+        <v>10421629.81513806</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>54.5</v>
+        <v>56.1</v>
       </c>
       <c r="C166" t="n">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="D166" t="n">
-        <v>54.6</v>
+        <v>56.1</v>
       </c>
       <c r="E166" t="n">
-        <v>54.5</v>
+        <v>56</v>
       </c>
       <c r="F166" t="n">
-        <v>4929.16</v>
+        <v>6175.452</v>
       </c>
       <c r="G166" t="n">
-        <v>10252864.41463806</v>
+        <v>10415454.36313806</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>54.7</v>
+        <v>56.1</v>
       </c>
       <c r="C167" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="D167" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="E167" t="n">
-        <v>54.7</v>
+        <v>56.1</v>
       </c>
       <c r="F167" t="n">
-        <v>7985.739</v>
+        <v>1489.1452</v>
       </c>
       <c r="G167" t="n">
-        <v>10260850.15363806</v>
+        <v>10416943.50833806</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="C168" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="D168" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="E168" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="F168" t="n">
-        <v>7876.4416</v>
+        <v>5892.9594</v>
       </c>
       <c r="G168" t="n">
-        <v>10252973.71203806</v>
+        <v>10411050.54893806</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>54.4</v>
+        <v>56</v>
       </c>
       <c r="C169" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="D169" t="n">
-        <v>54.4</v>
+        <v>56.6</v>
       </c>
       <c r="E169" t="n">
-        <v>54.4</v>
+        <v>55.8</v>
       </c>
       <c r="F169" t="n">
-        <v>8800</v>
+        <v>34620.0857</v>
       </c>
       <c r="G169" t="n">
-        <v>10252973.71203806</v>
+        <v>10411050.54893806</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>54.4</v>
+        <v>55.6</v>
       </c>
       <c r="C170" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="D170" t="n">
-        <v>54.4</v>
+        <v>55.6</v>
       </c>
       <c r="E170" t="n">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="F170" t="n">
-        <v>4506.7466</v>
+        <v>18623</v>
       </c>
       <c r="G170" t="n">
-        <v>10252973.71203806</v>
+        <v>10392427.54893806</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>54.4</v>
+        <v>55.1</v>
       </c>
       <c r="C171" t="n">
-        <v>54.4</v>
+        <v>55.1</v>
       </c>
       <c r="D171" t="n">
-        <v>54.4</v>
+        <v>55.1</v>
       </c>
       <c r="E171" t="n">
-        <v>54.4</v>
+        <v>55.1</v>
       </c>
       <c r="F171" t="n">
-        <v>201.8348</v>
+        <v>617.6202</v>
       </c>
       <c r="G171" t="n">
-        <v>10252973.71203806</v>
+        <v>10393045.16913806</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>54.4</v>
+        <v>55</v>
       </c>
       <c r="C172" t="n">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="D172" t="n">
-        <v>54.8</v>
+        <v>55</v>
       </c>
       <c r="E172" t="n">
-        <v>54.4</v>
+        <v>55</v>
       </c>
       <c r="F172" t="n">
-        <v>1689.7032</v>
+        <v>8235.332399999999</v>
       </c>
       <c r="G172" t="n">
-        <v>10254663.41523806</v>
+        <v>10384809.83673806</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="C173" t="n">
         <v>54.9</v>
       </c>
       <c r="D173" t="n">
+        <v>55</v>
+      </c>
+      <c r="E173" t="n">
         <v>54.9</v>
       </c>
-      <c r="E173" t="n">
-        <v>54.8</v>
-      </c>
       <c r="F173" t="n">
-        <v>8295.824699999999</v>
+        <v>12657.6053</v>
       </c>
       <c r="G173" t="n">
-        <v>10262959.23993806</v>
+        <v>10372152.23143806</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="C174" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="D174" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="E174" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="F174" t="n">
-        <v>2000</v>
+        <v>1102.4449</v>
       </c>
       <c r="G174" t="n">
-        <v>10262959.23993806</v>
+        <v>10373254.67633806</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6868,10 +7164,10 @@
         <v>54.9</v>
       </c>
       <c r="F175" t="n">
-        <v>12360.283</v>
+        <v>8300</v>
       </c>
       <c r="G175" t="n">
-        <v>10262959.23993806</v>
+        <v>10364954.67633806</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6881,75 +7177,69 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="C176" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D176" t="n">
         <v>54.9</v>
       </c>
-      <c r="D176" t="n">
-        <v>55.3</v>
-      </c>
       <c r="E176" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="F176" t="n">
-        <v>39081.968</v>
+        <v>591.6552</v>
       </c>
       <c r="G176" t="n">
-        <v>10262959.23993806</v>
+        <v>10364363.02113806</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="C177" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="D177" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="E177" t="n">
-        <v>54.9</v>
+        <v>54.7</v>
       </c>
       <c r="F177" t="n">
-        <v>11038.4615</v>
+        <v>20317.3903</v>
       </c>
       <c r="G177" t="n">
-        <v>10262959.23993806</v>
+        <v>10364363.02113806</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6959,36 +7249,33 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="C178" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="D178" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="E178" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F178" t="n">
-        <v>32991</v>
+        <v>1971</v>
       </c>
       <c r="G178" t="n">
-        <v>10262959.23993806</v>
+        <v>10366334.02113806</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6998,36 +7285,33 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="C179" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="D179" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="E179" t="n">
-        <v>55.4</v>
+        <v>54.8</v>
       </c>
       <c r="F179" t="n">
-        <v>1570.722</v>
+        <v>29990.7676</v>
       </c>
       <c r="G179" t="n">
-        <v>10264529.96193806</v>
+        <v>10366334.02113806</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7037,36 +7321,33 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="C180" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="D180" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="E180" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="F180" t="n">
-        <v>316.1696</v>
+        <v>16461.7224</v>
       </c>
       <c r="G180" t="n">
-        <v>10264213.79233806</v>
+        <v>10366334.02113806</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7076,36 +7357,33 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="C181" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="D181" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="E181" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="F181" t="n">
-        <v>515.7806</v>
+        <v>10984.635</v>
       </c>
       <c r="G181" t="n">
-        <v>10264213.79233806</v>
+        <v>10377318.65613806</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7115,36 +7393,33 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="C182" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="D182" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="E182" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="F182" t="n">
-        <v>1420.1989</v>
+        <v>12471.6507</v>
       </c>
       <c r="G182" t="n">
-        <v>10265633.99123806</v>
+        <v>10364847.00543806</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7154,36 +7429,33 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="C183" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="D183" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="E183" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="F183" t="n">
-        <v>539.5158</v>
+        <v>3614.395</v>
       </c>
       <c r="G183" t="n">
-        <v>10265633.99123806</v>
+        <v>10368461.40043806</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7193,36 +7465,33 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D184" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E184" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F184" t="n">
-        <v>11060.2363</v>
+        <v>9195.046899999999</v>
       </c>
       <c r="G184" t="n">
-        <v>10254573.75493806</v>
+        <v>10368461.40043806</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7232,36 +7501,33 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="C185" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="D185" t="n">
-        <v>55.3</v>
+        <v>55.1</v>
       </c>
       <c r="E185" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="F185" t="n">
-        <v>999.9999</v>
+        <v>17965.8528</v>
       </c>
       <c r="G185" t="n">
-        <v>10255573.75483806</v>
+        <v>10350495.54763806</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7271,36 +7537,33 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="C186" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="D186" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="E186" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="F186" t="n">
-        <v>732</v>
+        <v>2768.6902</v>
       </c>
       <c r="G186" t="n">
-        <v>10255573.75483806</v>
+        <v>10347726.85743806</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7310,36 +7573,33 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="C187" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="D187" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="E187" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="F187" t="n">
-        <v>1054</v>
+        <v>11800</v>
       </c>
       <c r="G187" t="n">
-        <v>10255573.75483806</v>
+        <v>10347726.85743806</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7349,36 +7609,33 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>55</v>
+        <v>54.6</v>
       </c>
       <c r="C188" t="n">
-        <v>55</v>
+        <v>54.6</v>
       </c>
       <c r="D188" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="E188" t="n">
-        <v>55</v>
+        <v>54.6</v>
       </c>
       <c r="F188" t="n">
-        <v>24.3651</v>
+        <v>6709.5992</v>
       </c>
       <c r="G188" t="n">
-        <v>10255549.38973806</v>
+        <v>10347726.85743806</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7388,21 +7645,18 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>55.2</v>
+        <v>54.5</v>
       </c>
       <c r="C189" t="n">
         <v>55.5</v>
@@ -7411,13 +7665,13 @@
         <v>55.5</v>
       </c>
       <c r="E189" t="n">
-        <v>55.2</v>
+        <v>54.5</v>
       </c>
       <c r="F189" t="n">
-        <v>17426.50137729</v>
+        <v>2881.8974009</v>
       </c>
       <c r="G189" t="n">
-        <v>10272975.89111535</v>
+        <v>10350608.75483896</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7427,36 +7681,33 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="C190" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="D190" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="E190" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F190" t="n">
-        <v>5741.80966751</v>
+        <v>8992.805700000001</v>
       </c>
       <c r="G190" t="n">
-        <v>10278717.70078286</v>
+        <v>10359601.56053896</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7466,14 +7717,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7483,19 +7731,19 @@
         <v>55.5</v>
       </c>
       <c r="C191" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="D191" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="E191" t="n">
         <v>55.5</v>
       </c>
       <c r="F191" t="n">
-        <v>4006.3603</v>
+        <v>3595.77582285</v>
       </c>
       <c r="G191" t="n">
-        <v>10274711.34048286</v>
+        <v>10363197.33636181</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7505,36 +7753,33 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="C192" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="D192" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="E192" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="F192" t="n">
-        <v>7.729e-05</v>
+        <v>6898.3812</v>
       </c>
       <c r="G192" t="n">
-        <v>10274711.34048286</v>
+        <v>10356298.95516181</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7544,309 +7789,285 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="C193" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="D193" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="E193" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F193" t="n">
-        <v>30251.7251</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>10274711.34048286</v>
+        <v>10356299.95516181</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="C194" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="D194" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="E194" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="F194" t="n">
-        <v>3738.1259</v>
+        <v>1999</v>
       </c>
       <c r="G194" t="n">
-        <v>10274711.34048286</v>
+        <v>10354300.95516181</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="C195" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="D195" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="E195" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="F195" t="n">
-        <v>38685.9677</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>10313397.30818286</v>
+        <v>10354301.95516181</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="C196" t="n">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="D196" t="n">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="E196" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="F196" t="n">
-        <v>85727.2420552</v>
+        <v>1420.1989</v>
       </c>
       <c r="G196" t="n">
-        <v>10399124.55023806</v>
+        <v>10352881.75626181</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="C197" t="n">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="D197" t="n">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="E197" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="F197" t="n">
-        <v>22534.3392</v>
+        <v>838.9999</v>
       </c>
       <c r="G197" t="n">
-        <v>10399124.55023806</v>
+        <v>10352881.75626181</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="C198" t="n">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="D198" t="n">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="E198" t="n">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="F198" t="n">
-        <v>64599.5989</v>
+        <v>788</v>
       </c>
       <c r="G198" t="n">
-        <v>10463724.14913806</v>
+        <v>10352881.75626181</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="C199" t="n">
-        <v>56.8</v>
+        <v>55.1</v>
       </c>
       <c r="D199" t="n">
-        <v>56.8</v>
+        <v>55.1</v>
       </c>
       <c r="E199" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="F199" t="n">
-        <v>25459.0457</v>
+        <v>80</v>
       </c>
       <c r="G199" t="n">
-        <v>10489183.19483806</v>
+        <v>10352881.75626181</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>56.8</v>
+        <v>55.6</v>
       </c>
       <c r="C200" t="n">
-        <v>56.8</v>
+        <v>55.6</v>
       </c>
       <c r="D200" t="n">
-        <v>56.8</v>
+        <v>55.6</v>
       </c>
       <c r="E200" t="n">
-        <v>56.8</v>
+        <v>55.6</v>
       </c>
       <c r="F200" t="n">
-        <v>19345.1935</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>10489183.19483806</v>
+        <v>10352882.75626181</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7856,34 +8077,33 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>56.1</v>
+        <v>55.6</v>
       </c>
       <c r="C201" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="D201" t="n">
-        <v>56.8</v>
+        <v>55.6</v>
       </c>
       <c r="E201" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F201" t="n">
-        <v>71960.4039</v>
+        <v>60305.8642</v>
       </c>
       <c r="G201" t="n">
-        <v>10417222.79093806</v>
+        <v>10292576.89206181</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7897,1564 +8117,7 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="C202" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D202" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="E202" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F202" t="n">
-        <v>13375</v>
-      </c>
-      <c r="G202" t="n">
-        <v>10403847.79093806</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C203" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E203" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F203" t="n">
-        <v>12120.2954</v>
-      </c>
-      <c r="G203" t="n">
-        <v>10415968.08633806</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C204" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E204" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F204" t="n">
-        <v>5926.1348</v>
-      </c>
-      <c r="G204" t="n">
-        <v>10415968.08633806</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="C205" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="D205" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="E205" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F205" t="n">
-        <v>5907.7288</v>
-      </c>
-      <c r="G205" t="n">
-        <v>10421875.81513806</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C206" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E206" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F206" t="n">
-        <v>246</v>
-      </c>
-      <c r="G206" t="n">
-        <v>10421629.81513806</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C207" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D207" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E207" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F207" t="n">
-        <v>5304.187</v>
-      </c>
-      <c r="G207" t="n">
-        <v>10421629.81513806</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C208" t="n">
-        <v>56</v>
-      </c>
-      <c r="D208" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E208" t="n">
-        <v>56</v>
-      </c>
-      <c r="F208" t="n">
-        <v>6175.452</v>
-      </c>
-      <c r="G208" t="n">
-        <v>10415454.36313806</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C209" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D209" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E209" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1489.1452</v>
-      </c>
-      <c r="G209" t="n">
-        <v>10416943.50833806</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>56</v>
-      </c>
-      <c r="C210" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D210" t="n">
-        <v>56</v>
-      </c>
-      <c r="E210" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="F210" t="n">
-        <v>5892.9594</v>
-      </c>
-      <c r="G210" t="n">
-        <v>10411050.54893806</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>56</v>
-      </c>
-      <c r="C211" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D211" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="E211" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="F211" t="n">
-        <v>34620.0857</v>
-      </c>
-      <c r="G211" t="n">
-        <v>10411050.54893806</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C212" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D212" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E212" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F212" t="n">
-        <v>18623</v>
-      </c>
-      <c r="G212" t="n">
-        <v>10392427.54893806</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C213" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D213" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E213" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F213" t="n">
-        <v>617.6202</v>
-      </c>
-      <c r="G213" t="n">
-        <v>10393045.16913806</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>55</v>
-      </c>
-      <c r="C214" t="n">
-        <v>55</v>
-      </c>
-      <c r="D214" t="n">
-        <v>55</v>
-      </c>
-      <c r="E214" t="n">
-        <v>55</v>
-      </c>
-      <c r="F214" t="n">
-        <v>8235.332399999999</v>
-      </c>
-      <c r="G214" t="n">
-        <v>10384809.83673806</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C215" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="D215" t="n">
-        <v>55</v>
-      </c>
-      <c r="E215" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="F215" t="n">
-        <v>12657.6053</v>
-      </c>
-      <c r="G215" t="n">
-        <v>10372152.23143806</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>55</v>
-      </c>
-      <c r="C216" t="n">
-        <v>55</v>
-      </c>
-      <c r="D216" t="n">
-        <v>55</v>
-      </c>
-      <c r="E216" t="n">
-        <v>55</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1102.4449</v>
-      </c>
-      <c r="G216" t="n">
-        <v>10373254.67633806</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C217" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="D217" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="E217" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="F217" t="n">
-        <v>8300</v>
-      </c>
-      <c r="G217" t="n">
-        <v>10364954.67633806</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C218" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="D218" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="E218" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="F218" t="n">
-        <v>591.6552</v>
-      </c>
-      <c r="G218" t="n">
-        <v>10364363.02113806</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="C219" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="D219" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="E219" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="F219" t="n">
-        <v>20317.3903</v>
-      </c>
-      <c r="G219" t="n">
-        <v>10364363.02113806</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C220" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D220" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E220" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1971</v>
-      </c>
-      <c r="G220" t="n">
-        <v>10366334.02113806</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C221" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D221" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E221" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F221" t="n">
-        <v>29990.7676</v>
-      </c>
-      <c r="G221" t="n">
-        <v>10366334.02113806</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C222" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D222" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E222" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F222" t="n">
-        <v>16461.7224</v>
-      </c>
-      <c r="G222" t="n">
-        <v>10366334.02113806</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C223" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="D223" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E223" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F223" t="n">
-        <v>10984.635</v>
-      </c>
-      <c r="G223" t="n">
-        <v>10377318.65613806</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>55</v>
-      </c>
-      <c r="C224" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="D224" t="n">
-        <v>55</v>
-      </c>
-      <c r="E224" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="F224" t="n">
-        <v>12471.6507</v>
-      </c>
-      <c r="G224" t="n">
-        <v>10364847.00543806</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C225" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D225" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E225" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>3614.395</v>
-      </c>
-      <c r="G225" t="n">
-        <v>10368461.40043806</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C226" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D226" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E226" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F226" t="n">
-        <v>9195.046899999999</v>
-      </c>
-      <c r="G226" t="n">
-        <v>10368461.40043806</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C227" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D227" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E227" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F227" t="n">
-        <v>17965.8528</v>
-      </c>
-      <c r="G227" t="n">
-        <v>10350495.54763806</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C228" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D228" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E228" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F228" t="n">
-        <v>2768.6902</v>
-      </c>
-      <c r="G228" t="n">
-        <v>10347726.85743806</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C229" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D229" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E229" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F229" t="n">
-        <v>11800</v>
-      </c>
-      <c r="G229" t="n">
-        <v>10347726.85743806</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C230" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D230" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="E230" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F230" t="n">
-        <v>6709.5992</v>
-      </c>
-      <c r="G230" t="n">
-        <v>10347726.85743806</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>2881.8974009</v>
-      </c>
-      <c r="G231" t="n">
-        <v>10350608.75483896</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C232" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D232" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E232" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F232" t="n">
-        <v>8992.805700000001</v>
-      </c>
-      <c r="G232" t="n">
-        <v>10359601.56053896</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="C233" t="n">
-        <v>56</v>
-      </c>
-      <c r="D233" t="n">
-        <v>56</v>
-      </c>
-      <c r="E233" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3595.77582285</v>
-      </c>
-      <c r="G233" t="n">
-        <v>10363197.33636181</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C234" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D234" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E234" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F234" t="n">
-        <v>6898.3812</v>
-      </c>
-      <c r="G234" t="n">
-        <v>10356298.95516181</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C235" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D235" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E235" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1</v>
-      </c>
-      <c r="G235" t="n">
-        <v>10356299.95516181</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C236" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D236" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E236" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1999</v>
-      </c>
-      <c r="G236" t="n">
-        <v>10354300.95516181</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C237" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D237" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E237" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1</v>
-      </c>
-      <c r="G237" t="n">
-        <v>10354301.95516181</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C238" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D238" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E238" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1420.1989</v>
-      </c>
-      <c r="G238" t="n">
-        <v>10352881.75626181</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C239" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D239" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E239" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F239" t="n">
-        <v>838.9999</v>
-      </c>
-      <c r="G239" t="n">
-        <v>10352881.75626181</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C240" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D240" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E240" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F240" t="n">
-        <v>788</v>
-      </c>
-      <c r="G240" t="n">
-        <v>10352881.75626181</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C241" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E241" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F241" t="n">
-        <v>80</v>
-      </c>
-      <c r="G241" t="n">
-        <v>10352881.75626181</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C242" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="D242" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E242" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1</v>
-      </c>
-      <c r="G242" t="n">
-        <v>10352882.75626181</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="C243" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D243" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="E243" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F243" t="n">
-        <v>60305.8642</v>
-      </c>
-      <c r="G243" t="n">
-        <v>10292576.89206181</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
+      <c r="N201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:N272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="C2" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="D2" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="E2" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="F2" t="n">
-        <v>8663.5987</v>
+        <v>18620000</v>
       </c>
       <c r="G2" t="n">
-        <v>9736879.1916</v>
+        <v>-174251.2093000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="C3" t="n">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="D3" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="E3" t="n">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="F3" t="n">
-        <v>800.2966</v>
+        <v>3800000</v>
       </c>
       <c r="G3" t="n">
-        <v>9737679.4882</v>
+        <v>-3974251.2093</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.4</v>
+        <v>52.7</v>
       </c>
       <c r="C4" t="n">
-        <v>53.4</v>
+        <v>52.7</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4</v>
+        <v>52.7</v>
       </c>
       <c r="E4" t="n">
-        <v>53.4</v>
+        <v>52.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1790.083</v>
+        <v>1610</v>
       </c>
       <c r="G4" t="n">
-        <v>9739469.5712</v>
+        <v>-3974251.2093</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>52.7</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53.3</v>
+        <v>52.8</v>
       </c>
       <c r="C5" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="D5" t="n">
-        <v>53.3</v>
+        <v>52.8</v>
       </c>
       <c r="E5" t="n">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="F5" t="n">
-        <v>5471.2615</v>
+        <v>8720000</v>
       </c>
       <c r="G5" t="n">
-        <v>9733998.309700001</v>
+        <v>4745748.7907</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>52.7</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="C6" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="D6" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="E6" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="F6" t="n">
-        <v>4793.3311</v>
+        <v>21200000</v>
       </c>
       <c r="G6" t="n">
-        <v>9729204.978600001</v>
+        <v>4745748.7907</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="C7" t="n">
         <v>52.8</v>
       </c>
       <c r="D7" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="E7" t="n">
         <v>52.8</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21440591.4051</v>
       </c>
       <c r="G7" t="n">
-        <v>9729184.978600001</v>
+        <v>4745748.7907</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C8" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D8" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="E8" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F8" t="n">
-        <v>950.019</v>
+        <v>21520000</v>
       </c>
       <c r="G8" t="n">
-        <v>9730134.9976</v>
+        <v>4745748.7907</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +709,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,20 +736,26 @@
         <v>52.8</v>
       </c>
       <c r="F9" t="n">
-        <v>6789.9967</v>
+        <v>21679999.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>9723345.0009</v>
+        <v>4745748.7907</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +766,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="E10" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="F10" t="n">
-        <v>6589.675</v>
+        <v>21520000</v>
       </c>
       <c r="G10" t="n">
-        <v>9729934.675900001</v>
+        <v>4745748.7907</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +808,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="C11" t="n">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="F11" t="n">
-        <v>358709.7223</v>
+        <v>21120000.0001</v>
       </c>
       <c r="G11" t="n">
-        <v>10088644.3982</v>
+        <v>4745748.7907</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +850,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="C12" t="n">
-        <v>55</v>
+        <v>52.8</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="E12" t="n">
-        <v>55</v>
+        <v>52.8</v>
       </c>
       <c r="F12" t="n">
-        <v>51853.3354</v>
+        <v>1696422.1968</v>
       </c>
       <c r="G12" t="n">
-        <v>10036791.0628</v>
+        <v>4745748.7907</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +892,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>54.4</v>
+        <v>52.8</v>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>52.9</v>
       </c>
       <c r="D13" t="n">
-        <v>55.1</v>
+        <v>52.9</v>
       </c>
       <c r="E13" t="n">
-        <v>54.2</v>
+        <v>52.8</v>
       </c>
       <c r="F13" t="n">
-        <v>151092.6133</v>
+        <v>7283577.8032</v>
       </c>
       <c r="G13" t="n">
-        <v>10036791.0628</v>
+        <v>12029326.5939</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +934,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>53.9</v>
+        <v>52.9</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8</v>
+        <v>52.9</v>
       </c>
       <c r="D14" t="n">
-        <v>53.9</v>
+        <v>52.9</v>
       </c>
       <c r="E14" t="n">
-        <v>53.8</v>
+        <v>52.9</v>
       </c>
       <c r="F14" t="n">
-        <v>14307.0996</v>
+        <v>12815000</v>
       </c>
       <c r="G14" t="n">
-        <v>10022483.9632</v>
+        <v>12029326.5939</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>52.9</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +976,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="C15" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="D15" t="n">
-        <v>54.5</v>
+        <v>52.9</v>
       </c>
       <c r="E15" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="F15" t="n">
-        <v>13468.5163</v>
+        <v>880000</v>
       </c>
       <c r="G15" t="n">
-        <v>10035952.4795</v>
+        <v>12029326.5939</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>52.9</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1018,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>54.4</v>
+        <v>52.8</v>
       </c>
       <c r="C16" t="n">
-        <v>54.3</v>
+        <v>52.8</v>
       </c>
       <c r="D16" t="n">
-        <v>54.4</v>
+        <v>52.8</v>
       </c>
       <c r="E16" t="n">
-        <v>54.3</v>
+        <v>52.8</v>
       </c>
       <c r="F16" t="n">
-        <v>12542.4231</v>
+        <v>3520000</v>
       </c>
       <c r="G16" t="n">
-        <v>10023410.0564</v>
+        <v>8509326.593899999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>52.9</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1060,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>54.2</v>
+        <v>52.8</v>
       </c>
       <c r="C17" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="D17" t="n">
-        <v>54.2</v>
+        <v>52.8</v>
       </c>
       <c r="E17" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="F17" t="n">
-        <v>7667.5887</v>
+        <v>9240000</v>
       </c>
       <c r="G17" t="n">
-        <v>10015742.4677</v>
+        <v>8509326.593899999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1102,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C18" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="D18" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="F18" t="n">
-        <v>157.2365</v>
+        <v>6655000</v>
       </c>
       <c r="G18" t="n">
-        <v>10015899.7042</v>
+        <v>8509326.593899999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>52.8</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1144,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="C19" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="D19" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="E19" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="F19" t="n">
-        <v>1080</v>
+        <v>2268000</v>
       </c>
       <c r="G19" t="n">
-        <v>10016979.7042</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1169,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1184,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="C20" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="D20" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="E20" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="F20" t="n">
-        <v>6717.8662</v>
+        <v>1764000</v>
       </c>
       <c r="G20" t="n">
-        <v>10016979.7042</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1209,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1224,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="C21" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="D21" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="E21" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="F21" t="n">
-        <v>10602.9113</v>
+        <v>6975000</v>
       </c>
       <c r="G21" t="n">
-        <v>10016979.7042</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1249,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1264,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="C22" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="D22" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="E22" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="F22" t="n">
-        <v>1101.0613</v>
+        <v>7470000</v>
       </c>
       <c r="G22" t="n">
-        <v>10015878.6429</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1289,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1304,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="C23" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="D23" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="E23" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="F23" t="n">
-        <v>704.0218</v>
+        <v>7335000</v>
       </c>
       <c r="G23" t="n">
-        <v>10015174.6211</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1329,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1344,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="C24" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D24" t="n">
-        <v>55.2</v>
+        <v>52.9</v>
       </c>
       <c r="E24" t="n">
-        <v>53.5</v>
+        <v>52.6</v>
       </c>
       <c r="F24" t="n">
-        <v>21854.634</v>
+        <v>7155011</v>
       </c>
       <c r="G24" t="n">
-        <v>9993319.987100001</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1369,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1384,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>53.8</v>
+        <v>52.9</v>
       </c>
       <c r="C25" t="n">
-        <v>55.9</v>
+        <v>52.9</v>
       </c>
       <c r="D25" t="n">
-        <v>55.9</v>
+        <v>52.9</v>
       </c>
       <c r="E25" t="n">
-        <v>53.7</v>
+        <v>52.9</v>
       </c>
       <c r="F25" t="n">
-        <v>59869.0021</v>
+        <v>7470010.8662</v>
       </c>
       <c r="G25" t="n">
-        <v>10053188.9892</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1409,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1424,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>53.9</v>
+        <v>52.9</v>
       </c>
       <c r="C26" t="n">
-        <v>53.9</v>
+        <v>52.9</v>
       </c>
       <c r="D26" t="n">
-        <v>53.9</v>
+        <v>52.9</v>
       </c>
       <c r="E26" t="n">
-        <v>53.9</v>
+        <v>52.9</v>
       </c>
       <c r="F26" t="n">
-        <v>617.999</v>
+        <v>7469989.1338</v>
       </c>
       <c r="G26" t="n">
-        <v>10052570.9902</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1449,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1464,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="E27" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="F27" t="n">
-        <v>512.8742</v>
+        <v>7515000</v>
       </c>
       <c r="G27" t="n">
-        <v>10053083.8644</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1489,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1504,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="C28" t="n">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="D28" t="n">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="E28" t="n">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="F28" t="n">
-        <v>7834.466</v>
+        <v>7740010.8662</v>
       </c>
       <c r="G28" t="n">
-        <v>10060918.3304</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1529,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1544,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="C29" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="D29" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="E29" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="F29" t="n">
-        <v>2452.3895</v>
+        <v>7830000</v>
       </c>
       <c r="G29" t="n">
-        <v>10063370.7199</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1569,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1584,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="C30" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="D30" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="E30" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="F30" t="n">
-        <v>809</v>
+        <v>7695808.8623</v>
       </c>
       <c r="G30" t="n">
-        <v>10062561.7199</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1609,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1624,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="C31" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="E31" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="F31" t="n">
-        <v>6227.4536</v>
+        <v>4995000</v>
       </c>
       <c r="G31" t="n">
-        <v>10062561.7199</v>
+        <v>10777326.5939</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1649,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1664,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>53.9</v>
+        <v>52.7</v>
       </c>
       <c r="C32" t="n">
-        <v>53.9</v>
+        <v>53.1</v>
       </c>
       <c r="D32" t="n">
-        <v>53.9</v>
+        <v>53.1</v>
       </c>
       <c r="E32" t="n">
-        <v>53.9</v>
+        <v>52.7</v>
       </c>
       <c r="F32" t="n">
-        <v>199.1409</v>
+        <v>21.9227</v>
       </c>
       <c r="G32" t="n">
-        <v>10062362.579</v>
+        <v>10777348.5166</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1689,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1704,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="C33" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D33" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E33" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="F33" t="n">
-        <v>1100</v>
+        <v>1035000</v>
       </c>
       <c r="G33" t="n">
-        <v>10061262.579</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1729,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1744,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>53.9</v>
+        <v>52.9</v>
       </c>
       <c r="C34" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="D34" t="n">
-        <v>53.9</v>
+        <v>52.9</v>
       </c>
       <c r="E34" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="F34" t="n">
-        <v>3860</v>
+        <v>7650000</v>
       </c>
       <c r="G34" t="n">
-        <v>10057402.579</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1769,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1784,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="C35" t="n">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="D35" t="n">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="E35" t="n">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="F35" t="n">
-        <v>93290.5223</v>
+        <v>7650000</v>
       </c>
       <c r="G35" t="n">
-        <v>10150693.1013</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1809,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1824,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="C36" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="D36" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="E36" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="F36" t="n">
-        <v>816.6179</v>
+        <v>7875000</v>
       </c>
       <c r="G36" t="n">
-        <v>10149876.4834</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1687,7 +1849,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="C37" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="D37" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="E37" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F37" t="n">
-        <v>21197.363</v>
+        <v>7785000</v>
       </c>
       <c r="G37" t="n">
-        <v>10128679.1204</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,7 +1889,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1904,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="C38" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="D38" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="E38" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F38" t="n">
-        <v>8185.262</v>
+        <v>7785000</v>
       </c>
       <c r="G38" t="n">
-        <v>10128679.1204</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1929,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1944,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="C39" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="D39" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="E39" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F39" t="n">
-        <v>626.3861000000001</v>
+        <v>7785000</v>
       </c>
       <c r="G39" t="n">
-        <v>10128679.1204</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1969,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,36 +1984,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="C40" t="n">
         <v>52.9</v>
       </c>
       <c r="D40" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="E40" t="n">
         <v>52.9</v>
       </c>
       <c r="F40" t="n">
-        <v>88526.05349999999</v>
+        <v>6975000</v>
       </c>
       <c r="G40" t="n">
-        <v>10040153.0669</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1848,32 +2024,30 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="C41" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="D41" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="E41" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="F41" t="n">
-        <v>25</v>
+        <v>3850000</v>
       </c>
       <c r="G41" t="n">
-        <v>10040178.0669</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>52.9</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1896,26 +2070,24 @@
         <v>52.9</v>
       </c>
       <c r="D42" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E42" t="n">
         <v>52.9</v>
       </c>
       <c r="F42" t="n">
-        <v>4601.6797</v>
+        <v>8400000</v>
       </c>
       <c r="G42" t="n">
-        <v>10035576.3872</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>53.4</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -1932,32 +2104,30 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C43" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="D43" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="E43" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>8500000</v>
       </c>
       <c r="G43" t="n">
-        <v>10035606.3872</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>52.9</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -1974,32 +2144,30 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="C44" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="D44" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="E44" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F44" t="n">
-        <v>894.4652</v>
+        <v>8450000</v>
       </c>
       <c r="G44" t="n">
-        <v>10036500.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>53.2</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2016,32 +2184,30 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="C45" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D45" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="E45" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F45" t="n">
-        <v>3035</v>
+        <v>8300000</v>
       </c>
       <c r="G45" t="n">
-        <v>10033465.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2058,22 +2224,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="C46" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D46" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E46" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>8350000</v>
       </c>
       <c r="G46" t="n">
-        <v>10033476.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2098,22 +2264,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="C47" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D47" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E47" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>2950000</v>
       </c>
       <c r="G47" t="n">
-        <v>10033476.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2138,22 +2304,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="C48" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D48" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E48" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="F48" t="n">
-        <v>122.3121</v>
+        <v>6880000</v>
       </c>
       <c r="G48" t="n">
-        <v>10033476.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2178,22 +2344,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="C49" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D49" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E49" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="F49" t="n">
-        <v>177.3326</v>
+        <v>13840719</v>
       </c>
       <c r="G49" t="n">
-        <v>10033476.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2218,22 +2384,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="C50" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D50" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E50" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="F50" t="n">
-        <v>19.7869</v>
+        <v>13919281</v>
       </c>
       <c r="G50" t="n">
-        <v>10033476.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2258,22 +2424,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="C51" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D51" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E51" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="F51" t="n">
-        <v>386.9418</v>
+        <v>13760000</v>
       </c>
       <c r="G51" t="n">
-        <v>10033476.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2298,22 +2464,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C52" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D52" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E52" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>13760719</v>
       </c>
       <c r="G52" t="n">
-        <v>10033466.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2338,22 +2504,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C53" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D53" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E53" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F53" t="n">
-        <v>60.7985</v>
+        <v>13839281</v>
       </c>
       <c r="G53" t="n">
-        <v>10033466.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2378,22 +2544,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C54" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D54" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E54" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F54" t="n">
-        <v>1164.1468</v>
+        <v>13600000</v>
       </c>
       <c r="G54" t="n">
-        <v>10033466.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2418,22 +2584,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="C55" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="D55" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="E55" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>13441389.7561</v>
       </c>
       <c r="G55" t="n">
-        <v>10033496.8524</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2458,22 +2624,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C56" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="D56" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="E56" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F56" t="n">
-        <v>2041.3363</v>
+        <v>13280000</v>
       </c>
       <c r="G56" t="n">
-        <v>10031455.5161</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2498,22 +2664,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="C57" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="D57" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E57" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="F57" t="n">
-        <v>883.11</v>
+        <v>13601129.4161</v>
       </c>
       <c r="G57" t="n">
-        <v>10031455.5161</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2538,22 +2704,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="C58" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="D58" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="E58" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>13841389.7561</v>
       </c>
       <c r="G58" t="n">
-        <v>10031465.5161</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2578,22 +2744,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="C59" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="D59" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="E59" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>3410049.2438</v>
       </c>
       <c r="G59" t="n">
-        <v>10031475.5161</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2618,22 +2784,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="C60" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="D60" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="E60" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F60" t="n">
-        <v>6287.3782</v>
+        <v>11830000</v>
       </c>
       <c r="G60" t="n">
-        <v>10025188.1379</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2658,22 +2824,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="C61" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="D61" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E61" t="n">
-        <v>53.4</v>
+        <v>52.9</v>
       </c>
       <c r="F61" t="n">
-        <v>366.8321</v>
+        <v>11839950.7562</v>
       </c>
       <c r="G61" t="n">
-        <v>10025554.97</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2698,22 +2864,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="C62" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D62" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="E62" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F62" t="n">
-        <v>27600</v>
+        <v>11900000</v>
       </c>
       <c r="G62" t="n">
-        <v>9997954.969999997</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2738,22 +2904,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="C63" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D63" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E63" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="F63" t="n">
-        <v>1039.0551</v>
+        <v>690049.2438000001</v>
       </c>
       <c r="G63" t="n">
-        <v>9998994.025099996</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2778,22 +2944,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="C64" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="D64" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="E64" t="n">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="F64" t="n">
-        <v>1266.2289</v>
+        <v>1800.1723</v>
       </c>
       <c r="G64" t="n">
-        <v>9998994.025099996</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2818,22 +2984,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="C65" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="D65" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="E65" t="n">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="F65" t="n">
-        <v>79837.4519</v>
+        <v>6434.1541</v>
       </c>
       <c r="G65" t="n">
-        <v>10078831.477</v>
+        <v>9742348.5166</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2858,22 +3024,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="C66" t="n">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="D66" t="n">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="E66" t="n">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="F66" t="n">
-        <v>13107.3789</v>
+        <v>356.6157</v>
       </c>
       <c r="G66" t="n">
-        <v>10091938.8559</v>
+        <v>9742705.132300001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2898,22 +3064,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="C67" t="n">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="D67" t="n">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="E67" t="n">
-        <v>54.1</v>
+        <v>53.1</v>
       </c>
       <c r="F67" t="n">
-        <v>4597</v>
+        <v>99.7834</v>
       </c>
       <c r="G67" t="n">
-        <v>10091938.8559</v>
+        <v>9742705.132300001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2938,22 +3104,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>54.4</v>
+        <v>53</v>
       </c>
       <c r="C68" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="D68" t="n">
-        <v>54.4</v>
+        <v>53</v>
       </c>
       <c r="E68" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="F68" t="n">
-        <v>985.2085</v>
+        <v>60</v>
       </c>
       <c r="G68" t="n">
-        <v>10091938.8559</v>
+        <v>9742645.132300001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2978,22 +3144,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="C69" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="D69" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="E69" t="n">
-        <v>54.1</v>
+        <v>53</v>
       </c>
       <c r="F69" t="n">
-        <v>1216.5857</v>
+        <v>1671.4283</v>
       </c>
       <c r="G69" t="n">
-        <v>10091938.8559</v>
+        <v>9742645.132300001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3018,22 +3184,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="C70" t="n">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="D70" t="n">
-        <v>54.1</v>
+        <v>52.9</v>
       </c>
       <c r="E70" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="F70" t="n">
-        <v>32258.5733</v>
+        <v>8913.102800000001</v>
       </c>
       <c r="G70" t="n">
-        <v>10091938.8559</v>
+        <v>9733732.0295</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3058,22 +3224,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="C71" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="D71" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="E71" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="F71" t="n">
-        <v>155.614</v>
+        <v>948.1935999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>10091783.2419</v>
+        <v>9733732.0295</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3098,22 +3264,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C72" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="D72" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="E72" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="F72" t="n">
-        <v>1364.9259</v>
+        <v>3147.1621</v>
       </c>
       <c r="G72" t="n">
-        <v>10091783.2419</v>
+        <v>9736879.1916</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3138,22 +3304,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="C73" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="D73" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="E73" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="F73" t="n">
-        <v>25.5241</v>
+        <v>8663.5987</v>
       </c>
       <c r="G73" t="n">
-        <v>10091808.766</v>
+        <v>9736879.1916</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3178,22 +3344,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>54</v>
+        <v>53.2</v>
       </c>
       <c r="C74" t="n">
-        <v>54</v>
+        <v>53.2</v>
       </c>
       <c r="D74" t="n">
-        <v>54</v>
+        <v>53.2</v>
       </c>
       <c r="E74" t="n">
-        <v>54</v>
+        <v>53.2</v>
       </c>
       <c r="F74" t="n">
-        <v>581.8891</v>
+        <v>800.2966</v>
       </c>
       <c r="G74" t="n">
-        <v>10091226.8769</v>
+        <v>9737679.4882</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3218,22 +3384,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>54</v>
+        <v>53.4</v>
       </c>
       <c r="C75" t="n">
-        <v>54</v>
+        <v>53.4</v>
       </c>
       <c r="D75" t="n">
-        <v>54</v>
+        <v>53.4</v>
       </c>
       <c r="E75" t="n">
-        <v>54</v>
+        <v>53.4</v>
       </c>
       <c r="F75" t="n">
-        <v>11363.4874</v>
+        <v>1790.083</v>
       </c>
       <c r="G75" t="n">
-        <v>10091226.8769</v>
+        <v>9739469.5712</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3258,22 +3424,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>54</v>
+        <v>53.3</v>
       </c>
       <c r="C76" t="n">
-        <v>54</v>
+        <v>53.2</v>
       </c>
       <c r="D76" t="n">
-        <v>54</v>
+        <v>53.3</v>
       </c>
       <c r="E76" t="n">
-        <v>54</v>
+        <v>53.2</v>
       </c>
       <c r="F76" t="n">
-        <v>22951.3344</v>
+        <v>5471.2615</v>
       </c>
       <c r="G76" t="n">
-        <v>10091226.8769</v>
+        <v>9733998.309700001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3298,22 +3464,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>54.3</v>
+        <v>53.2</v>
       </c>
       <c r="C77" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="D77" t="n">
-        <v>54.5</v>
+        <v>53.2</v>
       </c>
       <c r="E77" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="F77" t="n">
-        <v>19837.9335</v>
+        <v>4793.3311</v>
       </c>
       <c r="G77" t="n">
-        <v>10091226.8769</v>
+        <v>9729204.978600001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3338,22 +3504,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="C78" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="D78" t="n">
-        <v>54</v>
+        <v>53.1</v>
       </c>
       <c r="E78" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="F78" t="n">
-        <v>509.3832</v>
+        <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>10091226.8769</v>
+        <v>9729184.978600001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3378,22 +3544,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="C79" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="D79" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="E79" t="n">
-        <v>54</v>
+        <v>52.9</v>
       </c>
       <c r="F79" t="n">
-        <v>949.7446</v>
+        <v>950.019</v>
       </c>
       <c r="G79" t="n">
-        <v>10091226.8769</v>
+        <v>9730134.9976</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3418,22 +3584,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="C80" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="D80" t="n">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="E80" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="F80" t="n">
-        <v>4190.2432</v>
+        <v>6789.9967</v>
       </c>
       <c r="G80" t="n">
-        <v>10091226.8769</v>
+        <v>9723345.0009</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3458,22 +3624,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>53.9</v>
+        <v>53.1</v>
       </c>
       <c r="C81" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D81" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E81" t="n">
-        <v>53.9</v>
+        <v>53.1</v>
       </c>
       <c r="F81" t="n">
-        <v>16441.3651</v>
+        <v>6589.675</v>
       </c>
       <c r="G81" t="n">
-        <v>10074785.5118</v>
+        <v>9729934.675900001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3498,22 +3664,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C82" t="n">
-        <v>53.9</v>
+        <v>55.9</v>
       </c>
       <c r="D82" t="n">
-        <v>53.9</v>
+        <v>55.9</v>
       </c>
       <c r="E82" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F82" t="n">
-        <v>293.5102</v>
+        <v>358709.7223</v>
       </c>
       <c r="G82" t="n">
-        <v>10074785.5118</v>
+        <v>10088644.3982</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3538,22 +3704,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>54</v>
+        <v>55.9</v>
       </c>
       <c r="C83" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D83" t="n">
-        <v>54</v>
+        <v>55.9</v>
       </c>
       <c r="E83" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F83" t="n">
-        <v>5419.1616</v>
+        <v>51853.3354</v>
       </c>
       <c r="G83" t="n">
-        <v>10080204.6734</v>
+        <v>10036791.0628</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3578,22 +3744,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="C84" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D84" t="n">
-        <v>54</v>
+        <v>55.1</v>
       </c>
       <c r="E84" t="n">
-        <v>54</v>
+        <v>54.2</v>
       </c>
       <c r="F84" t="n">
-        <v>985.4357</v>
+        <v>151092.6133</v>
       </c>
       <c r="G84" t="n">
-        <v>10080204.6734</v>
+        <v>10036791.0628</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3618,22 +3784,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="C85" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="D85" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="E85" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="F85" t="n">
-        <v>2141.388</v>
+        <v>14307.0996</v>
       </c>
       <c r="G85" t="n">
-        <v>10080204.6734</v>
+        <v>10022483.9632</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3658,22 +3824,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="C86" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="D86" t="n">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
       <c r="E86" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="F86" t="n">
-        <v>14600.0146</v>
+        <v>13468.5163</v>
       </c>
       <c r="G86" t="n">
-        <v>10094804.688</v>
+        <v>10035952.4795</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3698,22 +3864,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="C87" t="n">
-        <v>53.9</v>
+        <v>54.3</v>
       </c>
       <c r="D87" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="E87" t="n">
-        <v>53.9</v>
+        <v>54.3</v>
       </c>
       <c r="F87" t="n">
-        <v>31607.8466</v>
+        <v>12542.4231</v>
       </c>
       <c r="G87" t="n">
-        <v>10063196.8414</v>
+        <v>10023410.0564</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3738,22 +3904,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>53.9</v>
+        <v>54.2</v>
       </c>
       <c r="C88" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D88" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="E88" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F88" t="n">
-        <v>50965.04063807</v>
+        <v>7667.5887</v>
       </c>
       <c r="G88" t="n">
-        <v>10114161.88203807</v>
+        <v>10015742.4677</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3790,10 +3956,10 @@
         <v>54.1</v>
       </c>
       <c r="F89" t="n">
-        <v>37636.58136193</v>
+        <v>157.2365</v>
       </c>
       <c r="G89" t="n">
-        <v>10114161.88203807</v>
+        <v>10015899.7042</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3818,22 +3984,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="C90" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="D90" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="E90" t="n">
-        <v>54.2</v>
+        <v>54.4</v>
       </c>
       <c r="F90" t="n">
-        <v>36233.5793</v>
+        <v>1080</v>
       </c>
       <c r="G90" t="n">
-        <v>10150395.46133807</v>
+        <v>10016979.7042</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3858,22 +4024,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C91" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="D91" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="E91" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="F91" t="n">
-        <v>14539.6903</v>
+        <v>6717.8662</v>
       </c>
       <c r="G91" t="n">
-        <v>10135855.77103806</v>
+        <v>10016979.7042</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3898,22 +4064,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="C92" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="D92" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="E92" t="n">
-        <v>54.1</v>
+        <v>54.4</v>
       </c>
       <c r="F92" t="n">
-        <v>4720.1212</v>
+        <v>10602.9113</v>
       </c>
       <c r="G92" t="n">
-        <v>10135855.77103806</v>
+        <v>10016979.7042</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3938,22 +4104,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>53.9</v>
+        <v>54.3</v>
       </c>
       <c r="C93" t="n">
-        <v>53.9</v>
+        <v>54.3</v>
       </c>
       <c r="D93" t="n">
-        <v>53.9</v>
+        <v>54.3</v>
       </c>
       <c r="E93" t="n">
-        <v>53.9</v>
+        <v>54.3</v>
       </c>
       <c r="F93" t="n">
-        <v>355.0319</v>
+        <v>1101.0613</v>
       </c>
       <c r="G93" t="n">
-        <v>10135500.73913806</v>
+        <v>10015878.6429</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3978,22 +4144,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C94" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="D94" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E94" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="F94" t="n">
-        <v>7369.0591</v>
+        <v>704.0218</v>
       </c>
       <c r="G94" t="n">
-        <v>10128131.68003806</v>
+        <v>10015174.6211</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4018,22 +4184,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>54</v>
+        <v>54.4</v>
       </c>
       <c r="C95" t="n">
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="D95" t="n">
-        <v>54</v>
+        <v>55.2</v>
       </c>
       <c r="E95" t="n">
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="F95" t="n">
-        <v>473.3759</v>
+        <v>21854.634</v>
       </c>
       <c r="G95" t="n">
-        <v>10128605.05593807</v>
+        <v>9993319.987100001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4058,22 +4224,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="C96" t="n">
-        <v>54.1</v>
+        <v>55.9</v>
       </c>
       <c r="D96" t="n">
-        <v>54.1</v>
+        <v>55.9</v>
       </c>
       <c r="E96" t="n">
-        <v>54</v>
+        <v>53.7</v>
       </c>
       <c r="F96" t="n">
-        <v>22409.8089</v>
+        <v>59869.0021</v>
       </c>
       <c r="G96" t="n">
-        <v>10151014.86483807</v>
+        <v>10053188.9892</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4098,22 +4264,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="C97" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="D97" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="E97" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="F97" t="n">
-        <v>62674.9887</v>
+        <v>617.999</v>
       </c>
       <c r="G97" t="n">
-        <v>10088339.87613807</v>
+        <v>10052570.9902</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4138,22 +4304,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="C98" t="n">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="D98" t="n">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="E98" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="F98" t="n">
-        <v>15780.4857</v>
+        <v>512.8742</v>
       </c>
       <c r="G98" t="n">
-        <v>10072559.39043806</v>
+        <v>10053083.8644</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4178,22 +4344,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="C99" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="D99" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="E99" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="F99" t="n">
-        <v>6851.6009</v>
+        <v>7834.466</v>
       </c>
       <c r="G99" t="n">
-        <v>10072559.39043806</v>
+        <v>10060918.3304</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4218,22 +4384,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>53.7</v>
+        <v>54.3</v>
       </c>
       <c r="C100" t="n">
-        <v>53.7</v>
+        <v>54.3</v>
       </c>
       <c r="D100" t="n">
-        <v>53.7</v>
+        <v>54.3</v>
       </c>
       <c r="E100" t="n">
-        <v>53.7</v>
+        <v>54.3</v>
       </c>
       <c r="F100" t="n">
-        <v>988</v>
+        <v>2452.3895</v>
       </c>
       <c r="G100" t="n">
-        <v>10072559.39043806</v>
+        <v>10063370.7199</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4258,22 +4424,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="C101" t="n">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="D101" t="n">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="E101" t="n">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="F101" t="n">
-        <v>2621.9865</v>
+        <v>809</v>
       </c>
       <c r="G101" t="n">
-        <v>10072559.39043806</v>
+        <v>10062561.7199</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4298,22 +4464,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="C102" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="D102" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="E102" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="F102" t="n">
-        <v>7707.869</v>
+        <v>6227.4536</v>
       </c>
       <c r="G102" t="n">
-        <v>10064851.52143806</v>
+        <v>10062561.7199</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4338,22 +4504,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="C103" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="D103" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="E103" t="n">
-        <v>53.8</v>
+        <v>53.9</v>
       </c>
       <c r="F103" t="n">
-        <v>7392.6482</v>
+        <v>199.1409</v>
       </c>
       <c r="G103" t="n">
-        <v>10072244.16963806</v>
+        <v>10062362.579</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4378,22 +4544,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>53.8</v>
+        <v>53.5</v>
       </c>
       <c r="C104" t="n">
-        <v>53.8</v>
+        <v>53.5</v>
       </c>
       <c r="D104" t="n">
-        <v>53.8</v>
+        <v>53.5</v>
       </c>
       <c r="E104" t="n">
-        <v>53.8</v>
+        <v>53.5</v>
       </c>
       <c r="F104" t="n">
-        <v>762.3363000000001</v>
+        <v>1100</v>
       </c>
       <c r="G104" t="n">
-        <v>10072244.16963806</v>
+        <v>10061262.579</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4418,22 +4584,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="C105" t="n">
-        <v>54.1</v>
+        <v>53.4</v>
       </c>
       <c r="D105" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="E105" t="n">
-        <v>54.1</v>
+        <v>53.4</v>
       </c>
       <c r="F105" t="n">
-        <v>5123.0981</v>
+        <v>3860</v>
       </c>
       <c r="G105" t="n">
-        <v>10077367.26773806</v>
+        <v>10057402.579</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4458,22 +4624,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>54.4</v>
+        <v>53.6</v>
       </c>
       <c r="C106" t="n">
-        <v>54.6</v>
+        <v>53.6</v>
       </c>
       <c r="D106" t="n">
-        <v>54.6</v>
+        <v>53.6</v>
       </c>
       <c r="E106" t="n">
-        <v>54.4</v>
+        <v>53.6</v>
       </c>
       <c r="F106" t="n">
-        <v>53062.0819</v>
+        <v>93290.5223</v>
       </c>
       <c r="G106" t="n">
-        <v>10130429.34963806</v>
+        <v>10150693.1013</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4498,22 +4664,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>54.6</v>
+        <v>53.4</v>
       </c>
       <c r="C107" t="n">
-        <v>54.7</v>
+        <v>53.4</v>
       </c>
       <c r="D107" t="n">
-        <v>54.7</v>
+        <v>53.4</v>
       </c>
       <c r="E107" t="n">
-        <v>54.6</v>
+        <v>53.4</v>
       </c>
       <c r="F107" t="n">
-        <v>30877.163</v>
+        <v>816.6179</v>
       </c>
       <c r="G107" t="n">
-        <v>10161306.51263806</v>
+        <v>10149876.4834</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4538,22 +4704,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>54.8</v>
+        <v>53.4</v>
       </c>
       <c r="C108" t="n">
-        <v>54.8</v>
+        <v>53.3</v>
       </c>
       <c r="D108" t="n">
-        <v>54.8</v>
+        <v>53.4</v>
       </c>
       <c r="E108" t="n">
-        <v>54.8</v>
+        <v>53.3</v>
       </c>
       <c r="F108" t="n">
-        <v>4555.8746</v>
+        <v>21197.363</v>
       </c>
       <c r="G108" t="n">
-        <v>10165862.38723806</v>
+        <v>10128679.1204</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4578,22 +4744,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>54.7</v>
+        <v>53.3</v>
       </c>
       <c r="C109" t="n">
-        <v>54.7</v>
+        <v>53.3</v>
       </c>
       <c r="D109" t="n">
-        <v>54.7</v>
+        <v>53.3</v>
       </c>
       <c r="E109" t="n">
-        <v>54.7</v>
+        <v>53.3</v>
       </c>
       <c r="F109" t="n">
-        <v>10493.0276</v>
+        <v>8185.262</v>
       </c>
       <c r="G109" t="n">
-        <v>10155369.35963807</v>
+        <v>10128679.1204</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4618,22 +4784,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>54.8</v>
+        <v>53.3</v>
       </c>
       <c r="C110" t="n">
-        <v>54.9</v>
+        <v>53.3</v>
       </c>
       <c r="D110" t="n">
-        <v>54.9</v>
+        <v>53.3</v>
       </c>
       <c r="E110" t="n">
-        <v>54.8</v>
+        <v>53.3</v>
       </c>
       <c r="F110" t="n">
-        <v>100317.1562</v>
+        <v>626.3861000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>10255686.51583806</v>
+        <v>10128679.1204</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4658,22 +4824,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="C111" t="n">
-        <v>55</v>
+        <v>52.9</v>
       </c>
       <c r="D111" t="n">
-        <v>55</v>
+        <v>53.2</v>
       </c>
       <c r="E111" t="n">
-        <v>54.4</v>
+        <v>52.9</v>
       </c>
       <c r="F111" t="n">
-        <v>15099.75</v>
+        <v>88526.05349999999</v>
       </c>
       <c r="G111" t="n">
-        <v>10270786.26583806</v>
+        <v>10040153.0669</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4698,22 +4864,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>54.9</v>
+        <v>53.4</v>
       </c>
       <c r="C112" t="n">
-        <v>54.5</v>
+        <v>53.4</v>
       </c>
       <c r="D112" t="n">
-        <v>55</v>
+        <v>53.4</v>
       </c>
       <c r="E112" t="n">
-        <v>54.5</v>
+        <v>53.4</v>
       </c>
       <c r="F112" t="n">
-        <v>21243.2558</v>
+        <v>25</v>
       </c>
       <c r="G112" t="n">
-        <v>10249543.01003806</v>
+        <v>10040178.0669</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4738,22 +4904,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="C113" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="D113" t="n">
-        <v>54.6</v>
+        <v>53.1</v>
       </c>
       <c r="E113" t="n">
-        <v>54.6</v>
+        <v>52.9</v>
       </c>
       <c r="F113" t="n">
-        <v>4646</v>
+        <v>4601.6797</v>
       </c>
       <c r="G113" t="n">
-        <v>10254189.01003806</v>
+        <v>10035576.3872</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4778,22 +4944,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>54.6</v>
+        <v>53</v>
       </c>
       <c r="C114" t="n">
-        <v>54.6</v>
+        <v>53.2</v>
       </c>
       <c r="D114" t="n">
-        <v>54.6</v>
+        <v>53.2</v>
       </c>
       <c r="E114" t="n">
-        <v>54.6</v>
+        <v>53</v>
       </c>
       <c r="F114" t="n">
-        <v>3579.9999</v>
+        <v>30</v>
       </c>
       <c r="G114" t="n">
-        <v>10254189.01003806</v>
+        <v>10035606.3872</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4818,22 +4984,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>54.6</v>
+        <v>53.3</v>
       </c>
       <c r="C115" t="n">
-        <v>54.6</v>
+        <v>53.3</v>
       </c>
       <c r="D115" t="n">
-        <v>54.6</v>
+        <v>53.3</v>
       </c>
       <c r="E115" t="n">
-        <v>54.6</v>
+        <v>53.3</v>
       </c>
       <c r="F115" t="n">
-        <v>299</v>
+        <v>894.4652</v>
       </c>
       <c r="G115" t="n">
-        <v>10254189.01003806</v>
+        <v>10036500.8524</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4858,22 +5024,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>54.6</v>
+        <v>53.2</v>
       </c>
       <c r="C116" t="n">
-        <v>54.6</v>
+        <v>53.1</v>
       </c>
       <c r="D116" t="n">
-        <v>54.6</v>
+        <v>53.4</v>
       </c>
       <c r="E116" t="n">
-        <v>54.6</v>
+        <v>53.1</v>
       </c>
       <c r="F116" t="n">
-        <v>599</v>
+        <v>3035</v>
       </c>
       <c r="G116" t="n">
-        <v>10254189.01003806</v>
+        <v>10033465.8524</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4898,22 +5064,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>54.6</v>
+        <v>53.3</v>
       </c>
       <c r="C117" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D117" t="n">
-        <v>54.6</v>
+        <v>53.5</v>
       </c>
       <c r="E117" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="F117" t="n">
-        <v>6253.7554</v>
+        <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>10247935.25463806</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4938,22 +5104,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>54.6</v>
+        <v>53.5</v>
       </c>
       <c r="C118" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D118" t="n">
-        <v>54.6</v>
+        <v>53.5</v>
       </c>
       <c r="E118" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="F118" t="n">
-        <v>20775.0349</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>10247935.25463806</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4978,22 +5144,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="C119" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D119" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="E119" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="F119" t="n">
-        <v>10466.795</v>
+        <v>122.3121</v>
       </c>
       <c r="G119" t="n">
-        <v>10247935.25463806</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5018,22 +5184,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="C120" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D120" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="E120" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="F120" t="n">
-        <v>588</v>
+        <v>177.3326</v>
       </c>
       <c r="G120" t="n">
-        <v>10247935.25463806</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5058,22 +5224,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="C121" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D121" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="E121" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="F121" t="n">
-        <v>2057.0641</v>
+        <v>19.7869</v>
       </c>
       <c r="G121" t="n">
-        <v>10247935.25463806</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5098,22 +5264,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="C122" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D122" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="E122" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="F122" t="n">
-        <v>17282.9999</v>
+        <v>386.9418</v>
       </c>
       <c r="G122" t="n">
-        <v>10247935.25463806</v>
+        <v>10033476.8524</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5138,22 +5304,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>54.5</v>
+        <v>53.1</v>
       </c>
       <c r="C123" t="n">
-        <v>54.5</v>
+        <v>53.1</v>
       </c>
       <c r="D123" t="n">
-        <v>54.5</v>
+        <v>53.1</v>
       </c>
       <c r="E123" t="n">
-        <v>54.5</v>
+        <v>53.1</v>
       </c>
       <c r="F123" t="n">
-        <v>12972.8316</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>10247935.25463806</v>
+        <v>10033466.8524</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5178,22 +5344,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>54.5</v>
+        <v>53.1</v>
       </c>
       <c r="C124" t="n">
-        <v>54.6</v>
+        <v>53.1</v>
       </c>
       <c r="D124" t="n">
-        <v>54.6</v>
+        <v>53.1</v>
       </c>
       <c r="E124" t="n">
-        <v>54.5</v>
+        <v>53.1</v>
       </c>
       <c r="F124" t="n">
-        <v>4929.16</v>
+        <v>60.7985</v>
       </c>
       <c r="G124" t="n">
-        <v>10252864.41463806</v>
+        <v>10033466.8524</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5218,22 +5384,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>54.7</v>
+        <v>53.1</v>
       </c>
       <c r="C125" t="n">
-        <v>54.8</v>
+        <v>53.1</v>
       </c>
       <c r="D125" t="n">
-        <v>54.8</v>
+        <v>53.1</v>
       </c>
       <c r="E125" t="n">
-        <v>54.7</v>
+        <v>53.1</v>
       </c>
       <c r="F125" t="n">
-        <v>7985.739</v>
+        <v>1164.1468</v>
       </c>
       <c r="G125" t="n">
-        <v>10260850.15363806</v>
+        <v>10033466.8524</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5258,22 +5424,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>54.8</v>
+        <v>53.2</v>
       </c>
       <c r="C126" t="n">
-        <v>54.4</v>
+        <v>53.4</v>
       </c>
       <c r="D126" t="n">
-        <v>54.8</v>
+        <v>53.4</v>
       </c>
       <c r="E126" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="F126" t="n">
-        <v>7876.4416</v>
+        <v>30</v>
       </c>
       <c r="G126" t="n">
-        <v>10252973.71203806</v>
+        <v>10033496.8524</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5298,22 +5464,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="C127" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="D127" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="E127" t="n">
-        <v>54.4</v>
+        <v>53.1</v>
       </c>
       <c r="F127" t="n">
-        <v>8800</v>
+        <v>2041.3363</v>
       </c>
       <c r="G127" t="n">
-        <v>10252973.71203806</v>
+        <v>10031455.5161</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5338,22 +5504,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="C128" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="D128" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="E128" t="n">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="F128" t="n">
-        <v>4506.7466</v>
+        <v>883.11</v>
       </c>
       <c r="G128" t="n">
-        <v>10252973.71203806</v>
+        <v>10031455.5161</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5378,22 +5544,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="C129" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="D129" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="E129" t="n">
-        <v>54.4</v>
+        <v>53.3</v>
       </c>
       <c r="F129" t="n">
-        <v>201.8348</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>10252973.71203806</v>
+        <v>10031465.5161</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5418,22 +5584,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>54.4</v>
+        <v>53.4</v>
       </c>
       <c r="C130" t="n">
-        <v>54.8</v>
+        <v>53.4</v>
       </c>
       <c r="D130" t="n">
-        <v>54.8</v>
+        <v>53.4</v>
       </c>
       <c r="E130" t="n">
-        <v>54.4</v>
+        <v>53.4</v>
       </c>
       <c r="F130" t="n">
-        <v>1689.7032</v>
+        <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>10254663.41523806</v>
+        <v>10031475.5161</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5458,22 +5624,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>54.8</v>
+        <v>53.4</v>
       </c>
       <c r="C131" t="n">
-        <v>54.9</v>
+        <v>53.3</v>
       </c>
       <c r="D131" t="n">
-        <v>54.9</v>
+        <v>53.4</v>
       </c>
       <c r="E131" t="n">
-        <v>54.8</v>
+        <v>53.3</v>
       </c>
       <c r="F131" t="n">
-        <v>8295.824699999999</v>
+        <v>6287.3782</v>
       </c>
       <c r="G131" t="n">
-        <v>10262959.23993806</v>
+        <v>10025188.1379</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5498,22 +5664,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>54.9</v>
+        <v>53.4</v>
       </c>
       <c r="C132" t="n">
-        <v>54.9</v>
+        <v>53.4</v>
       </c>
       <c r="D132" t="n">
-        <v>54.9</v>
+        <v>53.5</v>
       </c>
       <c r="E132" t="n">
-        <v>54.9</v>
+        <v>53.4</v>
       </c>
       <c r="F132" t="n">
-        <v>2000</v>
+        <v>366.8321</v>
       </c>
       <c r="G132" t="n">
-        <v>10262959.23993806</v>
+        <v>10025554.97</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5538,22 +5704,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>54.9</v>
+        <v>53.3</v>
       </c>
       <c r="C133" t="n">
-        <v>54.9</v>
+        <v>53</v>
       </c>
       <c r="D133" t="n">
-        <v>54.9</v>
+        <v>53.3</v>
       </c>
       <c r="E133" t="n">
-        <v>54.9</v>
+        <v>53</v>
       </c>
       <c r="F133" t="n">
-        <v>12360.283</v>
+        <v>27600</v>
       </c>
       <c r="G133" t="n">
-        <v>10262959.23993806</v>
+        <v>9997954.969999997</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5578,22 +5744,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>55.3</v>
+        <v>53.2</v>
       </c>
       <c r="C134" t="n">
-        <v>54.9</v>
+        <v>53.5</v>
       </c>
       <c r="D134" t="n">
-        <v>55.3</v>
+        <v>53.5</v>
       </c>
       <c r="E134" t="n">
-        <v>54.9</v>
+        <v>53.2</v>
       </c>
       <c r="F134" t="n">
-        <v>39081.968</v>
+        <v>1039.0551</v>
       </c>
       <c r="G134" t="n">
-        <v>10262959.23993806</v>
+        <v>9998994.025099996</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5618,22 +5784,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>54.9</v>
+        <v>53.5</v>
       </c>
       <c r="C135" t="n">
-        <v>54.9</v>
+        <v>53.5</v>
       </c>
       <c r="D135" t="n">
-        <v>54.9</v>
+        <v>53.5</v>
       </c>
       <c r="E135" t="n">
-        <v>54.9</v>
+        <v>53.5</v>
       </c>
       <c r="F135" t="n">
-        <v>11038.4615</v>
+        <v>1266.2289</v>
       </c>
       <c r="G135" t="n">
-        <v>10262959.23993806</v>
+        <v>9998994.025099996</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5658,22 +5824,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>55.3</v>
+        <v>53.6</v>
       </c>
       <c r="C136" t="n">
-        <v>54.9</v>
+        <v>54</v>
       </c>
       <c r="D136" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="E136" t="n">
-        <v>54.9</v>
+        <v>53.6</v>
       </c>
       <c r="F136" t="n">
-        <v>32991</v>
+        <v>79837.4519</v>
       </c>
       <c r="G136" t="n">
-        <v>10262959.23993806</v>
+        <v>10078831.477</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5698,22 +5864,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>55.4</v>
+        <v>54.1</v>
       </c>
       <c r="C137" t="n">
-        <v>55.4</v>
+        <v>54.1</v>
       </c>
       <c r="D137" t="n">
-        <v>55.4</v>
+        <v>54.1</v>
       </c>
       <c r="E137" t="n">
-        <v>55.4</v>
+        <v>54.1</v>
       </c>
       <c r="F137" t="n">
-        <v>1570.722</v>
+        <v>13107.3789</v>
       </c>
       <c r="G137" t="n">
-        <v>10264529.96193806</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5738,22 +5904,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>55</v>
+        <v>54.1</v>
       </c>
       <c r="C138" t="n">
-        <v>55</v>
+        <v>54.1</v>
       </c>
       <c r="D138" t="n">
-        <v>55</v>
+        <v>54.1</v>
       </c>
       <c r="E138" t="n">
-        <v>55</v>
+        <v>54.1</v>
       </c>
       <c r="F138" t="n">
-        <v>316.1696</v>
+        <v>4597</v>
       </c>
       <c r="G138" t="n">
-        <v>10264213.79233806</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5778,22 +5944,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>55</v>
+        <v>54.4</v>
       </c>
       <c r="C139" t="n">
-        <v>55</v>
+        <v>54.1</v>
       </c>
       <c r="D139" t="n">
-        <v>55</v>
+        <v>54.4</v>
       </c>
       <c r="E139" t="n">
-        <v>55</v>
+        <v>54.1</v>
       </c>
       <c r="F139" t="n">
-        <v>515.7806</v>
+        <v>985.2085</v>
       </c>
       <c r="G139" t="n">
-        <v>10264213.79233806</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5818,22 +5984,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>55.3</v>
+        <v>54.1</v>
       </c>
       <c r="C140" t="n">
-        <v>55.3</v>
+        <v>54.1</v>
       </c>
       <c r="D140" t="n">
-        <v>55.3</v>
+        <v>54.1</v>
       </c>
       <c r="E140" t="n">
-        <v>55.3</v>
+        <v>54.1</v>
       </c>
       <c r="F140" t="n">
-        <v>1420.1989</v>
+        <v>1216.5857</v>
       </c>
       <c r="G140" t="n">
-        <v>10265633.99123806</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5858,22 +6024,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>55.3</v>
+        <v>54.1</v>
       </c>
       <c r="C141" t="n">
-        <v>55.3</v>
+        <v>54.1</v>
       </c>
       <c r="D141" t="n">
-        <v>55.3</v>
+        <v>54.1</v>
       </c>
       <c r="E141" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="F141" t="n">
-        <v>539.5158</v>
+        <v>32258.5733</v>
       </c>
       <c r="G141" t="n">
-        <v>10265633.99123806</v>
+        <v>10091938.8559</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5898,22 +6064,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="C142" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D142" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="E142" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F142" t="n">
-        <v>11060.2363</v>
+        <v>155.614</v>
       </c>
       <c r="G142" t="n">
-        <v>10254573.75493806</v>
+        <v>10091783.2419</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5938,22 +6104,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="C143" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="D143" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="E143" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="F143" t="n">
-        <v>999.9999</v>
+        <v>1364.9259</v>
       </c>
       <c r="G143" t="n">
-        <v>10255573.75483806</v>
+        <v>10091783.2419</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5978,22 +6144,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="C144" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="D144" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="E144" t="n">
-        <v>55.3</v>
+        <v>54.4</v>
       </c>
       <c r="F144" t="n">
-        <v>732</v>
+        <v>25.5241</v>
       </c>
       <c r="G144" t="n">
-        <v>10255573.75483806</v>
+        <v>10091808.766</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6018,22 +6184,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="C145" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="D145" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="E145" t="n">
-        <v>55.3</v>
+        <v>54</v>
       </c>
       <c r="F145" t="n">
-        <v>1054</v>
+        <v>581.8891</v>
       </c>
       <c r="G145" t="n">
-        <v>10255573.75483806</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6058,22 +6224,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C146" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D146" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E146" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F146" t="n">
-        <v>24.3651</v>
+        <v>11363.4874</v>
       </c>
       <c r="G146" t="n">
-        <v>10255549.38973806</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6098,22 +6264,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="C147" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="D147" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="E147" t="n">
-        <v>55.2</v>
+        <v>54</v>
       </c>
       <c r="F147" t="n">
-        <v>17426.50137729</v>
+        <v>22951.3344</v>
       </c>
       <c r="G147" t="n">
-        <v>10272975.89111535</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6138,22 +6304,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>55.5</v>
+        <v>54.3</v>
       </c>
       <c r="C148" t="n">
-        <v>55.8</v>
+        <v>54</v>
       </c>
       <c r="D148" t="n">
-        <v>55.8</v>
+        <v>54.5</v>
       </c>
       <c r="E148" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="F148" t="n">
-        <v>5741.80966751</v>
+        <v>19837.9335</v>
       </c>
       <c r="G148" t="n">
-        <v>10278717.70078286</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6178,22 +6344,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="C149" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="D149" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="E149" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="F149" t="n">
-        <v>4006.3603</v>
+        <v>509.3832</v>
       </c>
       <c r="G149" t="n">
-        <v>10274711.34048286</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6218,22 +6384,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="C150" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="D150" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="E150" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="F150" t="n">
-        <v>7.729e-05</v>
+        <v>949.7446</v>
       </c>
       <c r="G150" t="n">
-        <v>10274711.34048286</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6258,22 +6424,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>55.5</v>
+        <v>54.1</v>
       </c>
       <c r="C151" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="D151" t="n">
-        <v>55.5</v>
+        <v>54.1</v>
       </c>
       <c r="E151" t="n">
-        <v>55.5</v>
+        <v>54</v>
       </c>
       <c r="F151" t="n">
-        <v>30251.7251</v>
+        <v>4190.2432</v>
       </c>
       <c r="G151" t="n">
-        <v>10274711.34048286</v>
+        <v>10091226.8769</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6298,22 +6464,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>55.5</v>
+        <v>53.9</v>
       </c>
       <c r="C152" t="n">
-        <v>55.5</v>
+        <v>53.9</v>
       </c>
       <c r="D152" t="n">
-        <v>55.5</v>
+        <v>53.9</v>
       </c>
       <c r="E152" t="n">
-        <v>55.5</v>
+        <v>53.9</v>
       </c>
       <c r="F152" t="n">
-        <v>3738.1259</v>
+        <v>16441.3651</v>
       </c>
       <c r="G152" t="n">
-        <v>10274711.34048286</v>
+        <v>10074785.5118</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6338,22 +6504,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>55.8</v>
+        <v>53.9</v>
       </c>
       <c r="C153" t="n">
-        <v>55.8</v>
+        <v>53.9</v>
       </c>
       <c r="D153" t="n">
-        <v>55.8</v>
+        <v>53.9</v>
       </c>
       <c r="E153" t="n">
-        <v>55.8</v>
+        <v>53.9</v>
       </c>
       <c r="F153" t="n">
-        <v>38685.9677</v>
+        <v>293.5102</v>
       </c>
       <c r="G153" t="n">
-        <v>10313397.30818286</v>
+        <v>10074785.5118</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6378,22 +6544,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>55.8</v>
+        <v>54</v>
       </c>
       <c r="C154" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D154" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E154" t="n">
-        <v>55.8</v>
+        <v>54</v>
       </c>
       <c r="F154" t="n">
-        <v>85727.2420552</v>
+        <v>5419.1616</v>
       </c>
       <c r="G154" t="n">
-        <v>10399124.55023806</v>
+        <v>10080204.6734</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6418,22 +6584,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>55.9</v>
+        <v>54</v>
       </c>
       <c r="C155" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D155" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E155" t="n">
-        <v>55.8</v>
+        <v>54</v>
       </c>
       <c r="F155" t="n">
-        <v>22534.3392</v>
+        <v>985.4357</v>
       </c>
       <c r="G155" t="n">
-        <v>10399124.55023806</v>
+        <v>10080204.6734</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6458,22 +6624,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C156" t="n">
-        <v>56.3</v>
+        <v>54</v>
       </c>
       <c r="D156" t="n">
-        <v>56.3</v>
+        <v>54</v>
       </c>
       <c r="E156" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F156" t="n">
-        <v>64599.5989</v>
+        <v>2141.388</v>
       </c>
       <c r="G156" t="n">
-        <v>10463724.14913806</v>
+        <v>10080204.6734</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6498,22 +6664,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>56.3</v>
+        <v>54.1</v>
       </c>
       <c r="C157" t="n">
-        <v>56.8</v>
+        <v>54.1</v>
       </c>
       <c r="D157" t="n">
-        <v>56.8</v>
+        <v>54.1</v>
       </c>
       <c r="E157" t="n">
-        <v>56.1</v>
+        <v>54.1</v>
       </c>
       <c r="F157" t="n">
-        <v>25459.0457</v>
+        <v>14600.0146</v>
       </c>
       <c r="G157" t="n">
-        <v>10489183.19483806</v>
+        <v>10094804.688</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6538,37 +6704,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>56.8</v>
+        <v>54</v>
       </c>
       <c r="C158" t="n">
-        <v>56.8</v>
+        <v>53.9</v>
       </c>
       <c r="D158" t="n">
-        <v>56.8</v>
+        <v>54</v>
       </c>
       <c r="E158" t="n">
-        <v>56.8</v>
+        <v>53.9</v>
       </c>
       <c r="F158" t="n">
-        <v>19345.1935</v>
+        <v>31607.8466</v>
       </c>
       <c r="G158" t="n">
-        <v>10489183.19483806</v>
+        <v>10063196.8414</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
       <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -6576,32 +6744,36 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>56.1</v>
+        <v>53.9</v>
       </c>
       <c r="C159" t="n">
-        <v>55.8</v>
+        <v>54.1</v>
       </c>
       <c r="D159" t="n">
-        <v>56.8</v>
+        <v>54.1</v>
       </c>
       <c r="E159" t="n">
-        <v>55.6</v>
+        <v>53.9</v>
       </c>
       <c r="F159" t="n">
-        <v>71960.4039</v>
+        <v>50965.04063807</v>
       </c>
       <c r="G159" t="n">
-        <v>10417222.79093806</v>
+        <v>10114161.88203807</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6612,32 +6784,36 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>55.8</v>
+        <v>54.1</v>
       </c>
       <c r="C160" t="n">
-        <v>55.6</v>
+        <v>54.1</v>
       </c>
       <c r="D160" t="n">
-        <v>55.8</v>
+        <v>54.1</v>
       </c>
       <c r="E160" t="n">
-        <v>55.6</v>
+        <v>54.1</v>
       </c>
       <c r="F160" t="n">
-        <v>13375</v>
+        <v>37636.58136193</v>
       </c>
       <c r="G160" t="n">
-        <v>10403847.79093806</v>
+        <v>10114161.88203807</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6648,32 +6824,36 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>55.9</v>
+        <v>54.2</v>
       </c>
       <c r="C161" t="n">
-        <v>56.1</v>
+        <v>54.2</v>
       </c>
       <c r="D161" t="n">
-        <v>56.1</v>
+        <v>54.2</v>
       </c>
       <c r="E161" t="n">
-        <v>55.6</v>
+        <v>54.2</v>
       </c>
       <c r="F161" t="n">
-        <v>12120.2954</v>
+        <v>36233.5793</v>
       </c>
       <c r="G161" t="n">
-        <v>10415968.08633806</v>
+        <v>10150395.46133807</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6684,32 +6864,36 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>56.1</v>
+        <v>54.1</v>
       </c>
       <c r="C162" t="n">
-        <v>56.1</v>
+        <v>54.1</v>
       </c>
       <c r="D162" t="n">
-        <v>56.1</v>
+        <v>54.1</v>
       </c>
       <c r="E162" t="n">
-        <v>56.1</v>
+        <v>54.1</v>
       </c>
       <c r="F162" t="n">
-        <v>5926.1348</v>
+        <v>14539.6903</v>
       </c>
       <c r="G162" t="n">
-        <v>10415968.08633806</v>
+        <v>10135855.77103806</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6720,32 +6904,36 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>56.7</v>
+        <v>54.1</v>
       </c>
       <c r="C163" t="n">
-        <v>56.8</v>
+        <v>54.1</v>
       </c>
       <c r="D163" t="n">
-        <v>56.8</v>
+        <v>54.1</v>
       </c>
       <c r="E163" t="n">
-        <v>56.7</v>
+        <v>54.1</v>
       </c>
       <c r="F163" t="n">
-        <v>5907.7288</v>
+        <v>4720.1212</v>
       </c>
       <c r="G163" t="n">
-        <v>10421875.81513806</v>
+        <v>10135855.77103806</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6756,32 +6944,36 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>56.1</v>
+        <v>53.9</v>
       </c>
       <c r="C164" t="n">
-        <v>56.1</v>
+        <v>53.9</v>
       </c>
       <c r="D164" t="n">
-        <v>56.1</v>
+        <v>53.9</v>
       </c>
       <c r="E164" t="n">
-        <v>56.1</v>
+        <v>53.9</v>
       </c>
       <c r="F164" t="n">
-        <v>246</v>
+        <v>355.0319</v>
       </c>
       <c r="G164" t="n">
-        <v>10421629.81513806</v>
+        <v>10135500.73913806</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6792,32 +6984,36 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>56.1</v>
+        <v>53.9</v>
       </c>
       <c r="C165" t="n">
-        <v>56.1</v>
+        <v>53.8</v>
       </c>
       <c r="D165" t="n">
-        <v>56.1</v>
+        <v>53.9</v>
       </c>
       <c r="E165" t="n">
-        <v>56.1</v>
+        <v>53.8</v>
       </c>
       <c r="F165" t="n">
-        <v>5304.187</v>
+        <v>7369.0591</v>
       </c>
       <c r="G165" t="n">
-        <v>10421629.81513806</v>
+        <v>10128131.68003806</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6828,32 +7024,36 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>56.1</v>
+        <v>54</v>
       </c>
       <c r="C166" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D166" t="n">
-        <v>56.1</v>
+        <v>54</v>
       </c>
       <c r="E166" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F166" t="n">
-        <v>6175.452</v>
+        <v>473.3759</v>
       </c>
       <c r="G166" t="n">
-        <v>10415454.36313806</v>
+        <v>10128605.05593807</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6864,32 +7064,36 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>56.1</v>
+        <v>54</v>
       </c>
       <c r="C167" t="n">
-        <v>56.1</v>
+        <v>54.1</v>
       </c>
       <c r="D167" t="n">
-        <v>56.1</v>
+        <v>54.1</v>
       </c>
       <c r="E167" t="n">
-        <v>56.1</v>
+        <v>54</v>
       </c>
       <c r="F167" t="n">
-        <v>1489.1452</v>
+        <v>22409.8089</v>
       </c>
       <c r="G167" t="n">
-        <v>10416943.50833806</v>
+        <v>10151014.86483807</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6900,32 +7104,36 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>56</v>
+        <v>53.8</v>
       </c>
       <c r="C168" t="n">
-        <v>55.8</v>
+        <v>53.8</v>
       </c>
       <c r="D168" t="n">
-        <v>56</v>
+        <v>53.8</v>
       </c>
       <c r="E168" t="n">
-        <v>55.8</v>
+        <v>53.8</v>
       </c>
       <c r="F168" t="n">
-        <v>5892.9594</v>
+        <v>62674.9887</v>
       </c>
       <c r="G168" t="n">
-        <v>10411050.54893806</v>
+        <v>10088339.87613807</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6936,32 +7144,36 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>56</v>
+        <v>53.6</v>
       </c>
       <c r="C169" t="n">
-        <v>55.8</v>
+        <v>53.7</v>
       </c>
       <c r="D169" t="n">
-        <v>56.6</v>
+        <v>53.7</v>
       </c>
       <c r="E169" t="n">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
       <c r="F169" t="n">
-        <v>34620.0857</v>
+        <v>15780.4857</v>
       </c>
       <c r="G169" t="n">
-        <v>10411050.54893806</v>
+        <v>10072559.39043806</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6972,32 +7184,36 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>55.6</v>
+        <v>53.7</v>
       </c>
       <c r="C170" t="n">
-        <v>54.8</v>
+        <v>53.7</v>
       </c>
       <c r="D170" t="n">
-        <v>55.6</v>
+        <v>53.7</v>
       </c>
       <c r="E170" t="n">
-        <v>54.8</v>
+        <v>53.7</v>
       </c>
       <c r="F170" t="n">
-        <v>18623</v>
+        <v>6851.6009</v>
       </c>
       <c r="G170" t="n">
-        <v>10392427.54893806</v>
+        <v>10072559.39043806</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7008,32 +7224,36 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>55.1</v>
+        <v>53.7</v>
       </c>
       <c r="C171" t="n">
-        <v>55.1</v>
+        <v>53.7</v>
       </c>
       <c r="D171" t="n">
-        <v>55.1</v>
+        <v>53.7</v>
       </c>
       <c r="E171" t="n">
-        <v>55.1</v>
+        <v>53.7</v>
       </c>
       <c r="F171" t="n">
-        <v>617.6202</v>
+        <v>988</v>
       </c>
       <c r="G171" t="n">
-        <v>10393045.16913806</v>
+        <v>10072559.39043806</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7044,32 +7264,36 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>55</v>
+        <v>53.7</v>
       </c>
       <c r="C172" t="n">
-        <v>55</v>
+        <v>53.7</v>
       </c>
       <c r="D172" t="n">
-        <v>55</v>
+        <v>53.7</v>
       </c>
       <c r="E172" t="n">
-        <v>55</v>
+        <v>53.7</v>
       </c>
       <c r="F172" t="n">
-        <v>8235.332399999999</v>
+        <v>2621.9865</v>
       </c>
       <c r="G172" t="n">
-        <v>10384809.83673806</v>
+        <v>10072559.39043806</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7080,32 +7304,36 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>54.9</v>
+        <v>53.6</v>
       </c>
       <c r="C173" t="n">
-        <v>54.9</v>
+        <v>53.6</v>
       </c>
       <c r="D173" t="n">
-        <v>55</v>
+        <v>53.6</v>
       </c>
       <c r="E173" t="n">
-        <v>54.9</v>
+        <v>53.6</v>
       </c>
       <c r="F173" t="n">
-        <v>12657.6053</v>
+        <v>7707.869</v>
       </c>
       <c r="G173" t="n">
-        <v>10372152.23143806</v>
+        <v>10064851.52143806</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7116,32 +7344,36 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>55</v>
+        <v>53.8</v>
       </c>
       <c r="C174" t="n">
-        <v>55</v>
+        <v>53.8</v>
       </c>
       <c r="D174" t="n">
-        <v>55</v>
+        <v>53.8</v>
       </c>
       <c r="E174" t="n">
-        <v>55</v>
+        <v>53.8</v>
       </c>
       <c r="F174" t="n">
-        <v>1102.4449</v>
+        <v>7392.6482</v>
       </c>
       <c r="G174" t="n">
-        <v>10373254.67633806</v>
+        <v>10072244.16963806</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7152,22 +7384,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>54.9</v>
+        <v>53.8</v>
       </c>
       <c r="C175" t="n">
-        <v>54.9</v>
+        <v>53.8</v>
       </c>
       <c r="D175" t="n">
-        <v>54.9</v>
+        <v>53.8</v>
       </c>
       <c r="E175" t="n">
-        <v>54.9</v>
+        <v>53.8</v>
       </c>
       <c r="F175" t="n">
-        <v>8300</v>
+        <v>762.3363000000001</v>
       </c>
       <c r="G175" t="n">
-        <v>10364954.67633806</v>
+        <v>10072244.16963806</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7177,7 +7409,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7188,32 +7424,36 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>54.9</v>
+        <v>54.1</v>
       </c>
       <c r="C176" t="n">
-        <v>54.7</v>
+        <v>54.1</v>
       </c>
       <c r="D176" t="n">
-        <v>54.9</v>
+        <v>54.1</v>
       </c>
       <c r="E176" t="n">
-        <v>54.7</v>
+        <v>54.1</v>
       </c>
       <c r="F176" t="n">
-        <v>591.6552</v>
+        <v>5123.0981</v>
       </c>
       <c r="G176" t="n">
-        <v>10364363.02113806</v>
+        <v>10077367.26773806</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7224,22 +7464,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>54.7</v>
+        <v>54.4</v>
       </c>
       <c r="C177" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="D177" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="E177" t="n">
-        <v>54.7</v>
+        <v>54.4</v>
       </c>
       <c r="F177" t="n">
-        <v>20317.3903</v>
+        <v>53062.0819</v>
       </c>
       <c r="G177" t="n">
-        <v>10364363.02113806</v>
+        <v>10130429.34963806</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7249,7 +7489,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7260,22 +7504,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="C178" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="D178" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="E178" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="F178" t="n">
-        <v>1971</v>
+        <v>30877.163</v>
       </c>
       <c r="G178" t="n">
-        <v>10366334.02113806</v>
+        <v>10161306.51263806</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7285,7 +7529,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7308,10 +7556,10 @@
         <v>54.8</v>
       </c>
       <c r="F179" t="n">
-        <v>29990.7676</v>
+        <v>4555.8746</v>
       </c>
       <c r="G179" t="n">
-        <v>10366334.02113806</v>
+        <v>10165862.38723806</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7321,7 +7569,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7332,22 +7584,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C180" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="D180" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="E180" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="F180" t="n">
-        <v>16461.7224</v>
+        <v>10493.0276</v>
       </c>
       <c r="G180" t="n">
-        <v>10366334.02113806</v>
+        <v>10155369.35963807</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7357,7 +7609,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7371,19 +7627,19 @@
         <v>54.8</v>
       </c>
       <c r="C181" t="n">
-        <v>56.1</v>
+        <v>54.9</v>
       </c>
       <c r="D181" t="n">
-        <v>56.1</v>
+        <v>54.9</v>
       </c>
       <c r="E181" t="n">
         <v>54.8</v>
       </c>
       <c r="F181" t="n">
-        <v>10984.635</v>
+        <v>100317.1562</v>
       </c>
       <c r="G181" t="n">
-        <v>10377318.65613806</v>
+        <v>10255686.51583806</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7393,7 +7649,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7404,22 +7664,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C182" t="n">
         <v>55</v>
-      </c>
-      <c r="C182" t="n">
-        <v>54.9</v>
       </c>
       <c r="D182" t="n">
         <v>55</v>
       </c>
       <c r="E182" t="n">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="F182" t="n">
-        <v>12471.6507</v>
+        <v>15099.75</v>
       </c>
       <c r="G182" t="n">
-        <v>10364847.00543806</v>
+        <v>10270786.26583806</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7429,7 +7689,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7440,22 +7704,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="C183" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="D183" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="E183" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="F183" t="n">
-        <v>3614.395</v>
+        <v>21243.2558</v>
       </c>
       <c r="G183" t="n">
-        <v>10368461.40043806</v>
+        <v>10249543.01003806</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7465,7 +7729,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7476,22 +7744,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
       <c r="C184" t="n">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
       <c r="D184" t="n">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
       <c r="E184" t="n">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
       <c r="F184" t="n">
-        <v>9195.046899999999</v>
+        <v>4646</v>
       </c>
       <c r="G184" t="n">
-        <v>10368461.40043806</v>
+        <v>10254189.01003806</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7501,7 +7769,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7512,22 +7784,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
       <c r="C185" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="D185" t="n">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
       <c r="E185" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="F185" t="n">
-        <v>17965.8528</v>
+        <v>3579.9999</v>
       </c>
       <c r="G185" t="n">
-        <v>10350495.54763806</v>
+        <v>10254189.01003806</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7537,7 +7809,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7560,10 +7836,10 @@
         <v>54.6</v>
       </c>
       <c r="F186" t="n">
-        <v>2768.6902</v>
+        <v>299</v>
       </c>
       <c r="G186" t="n">
-        <v>10347726.85743806</v>
+        <v>10254189.01003806</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7573,7 +7849,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7596,10 +7876,10 @@
         <v>54.6</v>
       </c>
       <c r="F187" t="n">
-        <v>11800</v>
+        <v>599</v>
       </c>
       <c r="G187" t="n">
-        <v>10347726.85743806</v>
+        <v>10254189.01003806</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7609,7 +7889,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7623,19 +7907,19 @@
         <v>54.6</v>
       </c>
       <c r="C188" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="D188" t="n">
         <v>54.6</v>
       </c>
-      <c r="D188" t="n">
-        <v>55.8</v>
-      </c>
       <c r="E188" t="n">
-        <v>54.6</v>
+        <v>54.4</v>
       </c>
       <c r="F188" t="n">
-        <v>6709.5992</v>
+        <v>6253.7554</v>
       </c>
       <c r="G188" t="n">
-        <v>10347726.85743806</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7645,7 +7929,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7656,22 +7944,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C189" t="n">
         <v>54.5</v>
       </c>
-      <c r="C189" t="n">
-        <v>55.5</v>
-      </c>
       <c r="D189" t="n">
-        <v>55.5</v>
+        <v>54.6</v>
       </c>
       <c r="E189" t="n">
         <v>54.5</v>
       </c>
       <c r="F189" t="n">
-        <v>2881.8974009</v>
+        <v>20775.0349</v>
       </c>
       <c r="G189" t="n">
-        <v>10350608.75483896</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7681,7 +7969,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7692,22 +7984,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="C190" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="D190" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="E190" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="F190" t="n">
-        <v>8992.805700000001</v>
+        <v>10466.795</v>
       </c>
       <c r="G190" t="n">
-        <v>10359601.56053896</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7717,7 +8009,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7728,22 +8024,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="C191" t="n">
-        <v>56</v>
+        <v>54.5</v>
       </c>
       <c r="D191" t="n">
-        <v>56</v>
+        <v>54.5</v>
       </c>
       <c r="E191" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="F191" t="n">
-        <v>3595.77582285</v>
+        <v>588</v>
       </c>
       <c r="G191" t="n">
-        <v>10363197.33636181</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7753,7 +8049,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7764,22 +8064,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="C192" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="D192" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="E192" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="F192" t="n">
-        <v>6898.3812</v>
+        <v>2057.0641</v>
       </c>
       <c r="G192" t="n">
-        <v>10356298.95516181</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7789,7 +8089,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7800,32 +8104,36 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="C193" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="D193" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="E193" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>17282.9999</v>
       </c>
       <c r="G193" t="n">
-        <v>10356299.95516181</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7836,32 +8144,36 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="C194" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="D194" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="E194" t="n">
-        <v>55.1</v>
+        <v>54.5</v>
       </c>
       <c r="F194" t="n">
-        <v>1999</v>
+        <v>12972.8316</v>
       </c>
       <c r="G194" t="n">
-        <v>10354300.95516181</v>
+        <v>10247935.25463806</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7872,32 +8184,36 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="C195" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="D195" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="E195" t="n">
-        <v>55.6</v>
+        <v>54.5</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>4929.16</v>
       </c>
       <c r="G195" t="n">
-        <v>10354301.95516181</v>
+        <v>10252864.41463806</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7908,32 +8224,36 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>55.1</v>
+        <v>54.7</v>
       </c>
       <c r="C196" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="D196" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="E196" t="n">
-        <v>55.1</v>
+        <v>54.7</v>
       </c>
       <c r="F196" t="n">
-        <v>1420.1989</v>
+        <v>7985.739</v>
       </c>
       <c r="G196" t="n">
-        <v>10352881.75626181</v>
+        <v>10260850.15363806</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7944,32 +8264,36 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="C197" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="D197" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="E197" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="F197" t="n">
-        <v>838.9999</v>
+        <v>7876.4416</v>
       </c>
       <c r="G197" t="n">
-        <v>10352881.75626181</v>
+        <v>10252973.71203806</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7980,32 +8304,36 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="C198" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="D198" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="E198" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="F198" t="n">
-        <v>788</v>
+        <v>8800</v>
       </c>
       <c r="G198" t="n">
-        <v>10352881.75626181</v>
+        <v>10252973.71203806</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8016,32 +8344,36 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="C199" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="D199" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="E199" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="F199" t="n">
-        <v>80</v>
+        <v>4506.7466</v>
       </c>
       <c r="G199" t="n">
-        <v>10352881.75626181</v>
+        <v>10252973.71203806</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8052,32 +8384,36 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>55.6</v>
+        <v>54.4</v>
       </c>
       <c r="C200" t="n">
-        <v>55.6</v>
+        <v>54.4</v>
       </c>
       <c r="D200" t="n">
-        <v>55.6</v>
+        <v>54.4</v>
       </c>
       <c r="E200" t="n">
-        <v>55.6</v>
+        <v>54.4</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>201.8348</v>
       </c>
       <c r="G200" t="n">
-        <v>10352882.75626181</v>
+        <v>10252973.71203806</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8088,36 +8424,2626 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>55.6</v>
+        <v>54.4</v>
       </c>
       <c r="C201" t="n">
-        <v>55.1</v>
+        <v>54.8</v>
       </c>
       <c r="D201" t="n">
-        <v>55.6</v>
+        <v>54.8</v>
       </c>
       <c r="E201" t="n">
-        <v>55.1</v>
+        <v>54.4</v>
       </c>
       <c r="F201" t="n">
-        <v>60305.8642</v>
+        <v>1689.7032</v>
       </c>
       <c r="G201" t="n">
-        <v>10292576.89206181</v>
+        <v>10254663.41523806</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
       <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C202" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F202" t="n">
+        <v>8295.824699999999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>10262959.23993806</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>10262959.23993806</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C204" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D204" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E204" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F204" t="n">
+        <v>12360.283</v>
+      </c>
+      <c r="G204" t="n">
+        <v>10262959.23993806</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D205" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F205" t="n">
+        <v>39081.968</v>
+      </c>
+      <c r="G205" t="n">
+        <v>10262959.23993806</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C206" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D206" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E206" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F206" t="n">
+        <v>11038.4615</v>
+      </c>
+      <c r="G206" t="n">
+        <v>10262959.23993806</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C207" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D207" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E207" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F207" t="n">
+        <v>32991</v>
+      </c>
+      <c r="G207" t="n">
+        <v>10262959.23993806</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1570.722</v>
+      </c>
+      <c r="G208" t="n">
+        <v>10264529.96193806</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>55</v>
+      </c>
+      <c r="C209" t="n">
+        <v>55</v>
+      </c>
+      <c r="D209" t="n">
+        <v>55</v>
+      </c>
+      <c r="E209" t="n">
+        <v>55</v>
+      </c>
+      <c r="F209" t="n">
+        <v>316.1696</v>
+      </c>
+      <c r="G209" t="n">
+        <v>10264213.79233806</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>55</v>
+      </c>
+      <c r="C210" t="n">
+        <v>55</v>
+      </c>
+      <c r="D210" t="n">
+        <v>55</v>
+      </c>
+      <c r="E210" t="n">
+        <v>55</v>
+      </c>
+      <c r="F210" t="n">
+        <v>515.7806</v>
+      </c>
+      <c r="G210" t="n">
+        <v>10264213.79233806</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C211" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D211" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E211" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1420.1989</v>
+      </c>
+      <c r="G211" t="n">
+        <v>10265633.99123806</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C212" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D212" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>539.5158</v>
+      </c>
+      <c r="G212" t="n">
+        <v>10265633.99123806</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>55</v>
+      </c>
+      <c r="D213" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>55</v>
+      </c>
+      <c r="F213" t="n">
+        <v>11060.2363</v>
+      </c>
+      <c r="G213" t="n">
+        <v>10254573.75493806</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D214" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E214" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>999.9999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>10255573.75483806</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C215" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E215" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F215" t="n">
+        <v>732</v>
+      </c>
+      <c r="G215" t="n">
+        <v>10255573.75483806</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1054</v>
+      </c>
+      <c r="G216" t="n">
+        <v>10255573.75483806</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>55</v>
+      </c>
+      <c r="C217" t="n">
+        <v>55</v>
+      </c>
+      <c r="D217" t="n">
+        <v>55</v>
+      </c>
+      <c r="E217" t="n">
+        <v>55</v>
+      </c>
+      <c r="F217" t="n">
+        <v>24.3651</v>
+      </c>
+      <c r="G217" t="n">
+        <v>10255549.38973806</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C218" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>17426.50137729</v>
+      </c>
+      <c r="G218" t="n">
+        <v>10272975.89111535</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C219" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D219" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E219" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5741.80966751</v>
+      </c>
+      <c r="G219" t="n">
+        <v>10278717.70078286</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C220" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E220" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4006.3603</v>
+      </c>
+      <c r="G220" t="n">
+        <v>10274711.34048286</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7.729e-05</v>
+      </c>
+      <c r="G221" t="n">
+        <v>10274711.34048286</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C222" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E222" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F222" t="n">
+        <v>30251.7251</v>
+      </c>
+      <c r="G222" t="n">
+        <v>10274711.34048286</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C223" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3738.1259</v>
+      </c>
+      <c r="G223" t="n">
+        <v>10274711.34048286</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="C224" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D224" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E224" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="F224" t="n">
+        <v>38685.9677</v>
+      </c>
+      <c r="G224" t="n">
+        <v>10313397.30818286</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="C225" t="n">
+        <v>56</v>
+      </c>
+      <c r="D225" t="n">
+        <v>56</v>
+      </c>
+      <c r="E225" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="F225" t="n">
+        <v>85727.2420552</v>
+      </c>
+      <c r="G225" t="n">
+        <v>10399124.55023806</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>56</v>
+      </c>
+      <c r="D226" t="n">
+        <v>56</v>
+      </c>
+      <c r="E226" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="F226" t="n">
+        <v>22534.3392</v>
+      </c>
+      <c r="G226" t="n">
+        <v>10399124.55023806</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>56</v>
+      </c>
+      <c r="C227" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>56</v>
+      </c>
+      <c r="F227" t="n">
+        <v>64599.5989</v>
+      </c>
+      <c r="G227" t="n">
+        <v>10463724.14913806</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C228" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="D228" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E228" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>25459.0457</v>
+      </c>
+      <c r="G228" t="n">
+        <v>10489183.19483806</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C229" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="D229" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E229" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F229" t="n">
+        <v>19345.1935</v>
+      </c>
+      <c r="G229" t="n">
+        <v>10489183.19483806</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D230" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E230" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F230" t="n">
+        <v>71960.4039</v>
+      </c>
+      <c r="G230" t="n">
+        <v>10417222.79093806</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="C231" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E231" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F231" t="n">
+        <v>13375</v>
+      </c>
+      <c r="G231" t="n">
+        <v>10403847.79093806</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C232" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F232" t="n">
+        <v>12120.2954</v>
+      </c>
+      <c r="G232" t="n">
+        <v>10415968.08633806</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>5926.1348</v>
+      </c>
+      <c r="G233" t="n">
+        <v>10415968.08633806</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C234" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="D234" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E234" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F234" t="n">
+        <v>5907.7288</v>
+      </c>
+      <c r="G234" t="n">
+        <v>10421875.81513806</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E235" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>246</v>
+      </c>
+      <c r="G235" t="n">
+        <v>10421629.81513806</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F236" t="n">
+        <v>5304.187</v>
+      </c>
+      <c r="G236" t="n">
+        <v>10421629.81513806</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>56</v>
+      </c>
+      <c r="D237" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>56</v>
+      </c>
+      <c r="F237" t="n">
+        <v>6175.452</v>
+      </c>
+      <c r="G237" t="n">
+        <v>10415454.36313806</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1489.1452</v>
+      </c>
+      <c r="G238" t="n">
+        <v>10416943.50833806</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>56</v>
+      </c>
+      <c r="C239" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>56</v>
+      </c>
+      <c r="E239" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>5892.9594</v>
+      </c>
+      <c r="G239" t="n">
+        <v>10411050.54893806</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>56</v>
+      </c>
+      <c r="C240" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E240" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="F240" t="n">
+        <v>34620.0857</v>
+      </c>
+      <c r="G240" t="n">
+        <v>10411050.54893806</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C241" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E241" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>18623</v>
+      </c>
+      <c r="G241" t="n">
+        <v>10392427.54893806</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>617.6202</v>
+      </c>
+      <c r="G242" t="n">
+        <v>10393045.16913806</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>55</v>
+      </c>
+      <c r="C243" t="n">
+        <v>55</v>
+      </c>
+      <c r="D243" t="n">
+        <v>55</v>
+      </c>
+      <c r="E243" t="n">
+        <v>55</v>
+      </c>
+      <c r="F243" t="n">
+        <v>8235.332399999999</v>
+      </c>
+      <c r="G243" t="n">
+        <v>10384809.83673806</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D244" t="n">
+        <v>55</v>
+      </c>
+      <c r="E244" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F244" t="n">
+        <v>12657.6053</v>
+      </c>
+      <c r="G244" t="n">
+        <v>10372152.23143806</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>55</v>
+      </c>
+      <c r="C245" t="n">
+        <v>55</v>
+      </c>
+      <c r="D245" t="n">
+        <v>55</v>
+      </c>
+      <c r="E245" t="n">
+        <v>55</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1102.4449</v>
+      </c>
+      <c r="G245" t="n">
+        <v>10373254.67633806</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D246" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E246" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F246" t="n">
+        <v>8300</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10364954.67633806</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C247" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D247" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E247" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F247" t="n">
+        <v>591.6552</v>
+      </c>
+      <c r="G247" t="n">
+        <v>10364363.02113806</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C248" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D248" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E248" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F248" t="n">
+        <v>20317.3903</v>
+      </c>
+      <c r="G248" t="n">
+        <v>10364363.02113806</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C249" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D249" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E249" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1971</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10366334.02113806</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C250" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D250" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E250" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F250" t="n">
+        <v>29990.7676</v>
+      </c>
+      <c r="G250" t="n">
+        <v>10366334.02113806</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C251" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D251" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E251" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F251" t="n">
+        <v>16461.7224</v>
+      </c>
+      <c r="G251" t="n">
+        <v>10366334.02113806</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C252" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10984.635</v>
+      </c>
+      <c r="G252" t="n">
+        <v>10377318.65613806</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>55</v>
+      </c>
+      <c r="C253" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D253" t="n">
+        <v>55</v>
+      </c>
+      <c r="E253" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F253" t="n">
+        <v>12471.6507</v>
+      </c>
+      <c r="G253" t="n">
+        <v>10364847.00543806</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3614.395</v>
+      </c>
+      <c r="G254" t="n">
+        <v>10368461.40043806</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>9195.046899999999</v>
+      </c>
+      <c r="G255" t="n">
+        <v>10368461.40043806</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D256" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E256" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F256" t="n">
+        <v>17965.8528</v>
+      </c>
+      <c r="G256" t="n">
+        <v>10350495.54763806</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C257" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D257" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E257" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2768.6902</v>
+      </c>
+      <c r="G257" t="n">
+        <v>10347726.85743806</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C258" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E258" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F258" t="n">
+        <v>11800</v>
+      </c>
+      <c r="G258" t="n">
+        <v>10347726.85743806</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C259" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E259" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F259" t="n">
+        <v>6709.5992</v>
+      </c>
+      <c r="G259" t="n">
+        <v>10347726.85743806</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C260" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D260" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E260" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2881.8974009</v>
+      </c>
+      <c r="G260" t="n">
+        <v>10350608.75483896</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C261" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D261" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E261" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F261" t="n">
+        <v>8992.805700000001</v>
+      </c>
+      <c r="G261" t="n">
+        <v>10359601.56053896</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C262" t="n">
+        <v>56</v>
+      </c>
+      <c r="D262" t="n">
+        <v>56</v>
+      </c>
+      <c r="E262" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3595.77582285</v>
+      </c>
+      <c r="G262" t="n">
+        <v>10363197.33636181</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C263" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E263" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>6898.3812</v>
+      </c>
+      <c r="G263" t="n">
+        <v>10356298.95516181</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C264" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E264" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>10356299.95516181</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1999</v>
+      </c>
+      <c r="G265" t="n">
+        <v>10354300.95516181</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C266" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E266" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1</v>
+      </c>
+      <c r="G266" t="n">
+        <v>10354301.95516181</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1420.1989</v>
+      </c>
+      <c r="G267" t="n">
+        <v>10352881.75626181</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>838.9999</v>
+      </c>
+      <c r="G268" t="n">
+        <v>10352881.75626181</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>788</v>
+      </c>
+      <c r="G269" t="n">
+        <v>10352881.75626181</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>80</v>
+      </c>
+      <c r="G270" t="n">
+        <v>10352881.75626181</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C271" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D271" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E271" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1</v>
+      </c>
+      <c r="G271" t="n">
+        <v>10352882.75626181</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C272" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E272" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>60305.8642</v>
+      </c>
+      <c r="G272" t="n">
+        <v>10292576.89206181</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N272"/>
+  <dimension ref="A1:M272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-174251.2093000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>-3974251.2093</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,15 @@
         <v>-3974251.2093</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>52.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +550,15 @@
         <v>4745748.7907</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>52.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +583,15 @@
         <v>4745748.7907</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +616,15 @@
         <v>4745748.7907</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,20 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -742,24 +682,15 @@
         <v>4745748.7907</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,24 +715,15 @@
         <v>4745748.7907</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -826,24 +748,15 @@
         <v>4745748.7907</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -868,24 +781,15 @@
         <v>4745748.7907</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,24 +814,15 @@
         <v>12029326.5939</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -952,24 +847,15 @@
         <v>12029326.5939</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -994,24 +880,15 @@
         <v>12029326.5939</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1036,24 +913,15 @@
         <v>8509326.593899999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1078,24 +946,15 @@
         <v>8509326.593899999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,24 +979,15 @@
         <v>8509326.593899999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,20 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1204,20 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1244,20 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1284,20 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1324,20 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1364,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1404,20 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1444,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1484,20 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1524,20 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1564,20 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1604,20 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1644,20 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1684,20 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1724,20 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1764,20 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1804,20 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1844,20 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1884,20 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1924,20 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1964,20 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2004,20 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2044,20 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2084,20 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2124,20 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2164,20 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2204,20 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2244,20 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2284,20 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2324,20 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2364,20 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2404,20 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2444,20 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2484,20 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2524,20 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2564,20 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2604,20 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2644,20 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2684,20 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2724,20 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2764,20 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2804,20 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2844,20 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2884,20 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2924,20 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2964,20 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3004,20 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3044,20 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3084,20 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3124,20 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3164,20 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3202,22 +2695,19 @@
         <v>9733732.0295</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>53</v>
+      </c>
+      <c r="J70" t="n">
+        <v>53</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3242,22 +2732,23 @@
         <v>9733732.0295</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+        <v>52.9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>53</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3282,22 +2773,23 @@
         <v>9736879.1916</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+        <v>52.9</v>
+      </c>
+      <c r="J72" t="n">
+        <v>53</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3322,22 +2814,19 @@
         <v>9736879.1916</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>53.1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>53.1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3362,22 +2851,23 @@
         <v>9737679.4882</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+        <v>53.1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3402,22 +2892,23 @@
         <v>9739469.5712</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+        <v>53.2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3444,20 +2935,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3484,20 +2968,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3524,20 +3001,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3564,20 +3034,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3604,20 +3067,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3644,20 +3100,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3684,20 +3133,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3724,20 +3166,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3764,20 +3199,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3804,20 +3232,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3844,20 +3265,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3884,20 +3298,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3924,20 +3331,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3964,20 +3364,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4004,20 +3397,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4044,20 +3430,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4084,20 +3463,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4124,20 +3496,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4164,20 +3529,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4204,20 +3562,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4244,20 +3595,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4284,20 +3628,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4324,20 +3661,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4364,20 +3694,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4404,20 +3727,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4444,20 +3760,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4484,20 +3793,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4524,20 +3826,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4564,20 +3859,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4604,20 +3892,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4644,20 +3925,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4684,20 +3958,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4724,20 +3991,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4764,20 +4024,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4804,20 +4057,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4844,20 +4090,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4884,20 +4123,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4924,20 +4156,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4964,20 +4189,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5004,20 +4222,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5044,20 +4255,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5084,20 +4288,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5124,20 +4321,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5164,20 +4354,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5204,20 +4387,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5244,20 +4420,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5284,20 +4453,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5324,20 +4486,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5364,20 +4519,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5404,20 +4552,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5444,20 +4585,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5484,20 +4618,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5524,20 +4651,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5564,20 +4684,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5604,20 +4717,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5644,20 +4750,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5684,20 +4783,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5724,20 +4816,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5764,20 +4849,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5804,20 +4882,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5844,20 +4915,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5884,20 +4948,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5924,20 +4981,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5964,20 +5014,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6004,20 +5047,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6044,20 +5080,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6084,20 +5113,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6124,20 +5146,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6164,20 +5179,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6204,20 +5212,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6244,20 +5245,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6284,20 +5278,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6324,20 +5311,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6364,20 +5344,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6404,20 +5377,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6444,20 +5410,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6484,20 +5443,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6524,20 +5476,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6564,20 +5509,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6604,20 +5542,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6644,20 +5575,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6684,20 +5608,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6724,20 +5641,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6764,20 +5674,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6804,20 +5707,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6844,20 +5740,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6884,20 +5773,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6924,20 +5806,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6964,20 +5839,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7004,20 +5872,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7044,20 +5905,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7084,20 +5938,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7124,20 +5971,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7164,20 +6004,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7204,20 +6037,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7244,20 +6070,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7284,20 +6103,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7324,20 +6136,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7364,20 +6169,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7404,20 +6202,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7444,20 +6235,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7484,20 +6268,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7524,20 +6301,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7564,20 +6334,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7604,20 +6367,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7644,20 +6400,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7682,22 +6431,15 @@
         <v>10270786.26583806</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7722,22 +6464,15 @@
         <v>10249543.01003806</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7762,22 +6497,15 @@
         <v>10254189.01003806</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7802,22 +6530,15 @@
         <v>10254189.01003806</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7842,22 +6563,15 @@
         <v>10254189.01003806</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7882,22 +6596,15 @@
         <v>10254189.01003806</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7924,20 +6631,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7964,20 +6664,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8004,20 +6697,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8044,20 +6730,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8084,20 +6763,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8124,20 +6796,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8164,20 +6829,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8204,20 +6862,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8244,20 +6895,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8284,20 +6928,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8324,20 +6961,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8364,20 +6994,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8404,20 +7027,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8444,20 +7060,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8484,20 +7093,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8524,20 +7126,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8564,20 +7159,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8604,20 +7192,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8644,20 +7225,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8684,20 +7258,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8724,20 +7291,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8764,18 +7324,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L209" t="n">
+        <v>1</v>
       </c>
       <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8800,18 +7355,15 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8836,18 +7388,15 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8874,16 +7423,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8910,16 +7456,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8946,16 +7489,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8982,16 +7522,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9018,16 +7555,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9054,16 +7588,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9090,16 +7621,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9126,16 +7654,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9162,16 +7687,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9198,16 +7720,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9234,16 +7753,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9270,16 +7786,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9306,16 +7819,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9342,16 +7852,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9378,16 +7885,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9414,16 +7918,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9448,18 +7949,15 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9484,18 +7982,15 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9520,18 +8015,15 @@
         <v>10417222.79093806</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9556,18 +8048,15 @@
         <v>10403847.79093806</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9592,18 +8081,15 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9628,18 +8114,15 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9664,18 +8147,15 @@
         <v>10421875.81513806</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9702,16 +8182,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9738,16 +8215,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9774,16 +8248,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9810,16 +8281,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9846,16 +8314,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9882,16 +8347,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9918,16 +8380,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9954,16 +8413,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9990,16 +8446,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10026,16 +8479,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10062,16 +8512,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10098,16 +8545,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10134,16 +8578,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10170,16 +8611,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10206,16 +8644,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10242,16 +8677,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10278,16 +8710,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10314,16 +8743,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10350,16 +8776,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10386,16 +8809,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10422,16 +8842,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10458,16 +8875,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10494,16 +8908,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10530,16 +8941,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10564,18 +8972,15 @@
         <v>10347726.85743806</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10602,16 +9007,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10638,16 +9040,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10674,16 +9073,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10710,16 +9106,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10746,16 +9139,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10782,16 +9172,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10818,16 +9205,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10854,16 +9238,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10890,16 +9271,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10926,16 +9304,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10962,16 +9337,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10998,16 +9370,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11034,18 +9403,15 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2266,11 +2266,17 @@
         <v>9742348.5166</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>52.9</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2305,17 @@
         <v>9742348.5166</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>52.9</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2344,17 @@
         <v>9742348.5166</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>52.9</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2383,17 @@
         <v>9742348.5166</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>52.9</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2426,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2463,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2500,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2533,17 @@
         <v>9742348.5166</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>52.9</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2572,17 @@
         <v>9742348.5166</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>52.9</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2611,17 @@
         <v>9742705.132300001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>52.9</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2650,17 @@
         <v>9742705.132300001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>53.1</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2689,17 @@
         <v>9742645.132300001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>53.1</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2728,17 @@
         <v>9742645.132300001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>53</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,15 +2767,17 @@
         <v>9733732.0295</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>53</v>
       </c>
-      <c r="J70" t="n">
-        <v>53</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,17 +2806,15 @@
         <v>9733732.0295</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>52.9</v>
       </c>
-      <c r="J71" t="n">
-        <v>53</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2773,17 +2845,15 @@
         <v>9736879.1916</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>52.9</v>
       </c>
-      <c r="J72" t="n">
-        <v>53</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2814,15 +2884,17 @@
         <v>9736879.1916</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>53.1</v>
       </c>
-      <c r="J73" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2851,17 +2923,15 @@
         <v>9737679.4882</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>53.1</v>
       </c>
-      <c r="J74" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2892,17 +2962,15 @@
         <v>9739469.5712</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>53.2</v>
       </c>
-      <c r="J75" t="n">
-        <v>53.1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2933,11 +3001,17 @@
         <v>9733998.309700001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>53.4</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2966,11 +3040,17 @@
         <v>9729204.978600001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>53.2</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2999,11 +3079,17 @@
         <v>9729184.978600001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>53.1</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3032,11 +3118,17 @@
         <v>9730134.9976</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +3157,17 @@
         <v>9723345.0009</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>52.9</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +3196,17 @@
         <v>9729934.675900001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3135,7 +3239,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3168,7 +3276,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3201,7 +3313,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3234,7 +3350,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3267,7 +3387,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3300,7 +3424,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3333,7 +3461,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3366,7 +3498,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3399,7 +3535,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3432,7 +3572,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3465,7 +3609,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3498,7 +3646,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3531,7 +3683,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3564,7 +3720,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3597,7 +3757,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3630,7 +3794,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3663,7 +3831,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3696,7 +3868,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3729,7 +3905,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3762,7 +3942,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3795,7 +3979,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3828,7 +4016,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3861,7 +4053,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3894,7 +4090,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3927,7 +4127,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3960,7 +4164,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4201,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4026,7 +4238,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4059,7 +4275,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4092,7 +4312,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4125,7 +4349,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4158,7 +4386,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4191,7 +4423,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4224,7 +4460,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4257,7 +4497,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4290,7 +4534,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4323,7 +4571,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4356,7 +4608,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4389,7 +4645,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4422,7 +4682,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4455,7 +4719,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4488,7 +4756,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4521,7 +4793,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4554,7 +4830,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4587,7 +4867,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4620,7 +4904,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4653,7 +4941,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4686,7 +4978,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4719,7 +5015,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4752,7 +5052,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4785,7 +5089,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4818,7 +5126,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4851,7 +5163,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4884,7 +5200,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4917,7 +5237,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4950,7 +5274,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4983,7 +5311,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5016,7 +5348,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5049,7 +5385,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5082,7 +5422,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5115,7 +5459,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5496,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5181,7 +5533,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5214,7 +5570,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5247,7 +5607,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5280,7 +5644,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5313,7 +5681,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5346,7 +5718,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5379,7 +5755,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5412,7 +5792,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5445,7 +5829,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5478,7 +5866,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5511,7 +5903,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5544,7 +5940,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5577,7 +5977,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5610,7 +6014,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5643,7 +6051,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5676,7 +6088,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5709,7 +6125,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5742,7 +6162,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5775,7 +6199,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5808,7 +6236,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5841,7 +6273,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5874,7 +6310,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5907,7 +6347,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5940,7 +6384,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5973,7 +6421,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6006,7 +6458,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6039,7 +6495,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6072,7 +6532,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6105,7 +6569,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6138,7 +6606,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6171,7 +6643,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6204,7 +6680,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6237,7 +6717,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6270,7 +6754,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6791,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6336,7 +6828,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6369,7 +6865,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6402,7 +6902,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6431,11 +6935,15 @@
         <v>10270786.26583806</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +6972,15 @@
         <v>10249543.01003806</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6497,11 +7009,15 @@
         <v>10254189.01003806</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6530,11 +7046,15 @@
         <v>10254189.01003806</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +7083,15 @@
         <v>10254189.01003806</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6596,11 +7120,15 @@
         <v>10254189.01003806</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6633,7 +7161,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6666,7 +7198,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6699,7 +7235,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6732,7 +7272,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6765,7 +7309,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6798,7 +7346,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6831,7 +7383,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6864,7 +7420,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6897,7 +7457,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6930,7 +7494,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6963,7 +7531,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6996,7 +7568,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7029,7 +7605,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +7642,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7095,7 +7679,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7128,7 +7716,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7161,7 +7753,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7194,7 +7790,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7227,7 +7827,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7260,7 +7864,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7293,7 +7901,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7326,7 +7938,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7355,11 +7971,15 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7388,11 +8008,15 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7425,7 +8049,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +8086,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7491,7 +8123,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7524,7 +8160,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7557,7 +8197,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7590,7 +8234,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7623,7 +8271,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7656,7 +8308,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7689,7 +8345,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7722,7 +8382,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7755,7 +8419,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7788,7 +8456,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7821,7 +8493,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7850,14 +8526,16 @@
         <v>10399124.55023806</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
@@ -7883,7 +8561,7 @@
         <v>10399124.55023806</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7916,7 +8594,7 @@
         <v>10463724.14913806</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7949,7 +8627,7 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7982,7 +8660,7 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8015,7 +8693,7 @@
         <v>10417222.79093806</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8048,7 +8726,7 @@
         <v>10403847.79093806</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8081,7 +8759,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8114,7 +8792,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8147,7 +8825,7 @@
         <v>10421875.81513806</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8180,7 +8858,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8213,7 +8891,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8246,7 +8924,7 @@
         <v>10415454.36313806</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8279,7 +8957,7 @@
         <v>10416943.50833806</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8312,7 +8990,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8345,7 +9023,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8378,7 +9056,7 @@
         <v>10392427.54893806</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8411,7 +9089,7 @@
         <v>10393045.16913806</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8444,7 +9122,7 @@
         <v>10384809.83673806</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8477,7 +9155,7 @@
         <v>10372152.23143806</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8510,7 +9188,7 @@
         <v>10373254.67633806</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8543,7 +9221,7 @@
         <v>10364954.67633806</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8576,7 +9254,7 @@
         <v>10364363.02113806</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8609,7 +9287,7 @@
         <v>10364363.02113806</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8642,7 +9320,7 @@
         <v>10366334.02113806</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8675,7 +9353,7 @@
         <v>10366334.02113806</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8708,7 +9386,7 @@
         <v>10366334.02113806</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8741,7 +9419,7 @@
         <v>10377318.65613806</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8774,7 +9452,7 @@
         <v>10364847.00543806</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8807,7 +9485,7 @@
         <v>10368461.40043806</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8840,7 +9518,7 @@
         <v>10368461.40043806</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8873,7 +9551,7 @@
         <v>10350495.54763806</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8906,7 +9584,7 @@
         <v>10347726.85743806</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8939,7 +9617,7 @@
         <v>10347726.85743806</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8972,7 +9650,7 @@
         <v>10347726.85743806</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9005,7 +9683,7 @@
         <v>10350608.75483896</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9038,7 +9716,7 @@
         <v>10359601.56053896</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9104,7 +9782,7 @@
         <v>10356298.95516181</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9137,7 +9815,7 @@
         <v>10356299.95516181</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9335,7 +10013,7 @@
         <v>10352881.75626181</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9368,7 +10046,7 @@
         <v>10352882.75626181</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9401,7 +10079,7 @@
         <v>10292576.89206181</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9412,6 +10090,6 @@
       <c r="M272" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,11 +484,17 @@
         <v>-3974251.2093</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-3974251.2093</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52.7</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>4745748.7907</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52.7</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>4745748.7907</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +644,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +681,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +718,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +755,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +792,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +829,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +866,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +903,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +940,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +977,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1014,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1051,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1088,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1125,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1162,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1199,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1236,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1273,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1310,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1347,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1384,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1421,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1458,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1495,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1532,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1569,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1606,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1643,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1680,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1717,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1754,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1791,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1828,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1865,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1902,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1939,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1976,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2013,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2050,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2087,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2124,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2161,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2198,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2235,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2272,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2309,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2346,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2383,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2420,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2457,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,15 +2490,13 @@
         <v>9742348.5166</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2305,11 +2527,9 @@
         <v>9742348.5166</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2344,11 +2564,9 @@
         <v>9742348.5166</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2383,11 +2601,9 @@
         <v>9742348.5166</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2533,11 +2749,9 @@
         <v>9742348.5166</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2572,11 +2786,9 @@
         <v>9742348.5166</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2611,11 +2823,9 @@
         <v>9742705.132300001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2650,11 +2860,9 @@
         <v>9742705.132300001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>53.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2689,11 +2897,9 @@
         <v>9742645.132300001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2728,11 +2934,9 @@
         <v>9742645.132300001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2767,11 +2971,9 @@
         <v>9733732.0295</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2806,11 +3008,9 @@
         <v>9733732.0295</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2845,11 +3045,9 @@
         <v>9736879.1916</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2884,11 +3082,9 @@
         <v>9736879.1916</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>53.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2923,11 +3119,9 @@
         <v>9737679.4882</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>53.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2962,11 +3156,9 @@
         <v>9739469.5712</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>53.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3001,11 +3193,9 @@
         <v>9733998.309700001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>53.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3040,11 +3230,9 @@
         <v>9729204.978600001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>53.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3079,11 +3267,9 @@
         <v>9729184.978600001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>53.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3118,11 +3304,9 @@
         <v>9730134.9976</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3157,11 +3341,9 @@
         <v>9723345.0009</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>52.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3196,11 +3378,9 @@
         <v>9729934.675900001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>52.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3272,18 +3452,16 @@
         <v>10036791.0628</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3309,15 +3487,11 @@
         <v>10036791.0628</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3346,15 +3520,11 @@
         <v>10022483.9632</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3383,15 +3553,11 @@
         <v>10035952.4795</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3420,15 +3586,11 @@
         <v>10023410.0564</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3457,15 +3619,11 @@
         <v>10015742.4677</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3498,11 +3656,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3535,11 +3689,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3568,15 +3718,11 @@
         <v>10016979.7042</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3605,15 +3751,11 @@
         <v>10016979.7042</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3642,15 +3784,11 @@
         <v>10015878.6429</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3679,15 +3817,11 @@
         <v>10015174.6211</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3720,11 +3854,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3753,15 +3883,11 @@
         <v>10053188.9892</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3790,15 +3916,11 @@
         <v>10052570.9902</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3831,11 +3953,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3868,11 +3986,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3905,11 +4019,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3942,11 +4052,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3979,11 +4085,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4012,15 +4114,11 @@
         <v>10062362.579</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4049,15 +4147,11 @@
         <v>10061262.579</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4086,15 +4180,11 @@
         <v>10057402.579</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4123,15 +4213,11 @@
         <v>10150693.1013</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4160,15 +4246,11 @@
         <v>10149876.4834</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4197,15 +4279,11 @@
         <v>10128679.1204</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4238,11 +4316,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4271,15 +4345,11 @@
         <v>10128679.1204</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4382,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4345,15 +4411,11 @@
         <v>10040178.0669</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4386,11 +4448,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +4481,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4460,11 +4514,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4497,11 +4547,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4534,11 +4580,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4571,11 +4613,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4604,15 +4642,11 @@
         <v>10033476.8524</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4641,15 +4675,11 @@
         <v>10033476.8524</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4682,11 +4712,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4715,15 +4741,11 @@
         <v>10033476.8524</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4752,15 +4774,11 @@
         <v>10033466.8524</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4789,15 +4807,11 @@
         <v>10033466.8524</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4830,11 +4844,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4867,11 +4877,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4904,11 +4910,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4941,11 +4943,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4978,11 +4976,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5015,11 +5009,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5052,11 +5042,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5089,11 +5075,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5126,11 +5108,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5163,11 +5141,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5200,11 +5174,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5237,11 +5207,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5274,11 +5240,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5311,11 +5273,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5348,11 +5306,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5385,11 +5339,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5422,11 +5372,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5459,11 +5405,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5496,11 +5438,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5471,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5570,11 +5504,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5607,11 +5537,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5644,11 +5570,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5681,11 +5603,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5718,11 +5636,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5755,11 +5669,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5792,11 +5702,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5829,11 +5735,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5866,11 +5768,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5903,11 +5801,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5940,11 +5834,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5977,11 +5867,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6014,11 +5900,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6051,11 +5933,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6088,11 +5966,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6125,11 +5999,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6162,11 +6032,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6199,11 +6065,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6236,11 +6098,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6273,11 +6131,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6310,11 +6164,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6347,11 +6197,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6384,11 +6230,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6421,11 +6263,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6458,11 +6296,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +6329,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6532,11 +6362,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6569,11 +6395,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6606,11 +6428,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6643,11 +6461,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6680,11 +6494,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6717,11 +6527,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6560,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6791,11 +6593,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6824,15 +6622,11 @@
         <v>10165862.38723806</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6861,15 +6655,11 @@
         <v>10155369.35963807</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6898,15 +6688,11 @@
         <v>10255686.51583806</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6935,15 +6721,11 @@
         <v>10270786.26583806</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6972,15 +6754,11 @@
         <v>10249543.01003806</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7013,11 +6791,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +6824,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7087,11 +6857,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7124,11 +6890,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7161,11 +6923,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7198,11 +6956,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7235,11 +6989,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7272,11 +7022,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7309,11 +7055,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7346,11 +7088,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7383,11 +7121,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7420,11 +7154,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7457,11 +7187,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7494,11 +7220,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7531,11 +7253,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7568,11 +7286,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7605,11 +7319,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7642,11 +7352,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7679,11 +7385,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +7418,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7749,15 +7447,11 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7786,15 +7480,11 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7823,15 +7513,11 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7860,15 +7546,11 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7897,15 +7579,11 @@
         <v>10264529.96193806</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7934,15 +7612,11 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7971,15 +7645,11 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8008,15 +7678,11 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8045,15 +7711,11 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8082,15 +7744,11 @@
         <v>10254573.75493806</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8119,15 +7777,11 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8156,15 +7810,11 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8193,15 +7843,11 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8234,11 +7880,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8271,11 +7913,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +7946,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8345,11 +7979,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8382,11 +8012,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8419,11 +8045,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8456,11 +8078,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8493,11 +8111,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8526,16 +8140,14 @@
         <v>10399124.55023806</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
       <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
@@ -8561,7 +8173,7 @@
         <v>10399124.55023806</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8594,7 +8206,7 @@
         <v>10463724.14913806</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8627,7 +8239,7 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8660,7 +8272,7 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8693,7 +8305,7 @@
         <v>10417222.79093806</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8726,7 +8338,7 @@
         <v>10403847.79093806</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8759,7 +8371,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8792,7 +8404,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8825,7 +8437,7 @@
         <v>10421875.81513806</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8858,7 +8470,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8891,7 +8503,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8924,7 +8536,7 @@
         <v>10415454.36313806</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8957,7 +8569,7 @@
         <v>10416943.50833806</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8990,7 +8602,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9023,7 +8635,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9056,7 +8668,7 @@
         <v>10392427.54893806</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9089,7 +8701,7 @@
         <v>10393045.16913806</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9122,7 +8734,7 @@
         <v>10384809.83673806</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9155,7 +8767,7 @@
         <v>10372152.23143806</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9188,7 +8800,7 @@
         <v>10373254.67633806</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9221,7 +8833,7 @@
         <v>10364954.67633806</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9254,7 +8866,7 @@
         <v>10364363.02113806</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9287,7 +8899,7 @@
         <v>10364363.02113806</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9320,7 +8932,7 @@
         <v>10366334.02113806</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9353,7 +8965,7 @@
         <v>10366334.02113806</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9386,7 +8998,7 @@
         <v>10366334.02113806</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9419,7 +9031,7 @@
         <v>10377318.65613806</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9452,7 +9064,7 @@
         <v>10364847.00543806</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9485,7 +9097,7 @@
         <v>10368461.40043806</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9518,7 +9130,7 @@
         <v>10368461.40043806</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9551,7 +9163,7 @@
         <v>10350495.54763806</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9584,7 +9196,7 @@
         <v>10347726.85743806</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9617,7 +9229,7 @@
         <v>10347726.85743806</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9650,7 +9262,7 @@
         <v>10347726.85743806</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9683,7 +9295,7 @@
         <v>10350608.75483896</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9716,7 +9328,7 @@
         <v>10359601.56053896</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9782,7 +9394,7 @@
         <v>10356298.95516181</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9815,7 +9427,7 @@
         <v>10356299.95516181</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10013,7 +9625,7 @@
         <v>10352881.75626181</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10046,7 +9658,7 @@
         <v>10352882.75626181</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10079,7 +9691,7 @@
         <v>10292576.89206181</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10090,6 +9702,6 @@
       <c r="M272" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -451,7 +451,7 @@
         <v>-174251.2093000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -677,9 +677,11 @@
         <v>4745748.7907</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,9 +716,11 @@
         <v>4745748.7907</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -751,9 +755,11 @@
         <v>4745748.7907</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -788,9 +794,11 @@
         <v>4745748.7907</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -825,9 +833,11 @@
         <v>4745748.7907</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -862,9 +872,11 @@
         <v>12029326.5939</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>52.8</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -3452,16 +3464,18 @@
         <v>10036791.0628</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
       <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3487,11 +3501,15 @@
         <v>10036791.0628</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3538,15 @@
         <v>10022483.9632</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3575,15 @@
         <v>10035952.4795</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3612,15 @@
         <v>10023410.0564</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3649,15 @@
         <v>10015742.4677</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3690,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3727,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3760,15 @@
         <v>10016979.7042</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3797,15 @@
         <v>10016979.7042</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3834,15 @@
         <v>10015878.6429</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3871,15 @@
         <v>10015174.6211</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3912,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3945,15 @@
         <v>10053188.9892</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3982,15 @@
         <v>10052570.9902</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4023,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4060,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4097,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4134,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4171,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4204,15 @@
         <v>10062362.579</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4241,15 @@
         <v>10061262.579</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4278,15 @@
         <v>10057402.579</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4315,15 @@
         <v>10150693.1013</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4352,15 @@
         <v>10149876.4834</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4389,15 @@
         <v>10128679.1204</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4430,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4463,15 @@
         <v>10128679.1204</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4504,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4537,15 @@
         <v>10040178.0669</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4578,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4615,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4652,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4689,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4726,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4763,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4796,15 @@
         <v>10033476.8524</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4833,15 @@
         <v>10033476.8524</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4874,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4907,15 @@
         <v>10033476.8524</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4944,15 @@
         <v>10033466.8524</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4981,15 @@
         <v>10033466.8524</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5022,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5059,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5096,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5133,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5170,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5207,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5244,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5281,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5318,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5355,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5392,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5429,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5466,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5503,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5540,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5577,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5614,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5651,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5688,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5725,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5762,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5799,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5836,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5873,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5910,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5947,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5984,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6021,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6058,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6095,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6132,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6169,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6206,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +6243,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6280,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6317,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6354,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6391,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6428,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6465,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6502,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6539,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6576,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6613,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6650,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6687,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6724,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6761,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6798,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6835,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6872,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6909,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6946,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6983,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7016,15 @@
         <v>10165862.38723806</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7053,15 @@
         <v>10155369.35963807</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7090,15 @@
         <v>10255686.51583806</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7127,15 @@
         <v>10270786.26583806</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7164,15 @@
         <v>10249543.01003806</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7205,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7242,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7279,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7316,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7353,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7390,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7427,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7464,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7501,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7538,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7575,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7612,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7649,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7686,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7723,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7760,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7797,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7834,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7871,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7908,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7941,15 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7978,15 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8015,15 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +8052,15 @@
         <v>10262959.23993806</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +8089,15 @@
         <v>10264529.96193806</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +8126,15 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +8163,15 @@
         <v>10264213.79233806</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +8200,15 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +8237,15 @@
         <v>10265633.99123806</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +8274,15 @@
         <v>10254573.75493806</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +8311,15 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8348,15 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +8385,15 @@
         <v>10255573.75483806</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8426,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8463,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8500,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8537,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8574,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8611,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8648,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8685,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8722,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8759,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8796,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8239,14 +8829,16 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
@@ -8272,7 +8864,7 @@
         <v>10489183.19483806</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8305,7 +8897,7 @@
         <v>10417222.79093806</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8338,7 +8930,7 @@
         <v>10403847.79093806</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8371,7 +8963,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8404,7 +8996,7 @@
         <v>10415968.08633806</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8437,7 +9029,7 @@
         <v>10421875.81513806</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8470,7 +9062,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8503,7 +9095,7 @@
         <v>10421629.81513806</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8536,7 +9128,7 @@
         <v>10415454.36313806</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8569,7 +9161,7 @@
         <v>10416943.50833806</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8602,7 +9194,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8635,7 +9227,7 @@
         <v>10411050.54893806</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8668,7 +9260,7 @@
         <v>10392427.54893806</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest POWR.xlsx
+++ b/BackTest/2019-10-31 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M272"/>
+  <dimension ref="A1:L272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>18620000</v>
       </c>
       <c r="G2" t="n">
-        <v>-174251.2093000002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>3800000</v>
       </c>
       <c r="G3" t="n">
-        <v>-3974251.2093</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>52.8</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>1610</v>
       </c>
       <c r="G4" t="n">
-        <v>-3974251.2093</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>52.7</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>8720000</v>
       </c>
       <c r="G5" t="n">
-        <v>4745748.7907</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>52.7</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,21 @@
         <v>21200000</v>
       </c>
       <c r="G6" t="n">
-        <v>4745748.7907</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>52.8</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,22 +617,21 @@
         <v>21440591.4051</v>
       </c>
       <c r="G7" t="n">
-        <v>4745748.7907</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,24 +653,21 @@
         <v>21520000</v>
       </c>
       <c r="G8" t="n">
-        <v>4745748.7907</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
         <v>52.8</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -713,24 +689,21 @@
         <v>21679999.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>4745748.7907</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
         <v>52.8</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,24 +725,21 @@
         <v>21520000</v>
       </c>
       <c r="G10" t="n">
-        <v>4745748.7907</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>52.8</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -791,24 +761,21 @@
         <v>21120000.0001</v>
       </c>
       <c r="G11" t="n">
-        <v>4745748.7907</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>52.8</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -830,24 +797,21 @@
         <v>1696422.1968</v>
       </c>
       <c r="G12" t="n">
-        <v>4745748.7907</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
         <v>52.8</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -869,24 +833,21 @@
         <v>7283577.8032</v>
       </c>
       <c r="G13" t="n">
-        <v>12029326.5939</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
         <v>52.8</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,22 +869,21 @@
         <v>12815000</v>
       </c>
       <c r="G14" t="n">
-        <v>12029326.5939</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -945,22 +905,21 @@
         <v>880000</v>
       </c>
       <c r="G15" t="n">
-        <v>12029326.5939</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -982,22 +941,21 @@
         <v>3520000</v>
       </c>
       <c r="G16" t="n">
-        <v>8509326.593899999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1019,22 +977,21 @@
         <v>9240000</v>
       </c>
       <c r="G17" t="n">
-        <v>8509326.593899999</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1056,22 +1013,21 @@
         <v>6655000</v>
       </c>
       <c r="G18" t="n">
-        <v>8509326.593899999</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1093,22 +1049,21 @@
         <v>2268000</v>
       </c>
       <c r="G19" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1130,22 +1085,21 @@
         <v>1764000</v>
       </c>
       <c r="G20" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1167,22 +1121,21 @@
         <v>6975000</v>
       </c>
       <c r="G21" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1204,22 +1157,21 @@
         <v>7470000</v>
       </c>
       <c r="G22" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1241,22 +1193,21 @@
         <v>7335000</v>
       </c>
       <c r="G23" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1278,22 +1229,21 @@
         <v>7155011</v>
       </c>
       <c r="G24" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1315,22 +1265,21 @@
         <v>7470010.8662</v>
       </c>
       <c r="G25" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,22 +1301,21 @@
         <v>7469989.1338</v>
       </c>
       <c r="G26" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1389,22 +1337,21 @@
         <v>7515000</v>
       </c>
       <c r="G27" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1426,22 +1373,21 @@
         <v>7740010.8662</v>
       </c>
       <c r="G28" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1463,22 +1409,21 @@
         <v>7830000</v>
       </c>
       <c r="G29" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1500,22 +1445,21 @@
         <v>7695808.8623</v>
       </c>
       <c r="G30" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1537,22 +1481,21 @@
         <v>4995000</v>
       </c>
       <c r="G31" t="n">
-        <v>10777326.5939</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1574,22 +1517,21 @@
         <v>21.9227</v>
       </c>
       <c r="G32" t="n">
-        <v>10777348.5166</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1611,22 +1553,21 @@
         <v>1035000</v>
       </c>
       <c r="G33" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>53.1</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1648,22 +1589,21 @@
         <v>7650000</v>
       </c>
       <c r="G34" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1685,22 +1625,21 @@
         <v>7650000</v>
       </c>
       <c r="G35" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1722,22 +1661,21 @@
         <v>7875000</v>
       </c>
       <c r="G36" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1759,22 +1697,21 @@
         <v>7785000</v>
       </c>
       <c r="G37" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1796,22 +1733,21 @@
         <v>7785000</v>
       </c>
       <c r="G38" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1833,22 +1769,19 @@
         <v>7785000</v>
       </c>
       <c r="G39" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1870,22 +1803,19 @@
         <v>6975000</v>
       </c>
       <c r="G40" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1907,22 +1837,19 @@
         <v>3850000</v>
       </c>
       <c r="G41" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1944,22 +1871,21 @@
         <v>8400000</v>
       </c>
       <c r="G42" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1981,22 +1907,21 @@
         <v>8500000</v>
       </c>
       <c r="G43" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2018,22 +1943,21 @@
         <v>8450000</v>
       </c>
       <c r="G44" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2055,22 +1979,21 @@
         <v>8300000</v>
       </c>
       <c r="G45" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2092,22 +2015,21 @@
         <v>8350000</v>
       </c>
       <c r="G46" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2129,22 +2051,21 @@
         <v>2950000</v>
       </c>
       <c r="G47" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2166,22 +2087,19 @@
         <v>6880000</v>
       </c>
       <c r="G48" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2203,22 +2121,21 @@
         <v>13840719</v>
       </c>
       <c r="G49" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,22 +2157,19 @@
         <v>13919281</v>
       </c>
       <c r="G50" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2277,22 +2191,19 @@
         <v>13760000</v>
       </c>
       <c r="G51" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2314,22 +2225,21 @@
         <v>13760719</v>
       </c>
       <c r="G52" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2351,22 +2261,19 @@
         <v>13839281</v>
       </c>
       <c r="G53" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2388,22 +2295,21 @@
         <v>13600000</v>
       </c>
       <c r="G54" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2425,22 +2331,21 @@
         <v>13441389.7561</v>
       </c>
       <c r="G55" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2462,22 +2367,19 @@
         <v>13280000</v>
       </c>
       <c r="G56" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2499,22 +2401,21 @@
         <v>13601129.4161</v>
       </c>
       <c r="G57" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2536,22 +2437,19 @@
         <v>13841389.7561</v>
       </c>
       <c r="G58" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2573,22 +2471,21 @@
         <v>3410049.2438</v>
       </c>
       <c r="G59" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2610,22 +2507,21 @@
         <v>11830000</v>
       </c>
       <c r="G60" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2647,22 +2543,21 @@
         <v>11839950.7562</v>
       </c>
       <c r="G61" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2684,22 +2579,21 @@
         <v>11900000</v>
       </c>
       <c r="G62" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2721,22 +2615,21 @@
         <v>690049.2438000001</v>
       </c>
       <c r="G63" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2758,22 +2651,21 @@
         <v>1800.1723</v>
       </c>
       <c r="G64" t="n">
-        <v>9742348.5166</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2795,22 +2687,19 @@
         <v>6434.1541</v>
       </c>
       <c r="G65" t="n">
-        <v>9742348.5166</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2832,22 +2721,19 @@
         <v>356.6157</v>
       </c>
       <c r="G66" t="n">
-        <v>9742705.132300001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2869,22 +2755,19 @@
         <v>99.7834</v>
       </c>
       <c r="G67" t="n">
-        <v>9742705.132300001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2906,22 +2789,19 @@
         <v>60</v>
       </c>
       <c r="G68" t="n">
-        <v>9742645.132300001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2943,22 +2823,19 @@
         <v>1671.4283</v>
       </c>
       <c r="G69" t="n">
-        <v>9742645.132300001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2980,22 +2857,19 @@
         <v>8913.102800000001</v>
       </c>
       <c r="G70" t="n">
-        <v>9733732.0295</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3017,22 +2891,21 @@
         <v>948.1935999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>9733732.0295</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3054,22 +2927,21 @@
         <v>3147.1621</v>
       </c>
       <c r="G72" t="n">
-        <v>9736879.1916</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3091,22 +2963,19 @@
         <v>8663.5987</v>
       </c>
       <c r="G73" t="n">
-        <v>9736879.1916</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3128,22 +2997,19 @@
         <v>800.2966</v>
       </c>
       <c r="G74" t="n">
-        <v>9737679.4882</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3165,22 +3031,19 @@
         <v>1790.083</v>
       </c>
       <c r="G75" t="n">
-        <v>9739469.5712</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3202,22 +3065,19 @@
         <v>5471.2615</v>
       </c>
       <c r="G76" t="n">
-        <v>9733998.309700001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3239,22 +3099,19 @@
         <v>4793.3311</v>
       </c>
       <c r="G77" t="n">
-        <v>9729204.978600001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3276,22 +3133,19 @@
         <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>9729184.978600001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3313,22 +3167,19 @@
         <v>950.019</v>
       </c>
       <c r="G79" t="n">
-        <v>9730134.9976</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3350,22 +3201,19 @@
         <v>6789.9967</v>
       </c>
       <c r="G80" t="n">
-        <v>9723345.0009</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3387,22 +3235,19 @@
         <v>6589.675</v>
       </c>
       <c r="G81" t="n">
-        <v>9729934.675900001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3424,22 +3269,19 @@
         <v>358709.7223</v>
       </c>
       <c r="G82" t="n">
-        <v>10088644.3982</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3461,22 +3303,19 @@
         <v>51853.3354</v>
       </c>
       <c r="G83" t="n">
-        <v>10036791.0628</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3498,22 +3337,19 @@
         <v>151092.6133</v>
       </c>
       <c r="G84" t="n">
-        <v>10036791.0628</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3535,22 +3371,19 @@
         <v>14307.0996</v>
       </c>
       <c r="G85" t="n">
-        <v>10022483.9632</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3572,22 +3405,19 @@
         <v>13468.5163</v>
       </c>
       <c r="G86" t="n">
-        <v>10035952.4795</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3609,22 +3439,19 @@
         <v>12542.4231</v>
       </c>
       <c r="G87" t="n">
-        <v>10023410.0564</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3646,22 +3473,19 @@
         <v>7667.5887</v>
       </c>
       <c r="G88" t="n">
-        <v>10015742.4677</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3683,22 +3507,19 @@
         <v>157.2365</v>
       </c>
       <c r="G89" t="n">
-        <v>10015899.7042</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3720,22 +3541,19 @@
         <v>1080</v>
       </c>
       <c r="G90" t="n">
-        <v>10016979.7042</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3757,22 +3575,19 @@
         <v>6717.8662</v>
       </c>
       <c r="G91" t="n">
-        <v>10016979.7042</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3794,22 +3609,19 @@
         <v>10602.9113</v>
       </c>
       <c r="G92" t="n">
-        <v>10016979.7042</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3831,22 +3643,19 @@
         <v>1101.0613</v>
       </c>
       <c r="G93" t="n">
-        <v>10015878.6429</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3868,22 +3677,19 @@
         <v>704.0218</v>
       </c>
       <c r="G94" t="n">
-        <v>10015174.6211</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3905,22 +3711,19 @@
         <v>21854.634</v>
       </c>
       <c r="G95" t="n">
-        <v>9993319.987100001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3942,22 +3745,19 @@
         <v>59869.0021</v>
       </c>
       <c r="G96" t="n">
-        <v>10053188.9892</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3979,22 +3779,19 @@
         <v>617.999</v>
       </c>
       <c r="G97" t="n">
-        <v>10052570.9902</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4016,22 +3813,19 @@
         <v>512.8742</v>
       </c>
       <c r="G98" t="n">
-        <v>10053083.8644</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4053,22 +3847,19 @@
         <v>7834.466</v>
       </c>
       <c r="G99" t="n">
-        <v>10060918.3304</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4090,22 +3881,19 @@
         <v>2452.3895</v>
       </c>
       <c r="G100" t="n">
-        <v>10063370.7199</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4127,22 +3915,19 @@
         <v>809</v>
       </c>
       <c r="G101" t="n">
-        <v>10062561.7199</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4164,22 +3949,19 @@
         <v>6227.4536</v>
       </c>
       <c r="G102" t="n">
-        <v>10062561.7199</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4201,22 +3983,19 @@
         <v>199.1409</v>
       </c>
       <c r="G103" t="n">
-        <v>10062362.579</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4238,22 +4017,19 @@
         <v>1100</v>
       </c>
       <c r="G104" t="n">
-        <v>10061262.579</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4275,22 +4051,19 @@
         <v>3860</v>
       </c>
       <c r="G105" t="n">
-        <v>10057402.579</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4312,22 +4085,19 @@
         <v>93290.5223</v>
       </c>
       <c r="G106" t="n">
-        <v>10150693.1013</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4349,22 +4119,19 @@
         <v>816.6179</v>
       </c>
       <c r="G107" t="n">
-        <v>10149876.4834</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4386,22 +4153,19 @@
         <v>21197.363</v>
       </c>
       <c r="G108" t="n">
-        <v>10128679.1204</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4423,22 +4187,19 @@
         <v>8185.262</v>
       </c>
       <c r="G109" t="n">
-        <v>10128679.1204</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4460,22 +4221,19 @@
         <v>626.3861000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>10128679.1204</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4497,22 +4255,19 @@
         <v>88526.05349999999</v>
       </c>
       <c r="G111" t="n">
-        <v>10040153.0669</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4534,22 +4289,19 @@
         <v>25</v>
       </c>
       <c r="G112" t="n">
-        <v>10040178.0669</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4571,22 +4323,19 @@
         <v>4601.6797</v>
       </c>
       <c r="G113" t="n">
-        <v>10035576.3872</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4608,22 +4357,19 @@
         <v>30</v>
       </c>
       <c r="G114" t="n">
-        <v>10035606.3872</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4645,22 +4391,19 @@
         <v>894.4652</v>
       </c>
       <c r="G115" t="n">
-        <v>10036500.8524</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4682,22 +4425,19 @@
         <v>3035</v>
       </c>
       <c r="G116" t="n">
-        <v>10033465.8524</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4719,22 +4459,19 @@
         <v>11</v>
       </c>
       <c r="G117" t="n">
-        <v>10033476.8524</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4756,22 +4493,19 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>10033476.8524</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4793,22 +4527,19 @@
         <v>122.3121</v>
       </c>
       <c r="G119" t="n">
-        <v>10033476.8524</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4830,22 +4561,19 @@
         <v>177.3326</v>
       </c>
       <c r="G120" t="n">
-        <v>10033476.8524</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4867,22 +4595,19 @@
         <v>19.7869</v>
       </c>
       <c r="G121" t="n">
-        <v>10033476.8524</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4904,22 +4629,19 @@
         <v>386.9418</v>
       </c>
       <c r="G122" t="n">
-        <v>10033476.8524</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4941,22 +4663,19 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>10033466.8524</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4978,22 +4697,19 @@
         <v>60.7985</v>
       </c>
       <c r="G124" t="n">
-        <v>10033466.8524</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5015,22 +4731,19 @@
         <v>1164.1468</v>
       </c>
       <c r="G125" t="n">
-        <v>10033466.8524</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5052,22 +4765,19 @@
         <v>30</v>
       </c>
       <c r="G126" t="n">
-        <v>10033496.8524</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5089,22 +4799,19 @@
         <v>2041.3363</v>
       </c>
       <c r="G127" t="n">
-        <v>10031455.5161</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5126,22 +4833,19 @@
         <v>883.11</v>
       </c>
       <c r="G128" t="n">
-        <v>10031455.5161</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5163,22 +4867,19 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>10031465.5161</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5200,22 +4901,19 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>10031475.5161</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5237,22 +4935,19 @@
         <v>6287.3782</v>
       </c>
       <c r="G131" t="n">
-        <v>10025188.1379</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5274,22 +4969,19 @@
         <v>366.8321</v>
       </c>
       <c r="G132" t="n">
-        <v>10025554.97</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5311,22 +5003,19 @@
         <v>27600</v>
       </c>
       <c r="G133" t="n">
-        <v>9997954.969999997</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5348,22 +5037,19 @@
         <v>1039.0551</v>
       </c>
       <c r="G134" t="n">
-        <v>9998994.025099996</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5385,22 +5071,19 @@
         <v>1266.2289</v>
       </c>
       <c r="G135" t="n">
-        <v>9998994.025099996</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5422,22 +5105,19 @@
         <v>79837.4519</v>
       </c>
       <c r="G136" t="n">
-        <v>10078831.477</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5459,22 +5139,19 @@
         <v>13107.3789</v>
       </c>
       <c r="G137" t="n">
-        <v>10091938.8559</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5496,22 +5173,19 @@
         <v>4597</v>
       </c>
       <c r="G138" t="n">
-        <v>10091938.8559</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5533,22 +5207,19 @@
         <v>985.2085</v>
       </c>
       <c r="G139" t="n">
-        <v>10091938.8559</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5570,22 +5241,19 @@
         <v>1216.5857</v>
       </c>
       <c r="G140" t="n">
-        <v>10091938.8559</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5607,22 +5275,19 @@
         <v>32258.5733</v>
       </c>
       <c r="G141" t="n">
-        <v>10091938.8559</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5644,22 +5309,19 @@
         <v>155.614</v>
       </c>
       <c r="G142" t="n">
-        <v>10091783.2419</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5681,22 +5343,19 @@
         <v>1364.9259</v>
       </c>
       <c r="G143" t="n">
-        <v>10091783.2419</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5718,22 +5377,19 @@
         <v>25.5241</v>
       </c>
       <c r="G144" t="n">
-        <v>10091808.766</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5755,22 +5411,19 @@
         <v>581.8891</v>
       </c>
       <c r="G145" t="n">
-        <v>10091226.8769</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5792,22 +5445,19 @@
         <v>11363.4874</v>
       </c>
       <c r="G146" t="n">
-        <v>10091226.8769</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5829,22 +5479,19 @@
         <v>22951.3344</v>
       </c>
       <c r="G147" t="n">
-        <v>10091226.8769</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5866,22 +5513,19 @@
         <v>19837.9335</v>
       </c>
       <c r="G148" t="n">
-        <v>10091226.8769</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5903,22 +5547,19 @@
         <v>509.3832</v>
       </c>
       <c r="G149" t="n">
-        <v>10091226.8769</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5940,22 +5581,19 @@
         <v>949.7446</v>
       </c>
       <c r="G150" t="n">
-        <v>10091226.8769</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5977,22 +5615,19 @@
         <v>4190.2432</v>
       </c>
       <c r="G151" t="n">
-        <v>10091226.8769</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6014,22 +5649,19 @@
         <v>16441.3651</v>
       </c>
       <c r="G152" t="n">
-        <v>10074785.5118</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6051,22 +5683,19 @@
         <v>293.5102</v>
       </c>
       <c r="G153" t="n">
-        <v>10074785.5118</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6088,22 +5717,19 @@
         <v>5419.1616</v>
       </c>
       <c r="G154" t="n">
-        <v>10080204.6734</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6125,22 +5751,19 @@
         <v>985.4357</v>
       </c>
       <c r="G155" t="n">
-        <v>10080204.6734</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6162,22 +5785,19 @@
         <v>2141.388</v>
       </c>
       <c r="G156" t="n">
-        <v>10080204.6734</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6199,22 +5819,19 @@
         <v>14600.0146</v>
       </c>
       <c r="G157" t="n">
-        <v>10094804.688</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6236,22 +5853,19 @@
         <v>31607.8466</v>
       </c>
       <c r="G158" t="n">
-        <v>10063196.8414</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6273,22 +5887,19 @@
         <v>50965.04063807</v>
       </c>
       <c r="G159" t="n">
-        <v>10114161.88203807</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6310,22 +5921,19 @@
         <v>37636.58136193</v>
       </c>
       <c r="G160" t="n">
-        <v>10114161.88203807</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6347,22 +5955,19 @@
         <v>36233.5793</v>
       </c>
       <c r="G161" t="n">
-        <v>10150395.46133807</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6384,22 +5989,19 @@
         <v>14539.6903</v>
       </c>
       <c r="G162" t="n">
-        <v>10135855.77103806</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6421,22 +6023,19 @@
         <v>4720.1212</v>
       </c>
       <c r="G163" t="n">
-        <v>10135855.77103806</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6458,22 +6057,19 @@
         <v>355.0319</v>
       </c>
       <c r="G164" t="n">
-        <v>10135500.73913806</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6495,22 +6091,19 @@
         <v>7369.0591</v>
       </c>
       <c r="G165" t="n">
-        <v>10128131.68003806</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6532,22 +6125,19 @@
         <v>473.3759</v>
       </c>
       <c r="G166" t="n">
-        <v>10128605.05593807</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6569,22 +6159,19 @@
         <v>22409.8089</v>
       </c>
       <c r="G167" t="n">
-        <v>10151014.86483807</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6606,22 +6193,19 @@
         <v>62674.9887</v>
       </c>
       <c r="G168" t="n">
-        <v>10088339.87613807</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6643,22 +6227,19 @@
         <v>15780.4857</v>
       </c>
       <c r="G169" t="n">
-        <v>10072559.39043806</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6680,22 +6261,19 @@
         <v>6851.6009</v>
       </c>
       <c r="G170" t="n">
-        <v>10072559.39043806</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6717,22 +6295,19 @@
         <v>988</v>
       </c>
       <c r="G171" t="n">
-        <v>10072559.39043806</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6754,22 +6329,19 @@
         <v>2621.9865</v>
       </c>
       <c r="G172" t="n">
-        <v>10072559.39043806</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6791,22 +6363,19 @@
         <v>7707.869</v>
       </c>
       <c r="G173" t="n">
-        <v>10064851.52143806</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6828,22 +6397,19 @@
         <v>7392.6482</v>
       </c>
       <c r="G174" t="n">
-        <v>10072244.16963806</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6865,22 +6431,19 @@
         <v>762.3363000000001</v>
       </c>
       <c r="G175" t="n">
-        <v>10072244.16963806</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6902,22 +6465,19 @@
         <v>5123.0981</v>
       </c>
       <c r="G176" t="n">
-        <v>10077367.26773806</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6939,22 +6499,19 @@
         <v>53062.0819</v>
       </c>
       <c r="G177" t="n">
-        <v>10130429.34963806</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6976,22 +6533,19 @@
         <v>30877.163</v>
       </c>
       <c r="G178" t="n">
-        <v>10161306.51263806</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7013,22 +6567,19 @@
         <v>4555.8746</v>
       </c>
       <c r="G179" t="n">
-        <v>10165862.38723806</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7050,22 +6601,19 @@
         <v>10493.0276</v>
       </c>
       <c r="G180" t="n">
-        <v>10155369.35963807</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7087,22 +6635,19 @@
         <v>100317.1562</v>
       </c>
       <c r="G181" t="n">
-        <v>10255686.51583806</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7124,22 +6669,19 @@
         <v>15099.75</v>
       </c>
       <c r="G182" t="n">
-        <v>10270786.26583806</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7161,22 +6703,19 @@
         <v>21243.2558</v>
       </c>
       <c r="G183" t="n">
-        <v>10249543.01003806</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7198,22 +6737,19 @@
         <v>4646</v>
       </c>
       <c r="G184" t="n">
-        <v>10254189.01003806</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7235,22 +6771,19 @@
         <v>3579.9999</v>
       </c>
       <c r="G185" t="n">
-        <v>10254189.01003806</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7272,22 +6805,19 @@
         <v>299</v>
       </c>
       <c r="G186" t="n">
-        <v>10254189.01003806</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7309,22 +6839,19 @@
         <v>599</v>
       </c>
       <c r="G187" t="n">
-        <v>10254189.01003806</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7346,22 +6873,19 @@
         <v>6253.7554</v>
       </c>
       <c r="G188" t="n">
-        <v>10247935.25463806</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7383,22 +6907,19 @@
         <v>20775.0349</v>
       </c>
       <c r="G189" t="n">
-        <v>10247935.25463806</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7420,22 +6941,19 @@
         <v>10466.795</v>
       </c>
       <c r="G190" t="n">
-        <v>10247935.25463806</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7457,22 +6975,19 @@
         <v>588</v>
       </c>
       <c r="G191" t="n">
-        <v>10247935.25463806</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7494,22 +7009,19 @@
         <v>2057.0641</v>
       </c>
       <c r="G192" t="n">
-        <v>10247935.25463806</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7531,22 +7043,19 @@
         <v>17282.9999</v>
       </c>
       <c r="G193" t="n">
-        <v>10247935.25463806</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7568,22 +7077,19 @@
         <v>12972.8316</v>
       </c>
       <c r="G194" t="n">
-        <v>10247935.25463806</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7605,22 +7111,19 @@
         <v>4929.16</v>
       </c>
       <c r="G195" t="n">
-        <v>10252864.41463806</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7642,22 +7145,19 @@
         <v>7985.739</v>
       </c>
       <c r="G196" t="n">
-        <v>10260850.15363806</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7679,22 +7179,19 @@
         <v>7876.4416</v>
       </c>
       <c r="G197" t="n">
-        <v>10252973.71203806</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7716,22 +7213,19 @@
         <v>8800</v>
       </c>
       <c r="G198" t="n">
-        <v>10252973.71203806</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7753,22 +7247,19 @@
         <v>4506.7466</v>
       </c>
       <c r="G199" t="n">
-        <v>10252973.71203806</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7790,22 +7281,19 @@
         <v>201.8348</v>
       </c>
       <c r="G200" t="n">
-        <v>10252973.71203806</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7827,22 +7315,19 @@
         <v>1689.7032</v>
       </c>
       <c r="G201" t="n">
-        <v>10254663.41523806</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7864,22 +7349,19 @@
         <v>8295.824699999999</v>
       </c>
       <c r="G202" t="n">
-        <v>10262959.23993806</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7901,22 +7383,19 @@
         <v>2000</v>
       </c>
       <c r="G203" t="n">
-        <v>10262959.23993806</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7938,22 +7417,19 @@
         <v>12360.283</v>
       </c>
       <c r="G204" t="n">
-        <v>10262959.23993806</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7975,22 +7451,19 @@
         <v>39081.968</v>
       </c>
       <c r="G205" t="n">
-        <v>10262959.23993806</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8012,22 +7485,19 @@
         <v>11038.4615</v>
       </c>
       <c r="G206" t="n">
-        <v>10262959.23993806</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8049,22 +7519,19 @@
         <v>32991</v>
       </c>
       <c r="G207" t="n">
-        <v>10262959.23993806</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8086,22 +7553,19 @@
         <v>1570.722</v>
       </c>
       <c r="G208" t="n">
-        <v>10264529.96193806</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8123,22 +7587,19 @@
         <v>316.1696</v>
       </c>
       <c r="G209" t="n">
-        <v>10264213.79233806</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8160,22 +7621,19 @@
         <v>515.7806</v>
       </c>
       <c r="G210" t="n">
-        <v>10264213.79233806</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8197,22 +7655,19 @@
         <v>1420.1989</v>
       </c>
       <c r="G211" t="n">
-        <v>10265633.99123806</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8234,22 +7689,19 @@
         <v>539.5158</v>
       </c>
       <c r="G212" t="n">
-        <v>10265633.99123806</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8271,22 +7723,19 @@
         <v>11060.2363</v>
       </c>
       <c r="G213" t="n">
-        <v>10254573.75493806</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8308,22 +7757,19 @@
         <v>999.9999</v>
       </c>
       <c r="G214" t="n">
-        <v>10255573.75483806</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8345,22 +7791,19 @@
         <v>732</v>
       </c>
       <c r="G215" t="n">
-        <v>10255573.75483806</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8382,22 +7825,19 @@
         <v>1054</v>
       </c>
       <c r="G216" t="n">
-        <v>10255573.75483806</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8419,22 +7859,19 @@
         <v>24.3651</v>
       </c>
       <c r="G217" t="n">
-        <v>10255549.38973806</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8456,22 +7893,19 @@
         <v>17426.50137729</v>
       </c>
       <c r="G218" t="n">
-        <v>10272975.89111535</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8493,22 +7927,19 @@
         <v>5741.80966751</v>
       </c>
       <c r="G219" t="n">
-        <v>10278717.70078286</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8530,22 +7961,19 @@
         <v>4006.3603</v>
       </c>
       <c r="G220" t="n">
-        <v>10274711.34048286</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8567,22 +7995,19 @@
         <v>7.729e-05</v>
       </c>
       <c r="G221" t="n">
-        <v>10274711.34048286</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8604,22 +8029,19 @@
         <v>30251.7251</v>
       </c>
       <c r="G222" t="n">
-        <v>10274711.34048286</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8641,22 +8063,19 @@
         <v>3738.1259</v>
       </c>
       <c r="G223" t="n">
-        <v>10274711.34048286</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8678,22 +8097,19 @@
         <v>38685.9677</v>
       </c>
       <c r="G224" t="n">
-        <v>10313397.30818286</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8715,22 +8131,19 @@
         <v>85727.2420552</v>
       </c>
       <c r="G225" t="n">
-        <v>10399124.55023806</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8752,22 +8165,19 @@
         <v>22534.3392</v>
       </c>
       <c r="G226" t="n">
-        <v>10399124.55023806</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8789,22 +8199,19 @@
         <v>64599.5989</v>
       </c>
       <c r="G227" t="n">
-        <v>10463724.14913806</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8826,20 +8233,19 @@
         <v>25459.0457</v>
       </c>
       <c r="G228" t="n">
-        <v>10489183.19483806</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
       </c>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8861,18 +8267,17 @@
         <v>19345.1935</v>
       </c>
       <c r="G229" t="n">
-        <v>10489183.19483806</v>
-      </c>
-      <c r="H229" t="n">
         <v>2</v>
       </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8894,18 +8299,15 @@
         <v>71960.4039</v>
       </c>
       <c r="G230" t="n">
-        <v>10417222.79093806</v>
-      </c>
-      <c r="H230" t="n">
         <v>2</v>
       </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8927,18 +8329,15 @@
         <v>13375</v>
       </c>
       <c r="G231" t="n">
-        <v>10403847.79093806</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8960,18 +8359,15 @@
         <v>12120.2954</v>
       </c>
       <c r="G232" t="n">
-        <v>10415968.08633806</v>
-      </c>
-      <c r="H232" t="n">
         <v>2</v>
       </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8993,18 +8389,15 @@
         <v>5926.1348</v>
       </c>
       <c r="G233" t="n">
-        <v>10415968.08633806</v>
-      </c>
-      <c r="H233" t="n">
         <v>2</v>
       </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9026,18 +8419,15 @@
         <v>5907.7288</v>
       </c>
       <c r="G234" t="n">
-        <v>10421875.81513806</v>
-      </c>
-      <c r="H234" t="n">
         <v>2</v>
       </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9059,18 +8449,15 @@
         <v>246</v>
       </c>
       <c r="G235" t="n">
-        <v>10421629.81513806</v>
-      </c>
-      <c r="H235" t="n">
         <v>2</v>
       </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9092,18 +8479,15 @@
         <v>5304.187</v>
       </c>
       <c r="G236" t="n">
-        <v>10421629.81513806</v>
-      </c>
-      <c r="H236" t="n">
         <v>2</v>
       </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9125,18 +8509,15 @@
         <v>6175.452</v>
       </c>
       <c r="G237" t="n">
-        <v>10415454.36313806</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9158,18 +8539,15 @@
         <v>1489.1452</v>
       </c>
       <c r="G238" t="n">
-        <v>10416943.50833806</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9191,18 +8569,15 @@
         <v>5892.9594</v>
       </c>
       <c r="G239" t="n">
-        <v>10411050.54893806</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9224,18 +8599,15 @@
         <v>34620.0857</v>
       </c>
       <c r="G240" t="n">
-        <v>10411050.54893806</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9257,18 +8629,15 @@
         <v>18623</v>
       </c>
       <c r="G241" t="n">
-        <v>10392427.54893806</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9290,18 +8659,15 @@
         <v>617.6202</v>
       </c>
       <c r="G242" t="n">
-        <v>10393045.16913806</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9323,18 +8689,15 @@
         <v>8235.332399999999</v>
       </c>
       <c r="G243" t="n">
-        <v>10384809.83673806</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9356,18 +8719,15 @@
         <v>12657.6053</v>
       </c>
       <c r="G244" t="n">
-        <v>10372152.23143806</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9389,18 +8749,15 @@
         <v>1102.4449</v>
       </c>
       <c r="G245" t="n">
-        <v>10373254.67633806</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9422,18 +8779,15 @@
         <v>8300</v>
       </c>
       <c r="G246" t="n">
-        <v>10364954.67633806</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9455,18 +8809,15 @@
         <v>591.6552</v>
       </c>
       <c r="G247" t="n">
-        <v>10364363.02113806</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9488,18 +8839,15 @@
         <v>20317.3903</v>
       </c>
       <c r="G248" t="n">
-        <v>10364363.02113806</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9521,18 +8869,15 @@
         <v>1971</v>
       </c>
       <c r="G249" t="n">
-        <v>10366334.02113806</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9554,18 +8899,15 @@
         <v>29990.7676</v>
       </c>
       <c r="G250" t="n">
-        <v>10366334.02113806</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9587,18 +8929,15 @@
         <v>16461.7224</v>
       </c>
       <c r="G251" t="n">
-        <v>10366334.02113806</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9620,18 +8959,15 @@
         <v>10984.635</v>
       </c>
       <c r="G252" t="n">
-        <v>10377318.65613806</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9653,18 +8989,15 @@
         <v>12471.6507</v>
       </c>
       <c r="G253" t="n">
-        <v>10364847.00543806</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9686,18 +9019,15 @@
         <v>3614.395</v>
       </c>
       <c r="G254" t="n">
-        <v>10368461.40043806</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9719,18 +9049,15 @@
         <v>9195.046899999999</v>
       </c>
       <c r="G255" t="n">
-        <v>10368461.40043806</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9752,18 +9079,15 @@
         <v>17965.8528</v>
       </c>
       <c r="G256" t="n">
-        <v>10350495.54763806</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9785,18 +9109,15 @@
         <v>2768.6902</v>
       </c>
       <c r="G257" t="n">
-        <v>10347726.85743806</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9818,18 +9139,15 @@
         <v>11800</v>
       </c>
       <c r="G258" t="n">
-        <v>10347726.85743806</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9851,18 +9169,15 @@
         <v>6709.5992</v>
       </c>
       <c r="G259" t="n">
-        <v>10347726.85743806</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9884,18 +9199,15 @@
         <v>2881.8974009</v>
       </c>
       <c r="G260" t="n">
-        <v>10350608.75483896</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9917,18 +9229,15 @@
         <v>8992.805700000001</v>
       </c>
       <c r="G261" t="n">
-        <v>10359601.56053896</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9950,18 +9259,15 @@
         <v>3595.77582285</v>
       </c>
       <c r="G262" t="n">
-        <v>10363197.33636181</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9983,18 +9289,15 @@
         <v>6898.3812</v>
       </c>
       <c r="G263" t="n">
-        <v>10356298.95516181</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10016,18 +9319,15 @@
         <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>10356299.95516181</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10049,18 +9349,15 @@
         <v>1999</v>
       </c>
       <c r="G265" t="n">
-        <v>10354300.95516181</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10082,18 +9379,15 @@
         <v>1</v>
       </c>
       <c r="G266" t="n">
-        <v>10354301.95516181</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10115,18 +9409,15 @@
         <v>1420.1989</v>
       </c>
       <c r="G267" t="n">
-        <v>10352881.75626181</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10148,18 +9439,15 @@
         <v>838.9999</v>
       </c>
       <c r="G268" t="n">
-        <v>10352881.75626181</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10181,18 +9469,15 @@
         <v>788</v>
       </c>
       <c r="G269" t="n">
-        <v>10352881.75626181</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10214,18 +9499,15 @@
         <v>80</v>
       </c>
       <c r="G270" t="n">
-        <v>10352881.75626181</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10247,18 +9529,15 @@
         <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>10352882.75626181</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10280,18 +9559,15 @@
         <v>60305.8642</v>
       </c>
       <c r="G272" t="n">
-        <v>10292576.89206181</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
